--- a/result/line_ev.xlsx
+++ b/result/line_ev.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5501B74-7E1C-4F36-ABC2-1D2CD003ECBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-2835" yWindow="150" windowWidth="28800" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +137,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -171,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +236,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +288,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,14 +481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,15 +539,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.969656016302309</v>
+        <v>-1.9696560163023089</v>
       </c>
       <c r="C2">
-        <v>-14.86082970847857</v>
+        <v>-14.860829708478571</v>
       </c>
       <c r="D2">
         <v>1.980186462345402</v>
@@ -480,84 +556,84 @@
         <v>14.8662379375575</v>
       </c>
       <c r="F2">
-        <v>0.01053044604309283</v>
+        <v>1.053044604309283E-2</v>
       </c>
       <c r="G2">
-        <v>0.005408229078922133</v>
+        <v>5.4082290789221332E-3</v>
       </c>
       <c r="H2">
-        <v>0.7868124563399219</v>
+        <v>0.78681245633992192</v>
       </c>
       <c r="I2">
-        <v>0.786812456339922</v>
+        <v>0.78681245633992203</v>
       </c>
       <c r="J2">
-        <v>0.786812456339922</v>
+        <v>0.78681245633992203</v>
       </c>
       <c r="K2">
-        <v>1.000000000000005</v>
+        <v>1.0000000000000051</v>
       </c>
       <c r="L2">
-        <v>0.2565816401856923</v>
+        <v>0.25658164018569229</v>
       </c>
       <c r="M2">
-        <v>1.000450150037184</v>
+        <v>1.0004501500371841</v>
       </c>
       <c r="N2">
-        <v>0.219415175218541</v>
+        <v>0.21941517521854101</v>
       </c>
       <c r="O2">
-        <v>52.4541637559948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>52.454163755994799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.833186462339227</v>
+        <v>-1.8331864623392271</v>
       </c>
       <c r="C3">
-        <v>23.57461476134783</v>
+        <v>23.574614761347831</v>
       </c>
       <c r="D3">
         <v>1.859363118300124</v>
       </c>
       <c r="E3">
-        <v>-23.56117094791606</v>
+        <v>-23.561170947916061</v>
       </c>
       <c r="F3">
-        <v>0.02617665596089735</v>
+        <v>2.6176655960897351E-2</v>
       </c>
       <c r="G3">
-        <v>0.01344381343176693</v>
+        <v>1.344381343176693E-2</v>
       </c>
       <c r="H3">
-        <v>1.240523299928625</v>
+        <v>1.2405232999286251</v>
       </c>
       <c r="I3">
-        <v>1.240523299928625</v>
+        <v>1.2405232999286251</v>
       </c>
       <c r="J3">
-        <v>1.240523299928625</v>
+        <v>1.2405232999286251</v>
       </c>
       <c r="K3">
-        <v>1.000450150037184</v>
+        <v>1.0004501500371841</v>
       </c>
       <c r="L3">
-        <v>0.219415175218541</v>
+        <v>0.21941517521854101</v>
       </c>
       <c r="M3">
-        <v>0.9999695787768498</v>
+        <v>0.99996957877684978</v>
       </c>
       <c r="N3">
-        <v>0.285209678733485</v>
+        <v>0.28520967873348502</v>
       </c>
       <c r="O3">
-        <v>82.70155332857502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>82.701553328575017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -565,51 +641,51 @@
         <v>-1.627330709742449</v>
       </c>
       <c r="C4">
-        <v>4.930437760679937</v>
+        <v>4.9304377606799372</v>
       </c>
       <c r="D4">
-        <v>1.628593998018755</v>
+        <v>1.6285939980187549</v>
       </c>
       <c r="E4">
-        <v>-4.929788960775069</v>
+        <v>-4.9297889607750687</v>
       </c>
       <c r="F4">
-        <v>0.001263288276306174</v>
+        <v>1.2632882763061739E-3</v>
       </c>
       <c r="G4">
-        <v>0.0006487999048685467</v>
+        <v>6.4879990486854666E-4</v>
       </c>
       <c r="H4">
-        <v>0.2725204366241165</v>
+        <v>0.27252043662411651</v>
       </c>
       <c r="I4">
-        <v>0.2725204366241165</v>
+        <v>0.27252043662411651</v>
       </c>
       <c r="J4">
-        <v>0.2725204366241165</v>
+        <v>0.27252043662411651</v>
       </c>
       <c r="K4">
-        <v>0.9999695787768498</v>
+        <v>0.99996957877684978</v>
       </c>
       <c r="L4">
-        <v>0.285209678733485</v>
+        <v>0.28520967873348502</v>
       </c>
       <c r="M4">
-        <v>0.9999272134207153</v>
+        <v>0.99992721342071533</v>
       </c>
       <c r="N4">
         <v>0.3006926765643928</v>
       </c>
       <c r="O4">
-        <v>27.25204366241165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>27.252043662411651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.9589522022356752</v>
+        <v>-0.95895220223567523</v>
       </c>
       <c r="C5">
         <v>-8.312225993537087</v>
@@ -618,40 +694,40 @@
         <v>0.9622334398285437</v>
       </c>
       <c r="E5">
-        <v>8.313911172350213</v>
+        <v>8.3139111723502133</v>
       </c>
       <c r="F5">
-        <v>0.003281237592868469</v>
+        <v>3.2812375928684689E-3</v>
       </c>
       <c r="G5">
-        <v>0.001685178813126242</v>
+        <v>1.685178813126242E-3</v>
       </c>
       <c r="H5">
-        <v>0.4392044002120989</v>
+        <v>0.43920440021209889</v>
       </c>
       <c r="I5">
-        <v>0.4392044002120989</v>
+        <v>0.43920440021209889</v>
       </c>
       <c r="J5">
-        <v>0.4392044002120989</v>
+        <v>0.43920440021209889</v>
       </c>
       <c r="K5">
-        <v>0.9999272134207153</v>
+        <v>0.99992721342071533</v>
       </c>
       <c r="L5">
         <v>0.3006926765643928</v>
       </c>
       <c r="M5">
-        <v>1.000172277403533</v>
+        <v>1.0001722774035331</v>
       </c>
       <c r="N5">
-        <v>0.2796999559437522</v>
+        <v>0.27969995594375219</v>
       </c>
       <c r="O5">
-        <v>43.92044002120989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>43.920440021209892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -659,160 +735,160 @@
         <v>-0.8369334398142434</v>
       </c>
       <c r="C6">
-        <v>9.537050423943846</v>
+        <v>9.5370504239438461</v>
       </c>
       <c r="D6">
-        <v>0.8412269051466347</v>
+        <v>0.84122690514663467</v>
       </c>
       <c r="E6">
-        <v>-9.534845384958322</v>
+        <v>-9.5348453849583219</v>
       </c>
       <c r="F6">
-        <v>0.004293465332391277</v>
+        <v>4.2934653323912766E-3</v>
       </c>
       <c r="G6">
-        <v>0.002205038985524155</v>
+        <v>2.2050389855241552E-3</v>
       </c>
       <c r="H6">
-        <v>0.5024025366004422</v>
+        <v>0.50240253660044221</v>
       </c>
       <c r="I6">
         <v>0.5024025366004421</v>
       </c>
       <c r="J6">
-        <v>0.5024025366004422</v>
+        <v>0.50240253660044221</v>
       </c>
       <c r="K6">
-        <v>1.000172277403533</v>
+        <v>1.0001722774035331</v>
       </c>
       <c r="L6">
-        <v>0.2796999559437522</v>
+        <v>0.27969995594375219</v>
       </c>
       <c r="M6">
-        <v>0.9999821177386053</v>
+        <v>0.99998211773860535</v>
       </c>
       <c r="N6">
-        <v>0.3064554297637163</v>
+        <v>0.30645542976371631</v>
       </c>
       <c r="O6">
-        <v>50.24025366004422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>50.240253660044218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.5687263290046891</v>
+        <v>-0.56872632900468911</v>
       </c>
       <c r="C7">
-        <v>-15.7882695674324</v>
+        <v>-15.788269567432399</v>
       </c>
       <c r="D7">
-        <v>0.5804225471005968</v>
+        <v>0.58042254710059682</v>
       </c>
       <c r="E7">
-        <v>15.79427651401005</v>
+        <v>15.794276514010051</v>
       </c>
       <c r="F7">
-        <v>0.01169621809590771</v>
+        <v>1.169621809590771E-2</v>
       </c>
       <c r="G7">
-        <v>0.006006946577652883</v>
+        <v>6.006946577652883E-3</v>
       </c>
       <c r="H7">
-        <v>0.8292215347353982</v>
+        <v>0.82922153473539817</v>
       </c>
       <c r="I7">
-        <v>0.8292215347353983</v>
+        <v>0.82922153473539828</v>
       </c>
       <c r="J7">
-        <v>0.8292215347353983</v>
+        <v>0.82922153473539828</v>
       </c>
       <c r="K7">
-        <v>0.9999821177386053</v>
+        <v>0.99998211773860535</v>
       </c>
       <c r="L7">
-        <v>0.3064554297637163</v>
+        <v>0.30645542976371631</v>
       </c>
       <c r="M7">
         <v>1.000389001114901</v>
       </c>
       <c r="N7">
-        <v>0.2648659055057772</v>
+        <v>0.26486590550577721</v>
       </c>
       <c r="O7">
-        <v>82.92215347353982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>82.922153473539822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.5286225471024499</v>
+        <v>-0.52862254710244994</v>
       </c>
       <c r="C8">
-        <v>-8.070851915706799</v>
+        <v>-8.0708519157067986</v>
       </c>
       <c r="D8">
-        <v>0.5316856229322496</v>
+        <v>0.53168562293224964</v>
       </c>
       <c r="E8">
-        <v>8.07242505094778</v>
+        <v>8.0724250509477802</v>
       </c>
       <c r="F8">
-        <v>0.0030630758297997</v>
+        <v>3.0630758297997E-3</v>
       </c>
       <c r="G8">
-        <v>0.001573135240981571</v>
+        <v>1.5731352409815711E-3</v>
       </c>
       <c r="H8">
-        <v>0.4243524533820048</v>
+        <v>0.42435245338200478</v>
       </c>
       <c r="I8">
-        <v>0.4243524533820047</v>
+        <v>0.42435245338200472</v>
       </c>
       <c r="J8">
-        <v>0.4243524533820048</v>
+        <v>0.42435245338200478</v>
       </c>
       <c r="K8">
         <v>1.000389001114901</v>
       </c>
       <c r="L8">
-        <v>0.2648659055057772</v>
+        <v>0.26486590550577721</v>
       </c>
       <c r="M8">
         <v>1.000607987694502</v>
       </c>
       <c r="N8">
-        <v>0.2439466355203345</v>
+        <v>0.24394663552033449</v>
       </c>
       <c r="O8">
-        <v>42.43524533820048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>42.435245338200481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.4700856229412678</v>
+        <v>-0.47008562294126782</v>
       </c>
       <c r="C9">
         <v>24.17013352705133</v>
       </c>
       <c r="D9">
-        <v>0.497437812915355</v>
+        <v>0.49743781291535499</v>
       </c>
       <c r="E9">
-        <v>-24.15608598257081</v>
+        <v>-24.156085982570811</v>
       </c>
       <c r="F9">
-        <v>0.02735218997408723</v>
+        <v>2.735218997408723E-2</v>
       </c>
       <c r="G9">
-        <v>0.01404754448051904</v>
+        <v>1.404754448051904E-2</v>
       </c>
       <c r="H9">
         <v>1.268071947982768</v>
@@ -827,145 +903,145 @@
         <v>1.000607987694502</v>
       </c>
       <c r="L9">
-        <v>0.2439466355203345</v>
+        <v>0.24394663552033449</v>
       </c>
       <c r="M9">
         <v>1.000049327941527</v>
       </c>
       <c r="N9">
-        <v>0.3094450165229333</v>
+        <v>0.30944501652293332</v>
       </c>
       <c r="O9">
-        <v>84.53812986551789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>84.538129865517888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2246547752231506</v>
+        <v>-0.22465477522315061</v>
       </c>
       <c r="C10">
-        <v>1.50033615190847</v>
+        <v>1.5003361519084699</v>
       </c>
       <c r="D10">
-        <v>0.2247626107179135</v>
+        <v>0.22476261071791351</v>
       </c>
       <c r="E10">
         <v>-1.500280769728443</v>
       </c>
       <c r="F10">
-        <v>0.0001078354947629812</v>
+        <v>1.078354947629812E-4</v>
       </c>
       <c r="G10">
-        <v>5.538218002665296e-05</v>
+        <v>5.5382180026652961E-5</v>
       </c>
       <c r="H10">
-        <v>0.07962119855564029</v>
+        <v>7.9621198555640288E-2</v>
       </c>
       <c r="I10">
-        <v>0.07962119855564026</v>
+        <v>7.962119855564026E-2</v>
       </c>
       <c r="J10">
-        <v>0.07962119855564029</v>
+        <v>7.9621198555640288E-2</v>
       </c>
       <c r="K10">
         <v>1.000049327941527</v>
       </c>
       <c r="L10">
-        <v>0.3094450165229333</v>
+        <v>0.30944501652293332</v>
       </c>
       <c r="M10">
-        <v>1.00002375201699</v>
+        <v>1.0000237520169899</v>
       </c>
       <c r="N10">
-        <v>0.3137826532883912</v>
+        <v>0.31378265328839122</v>
       </c>
       <c r="O10">
-        <v>7.962119855564029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>7.9621198555640289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.08503240854738277</v>
+        <v>-8.5032408547382768E-2</v>
       </c>
       <c r="C11">
-        <v>-1.340273230884191</v>
+        <v>-1.3402732308841909</v>
       </c>
       <c r="D11">
-        <v>0.085400000000894</v>
+        <v>8.5400000000893997E-2</v>
       </c>
       <c r="E11">
-        <v>1.340311108008415</v>
+        <v>1.3403111080084149</v>
       </c>
       <c r="F11">
-        <v>0.000367591453511229</v>
+        <v>3.6759145351122902E-4</v>
       </c>
       <c r="G11">
-        <v>3.787712422442802e-05</v>
+        <v>3.7877124224428023E-5</v>
       </c>
       <c r="H11">
-        <v>0.07048968003929139</v>
+        <v>7.0489680039291389E-2</v>
       </c>
       <c r="I11">
-        <v>0.07048968003929136</v>
+        <v>7.0489680039291361E-2</v>
       </c>
       <c r="J11">
-        <v>0.07048968003929139</v>
+        <v>7.0489680039291389E-2</v>
       </c>
       <c r="K11">
-        <v>0.9999695787768498</v>
+        <v>0.99996957877684978</v>
       </c>
       <c r="L11">
-        <v>0.285209678733485</v>
+        <v>0.28520967873348502</v>
       </c>
       <c r="M11">
         <v>1.000015092464527</v>
       </c>
       <c r="N11">
-        <v>0.2696614157287898</v>
+        <v>0.26966141572878982</v>
       </c>
       <c r="O11">
-        <v>7.048968003929139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>7.0489680039291391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.5226417957841101</v>
+        <v>-0.52264179578411007</v>
       </c>
       <c r="C12">
         <v>1.335130558748741</v>
       </c>
       <c r="D12">
-        <v>0.5231306545177983</v>
+        <v>0.52313065451779828</v>
       </c>
       <c r="E12">
-        <v>-1.335080186078737</v>
+        <v>-1.3350801860787369</v>
       </c>
       <c r="F12">
-        <v>0.0004888587336882022</v>
+        <v>4.8885873368820221E-4</v>
       </c>
       <c r="G12">
-        <v>5.037267000451706e-05</v>
+        <v>5.0372670004517062E-5</v>
       </c>
       <c r="H12">
-        <v>0.07525946573099343</v>
+        <v>7.525946573099343E-2</v>
       </c>
       <c r="I12">
-        <v>0.07525946573099343</v>
+        <v>7.525946573099343E-2</v>
       </c>
       <c r="J12">
-        <v>0.07525946573099343</v>
+        <v>7.525946573099343E-2</v>
       </c>
       <c r="K12">
-        <v>0.9999272134207153</v>
+        <v>0.99992721342071533</v>
       </c>
       <c r="L12">
         <v>0.3006926765643928</v>
@@ -974,80 +1050,80 @@
         <v>1.000018831733837</v>
       </c>
       <c r="N12">
-        <v>0.3196160210935234</v>
+        <v>0.31961602109352338</v>
       </c>
       <c r="O12">
-        <v>7.525946573099343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>7.5259465730993433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.4300306545159774</v>
+        <v>-0.43003065451597738</v>
       </c>
       <c r="C13">
-        <v>5.902790327530329</v>
+        <v>5.9027903275303286</v>
       </c>
       <c r="D13">
-        <v>0.4383588659066814</v>
+        <v>0.43835886590668138</v>
       </c>
       <c r="E13">
-        <v>-5.90193217728119</v>
+        <v>-5.9019321772811901</v>
       </c>
       <c r="F13">
-        <v>0.008328211390703999</v>
+        <v>8.328211390703999E-3</v>
       </c>
       <c r="G13">
-        <v>0.0008581502491384896</v>
+        <v>8.5815024913848958E-4</v>
       </c>
       <c r="H13">
-        <v>0.310631369765026</v>
+        <v>0.31063136976502598</v>
       </c>
       <c r="I13">
-        <v>0.310631369765026</v>
+        <v>0.31063136976502598</v>
       </c>
       <c r="J13">
-        <v>0.310631369765026</v>
+        <v>0.31063136976502598</v>
       </c>
       <c r="K13">
         <v>1.000018831733837</v>
       </c>
       <c r="L13">
-        <v>0.3196160210935234</v>
+        <v>0.31961602109352338</v>
       </c>
       <c r="M13">
-        <v>0.9999774616845927</v>
+        <v>0.99997746168459267</v>
       </c>
       <c r="N13">
         <v>0.4006345237916531</v>
       </c>
       <c r="O13">
-        <v>31.0631369765026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>31.063136976502602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.2913588659084669</v>
+        <v>-0.29135886590846688</v>
       </c>
       <c r="C14">
         <v>2.82651675776984</v>
       </c>
       <c r="D14">
-        <v>0.293278716763164</v>
+        <v>0.29327871676316403</v>
       </c>
       <c r="E14">
-        <v>-2.826318933721917</v>
+        <v>-2.8263189337219168</v>
       </c>
       <c r="F14">
-        <v>0.001919850854697036</v>
+        <v>1.9198508546970361E-3</v>
       </c>
       <c r="G14">
-        <v>0.000197824047923234</v>
+        <v>1.9782404792323399E-4</v>
       </c>
       <c r="H14">
         <v>0.1491431074148746</v>
@@ -1059,74 +1135,74 @@
         <v>0.1491431074148746</v>
       </c>
       <c r="K14">
-        <v>0.9999774616845927</v>
+        <v>0.99997746168459267</v>
       </c>
       <c r="L14">
         <v>0.4006345237916531</v>
       </c>
       <c r="M14">
-        <v>0.999977718681451</v>
+        <v>0.99997771868145102</v>
       </c>
       <c r="N14">
-        <v>0.4395512900307373</v>
+        <v>0.43955129003073728</v>
       </c>
       <c r="O14">
         <v>14.91431074148746</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.1469787167601339</v>
+        <v>-0.14697871676013391</v>
       </c>
       <c r="C15">
-        <v>0.2877911647410692</v>
+        <v>0.28779116474106919</v>
       </c>
       <c r="D15">
-        <v>0.1470000000013943</v>
+        <v>0.14700000000139429</v>
       </c>
       <c r="E15">
         <v>-0.2877889716868906</v>
       </c>
       <c r="F15">
-        <v>2.128324126041137e-05</v>
+        <v>2.1283241260411371E-5</v>
       </c>
       <c r="G15">
-        <v>2.193054178589726e-06</v>
+        <v>2.1930541785897262E-6</v>
       </c>
       <c r="H15">
-        <v>0.01696140095043635</v>
+        <v>1.6961400950436349E-2</v>
       </c>
       <c r="I15">
-        <v>0.01696140095043634</v>
+        <v>1.6961400950436339E-2</v>
       </c>
       <c r="J15">
-        <v>0.01696140095043635</v>
+        <v>1.6961400950436349E-2</v>
       </c>
       <c r="K15">
-        <v>0.999977718681451</v>
+        <v>0.99997771868145102</v>
       </c>
       <c r="L15">
-        <v>0.4395512900307373</v>
+        <v>0.43955129003073728</v>
       </c>
       <c r="M15">
-        <v>1.000001632011111</v>
+        <v>1.0000016320111109</v>
       </c>
       <c r="N15">
-        <v>0.4430887396538484</v>
+        <v>0.44308873965384837</v>
       </c>
       <c r="O15">
-        <v>1.696140095043634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.6961400950436341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.12550057614236</v>
+        <v>-0.12550057614235999</v>
       </c>
       <c r="C16">
         <v>1.560352768446692</v>
@@ -1135,87 +1211,87 @@
         <v>0.1259999999999061</v>
       </c>
       <c r="E16">
-        <v>-1.560301307131931</v>
+        <v>-1.5603013071319309</v>
       </c>
       <c r="F16">
-        <v>0.0004994238575461163</v>
+        <v>4.9942385754611629E-4</v>
       </c>
       <c r="G16">
-        <v>5.146131476152505e-05</v>
+        <v>5.1461314761525052E-5</v>
       </c>
       <c r="H16">
-        <v>0.0821632252730399</v>
+        <v>8.2163225273039903E-2</v>
       </c>
       <c r="I16">
-        <v>0.0821632252730399</v>
+        <v>8.2163225273039903E-2</v>
       </c>
       <c r="J16">
-        <v>0.0821632252730399</v>
+        <v>8.2163225273039903E-2</v>
       </c>
       <c r="K16">
-        <v>0.9999821177386053</v>
+        <v>0.99998211773860535</v>
       </c>
       <c r="L16">
-        <v>0.3064554297637163</v>
+        <v>0.30645542976371631</v>
       </c>
       <c r="M16">
         <v>0.9999749788342307</v>
       </c>
       <c r="N16">
-        <v>0.3248274216069451</v>
+        <v>0.32482742160694511</v>
       </c>
       <c r="O16">
-        <v>8.216322527303991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.2163225273039906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1257830376772825</v>
+        <v>-0.12578303767728249</v>
       </c>
       <c r="C17">
-        <v>1.024138436619454</v>
+        <v>1.0241384366194539</v>
       </c>
       <c r="D17">
-        <v>0.1260000000013914</v>
+        <v>0.12600000000139139</v>
       </c>
       <c r="E17">
-        <v>-1.02411608052596</v>
+        <v>-1.0241160805259599</v>
       </c>
       <c r="F17">
-        <v>0.0002169623241089491</v>
+        <v>2.1696232410894911E-4</v>
       </c>
       <c r="G17">
-        <v>2.235609349421352e-05</v>
+        <v>2.2356093494213521E-5</v>
       </c>
       <c r="H17">
-        <v>0.05415455589972239</v>
+        <v>5.4154555899722387E-2</v>
       </c>
       <c r="I17">
-        <v>0.05415455589972239</v>
+        <v>5.4154555899722387E-2</v>
       </c>
       <c r="J17">
-        <v>0.05415455589972239</v>
+        <v>5.4154555899722387E-2</v>
       </c>
       <c r="K17">
         <v>1.000049327941527</v>
       </c>
       <c r="L17">
-        <v>0.3094450165229333</v>
+        <v>0.30944501652293332</v>
       </c>
       <c r="M17">
         <v>1.000053477955398</v>
       </c>
       <c r="N17">
-        <v>0.3215539537711062</v>
+        <v>0.32155395377110618</v>
       </c>
       <c r="O17">
-        <v>5.415455589972239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>5.4154555899722387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1223,51 +1299,51 @@
         <v>-0.1183626107200928</v>
       </c>
       <c r="C18">
-        <v>6.120652697387862</v>
+        <v>6.1206526973878619</v>
       </c>
       <c r="D18">
-        <v>0.1260000000001461</v>
+        <v>0.12600000000014611</v>
       </c>
       <c r="E18">
-        <v>-6.119865730390271</v>
+        <v>-6.1198657303902708</v>
       </c>
       <c r="F18">
-        <v>0.007637389280053281</v>
+        <v>7.6373892800532814E-3</v>
       </c>
       <c r="G18">
-        <v>0.0007869669975910654</v>
+        <v>7.8696699759106536E-4</v>
       </c>
       <c r="H18">
         <v>0.3213033844033541</v>
       </c>
       <c r="I18">
-        <v>0.3213033844033542</v>
+        <v>0.32130338440335421</v>
       </c>
       <c r="J18">
-        <v>0.3213033844033542</v>
+        <v>0.32130338440335421</v>
       </c>
       <c r="K18">
-        <v>1.00002375201699</v>
+        <v>1.0000237520169899</v>
       </c>
       <c r="L18">
-        <v>0.3137826532883912</v>
+        <v>0.31378265328839122</v>
       </c>
       <c r="M18">
-        <v>0.9999201244175083</v>
+        <v>0.99992012441750833</v>
       </c>
       <c r="N18">
-        <v>0.385399812611717</v>
+        <v>0.38539981261171702</v>
       </c>
       <c r="O18">
-        <v>32.13033844033541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>32.130338440335407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-6.496378232732223</v>
+        <v>-6.4963782327322228</v>
       </c>
       <c r="C19">
         <v>25.8538688138716</v>
@@ -1276,248 +1352,248 @@
         <v>6.806918794577264</v>
       </c>
       <c r="E19">
-        <v>-25.7573161571287</v>
+        <v>-25.757316157128699</v>
       </c>
       <c r="F19">
         <v>0.3105405618450412</v>
       </c>
       <c r="G19">
-        <v>0.09655265674290092</v>
+        <v>9.6552656742900922E-2</v>
       </c>
       <c r="H19">
-        <v>1.398320006464908</v>
+        <v>1.3983200064649079</v>
       </c>
       <c r="I19">
-        <v>1.398320006464909</v>
+        <v>1.3983200064649091</v>
       </c>
       <c r="J19">
-        <v>1.398320006464909</v>
+        <v>1.3983200064649091</v>
       </c>
       <c r="K19">
-        <v>1.00059999999999</v>
+        <v>1.0005999999999899</v>
       </c>
       <c r="L19">
-        <v>0.1767881103517149</v>
+        <v>0.17678811035171491</v>
       </c>
       <c r="M19">
-        <v>1.000000000000003</v>
+        <v>1.0000000000000031</v>
       </c>
       <c r="N19">
-        <v>0.8751270009888641</v>
+        <v>0.87512700098886409</v>
       </c>
       <c r="O19">
-        <v>93.22133376432727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>93.221333764327269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-4.53998579844437</v>
+        <v>-4.5399857984443699</v>
       </c>
       <c r="C20">
-        <v>16.51965073579266</v>
+        <v>16.519650735792659</v>
       </c>
       <c r="D20">
         <v>4.668402632731075</v>
       </c>
       <c r="E20">
-        <v>-16.47972362789014</v>
+        <v>-16.479723627890142</v>
       </c>
       <c r="F20">
-        <v>0.1284168342867051</v>
+        <v>0.12841683428670511</v>
       </c>
       <c r="G20">
-        <v>0.03992710790252119</v>
+        <v>3.9927107902521193E-2</v>
       </c>
       <c r="H20">
-        <v>0.8992043184328528</v>
+        <v>0.89920431843285276</v>
       </c>
       <c r="I20">
-        <v>0.8992043184328528</v>
+        <v>0.89920431843285276</v>
       </c>
       <c r="J20">
-        <v>0.8992043184328528</v>
+        <v>0.89920431843285276</v>
       </c>
       <c r="K20">
-        <v>1.000000000000003</v>
+        <v>1.0000000000000031</v>
       </c>
       <c r="L20">
-        <v>0.8751270009888641</v>
+        <v>0.87512700098886409</v>
       </c>
       <c r="M20">
-        <v>0.9997699007235288</v>
+        <v>0.99976990072352878</v>
       </c>
       <c r="N20">
-        <v>1.32473631091671</v>
+        <v>1.3247363109167101</v>
       </c>
       <c r="O20">
-        <v>89.92043184328527</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>89.920431843285272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-2.266932995872471</v>
+        <v>-2.2669329958724709</v>
       </c>
       <c r="C21">
         <v>8.981667874975436</v>
       </c>
       <c r="D21">
-        <v>2.304476356365843</v>
+        <v>2.3044763563658428</v>
       </c>
       <c r="E21">
-        <v>-8.969994967651655</v>
+        <v>-8.9699949676516546</v>
       </c>
       <c r="F21">
-        <v>0.03754336049337148</v>
+        <v>3.754336049337148E-2</v>
       </c>
       <c r="G21">
-        <v>0.01167290732378135</v>
+        <v>1.167290732378135E-2</v>
       </c>
       <c r="H21">
-        <v>0.4861989044847287</v>
+        <v>0.48619890448472869</v>
       </c>
       <c r="I21">
-        <v>0.4861989044847287</v>
+        <v>0.48619890448472869</v>
       </c>
       <c r="J21">
-        <v>0.4861989044847287</v>
+        <v>0.48619890448472869</v>
       </c>
       <c r="K21">
-        <v>1.000000000000003</v>
+        <v>1.0000000000000031</v>
       </c>
       <c r="L21">
-        <v>0.8751270009888641</v>
+        <v>0.87512700098886409</v>
       </c>
       <c r="M21">
-        <v>0.9997790088075562</v>
+        <v>0.99977900880755621</v>
       </c>
       <c r="N21">
-        <v>1.118003384445054</v>
+        <v>1.1180033844450541</v>
       </c>
       <c r="O21">
-        <v>48.61989044847287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>48.619890448472873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.331597367269573</v>
+        <v>2.3315973672695729</v>
       </c>
       <c r="C22">
-        <v>-7.518183616084294</v>
+        <v>-7.5181836160842943</v>
       </c>
       <c r="D22">
-        <v>-2.30447635636591</v>
+        <v>-2.3044763563659099</v>
       </c>
       <c r="E22">
-        <v>7.526616027105722</v>
+        <v>7.5266160271057219</v>
       </c>
       <c r="F22">
-        <v>0.02712101090366259</v>
+        <v>2.712101090366259E-2</v>
       </c>
       <c r="G22">
-        <v>0.008432411021427555</v>
+        <v>8.4324110214275549E-3</v>
       </c>
       <c r="H22">
-        <v>0.4132380854885229</v>
+        <v>0.41323808548852292</v>
       </c>
       <c r="I22">
-        <v>0.4132380854885229</v>
+        <v>0.41323808548852292</v>
       </c>
       <c r="J22">
-        <v>0.4132380854885229</v>
+        <v>0.41323808548852292</v>
       </c>
       <c r="K22">
-        <v>0.9997699007235288</v>
+        <v>0.99976990072352878</v>
       </c>
       <c r="L22">
-        <v>1.32473631091671</v>
+        <v>1.3247363109167101</v>
       </c>
       <c r="M22">
-        <v>0.9997790088075562</v>
+        <v>0.99977900880755621</v>
       </c>
       <c r="N22">
-        <v>1.118003384445054</v>
+        <v>1.1180033844450541</v>
       </c>
       <c r="O22">
-        <v>41.32380854885229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>41.323808548852291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-5.933941663847328</v>
+        <v>-5.9339416638473281</v>
       </c>
       <c r="C23">
-        <v>18.80572063663734</v>
+        <v>18.805720636637339</v>
       </c>
       <c r="D23">
-        <v>5.981291224466817</v>
+        <v>5.9812912244668173</v>
       </c>
       <c r="E23">
-        <v>-18.77830469214197</v>
+        <v>-18.778304692141969</v>
       </c>
       <c r="F23">
-        <v>0.04734956061948914</v>
+        <v>4.7349560619489139E-2</v>
       </c>
       <c r="G23">
-        <v>0.02741594449536322</v>
+        <v>2.741594449536322E-2</v>
       </c>
       <c r="H23">
-        <v>1.034395488708293</v>
+        <v>1.0343954887082929</v>
       </c>
       <c r="I23">
-        <v>1.034395488708293</v>
+        <v>1.0343954887082929</v>
       </c>
       <c r="J23">
-        <v>1.034395488708293</v>
+        <v>1.0343954887082929</v>
       </c>
       <c r="K23">
-        <v>1.00059999999999</v>
+        <v>1.0005999999999899</v>
       </c>
       <c r="L23">
-        <v>0.1767881103517149</v>
+        <v>0.17678811035171491</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <v>0.332049562827075</v>
+        <v>0.33204956282707498</v>
       </c>
       <c r="O23">
-        <v>68.95969924721955</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>68.959699247219547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-5.981291224431097</v>
+        <v>-5.9812912244310974</v>
       </c>
       <c r="C24">
-        <v>14.60677528292186</v>
+        <v>14.606775282921859</v>
       </c>
       <c r="D24">
-        <v>6.011662890833312</v>
+        <v>6.0116628908333123</v>
       </c>
       <c r="E24">
-        <v>-14.58918973599343</v>
+        <v>-14.589189735993431</v>
       </c>
       <c r="F24">
-        <v>0.03037166640221489</v>
+        <v>3.0371666402214888E-2</v>
       </c>
       <c r="G24">
-        <v>0.01758554692843006</v>
+        <v>1.7585546928430059E-2</v>
       </c>
       <c r="H24">
         <v>0.828443608421223</v>
@@ -1532,74 +1608,74 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.332049562827075</v>
+        <v>0.33204956282707498</v>
       </c>
       <c r="M24">
         <v>0.9997005556993146</v>
       </c>
       <c r="N24">
-        <v>0.4583042731454715</v>
+        <v>0.45830427314547151</v>
       </c>
       <c r="O24">
-        <v>82.8443608421223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>82.844360842122299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-5.611662890810435</v>
+        <v>-5.6116628908104351</v>
       </c>
       <c r="C25">
-        <v>10.80078073478633</v>
+        <v>10.800780734786329</v>
       </c>
       <c r="D25">
-        <v>5.629734254193163</v>
+        <v>5.6297342541931634</v>
       </c>
       <c r="E25">
         <v>-10.79031720589664</v>
       </c>
       <c r="F25">
-        <v>0.01807136338272741</v>
+        <v>1.8071363382727409E-2</v>
       </c>
       <c r="G25">
-        <v>0.0104635288896926</v>
+        <v>1.0463528889692601E-2</v>
       </c>
       <c r="H25">
-        <v>0.639034198683533</v>
+        <v>0.63903419868353295</v>
       </c>
       <c r="I25">
-        <v>0.6390341986835331</v>
+        <v>0.63903419868353306</v>
       </c>
       <c r="J25">
-        <v>0.6390341986835331</v>
+        <v>0.63903419868353306</v>
       </c>
       <c r="K25">
         <v>0.9997005556993146</v>
       </c>
       <c r="L25">
-        <v>0.4583042731454715</v>
+        <v>0.45830427314547151</v>
       </c>
       <c r="M25">
-        <v>0.9996237209868137</v>
+        <v>0.99962372098681374</v>
       </c>
       <c r="N25">
-        <v>0.5565081723526608</v>
+        <v>0.55650817235266081</v>
       </c>
       <c r="O25">
-        <v>63.9034198683533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>63.903419868353303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-3.825183414256306</v>
+        <v>-3.8251834142563061</v>
       </c>
       <c r="C26">
-        <v>-2.943739819673289</v>
+        <v>-2.9437398196732891</v>
       </c>
       <c r="D26">
         <v>3.828025746044895</v>
@@ -1608,60 +1684,60 @@
         <v>2.945385562728426</v>
       </c>
       <c r="F26">
-        <v>0.002842331788588837</v>
+        <v>2.8423317885888371E-3</v>
       </c>
       <c r="G26">
-        <v>0.001645743055137316</v>
+        <v>1.645743055137316E-3</v>
       </c>
       <c r="H26">
-        <v>0.2534346705372836</v>
+        <v>0.25343467053728358</v>
       </c>
       <c r="I26">
-        <v>0.2534346705372836</v>
+        <v>0.25343467053728358</v>
       </c>
       <c r="J26">
-        <v>0.2534346705372836</v>
+        <v>0.25343467053728358</v>
       </c>
       <c r="K26">
-        <v>0.9996237209868137</v>
+        <v>0.99962372098681374</v>
       </c>
       <c r="L26">
-        <v>0.5565081723526608</v>
+        <v>0.55650817235266081</v>
       </c>
       <c r="M26">
-        <v>1.000298092425482</v>
+        <v>1.0002980924254821</v>
       </c>
       <c r="N26">
-        <v>0.551416397521751</v>
+        <v>0.55141639752175098</v>
       </c>
       <c r="O26">
-        <v>25.34346705372836</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>25.343467053728361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-3.428025746044822</v>
+        <v>-3.4280257460448218</v>
       </c>
       <c r="C27">
         <v>6.480484580497814</v>
       </c>
       <c r="D27">
-        <v>3.434574216170169</v>
+        <v>3.4345742161701689</v>
       </c>
       <c r="E27">
-        <v>-6.476692940382528</v>
+        <v>-6.4766929403825282</v>
       </c>
       <c r="F27">
-        <v>0.006548470125347094</v>
+        <v>6.5484701253470936E-3</v>
       </c>
       <c r="G27">
-        <v>0.003791640115285766</v>
+        <v>3.7916401152857659E-3</v>
       </c>
       <c r="H27">
-        <v>0.3846790779666311</v>
+        <v>0.38467907796663109</v>
       </c>
       <c r="I27">
         <v>0.3846790779666312</v>
@@ -1670,69 +1746,69 @@
         <v>0.3846790779666312</v>
       </c>
       <c r="K27">
-        <v>1.000298092425482</v>
+        <v>1.0002980924254821</v>
       </c>
       <c r="L27">
-        <v>0.551416397521751</v>
+        <v>0.55141639752175098</v>
       </c>
       <c r="M27">
-        <v>1.000259107248881</v>
+        <v>1.0002591072488809</v>
       </c>
       <c r="N27">
-        <v>0.6105129068300065</v>
+        <v>0.61051290683000647</v>
       </c>
       <c r="O27">
         <v>38.46790779666312</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-2.318502896601553</v>
+        <v>-2.3185028966015531</v>
       </c>
       <c r="C28">
-        <v>3.251698579429019</v>
+        <v>3.2516985794290192</v>
       </c>
       <c r="D28">
-        <v>2.320446217423659</v>
+        <v>2.3204462174236591</v>
       </c>
       <c r="E28">
-        <v>-3.250573374145202</v>
+        <v>-3.2505733741452021</v>
       </c>
       <c r="F28">
-        <v>0.001943320822105576</v>
+        <v>1.943320822105576E-3</v>
       </c>
       <c r="G28">
-        <v>0.001125205283817543</v>
+        <v>1.125205283817543E-3</v>
       </c>
       <c r="H28">
-        <v>0.2095563826868735</v>
+        <v>0.20955638268687349</v>
       </c>
       <c r="I28">
-        <v>0.2095563826868735</v>
+        <v>0.20955638268687349</v>
       </c>
       <c r="J28">
-        <v>0.2095563826868735</v>
+        <v>0.20955638268687349</v>
       </c>
       <c r="K28">
-        <v>1.000259107248881</v>
+        <v>1.0002591072488809</v>
       </c>
       <c r="L28">
-        <v>0.6105129068300065</v>
+        <v>0.61051290683000647</v>
       </c>
       <c r="M28">
-        <v>1.0003123698546</v>
+        <v>1.0003123698545999</v>
       </c>
       <c r="N28">
-        <v>0.6425840684654638</v>
+        <v>0.64258406846546379</v>
       </c>
       <c r="O28">
-        <v>20.95563826868735</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>20.955638268687348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1740,19 +1816,19 @@
         <v>-1.920446217418893</v>
       </c>
       <c r="C29">
-        <v>-0.7907390675160533</v>
+        <v>-0.79073906751605327</v>
       </c>
       <c r="D29">
         <v>1.920971729531221</v>
       </c>
       <c r="E29">
-        <v>0.7910433451210561</v>
+        <v>0.79104334512105612</v>
       </c>
       <c r="F29">
-        <v>0.0005255121123284301</v>
+        <v>5.2551211232843009E-4</v>
       </c>
       <c r="G29">
-        <v>0.0003042776050028451</v>
+        <v>3.0427760500284512E-4</v>
       </c>
       <c r="H29">
         <v>0.1089732758204013</v>
@@ -1764,22 +1840,22 @@
         <v>0.1089732758204013</v>
       </c>
       <c r="K29">
-        <v>1.0003123698546</v>
+        <v>1.0003123698545999</v>
       </c>
       <c r="L29">
-        <v>0.6425840684654638</v>
+        <v>0.64258406846546379</v>
       </c>
       <c r="M29">
-        <v>1.000602215656173</v>
+        <v>1.0006022156561729</v>
       </c>
       <c r="N29">
-        <v>0.6448257107274918</v>
+        <v>0.64482571072749184</v>
       </c>
       <c r="O29">
-        <v>10.89732758204013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>10.897327582040131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1787,78 +1863,78 @@
         <v>-1.520971729530938</v>
       </c>
       <c r="C30">
-        <v>17.60724068706454</v>
+        <v>17.607240687064539</v>
       </c>
       <c r="D30">
-        <v>1.559001568043561</v>
+        <v>1.5590015680435609</v>
       </c>
       <c r="E30">
-        <v>-17.58522096970733</v>
+        <v>-17.585220969707329</v>
       </c>
       <c r="F30">
-        <v>0.03802983851262365</v>
+        <v>3.8029838512623648E-2</v>
       </c>
       <c r="G30">
-        <v>0.02201971735721742</v>
+        <v>2.201971735721742E-2</v>
       </c>
       <c r="H30">
-        <v>0.9270237948576148</v>
+        <v>0.92702379485761477</v>
       </c>
       <c r="I30">
-        <v>0.9270237948576149</v>
+        <v>0.92702379485761488</v>
       </c>
       <c r="J30">
-        <v>0.9270237948576149</v>
+        <v>0.92702379485761488</v>
       </c>
       <c r="K30">
-        <v>1.000602215656173</v>
+        <v>1.0006022156561729</v>
       </c>
       <c r="L30">
-        <v>0.6448257107274918</v>
+        <v>0.64482571072749184</v>
       </c>
       <c r="M30">
-        <v>0.9995479719766683</v>
+        <v>0.99954797197666834</v>
       </c>
       <c r="N30">
         <v>0.7739421663889513</v>
       </c>
       <c r="O30">
-        <v>92.70237948576148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>92.702379485761483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.6634579455035117</v>
+        <v>-0.66345794550351167</v>
       </c>
       <c r="C31">
-        <v>-5.603036586271164</v>
+        <v>-5.6030365862711644</v>
       </c>
       <c r="D31">
-        <v>0.6673423342399455</v>
+        <v>0.66734233423994549</v>
       </c>
       <c r="E31">
-        <v>5.605285692379082</v>
+        <v>5.6052856923790824</v>
       </c>
       <c r="F31">
-        <v>0.003884388736433819</v>
+        <v>3.8843887364338192E-3</v>
       </c>
       <c r="G31">
-        <v>0.002249106107917953</v>
+        <v>2.2491061079179531E-3</v>
       </c>
       <c r="H31">
-        <v>0.2962715736128435</v>
+        <v>0.29627157361284351</v>
       </c>
       <c r="I31">
-        <v>0.2962715736128435</v>
+        <v>0.29627157361284351</v>
       </c>
       <c r="J31">
-        <v>0.2962715736128435</v>
+        <v>0.29627157361284351</v>
       </c>
       <c r="K31">
-        <v>0.9995479719766683</v>
+        <v>0.99954797197666834</v>
       </c>
       <c r="L31">
         <v>0.7739421663889513</v>
@@ -1873,7 +1949,7 @@
         <v>29.62715736128435</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1890,57 +1966,57 @@
         <v>-5.685706163114677</v>
       </c>
       <c r="F32">
-        <v>0.01125006185642197</v>
+        <v>1.125006185642197E-2</v>
       </c>
       <c r="G32">
-        <v>0.002734360457266938</v>
+        <v>2.7343604572669382E-3</v>
       </c>
       <c r="H32">
-        <v>0.3076480109226357</v>
+        <v>0.30764801092263572</v>
       </c>
       <c r="I32">
-        <v>0.3076480109226356</v>
+        <v>0.30764801092263561</v>
       </c>
       <c r="J32">
-        <v>0.3076480109226357</v>
+        <v>0.30764801092263572</v>
       </c>
       <c r="K32">
-        <v>0.9996237209868137</v>
+        <v>0.99962372098681374</v>
       </c>
       <c r="L32">
-        <v>0.5565081723526608</v>
+        <v>0.55650817235266081</v>
       </c>
       <c r="M32">
         <v>0.999632865393144</v>
       </c>
       <c r="N32">
-        <v>0.6697196078480698</v>
+        <v>0.66971960784806983</v>
       </c>
       <c r="O32">
-        <v>30.76480109226357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>30.764801092263571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.3644400132355801</v>
+        <v>-0.36444001323558012</v>
       </c>
       <c r="C33">
-        <v>2.25763642132374</v>
+        <v>2.2576364213237401</v>
       </c>
       <c r="D33">
-        <v>0.3661537298329814</v>
+        <v>0.36615372983298139</v>
       </c>
       <c r="E33">
-        <v>-2.257219897489588</v>
+        <v>-2.2572198974895881</v>
       </c>
       <c r="F33">
-        <v>0.001713716597401327</v>
+        <v>1.7137165974013271E-3</v>
       </c>
       <c r="G33">
-        <v>0.0004165238341524713</v>
+        <v>4.165238341524713E-4</v>
       </c>
       <c r="H33">
         <v>0.1200732201552039</v>
@@ -1955,113 +2031,113 @@
         <v>0.999632865393144</v>
       </c>
       <c r="L33">
-        <v>0.6697196078480698</v>
+        <v>0.66971960784806983</v>
       </c>
       <c r="M33">
-        <v>0.9995727952059287</v>
+        <v>0.99957279520592868</v>
       </c>
       <c r="N33">
-        <v>0.7137726112530212</v>
+        <v>0.71377261125302116</v>
       </c>
       <c r="O33">
-        <v>12.00732201552039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>12.007322015520391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.3994223510883587</v>
+        <v>-0.39942235108835872</v>
       </c>
       <c r="C34">
-        <v>0.9973733723822326</v>
+        <v>0.99737337238223256</v>
       </c>
       <c r="D34">
-        <v>0.4000000000005499</v>
+        <v>0.40000000000054992</v>
       </c>
       <c r="E34">
-        <v>-0.9972776179163498</v>
+        <v>-0.99727761791634983</v>
       </c>
       <c r="F34">
-        <v>0.0005776489121911421</v>
+        <v>5.7764891219114212E-4</v>
       </c>
       <c r="G34">
-        <v>9.575446588272474e-05</v>
+        <v>9.5754465882724737E-5</v>
       </c>
       <c r="H34">
-        <v>0.05641441331729032</v>
+        <v>5.6414413317290323E-2</v>
       </c>
       <c r="I34">
-        <v>0.05641441331729032</v>
+        <v>5.6414413317290323E-2</v>
       </c>
       <c r="J34">
-        <v>0.05641441331729032</v>
+        <v>5.6414413317290323E-2</v>
       </c>
       <c r="K34">
-        <v>0.9995727952059287</v>
+        <v>0.99957279520592868</v>
       </c>
       <c r="L34">
-        <v>0.7137726112530212</v>
+        <v>0.71377261125302116</v>
       </c>
       <c r="M34">
-        <v>0.9996900346867544</v>
+        <v>0.99969003468675444</v>
       </c>
       <c r="N34">
         <v>0.7442650264093551</v>
       </c>
       <c r="O34">
-        <v>5.641441331729031</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>5.6414413317290313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0332686212533525</v>
+        <v>3.3268621253352497E-2</v>
       </c>
       <c r="C35">
-        <v>-8.153416398015811</v>
+        <v>-8.1534163980158105</v>
       </c>
       <c r="D35">
-        <v>2.299549439754855e-14</v>
+        <v>2.2995494397548549E-14</v>
       </c>
       <c r="E35">
-        <v>8.158931199466201</v>
+        <v>8.1589311994662008</v>
       </c>
       <c r="F35">
-        <v>0.0332686212533755</v>
+        <v>3.3268621253375499E-2</v>
       </c>
       <c r="G35">
-        <v>0.005514801450390294</v>
+        <v>5.5148014503902942E-3</v>
       </c>
       <c r="H35">
-        <v>0.4281298390112301</v>
+        <v>0.42812983901123008</v>
       </c>
       <c r="I35">
-        <v>0.42812983901123</v>
+        <v>0.42812983901122997</v>
       </c>
       <c r="J35">
-        <v>0.4281298390112301</v>
+        <v>0.42812983901123008</v>
       </c>
       <c r="K35">
-        <v>0.9995727952059287</v>
+        <v>0.99957279520592868</v>
       </c>
       <c r="L35">
-        <v>0.7137726112530212</v>
+        <v>0.71377261125302116</v>
       </c>
       <c r="M35">
-        <v>1.000240558966567</v>
+        <v>1.0002405589665671</v>
       </c>
       <c r="N35">
-        <v>0.4799882788291929</v>
+        <v>0.47998827882919293</v>
       </c>
       <c r="O35">
-        <v>42.81298390112301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>42.812983901123012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2069,310 +2145,310 @@
         <v>-0.6513608885284432</v>
       </c>
       <c r="C36">
-        <v>-9.837729918377788</v>
+        <v>-9.8377299183777875</v>
       </c>
       <c r="D36">
-        <v>0.7000000000004125</v>
+        <v>0.70000000000041251</v>
       </c>
       <c r="E36">
-        <v>9.845792622282723</v>
+        <v>9.8457926222827226</v>
       </c>
       <c r="F36">
-        <v>0.04863911147196931</v>
+        <v>4.863911147196931E-2</v>
       </c>
       <c r="G36">
-        <v>0.00806270390493502</v>
+        <v>8.0627039049350202E-3</v>
       </c>
       <c r="H36">
         <v>0.5176675147517108</v>
       </c>
       <c r="I36">
-        <v>0.5176675147517109</v>
+        <v>0.51766751475171091</v>
       </c>
       <c r="J36">
-        <v>0.5176675147517109</v>
+        <v>0.51766751475171091</v>
       </c>
       <c r="K36">
         <v>0.999632865393144</v>
       </c>
       <c r="L36">
-        <v>0.6697196078480698</v>
+        <v>0.66971960784806983</v>
       </c>
       <c r="M36">
-        <v>1.00078619700971</v>
+        <v>1.0007861970097101</v>
       </c>
       <c r="N36">
-        <v>0.3910935910155853</v>
+        <v>0.39109359101558527</v>
       </c>
       <c r="O36">
-        <v>51.76675147517109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>51.766751475171091</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.7160713195619561</v>
+        <v>-0.71607131956195613</v>
       </c>
       <c r="C37">
-        <v>1.065974707337301</v>
+        <v>1.0659747073373009</v>
       </c>
       <c r="D37">
-        <v>0.7166110184792679</v>
+        <v>0.71661101847926789</v>
       </c>
       <c r="E37">
-        <v>-1.065843531936031</v>
+        <v>-1.0658435319360311</v>
       </c>
       <c r="F37">
-        <v>0.0005396989173117595</v>
+        <v>5.3969891731175945E-4</v>
       </c>
       <c r="G37">
-        <v>0.0001311754012698341</v>
+        <v>1.311754012698341E-4</v>
       </c>
       <c r="H37">
-        <v>0.06738332384159823</v>
+        <v>6.7383323841598231E-2</v>
       </c>
       <c r="I37">
-        <v>0.0673833238415982</v>
+        <v>6.7383323841598203E-2</v>
       </c>
       <c r="J37">
-        <v>0.06738332384159823</v>
+        <v>6.7383323841598231E-2</v>
       </c>
       <c r="K37">
-        <v>1.000259107248881</v>
+        <v>1.0002591072488809</v>
       </c>
       <c r="L37">
-        <v>0.6105129068300065</v>
+        <v>0.61051290683000647</v>
       </c>
       <c r="M37">
         <v>1.00040878824371</v>
       </c>
       <c r="N37">
-        <v>0.6337617132548846</v>
+        <v>0.63376171325488462</v>
       </c>
       <c r="O37">
-        <v>6.738332384159823</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>6.7383323841598228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.009726833712243739</v>
+        <v>9.7268337122437386E-3</v>
       </c>
       <c r="C38">
-        <v>-0.8786425416990412</v>
+        <v>-0.87864254169904121</v>
       </c>
       <c r="D38">
-        <v>-0.009474216615380558</v>
+        <v>-9.4742166153805579E-3</v>
       </c>
       <c r="E38">
         <v>0.8787039410237123</v>
       </c>
       <c r="F38">
-        <v>0.0002526170968631808</v>
+        <v>2.5261709686318079E-4</v>
       </c>
       <c r="G38">
-        <v>6.139932467108533e-05</v>
+        <v>6.1399324671085331E-5</v>
       </c>
       <c r="H38">
-        <v>0.04610075375842481</v>
+        <v>4.610075375842481E-2</v>
       </c>
       <c r="I38">
-        <v>0.04610075375842481</v>
+        <v>4.610075375842481E-2</v>
       </c>
       <c r="J38">
-        <v>0.04610075375842481</v>
+        <v>4.610075375842481E-2</v>
       </c>
       <c r="K38">
         <v>1.00040878824371</v>
       </c>
       <c r="L38">
-        <v>0.6337617132548846</v>
+        <v>0.63376171325488462</v>
       </c>
       <c r="M38">
         <v>1.000475545840634</v>
       </c>
       <c r="N38">
-        <v>0.6172474986304173</v>
+        <v>0.61724749863041728</v>
       </c>
       <c r="O38">
-        <v>4.610075375842481</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>4.6100753758424808</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.3263378521843497</v>
+        <v>-0.32633785218434969</v>
       </c>
       <c r="C39">
         <v>12.13819738165987</v>
       </c>
       <c r="D39">
-        <v>0.4000000000013817</v>
+        <v>0.40000000000138169</v>
       </c>
       <c r="E39">
-        <v>-12.12598671273775</v>
+        <v>-12.125986712737751</v>
       </c>
       <c r="F39">
-        <v>0.07366214781703195</v>
+        <v>7.3662147817031953E-2</v>
       </c>
       <c r="G39">
-        <v>0.01221066892211553</v>
+        <v>1.2210668922115531E-2</v>
       </c>
       <c r="H39">
-        <v>0.6370599233202426</v>
+        <v>0.63705992332024264</v>
       </c>
       <c r="I39">
-        <v>0.6370599233202426</v>
+        <v>0.63705992332024264</v>
       </c>
       <c r="J39">
-        <v>0.6370599233202426</v>
+        <v>0.63705992332024264</v>
       </c>
       <c r="K39">
         <v>1.00040878824371</v>
       </c>
       <c r="L39">
-        <v>0.6337617132548846</v>
+        <v>0.63376171325488462</v>
       </c>
       <c r="M39">
-        <v>0.9995848131452169</v>
+        <v>0.99958481314521686</v>
       </c>
       <c r="N39">
-        <v>0.9830554117016604</v>
+        <v>0.98305541170166044</v>
       </c>
       <c r="O39">
-        <v>63.70599233202427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>63.705992332024273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.009474216615621533</v>
+        <v>9.4742166156215335E-3</v>
       </c>
       <c r="C40">
-        <v>4.35500355504382</v>
+        <v>4.3550035550438198</v>
       </c>
       <c r="D40">
-        <v>8.506181869982754e-13</v>
+        <v>8.5061818699827541E-13</v>
       </c>
       <c r="E40">
-        <v>-4.353433053424895</v>
+        <v>-4.3534330534248946</v>
       </c>
       <c r="F40">
-        <v>0.009474216616472152</v>
+        <v>9.4742166164721517E-3</v>
       </c>
       <c r="G40">
-        <v>0.001570501618925135</v>
+        <v>1.5705016189251351E-3</v>
       </c>
       <c r="H40">
         <v>0.2284702995983518</v>
       </c>
       <c r="I40">
-        <v>0.2284702995983519</v>
+        <v>0.22847029959835191</v>
       </c>
       <c r="J40">
-        <v>0.2284702995983519</v>
+        <v>0.22847029959835191</v>
       </c>
       <c r="K40">
         <v>1.000475545840634</v>
       </c>
       <c r="L40">
-        <v>0.6172474986304173</v>
+        <v>0.61724749863041728</v>
       </c>
       <c r="M40">
         <v>1.00011238767836</v>
       </c>
       <c r="N40">
-        <v>0.7418930386632048</v>
+        <v>0.74189303866320477</v>
       </c>
       <c r="O40">
         <v>22.84702995983519</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.4955436225395021</v>
+        <v>-0.49554362253950213</v>
       </c>
       <c r="C41">
-        <v>2.942615919031294</v>
+        <v>2.9426159190312942</v>
       </c>
       <c r="D41">
-        <v>0.4999999999996488</v>
+        <v>0.49999999999964878</v>
       </c>
       <c r="E41">
-        <v>-2.941877203810921</v>
+        <v>-2.9418772038109209</v>
       </c>
       <c r="F41">
-        <v>0.004456377460146765</v>
+        <v>4.4563774601467654E-3</v>
       </c>
       <c r="G41">
-        <v>0.000738715220372832</v>
+        <v>7.3871522037283199E-4</v>
       </c>
       <c r="H41">
-        <v>0.1566928142220619</v>
+        <v>0.15669281422206191</v>
       </c>
       <c r="I41">
-        <v>0.1566928142220619</v>
+        <v>0.15669281422206191</v>
       </c>
       <c r="J41">
-        <v>0.1566928142220619</v>
+        <v>0.15669281422206191</v>
       </c>
       <c r="K41">
-        <v>0.9995479719766683</v>
+        <v>0.99954797197666834</v>
       </c>
       <c r="L41">
         <v>0.7739421663889513</v>
       </c>
       <c r="M41">
-        <v>0.9995529982161134</v>
+        <v>0.99955299821611343</v>
       </c>
       <c r="N41">
-        <v>0.8606745840516252</v>
+        <v>0.86067458405162522</v>
       </c>
       <c r="O41">
         <v>15.66928142220619</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.2673423342425764</v>
+        <v>-0.26734233424257642</v>
       </c>
       <c r="C42">
-        <v>8.077500601405706</v>
+        <v>8.0775006014057062</v>
       </c>
       <c r="D42">
-        <v>0.3000000000007288</v>
+        <v>0.30000000000072879</v>
       </c>
       <c r="E42">
-        <v>-8.072087075515416</v>
+        <v>-8.0720870755154159</v>
       </c>
       <c r="F42">
-        <v>0.03265766575815243</v>
+        <v>3.2657665758152432E-2</v>
       </c>
       <c r="G42">
-        <v>0.005413525890290316</v>
+        <v>5.4135258902903161E-3</v>
       </c>
       <c r="H42">
-        <v>0.424180467148651</v>
+        <v>0.42418046714865099</v>
       </c>
       <c r="I42">
-        <v>0.424180467148651</v>
+        <v>0.42418046714865099</v>
       </c>
       <c r="J42">
-        <v>0.424180467148651</v>
+        <v>0.42418046714865099</v>
       </c>
       <c r="K42">
         <v>1.000024771832482</v>
@@ -2381,48 +2457,48 @@
         <v>0.7374733031486479</v>
       </c>
       <c r="M42">
-        <v>0.9994972100534644</v>
+        <v>0.99949721005346437</v>
       </c>
       <c r="N42">
-        <v>0.9702619824630725</v>
+        <v>0.97026198246307249</v>
       </c>
       <c r="O42">
-        <v>42.41804671486511</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>42.418046714865113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.3689708682465339</v>
+        <v>-0.36897086824653391</v>
       </c>
       <c r="C43">
-        <v>-28.33200345272522</v>
+        <v>-28.332003452725221</v>
       </c>
       <c r="D43">
-        <v>0.4065914850263901</v>
+        <v>0.40659148502639009</v>
       </c>
       <c r="E43">
-        <v>28.35132465838006</v>
+        <v>28.351324658380062</v>
       </c>
       <c r="F43">
-        <v>0.03762061677985623</v>
+        <v>3.7620616779856231E-2</v>
       </c>
       <c r="G43">
-        <v>0.01932120565483686</v>
+        <v>1.9321205654836859E-2</v>
       </c>
       <c r="H43">
-        <v>1.487170626215741</v>
+        <v>1.4871706262157409</v>
       </c>
       <c r="I43">
-        <v>1.487170626215741</v>
+        <v>1.4871706262157409</v>
       </c>
       <c r="J43">
-        <v>1.487170626215741</v>
+        <v>1.4871706262157409</v>
       </c>
       <c r="K43">
-        <v>1.000000000000001</v>
+        <v>1.0000000000000011</v>
       </c>
       <c r="L43">
         <v>0.2460395791768947</v>
@@ -2431,86 +2507,86 @@
         <v>1.000700000000011</v>
       </c>
       <c r="N43">
-        <v>0.1705339493843857</v>
+        <v>0.17053394938438571</v>
       </c>
       <c r="O43">
-        <v>74.35853131078704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>74.358531310787043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.08917600389059364</v>
+        <v>-8.9176003890593644E-2</v>
       </c>
       <c r="C44">
         <v>12.65537266146932</v>
       </c>
       <c r="D44">
-        <v>0.09667082599781729</v>
+        <v>9.6670825997817289E-2</v>
       </c>
       <c r="E44">
-        <v>-12.65152346888092</v>
+        <v>-12.651523468880921</v>
       </c>
       <c r="F44">
-        <v>0.007494822107223645</v>
+        <v>7.4948221072236448E-3</v>
       </c>
       <c r="G44">
-        <v>0.003849192588400996</v>
+        <v>3.8491925884009959E-3</v>
       </c>
       <c r="H44">
-        <v>0.6637866409594944</v>
+        <v>0.66378664095949436</v>
       </c>
       <c r="I44">
-        <v>0.6637866409594944</v>
+        <v>0.66378664095949436</v>
       </c>
       <c r="J44">
-        <v>0.6637866409594944</v>
+        <v>0.66378664095949436</v>
       </c>
       <c r="K44">
         <v>1.000700000000011</v>
       </c>
       <c r="L44">
-        <v>0.1705339493843857</v>
+        <v>0.17053394938438571</v>
       </c>
       <c r="M44">
         <v>1.000399999999986</v>
       </c>
       <c r="N44">
-        <v>0.2045972361430466</v>
+        <v>0.20459723614304659</v>
       </c>
       <c r="O44">
-        <v>66.37866409594943</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>66.378664095949432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.06167082599218864</v>
+        <v>-6.1670825992188642E-2</v>
       </c>
       <c r="C45">
-        <v>-4.03607077966674</v>
+        <v>-4.0360707796667397</v>
       </c>
       <c r="D45">
-        <v>0.06243372887399964</v>
+        <v>6.2433728873999637E-2</v>
       </c>
       <c r="E45">
-        <v>4.036462591517152</v>
+        <v>4.0364625915171519</v>
       </c>
       <c r="F45">
-        <v>0.000762902881811002</v>
+        <v>7.6290288181100202E-4</v>
       </c>
       <c r="G45">
-        <v>0.0003918118504122603</v>
+        <v>3.918118504122603E-4</v>
       </c>
       <c r="H45">
         <v>0.2117787940329742</v>
       </c>
       <c r="I45">
-        <v>0.2117787940329741</v>
+        <v>0.21177879403297409</v>
       </c>
       <c r="J45">
         <v>0.2117787940329742</v>
@@ -2519,86 +2595,86 @@
         <v>1.000399999999986</v>
       </c>
       <c r="L45">
-        <v>0.2045972361430466</v>
+        <v>0.20459723614304659</v>
       </c>
       <c r="M45">
-        <v>1.000499999999998</v>
+        <v>1.0004999999999979</v>
       </c>
       <c r="N45">
-        <v>0.1938556907450474</v>
+        <v>0.19385569074504741</v>
       </c>
       <c r="O45">
-        <v>21.17787940329742</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>21.177879403297421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.03243372887368372</v>
+        <v>-3.2433728873683718E-2</v>
       </c>
       <c r="C46">
-        <v>12.54223486706833</v>
+        <v>12.542234867068331</v>
       </c>
       <c r="D46">
-        <v>0.03979777101532832</v>
+        <v>3.9797771015328318E-2</v>
       </c>
       <c r="E46">
-        <v>-12.53845284048695</v>
+        <v>-12.538452840486951</v>
       </c>
       <c r="F46">
-        <v>0.007364042141644607</v>
+        <v>7.364042141644607E-3</v>
       </c>
       <c r="G46">
-        <v>0.003782026581385267</v>
+        <v>3.7820265813852671E-3</v>
       </c>
       <c r="H46">
-        <v>0.6579698231397176</v>
+        <v>0.65796982313971764</v>
       </c>
       <c r="I46">
-        <v>0.6579698231397176</v>
+        <v>0.65796982313971764</v>
       </c>
       <c r="J46">
-        <v>0.6579698231397176</v>
+        <v>0.65796982313971764</v>
       </c>
       <c r="K46">
-        <v>1.000499999999998</v>
+        <v>1.0004999999999979</v>
       </c>
       <c r="L46">
-        <v>0.1938556907450474</v>
+        <v>0.19385569074504741</v>
       </c>
       <c r="M46">
         <v>1.000199999999998</v>
       </c>
       <c r="N46">
-        <v>0.2275508672083983</v>
+        <v>0.22755086720839829</v>
       </c>
       <c r="O46">
-        <v>65.79698231397177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>65.796982313971768</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0002022289839227875</v>
+        <v>2.022289839227875E-4</v>
       </c>
       <c r="C47">
-        <v>2.077828520451609</v>
+        <v>2.0778285204516092</v>
       </c>
       <c r="D47">
-        <v>-5.856738705123377e-13</v>
+        <v>-5.8567387051233766E-13</v>
       </c>
       <c r="E47">
-        <v>-2.077724659640413</v>
+        <v>-2.0777246596404129</v>
       </c>
       <c r="F47">
-        <v>0.0002022289833371136</v>
+        <v>2.022289833371136E-4</v>
       </c>
       <c r="G47">
-        <v>0.0001038608111958439</v>
+        <v>1.0386081119584389E-4</v>
       </c>
       <c r="H47">
         <v>0.1090359074816334</v>
@@ -2613,42 +2689,42 @@
         <v>1.000199999999998</v>
       </c>
       <c r="L47">
-        <v>0.2275508672083983</v>
+        <v>0.22755086720839829</v>
       </c>
       <c r="M47">
         <v>1.000150000000003</v>
       </c>
       <c r="N47">
-        <v>0.2331272981264474</v>
+        <v>0.23312729812644739</v>
       </c>
       <c r="O47">
-        <v>10.90359074816334</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>10.903590748163341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.3174154811330763</v>
+        <v>-0.31741548113307633</v>
       </c>
       <c r="C48">
-        <v>28.5149972680242</v>
+        <v>28.514997268024199</v>
       </c>
       <c r="D48">
-        <v>0.355468609673286</v>
+        <v>0.35546860967328597</v>
       </c>
       <c r="E48">
-        <v>-28.4954539328727</v>
+        <v>-28.495453932872699</v>
       </c>
       <c r="F48">
-        <v>0.0380531285402097</v>
+        <v>3.8053128540209702E-2</v>
       </c>
       <c r="G48">
-        <v>0.01954333515150708</v>
+        <v>1.954333515150708E-2</v>
       </c>
       <c r="H48">
-        <v>1.495694949756918</v>
+        <v>1.4956949497569181</v>
       </c>
       <c r="I48">
         <v>1.495694949756919</v>
@@ -2660,10 +2736,10 @@
         <v>1.000700000000011</v>
       </c>
       <c r="L48">
-        <v>0.1705339493843857</v>
+        <v>0.17053394938438571</v>
       </c>
       <c r="M48">
-        <v>1.000030000000003</v>
+        <v>1.0000300000000031</v>
       </c>
       <c r="N48">
         <v>0.2474740269112321</v>
@@ -2672,148 +2748,148 @@
         <v>74.78474748784592</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.3104686096779249</v>
+        <v>-0.31046860967792489</v>
       </c>
       <c r="C49">
-        <v>-0.4758667799753915</v>
+        <v>-0.47586677997539151</v>
       </c>
       <c r="D49">
-        <v>0.3104837368902439</v>
+        <v>0.31048373689024389</v>
       </c>
       <c r="E49">
-        <v>0.4758745490128294</v>
+        <v>0.47587454901282938</v>
       </c>
       <c r="F49">
-        <v>1.512721231905489e-05</v>
+        <v>1.512721231905489E-5</v>
       </c>
       <c r="G49">
-        <v>7.769037437876936e-06</v>
+        <v>7.7690374378769356E-6</v>
       </c>
       <c r="H49">
-        <v>0.0298213496263591</v>
+        <v>2.98213496263591E-2</v>
       </c>
       <c r="I49">
-        <v>0.02982134962635909</v>
+        <v>2.982134962635909E-2</v>
       </c>
       <c r="J49">
-        <v>0.0298213496263591</v>
+        <v>2.98213496263591E-2</v>
       </c>
       <c r="K49">
-        <v>1.000030000000003</v>
+        <v>1.0000300000000031</v>
       </c>
       <c r="L49">
         <v>0.2474740269112321</v>
       </c>
       <c r="M49">
-        <v>1.000055999999999</v>
+        <v>1.0000559999999989</v>
       </c>
       <c r="N49">
         <v>0.2466245692632115</v>
       </c>
       <c r="O49">
-        <v>2.98213496263591</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>2.9821349626359099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.245483736890494</v>
+        <v>-0.24548373689049399</v>
       </c>
       <c r="C50">
-        <v>-0.3115492404476767</v>
+        <v>-0.31154924044767668</v>
       </c>
       <c r="D50">
-        <v>0.2454911082454715</v>
+        <v>0.24549110824547149</v>
       </c>
       <c r="E50">
-        <v>0.3115530262299862</v>
+        <v>0.31155302622998621</v>
       </c>
       <c r="F50">
-        <v>7.371354977525613e-06</v>
+        <v>7.3713549775256126E-6</v>
       </c>
       <c r="G50">
-        <v>3.785782309473351e-06</v>
+        <v>3.7857823094733511E-6</v>
       </c>
       <c r="H50">
-        <v>0.02081716124000236</v>
+        <v>2.0817161240002359E-2</v>
       </c>
       <c r="I50">
-        <v>0.02081716124000236</v>
+        <v>2.0817161240002359E-2</v>
       </c>
       <c r="J50">
-        <v>0.02081716124000236</v>
+        <v>2.0817161240002359E-2</v>
       </c>
       <c r="K50">
-        <v>1.000055999999999</v>
+        <v>1.0000559999999989</v>
       </c>
       <c r="L50">
         <v>0.2466245692632115</v>
       </c>
       <c r="M50">
-        <v>1.000075000000013</v>
+        <v>1.0000750000000129</v>
       </c>
       <c r="N50">
-        <v>0.2461266652453726</v>
+        <v>0.24612666524537261</v>
       </c>
       <c r="O50">
         <v>2.081716124000236</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.2304911082402901</v>
+        <v>-0.23049110824029009</v>
       </c>
       <c r="C51">
-        <v>-0.2784242139897775</v>
+        <v>-0.27842421398977751</v>
       </c>
       <c r="D51">
-        <v>0.230496354895431</v>
+        <v>0.23049635489543099</v>
       </c>
       <c r="E51">
-        <v>0.2784269085682203</v>
+        <v>0.27842690856822028</v>
       </c>
       <c r="F51">
-        <v>5.246655140955792e-06</v>
+        <v>5.2466551409557924E-6</v>
       </c>
       <c r="G51">
-        <v>2.694578442818951e-06</v>
+        <v>2.6945784428189512E-6</v>
       </c>
       <c r="H51">
-        <v>0.01896978888464078</v>
+        <v>1.8969788884640779E-2</v>
       </c>
       <c r="I51">
-        <v>0.01896978888464078</v>
+        <v>1.8969788884640779E-2</v>
       </c>
       <c r="J51">
-        <v>0.01896978888464078</v>
+        <v>1.8969788884640779E-2</v>
       </c>
       <c r="K51">
-        <v>1.000075000000013</v>
+        <v>1.0000750000000129</v>
       </c>
       <c r="L51">
-        <v>0.2461266652453726</v>
+        <v>0.24612666524537261</v>
       </c>
       <c r="M51">
         <v>1.000090000000003</v>
       </c>
       <c r="N51">
-        <v>0.2457584060707522</v>
+        <v>0.24575840607075219</v>
       </c>
       <c r="O51">
-        <v>1.896978888464078</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>1.8969788884640779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2824,222 +2900,222 @@
         <v>3.676570311799729</v>
       </c>
       <c r="D52">
-        <v>0.18113117509284</v>
+        <v>0.18113117509283999</v>
       </c>
       <c r="E52">
-        <v>-3.67624428068025</v>
+        <v>-3.6762442806802502</v>
       </c>
       <c r="F52">
-        <v>0.0006348202086014221</v>
+        <v>6.3482020860142208E-4</v>
       </c>
       <c r="G52">
-        <v>0.0003260311194788201</v>
+        <v>3.2603111947882008E-4</v>
       </c>
       <c r="H52">
-        <v>0.1931849166687586</v>
+        <v>0.19318491666875859</v>
       </c>
       <c r="I52">
-        <v>0.1931849166687586</v>
+        <v>0.19318491666875859</v>
       </c>
       <c r="J52">
-        <v>0.1931849166687586</v>
+        <v>0.19318491666875859</v>
       </c>
       <c r="K52">
         <v>1.000090000000003</v>
       </c>
       <c r="L52">
-        <v>0.2457584060707522</v>
+        <v>0.24575840607075219</v>
       </c>
       <c r="M52">
-        <v>1.000010000000011</v>
+        <v>1.0000100000000109</v>
       </c>
       <c r="N52">
         <v>0.255877324755655</v>
       </c>
       <c r="O52">
-        <v>19.31849166687586</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>19.318491666875861</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1252860356710847</v>
+        <v>-0.12528603567108471</v>
       </c>
       <c r="C53">
-        <v>-0.4624408292204034</v>
+        <v>-0.46244082922040342</v>
       </c>
       <c r="D53">
-        <v>0.125296791966626</v>
+        <v>0.12529679196662599</v>
       </c>
       <c r="E53">
-        <v>0.4624463534413233</v>
+        <v>0.46244635344132329</v>
       </c>
       <c r="F53">
-        <v>1.075629554134205e-05</v>
+        <v>1.075629554134205E-5</v>
       </c>
       <c r="G53">
-        <v>5.524220919983502e-06</v>
+        <v>5.5242209199835024E-6</v>
       </c>
       <c r="H53">
-        <v>0.02514659610737613</v>
+        <v>2.5146596107376129E-2</v>
       </c>
       <c r="I53">
-        <v>0.02514659610737613</v>
+        <v>2.5146596107376129E-2</v>
       </c>
       <c r="J53">
-        <v>0.02514659610737613</v>
+        <v>2.5146596107376129E-2</v>
       </c>
       <c r="K53">
-        <v>1.000010000000011</v>
+        <v>1.0000100000000109</v>
       </c>
       <c r="L53">
         <v>0.255877324755655</v>
       </c>
       <c r="M53">
-        <v>1.000027000000009</v>
+        <v>1.0000270000000091</v>
       </c>
       <c r="N53">
-        <v>0.2548085344688096</v>
+        <v>0.25480853446880958</v>
       </c>
       <c r="O53">
-        <v>2.514659610737613</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>2.5146596107376129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.08469679195480655</v>
+        <v>-8.4696791954806547E-2</v>
       </c>
       <c r="C54">
-        <v>-12.00368468934895</v>
+        <v>-12.003684689348949</v>
       </c>
       <c r="D54">
-        <v>0.09144867663337344</v>
+        <v>9.1448676633373444E-2</v>
       </c>
       <c r="E54">
-        <v>12.0071523239493</v>
+        <v>12.007152323949301</v>
       </c>
       <c r="F54">
-        <v>0.006751884678566897</v>
+        <v>6.7518846785668968E-3</v>
       </c>
       <c r="G54">
-        <v>0.003467634600351488</v>
+        <v>3.467634600351488E-3</v>
       </c>
       <c r="H54">
-        <v>0.6300287256111016</v>
+        <v>0.63002872561110157</v>
       </c>
       <c r="I54">
-        <v>0.6300287256111013</v>
+        <v>0.63002872561110135</v>
       </c>
       <c r="J54">
-        <v>0.6300287256111016</v>
+        <v>0.63002872561110157</v>
       </c>
       <c r="K54">
-        <v>1.000027000000009</v>
+        <v>1.0000270000000091</v>
       </c>
       <c r="L54">
-        <v>0.2548085344688096</v>
+        <v>0.25480853446880958</v>
       </c>
       <c r="M54">
         <v>1.000320000000003</v>
       </c>
       <c r="N54">
-        <v>0.2227083444785173</v>
+        <v>0.22270834447851731</v>
       </c>
       <c r="O54">
-        <v>63.00287256111016</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>63.002872561110159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.03894867662329333</v>
+        <v>-3.8948676623293328E-2</v>
       </c>
       <c r="C55">
-        <v>10.5306482210219</v>
+        <v>10.530648221021901</v>
       </c>
       <c r="D55">
-        <v>0.04340000000743701</v>
+        <v>4.340000000743701E-2</v>
       </c>
       <c r="E55">
-        <v>-10.52836210925918</v>
+        <v>-10.528362109259181</v>
       </c>
       <c r="F55">
-        <v>0.004451323384143682</v>
+        <v>4.4513233841436822E-3</v>
       </c>
       <c r="G55">
-        <v>0.002286111762721532</v>
+        <v>2.2861117627215322E-3</v>
       </c>
       <c r="H55">
-        <v>0.5525426563764285</v>
+        <v>0.55254265637642852</v>
       </c>
       <c r="I55">
-        <v>0.5525426563764285</v>
+        <v>0.55254265637642852</v>
       </c>
       <c r="J55">
-        <v>0.5525426563764285</v>
+        <v>0.55254265637642852</v>
       </c>
       <c r="K55">
         <v>1.000320000000003</v>
       </c>
       <c r="L55">
-        <v>0.2227083444785173</v>
+        <v>0.22270834447851731</v>
       </c>
       <c r="M55">
-        <v>1.000104495842726</v>
+        <v>1.0001044958427261</v>
       </c>
       <c r="N55">
-        <v>0.2469782726185014</v>
+        <v>0.24697827261850139</v>
       </c>
       <c r="O55">
-        <v>55.25426563764285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>55.254265637642852</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.05584513940799155</v>
+        <v>-5.5845139407991552E-2</v>
       </c>
       <c r="C56">
         <v>-13.68063059754811</v>
       </c>
       <c r="D56">
-        <v>0.06336243594576516</v>
+        <v>6.3362435945765155E-2</v>
       </c>
       <c r="E56">
         <v>13.6844913325601</v>
       </c>
       <c r="F56">
-        <v>0.007517296537773603</v>
+        <v>7.5172965377736031E-3</v>
       </c>
       <c r="G56">
-        <v>0.003860735011992134</v>
+        <v>3.860735011992134E-3</v>
       </c>
       <c r="H56">
-        <v>0.7180456891063794</v>
+        <v>0.71804568910637945</v>
       </c>
       <c r="I56">
-        <v>0.7180456891063792</v>
+        <v>0.71804568910637923</v>
       </c>
       <c r="J56">
-        <v>0.7180456891063794</v>
+        <v>0.71804568910637945</v>
       </c>
       <c r="K56">
-        <v>1.000010000000011</v>
+        <v>1.0000100000000109</v>
       </c>
       <c r="L56">
         <v>0.255877324755655</v>
       </c>
       <c r="M56">
-        <v>1.000294595884551</v>
+        <v>1.0002945958845511</v>
       </c>
       <c r="N56">
         <v>0.2244696369672233</v>
@@ -3048,30 +3124,30 @@
         <v>71.80456891063794</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.02976243595052773</v>
+        <v>-2.976243595052773E-2</v>
       </c>
       <c r="C57">
-        <v>3.965315684537866</v>
+        <v>3.9653156845378659</v>
       </c>
       <c r="D57">
-        <v>0.03039364767202006</v>
+        <v>3.039364767202006E-2</v>
       </c>
       <c r="E57">
-        <v>-3.964991506666086</v>
+        <v>-3.9649915066660859</v>
       </c>
       <c r="F57">
-        <v>0.0006312117214923238</v>
+        <v>6.312117214923238E-4</v>
       </c>
       <c r="G57">
-        <v>0.0003241778717795185</v>
+        <v>3.2417787177951851E-4</v>
       </c>
       <c r="H57">
-        <v>0.2080696638464705</v>
+        <v>0.20806966384647049</v>
       </c>
       <c r="I57">
         <v>0.2080696638464706</v>
@@ -3080,42 +3156,42 @@
         <v>0.2080696638464706</v>
       </c>
       <c r="K57">
-        <v>1.000294595884551</v>
+        <v>1.0002945958845511</v>
       </c>
       <c r="L57">
         <v>0.2244696369672233</v>
       </c>
       <c r="M57">
-        <v>1.00021403088495</v>
+        <v>1.0002140308849501</v>
       </c>
       <c r="N57">
-        <v>0.2336255429630354</v>
+        <v>0.23362554296303539</v>
       </c>
       <c r="O57">
-        <v>20.80696638464706</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>20.806966384647058</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.01230635233027157</v>
+        <v>1.230635233027157E-2</v>
       </c>
       <c r="C58">
-        <v>-17.50781940508529</v>
+        <v>-17.507819405085289</v>
       </c>
       <c r="D58">
-        <v>3.796699066249687e-12</v>
+        <v>3.7966990662496869E-12</v>
       </c>
       <c r="E58">
-        <v>17.51413970455563</v>
+        <v>17.514139704555632</v>
       </c>
       <c r="F58">
-        <v>0.01230635233406827</v>
+        <v>1.2306352334068269E-2</v>
       </c>
       <c r="G58">
-        <v>0.0063202994703353</v>
+        <v>6.3202994703352999E-3</v>
       </c>
       <c r="H58">
         <v>0.9187257955367244</v>
@@ -3127,42 +3203,42 @@
         <v>0.9187257955367244</v>
       </c>
       <c r="K58">
-        <v>1.00021403088495</v>
+        <v>1.0002140308849501</v>
       </c>
       <c r="L58">
-        <v>0.2336255429630354</v>
+        <v>0.23362554296303539</v>
       </c>
       <c r="M58">
-        <v>1.000574859636541</v>
+        <v>1.0005748596365409</v>
       </c>
       <c r="N58">
-        <v>0.1933519990393786</v>
+        <v>0.19335199903937861</v>
       </c>
       <c r="O58">
-        <v>91.87257955367244</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>91.872579553672438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-1.930806157857827</v>
+        <v>-1.9308061578578271</v>
       </c>
       <c r="C59">
         <v>28.74609928945728</v>
       </c>
       <c r="D59">
-        <v>1.969656016294108</v>
+        <v>1.9696560162941079</v>
       </c>
       <c r="E59">
         <v>-28.72614676956902</v>
       </c>
       <c r="F59">
-        <v>0.03884985843628086</v>
+        <v>3.884985843628086E-2</v>
       </c>
       <c r="G59">
-        <v>0.01995251988826041</v>
+        <v>1.9952519888260412E-2</v>
       </c>
       <c r="H59">
         <v>1.511271747536409</v>
@@ -3174,42 +3250,42 @@
         <v>1.511271747536409</v>
       </c>
       <c r="K59">
-        <v>1.00059999999999</v>
+        <v>1.0005999999999899</v>
       </c>
       <c r="L59">
-        <v>0.1767881103517149</v>
+        <v>0.17678811035171491</v>
       </c>
       <c r="M59">
-        <v>1.000000000000005</v>
+        <v>1.0000000000000051</v>
       </c>
       <c r="N59">
-        <v>0.2565816401856923</v>
+        <v>0.25658164018569229</v>
       </c>
       <c r="O59">
-        <v>75.56358737682048</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>75.563587376820479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.3382081345999192</v>
+        <v>-0.33820813459991922</v>
       </c>
       <c r="C60">
-        <v>25.63517720070944</v>
+        <v>25.635177200709439</v>
       </c>
       <c r="D60">
-        <v>0.3689708682434981</v>
+        <v>0.36897086824349812</v>
       </c>
       <c r="E60">
-        <v>-25.61937806836903</v>
+        <v>-25.619378068369031</v>
       </c>
       <c r="F60">
-        <v>0.0307627336435789</v>
+        <v>3.0762733643578899E-2</v>
       </c>
       <c r="G60">
-        <v>0.01579913234040831</v>
+        <v>1.579913234040831E-2</v>
       </c>
       <c r="H60">
         <v>1.344808067569331</v>
@@ -3221,42 +3297,42 @@
         <v>1.344808067569331</v>
       </c>
       <c r="K60">
-        <v>1.00059999999999</v>
+        <v>1.0005999999999899</v>
       </c>
       <c r="L60">
-        <v>0.1767881103517149</v>
+        <v>0.17678811035171491</v>
       </c>
       <c r="M60">
-        <v>1.000000000000001</v>
+        <v>1.0000000000000011</v>
       </c>
       <c r="N60">
         <v>0.2460395791768947</v>
       </c>
       <c r="O60">
-        <v>67.24040337846655</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>67.240403378466553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-14.63860037952069</v>
+        <v>-14.638600379520691</v>
       </c>
       <c r="C61">
-        <v>16.84935382601151</v>
+        <v>16.849353826011509</v>
       </c>
       <c r="D61">
         <v>14.6993341897221</v>
       </c>
       <c r="E61">
-        <v>-16.81418824585218</v>
+        <v>-16.814188245852179</v>
       </c>
       <c r="F61">
-        <v>0.060733810201409</v>
+        <v>6.0733810201409E-2</v>
       </c>
       <c r="G61">
-        <v>0.03516558015932603</v>
+        <v>3.5165580159326033E-2</v>
       </c>
       <c r="H61">
         <v>1.171504348770626</v>
@@ -3274,16 +3350,21 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>1.00059999999999</v>
+        <v>1.0005999999999899</v>
       </c>
       <c r="N61">
-        <v>0.1767881103517149</v>
+        <v>0.17678811035171491</v>
       </c>
       <c r="O61">
-        <v>58.57521743853133</v>
+        <v>58.575217438531332</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>75</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/line_ev.xlsx
+++ b/result/line_ev.xlsx
@@ -1,29 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5501B74-7E1C-4F36-ABC2-1D2CD003ECBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2835" yWindow="150" windowWidth="28800" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -75,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,27 +123,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -204,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,27 +203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,24 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,21 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O24" sqref="O24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,2832 +463,2827 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.9696560163023089</v>
+        <v>-2.469146018462075</v>
       </c>
       <c r="C2">
-        <v>-14.860829708478571</v>
+        <v>1.186899638191192</v>
       </c>
       <c r="D2">
-        <v>1.980186462345402</v>
+        <v>2.469497778644142</v>
       </c>
       <c r="E2">
-        <v>14.8662379375575</v>
+        <v>-1.186718981110032</v>
       </c>
       <c r="F2">
-        <v>1.053044604309283E-2</v>
+        <v>0.0003517601820668403</v>
       </c>
       <c r="G2">
-        <v>5.4082290789221332E-3</v>
+        <v>0.0001806570811602182</v>
       </c>
       <c r="H2">
-        <v>0.78681245633992192</v>
+        <v>0.1438040713563252</v>
       </c>
       <c r="I2">
-        <v>0.78681245633992203</v>
+        <v>0.1438040713563252</v>
       </c>
       <c r="J2">
-        <v>0.78681245633992203</v>
+        <v>0.1438040713563252</v>
       </c>
       <c r="K2">
-        <v>1.0000000000000051</v>
+        <v>0.9999143422279139</v>
       </c>
       <c r="L2">
-        <v>0.25658164018569229</v>
+        <v>0.2738659557326975</v>
       </c>
       <c r="M2">
-        <v>1.0004501500371841</v>
+        <v>1.000001495204969</v>
       </c>
       <c r="N2">
-        <v>0.21941517521854101</v>
+        <v>0.2804578331853104</v>
       </c>
       <c r="O2">
-        <v>52.454163755994799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.586938090421683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.8331864623392271</v>
+        <v>-2.280497775711234</v>
       </c>
       <c r="C3">
-        <v>23.574614761347831</v>
+        <v>4.630800922469957</v>
       </c>
       <c r="D3">
-        <v>1.859363118300124</v>
+        <v>2.281746342869456</v>
       </c>
       <c r="E3">
-        <v>-23.561170947916061</v>
+        <v>-4.630159683040549</v>
       </c>
       <c r="F3">
-        <v>2.6176655960897351E-2</v>
+        <v>0.001248567158221192</v>
       </c>
       <c r="G3">
-        <v>1.344381343176693E-2</v>
+        <v>0.0006412394294077473</v>
       </c>
       <c r="H3">
-        <v>1.2405232999286251</v>
+        <v>0.2709279412260017</v>
       </c>
       <c r="I3">
-        <v>1.2405232999286251</v>
+        <v>0.2709279412260017</v>
       </c>
       <c r="J3">
-        <v>1.2405232999286251</v>
+        <v>0.2709279412260017</v>
       </c>
       <c r="K3">
-        <v>1.0004501500371841</v>
+        <v>1.000001495204969</v>
       </c>
       <c r="L3">
-        <v>0.21941517521854101</v>
+        <v>0.2804578331853104</v>
       </c>
       <c r="M3">
-        <v>0.99996957877684978</v>
+        <v>0.9999969497752743</v>
       </c>
       <c r="N3">
-        <v>0.28520967873348502</v>
+        <v>0.2960354202858904</v>
       </c>
       <c r="O3">
-        <v>82.701553328575017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18.06186274840011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.627330709742449</v>
+        <v>-1.965560760409428</v>
       </c>
       <c r="C4">
-        <v>4.9304377606799372</v>
+        <v>4.005744491980163</v>
       </c>
       <c r="D4">
-        <v>1.6285939980187549</v>
+        <v>1.966493711557658</v>
       </c>
       <c r="E4">
-        <v>-4.9297889607750687</v>
+        <v>-4.005265346699098</v>
       </c>
       <c r="F4">
-        <v>1.2632882763061739E-3</v>
+        <v>0.000932951148229888</v>
       </c>
       <c r="G4">
-        <v>6.4879990486854666E-4</v>
+        <v>0.0004791452810657404</v>
       </c>
       <c r="H4">
-        <v>0.27252043662411651</v>
+        <v>0.2341948253895499</v>
       </c>
       <c r="I4">
-        <v>0.27252043662411651</v>
+        <v>0.2341948253895499</v>
       </c>
       <c r="J4">
-        <v>0.27252043662411651</v>
+        <v>0.2341948253895499</v>
       </c>
       <c r="K4">
-        <v>0.99996957877684978</v>
+        <v>0.9999969497752743</v>
       </c>
       <c r="L4">
-        <v>0.28520967873348502</v>
+        <v>0.2960354202858904</v>
       </c>
       <c r="M4">
-        <v>0.99992721342071533</v>
+        <v>0.9999926798696871</v>
       </c>
       <c r="N4">
-        <v>0.3006926765643928</v>
+        <v>0.3095006763293119</v>
       </c>
       <c r="O4">
-        <v>27.252043662411651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23.41948253895499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.95895220223567523</v>
+        <v>-1.22496215291412</v>
       </c>
       <c r="C5">
-        <v>-8.312225993537087</v>
+        <v>2.009725374135509</v>
       </c>
       <c r="D5">
-        <v>0.9622334398285437</v>
+        <v>1.22522173626634</v>
       </c>
       <c r="E5">
-        <v>8.3139111723502133</v>
+        <v>-2.009592057253381</v>
       </c>
       <c r="F5">
-        <v>3.2812375928684689E-3</v>
+        <v>0.0002595833522198721</v>
       </c>
       <c r="G5">
-        <v>1.685178813126242E-3</v>
+        <v>0.0001333168821280317</v>
       </c>
       <c r="H5">
-        <v>0.43920440021209889</v>
+        <v>0.1235339310136917</v>
       </c>
       <c r="I5">
-        <v>0.43920440021209889</v>
+        <v>0.1235339310136917</v>
       </c>
       <c r="J5">
-        <v>0.43920440021209889</v>
+        <v>0.1235339310136917</v>
       </c>
       <c r="K5">
-        <v>0.99992721342071533</v>
+        <v>0.9999926798696871</v>
       </c>
       <c r="L5">
-        <v>0.3006926765643928</v>
+        <v>0.3095006763293119</v>
       </c>
       <c r="M5">
-        <v>1.0001722774035331</v>
+        <v>1.000001722416862</v>
       </c>
       <c r="N5">
-        <v>0.27969995594375219</v>
+        <v>0.3165856150444903</v>
       </c>
       <c r="O5">
-        <v>43.920440021209892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12.35339310136917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.8369334398142434</v>
+        <v>-1.057921733337779</v>
       </c>
       <c r="C6">
-        <v>9.5370504239438461</v>
+        <v>2.206552120905885</v>
       </c>
       <c r="D6">
-        <v>0.84122690514663467</v>
+        <v>1.058202330392823</v>
       </c>
       <c r="E6">
-        <v>-9.5348453849583219</v>
+        <v>-2.206408011801072</v>
       </c>
       <c r="F6">
-        <v>4.2934653323912766E-3</v>
+        <v>0.0002805970550441295</v>
       </c>
       <c r="G6">
-        <v>2.2050389855241552E-3</v>
+        <v>0.0001441091048133281</v>
       </c>
       <c r="H6">
-        <v>0.50240253660044221</v>
+        <v>0.1284367766162437</v>
       </c>
       <c r="I6">
-        <v>0.5024025366004421</v>
+        <v>0.1284367766162438</v>
       </c>
       <c r="J6">
-        <v>0.50240253660044221</v>
+        <v>0.1284367766162438</v>
       </c>
       <c r="K6">
-        <v>1.0001722774035331</v>
+        <v>1.000001722416862</v>
       </c>
       <c r="L6">
-        <v>0.27969995594375219</v>
+        <v>0.3165856150444903</v>
       </c>
       <c r="M6">
-        <v>0.99998211773860535</v>
+        <v>0.9999982012743093</v>
       </c>
       <c r="N6">
-        <v>0.30645542976371631</v>
+        <v>0.3239686354750997</v>
       </c>
       <c r="O6">
-        <v>50.240253660044218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12.84367766162438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.56872632900468911</v>
+        <v>-0.7323845215577389</v>
       </c>
       <c r="C7">
-        <v>-15.788269567432399</v>
+        <v>1.189764003115078</v>
       </c>
       <c r="D7">
-        <v>0.58042254710059682</v>
+        <v>0.7324759881464372</v>
       </c>
       <c r="E7">
-        <v>15.794276514010051</v>
+        <v>-1.18971702768187</v>
       </c>
       <c r="F7">
-        <v>1.169621809590771E-2</v>
+        <v>9.146658869829682e-05</v>
       </c>
       <c r="G7">
-        <v>6.006946577652883E-3</v>
+        <v>4.697543320797415e-05</v>
       </c>
       <c r="H7">
-        <v>0.82922153473539817</v>
+        <v>0.07332956086906468</v>
       </c>
       <c r="I7">
-        <v>0.82922153473539828</v>
+        <v>0.07332956086906468</v>
       </c>
       <c r="J7">
-        <v>0.82922153473539828</v>
+        <v>0.07332956086906468</v>
       </c>
       <c r="K7">
-        <v>0.99998211773860535</v>
+        <v>0.9999982012743093</v>
       </c>
       <c r="L7">
-        <v>0.30645542976371631</v>
+        <v>0.3239686354750997</v>
       </c>
       <c r="M7">
-        <v>1.000389001114901</v>
+        <v>1.000003890154015</v>
       </c>
       <c r="N7">
-        <v>0.26486590550577721</v>
+        <v>0.328172842124031</v>
       </c>
       <c r="O7">
-        <v>82.922153473539822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.332956086906468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.52862254710244994</v>
+        <v>-0.6176759852254092</v>
       </c>
       <c r="C8">
-        <v>-8.0708519157067986</v>
+        <v>1.111786659969843</v>
       </c>
       <c r="D8">
-        <v>0.53168562293224964</v>
+        <v>0.6177517842509084</v>
       </c>
       <c r="E8">
-        <v>8.0724250509477802</v>
+        <v>-1.111747731087611</v>
       </c>
       <c r="F8">
-        <v>3.0630758297997E-3</v>
+        <v>7.579902549914586e-05</v>
       </c>
       <c r="G8">
-        <v>1.5731352409815711E-3</v>
+        <v>3.892888223178126e-05</v>
       </c>
       <c r="H8">
-        <v>0.42435245338200478</v>
+        <v>0.06675436273463979</v>
       </c>
       <c r="I8">
-        <v>0.42435245338200472</v>
+        <v>0.06675436273463979</v>
       </c>
       <c r="J8">
-        <v>0.42435245338200478</v>
+        <v>0.06675436273463979</v>
       </c>
       <c r="K8">
-        <v>1.000389001114901</v>
+        <v>1.000003890154015</v>
       </c>
       <c r="L8">
-        <v>0.26486590550577721</v>
+        <v>0.328172842124031</v>
       </c>
       <c r="M8">
-        <v>1.000607987694502</v>
+        <v>1.000006079991471</v>
       </c>
       <c r="N8">
-        <v>0.24394663552033449</v>
+        <v>0.3320094916079875</v>
       </c>
       <c r="O8">
-        <v>42.435245338200481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.675436273463979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.47008562294126782</v>
+        <v>-0.5141517813213536</v>
       </c>
       <c r="C9">
-        <v>24.17013352705133</v>
+        <v>1.049276772752599</v>
       </c>
       <c r="D9">
-        <v>0.49743781291535499</v>
+        <v>0.5142157594082252</v>
       </c>
       <c r="E9">
-        <v>-24.156085982570811</v>
+        <v>-1.049243914870946</v>
       </c>
       <c r="F9">
-        <v>2.735218997408723E-2</v>
+        <v>6.397808687153006e-05</v>
       </c>
       <c r="G9">
-        <v>1.404754448051904E-2</v>
+        <v>3.285788165263703e-05</v>
       </c>
       <c r="H9">
-        <v>1.268071947982768</v>
+        <v>0.06132865889308674</v>
       </c>
       <c r="I9">
-        <v>1.268071947982768</v>
+        <v>0.06132865889308672</v>
       </c>
       <c r="J9">
-        <v>1.268071947982768</v>
+        <v>0.06132865889308674</v>
       </c>
       <c r="K9">
-        <v>1.000607987694502</v>
+        <v>1.000006079991471</v>
       </c>
       <c r="L9">
-        <v>0.24394663552033449</v>
+        <v>0.3320094916079875</v>
       </c>
       <c r="M9">
-        <v>1.000049327941527</v>
+        <v>1.000004922773513</v>
       </c>
       <c r="N9">
-        <v>0.30944501652293332</v>
+        <v>0.3355355625980894</v>
       </c>
       <c r="O9">
-        <v>84.538129865517888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.088577259539116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.22465477522315061</v>
+        <v>-0.2415127519187456</v>
       </c>
       <c r="C10">
-        <v>1.5003361519084699</v>
+        <v>0.5767691754118124</v>
       </c>
       <c r="D10">
-        <v>0.22476261071791351</v>
+        <v>0.2415310733870067</v>
       </c>
       <c r="E10">
-        <v>-1.500280769728443</v>
+        <v>-0.5767597658676189</v>
       </c>
       <c r="F10">
-        <v>1.078354947629812E-4</v>
+        <v>1.832146826116765e-05</v>
       </c>
       <c r="G10">
-        <v>5.5382180026652961E-5</v>
+        <v>9.409544193483832e-06</v>
       </c>
       <c r="H10">
-        <v>7.9621198555640288E-2</v>
+        <v>0.03281919924351877</v>
       </c>
       <c r="I10">
-        <v>7.962119855564026E-2</v>
+        <v>0.03281919924351877</v>
       </c>
       <c r="J10">
-        <v>7.9621198555640288E-2</v>
+        <v>0.03281919924351877</v>
       </c>
       <c r="K10">
-        <v>1.000049327941527</v>
+        <v>1.000004922773513</v>
       </c>
       <c r="L10">
-        <v>0.30944501652293332</v>
+        <v>0.3355355625980894</v>
       </c>
       <c r="M10">
-        <v>1.0000237520169899</v>
+        <v>1.000002359899426</v>
       </c>
       <c r="N10">
-        <v>0.31378265328839122</v>
+        <v>0.3374171074241508</v>
       </c>
       <c r="O10">
-        <v>7.9621198555640289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.281919924351877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-8.5032408547382768E-2</v>
+        <v>-0.1271855795291927</v>
       </c>
       <c r="C11">
-        <v>-1.3402732308841909</v>
+        <v>1.017809135662239</v>
       </c>
       <c r="D11">
-        <v>8.5400000000893997E-2</v>
+        <v>0.1274000029220642</v>
       </c>
       <c r="E11">
-        <v>1.3403111080084149</v>
+        <v>-1.01778704118368</v>
       </c>
       <c r="F11">
-        <v>3.6759145351122902E-4</v>
+        <v>0.0002144233928715045</v>
       </c>
       <c r="G11">
-        <v>3.7877124224428023E-5</v>
+        <v>2.209447855983093e-05</v>
       </c>
       <c r="H11">
-        <v>7.0489680039291389E-2</v>
+        <v>0.05383676037486325</v>
       </c>
       <c r="I11">
-        <v>7.0489680039291361E-2</v>
+        <v>0.05383676037486324</v>
       </c>
       <c r="J11">
-        <v>7.0489680039291389E-2</v>
+        <v>0.05383676037486325</v>
       </c>
       <c r="K11">
-        <v>0.99996957877684978</v>
+        <v>0.9999969497752743</v>
       </c>
       <c r="L11">
-        <v>0.28520967873348502</v>
+        <v>0.2960354202858904</v>
       </c>
       <c r="M11">
-        <v>1.000015092464527</v>
+        <v>1.00000151850017</v>
       </c>
       <c r="N11">
-        <v>0.26966141572878982</v>
+        <v>0.3080734013414929</v>
       </c>
       <c r="O11">
-        <v>7.0489680039291391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.383676037486325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.52264179578411007</v>
+        <v>-0.5525315557270962</v>
       </c>
       <c r="C12">
-        <v>1.335130558748741</v>
+        <v>5.016088919999443</v>
       </c>
       <c r="D12">
-        <v>0.52313065451779828</v>
+        <v>0.5585867638395647</v>
       </c>
       <c r="E12">
-        <v>-1.3350801860787369</v>
+        <v>-5.015464983105129</v>
       </c>
       <c r="F12">
-        <v>4.8885873368820221E-4</v>
+        <v>0.006055208112468513</v>
       </c>
       <c r="G12">
-        <v>5.0372670004517062E-5</v>
+        <v>0.0006239368943141699</v>
       </c>
       <c r="H12">
-        <v>7.525946573099343E-2</v>
+        <v>0.2648707362513986</v>
       </c>
       <c r="I12">
-        <v>7.525946573099343E-2</v>
+        <v>0.2648707362513986</v>
       </c>
       <c r="J12">
-        <v>7.525946573099343E-2</v>
+        <v>0.2648707362513986</v>
       </c>
       <c r="K12">
-        <v>0.99992721342071533</v>
+        <v>0.9999926798696871</v>
       </c>
       <c r="L12">
-        <v>0.3006926765643928</v>
+        <v>0.3095006763293119</v>
       </c>
       <c r="M12">
-        <v>1.000018831733837</v>
+        <v>1.000001887880268</v>
       </c>
       <c r="N12">
-        <v>0.31961602109352338</v>
+        <v>0.3786115493525787</v>
       </c>
       <c r="O12">
-        <v>7.5259465730993433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>26.48707362513986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.43003065451597738</v>
+        <v>-0.4535867609715724</v>
       </c>
       <c r="C13">
-        <v>5.9027903275303286</v>
+        <v>4.595319095068646</v>
       </c>
       <c r="D13">
-        <v>0.43835886590668138</v>
+        <v>0.4586566099022306</v>
       </c>
       <c r="E13">
-        <v>-5.9019321772811901</v>
+        <v>-4.594796690927009</v>
       </c>
       <c r="F13">
-        <v>8.328211390703999E-3</v>
+        <v>0.005069848930658261</v>
       </c>
       <c r="G13">
-        <v>8.5815024913848958E-4</v>
+        <v>0.0005224041416376224</v>
       </c>
       <c r="H13">
-        <v>0.31063136976502598</v>
+        <v>0.2423633523496002</v>
       </c>
       <c r="I13">
-        <v>0.31063136976502598</v>
+        <v>0.2423633523496002</v>
       </c>
       <c r="J13">
-        <v>0.31063136976502598</v>
+        <v>0.2423633523496002</v>
       </c>
       <c r="K13">
-        <v>1.000018831733837</v>
+        <v>1.000001887880268</v>
       </c>
       <c r="L13">
-        <v>0.31961602109352338</v>
+        <v>0.3786115493525787</v>
       </c>
       <c r="M13">
-        <v>0.99997746168459267</v>
+        <v>0.9999977603734782</v>
       </c>
       <c r="N13">
-        <v>0.4006345237916531</v>
+        <v>0.4418509668850923</v>
       </c>
       <c r="O13">
-        <v>31.063136976502602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24.23633523496002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.29135886590846688</v>
+        <v>-0.3116566071016881</v>
       </c>
       <c r="C14">
-        <v>2.82651675776984</v>
+        <v>3.034392000295208</v>
       </c>
       <c r="D14">
-        <v>0.29327871676316403</v>
+        <v>0.3138689740531141</v>
       </c>
       <c r="E14">
-        <v>-2.8263189337219168</v>
+        <v>-3.034164034990116</v>
       </c>
       <c r="F14">
-        <v>1.9198508546970361E-3</v>
+        <v>0.002212366951425959</v>
       </c>
       <c r="G14">
-        <v>1.9782404792323399E-4</v>
+        <v>0.0002279653050920594</v>
       </c>
       <c r="H14">
-        <v>0.1491431074148746</v>
+        <v>0.1601024665892758</v>
       </c>
       <c r="I14">
-        <v>0.1491431074148746</v>
+        <v>0.1601024665892758</v>
       </c>
       <c r="J14">
-        <v>0.1491431074148746</v>
+        <v>0.1601024665892758</v>
       </c>
       <c r="K14">
-        <v>0.99997746168459267</v>
+        <v>0.9999977603734782</v>
       </c>
       <c r="L14">
-        <v>0.4006345237916531</v>
+        <v>0.4418509668850923</v>
       </c>
       <c r="M14">
-        <v>0.99997771868145102</v>
+        <v>0.9999977857313992</v>
       </c>
       <c r="N14">
-        <v>0.43955129003073728</v>
+        <v>0.4836265814739899</v>
       </c>
       <c r="O14">
-        <v>14.91431074148746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16.01024665892758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.14697871676013391</v>
+        <v>-0.1675689712885799</v>
       </c>
       <c r="C15">
-        <v>0.28779116474106919</v>
+        <v>1.444599223711356</v>
       </c>
       <c r="D15">
-        <v>0.14700000000139429</v>
+        <v>0.1680000027445066</v>
       </c>
       <c r="E15">
-        <v>-0.2877889716868906</v>
+        <v>-1.444554809642844</v>
       </c>
       <c r="F15">
-        <v>2.1283241260411371E-5</v>
+        <v>0.0004310314559266559</v>
       </c>
       <c r="G15">
-        <v>2.1930541785897262E-6</v>
+        <v>4.441406851185548e-05</v>
       </c>
       <c r="H15">
-        <v>1.6961400950436349E-2</v>
+        <v>0.07633036149920484</v>
       </c>
       <c r="I15">
-        <v>1.6961400950436339E-2</v>
+        <v>0.07633036149920484</v>
       </c>
       <c r="J15">
-        <v>1.6961400950436349E-2</v>
+        <v>0.07633036149920484</v>
       </c>
       <c r="K15">
-        <v>0.99997771868145102</v>
+        <v>0.9999977857313992</v>
       </c>
       <c r="L15">
-        <v>0.43955129003073728</v>
+        <v>0.4836265814739899</v>
       </c>
       <c r="M15">
-        <v>1.0000016320111109</v>
+        <v>1.000001644370932</v>
       </c>
       <c r="N15">
-        <v>0.44308873965384837</v>
+        <v>0.5006967607433176</v>
       </c>
       <c r="O15">
-        <v>1.6961400950436341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.633036149920485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.12550057614235999</v>
+        <v>-0.1368178059002157</v>
       </c>
       <c r="C16">
-        <v>1.560352768446692</v>
+        <v>1.36257560850089</v>
       </c>
       <c r="D16">
-        <v>0.1259999999999061</v>
+        <v>0.1372000029143729</v>
       </c>
       <c r="E16">
-        <v>-1.5603013071319309</v>
+        <v>-1.362536226399796</v>
       </c>
       <c r="F16">
-        <v>4.9942385754611629E-4</v>
+        <v>0.0003821970141572317</v>
       </c>
       <c r="G16">
-        <v>5.1461314761525052E-5</v>
+        <v>3.938210109399876e-05</v>
       </c>
       <c r="H16">
-        <v>8.2163225273039903E-2</v>
+        <v>0.07187642723124177</v>
       </c>
       <c r="I16">
-        <v>8.2163225273039903E-2</v>
+        <v>0.07187642723124175</v>
       </c>
       <c r="J16">
-        <v>8.2163225273039903E-2</v>
+        <v>0.07187642723124177</v>
       </c>
       <c r="K16">
-        <v>0.99998211773860535</v>
+        <v>0.9999982012743093</v>
       </c>
       <c r="L16">
-        <v>0.30645542976371631</v>
+        <v>0.3239686354750997</v>
       </c>
       <c r="M16">
-        <v>0.9999749788342307</v>
+        <v>0.9999975102397403</v>
       </c>
       <c r="N16">
-        <v>0.32482742160694511</v>
+        <v>0.3400440860930951</v>
       </c>
       <c r="O16">
-        <v>8.2163225273039906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.187642723124177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.12578303767728249</v>
+        <v>-0.1257030045607742</v>
       </c>
       <c r="C17">
-        <v>1.0241384366194539</v>
+        <v>1.200626617708895</v>
       </c>
       <c r="D17">
-        <v>0.12600000000139139</v>
+        <v>0.1260000029105045</v>
       </c>
       <c r="E17">
-        <v>-1.0241160805259599</v>
+        <v>-1.200596014594269</v>
       </c>
       <c r="F17">
-        <v>2.1696232410894911E-4</v>
+        <v>0.0002969983497303208</v>
       </c>
       <c r="G17">
-        <v>2.2356093494213521E-5</v>
+        <v>3.060311462554921e-05</v>
       </c>
       <c r="H17">
-        <v>5.4154555899722387E-2</v>
+        <v>0.06336068365457605</v>
       </c>
       <c r="I17">
-        <v>5.4154555899722387E-2</v>
+        <v>0.06336068365457605</v>
       </c>
       <c r="J17">
-        <v>5.4154555899722387E-2</v>
+        <v>0.06336068365457605</v>
       </c>
       <c r="K17">
-        <v>1.000049327941527</v>
+        <v>1.000004922773513</v>
       </c>
       <c r="L17">
-        <v>0.30944501652293332</v>
+        <v>0.3355355625980894</v>
       </c>
       <c r="M17">
-        <v>1.000053477955398</v>
+        <v>1.000005358678113</v>
       </c>
       <c r="N17">
-        <v>0.32155395377110618</v>
+        <v>0.3497063508115107</v>
       </c>
       <c r="O17">
-        <v>5.4154555899722387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.336068365457605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1183626107200928</v>
+        <v>-0.1351310704628314</v>
       </c>
       <c r="C18">
-        <v>6.1206526973878619</v>
+        <v>1.806661840404934</v>
       </c>
       <c r="D18">
-        <v>0.12600000000014611</v>
+        <v>0.1358000029053903</v>
       </c>
       <c r="E18">
-        <v>-6.1198657303902708</v>
+        <v>-1.806592912694612</v>
       </c>
       <c r="F18">
-        <v>7.6373892800532814E-3</v>
+        <v>0.0006689324425588894</v>
       </c>
       <c r="G18">
-        <v>7.8696699759106536E-4</v>
+        <v>6.892771032207534e-05</v>
       </c>
       <c r="H18">
-        <v>0.3213033844033541</v>
+        <v>0.09508980705222488</v>
       </c>
       <c r="I18">
-        <v>0.32130338440335421</v>
+        <v>0.09508980705222486</v>
       </c>
       <c r="J18">
-        <v>0.32130338440335421</v>
+        <v>0.09508980705222488</v>
       </c>
       <c r="K18">
-        <v>1.0000237520169899</v>
+        <v>1.000002359899426</v>
       </c>
       <c r="L18">
-        <v>0.31378265328839122</v>
+        <v>0.3374171074241508</v>
       </c>
       <c r="M18">
-        <v>0.99992012441750833</v>
+        <v>0.9999920287958189</v>
       </c>
       <c r="N18">
-        <v>0.38539981261171702</v>
+        <v>0.3586761628081203</v>
       </c>
       <c r="O18">
-        <v>32.130338440335407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.508980705222488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-6.4963782327322228</v>
+        <v>-6.677113253227951</v>
       </c>
       <c r="C19">
-        <v>25.8538688138716</v>
+        <v>23.99147486259864</v>
       </c>
       <c r="D19">
-        <v>6.806918794577264</v>
+        <v>6.94858876781719</v>
       </c>
       <c r="E19">
-        <v>-25.757316157128699</v>
+        <v>-23.90706823301536</v>
       </c>
       <c r="F19">
-        <v>0.3105405618450412</v>
+        <v>0.2714755145892394</v>
       </c>
       <c r="G19">
-        <v>9.6552656742900922E-2</v>
+        <v>0.0844066295832846</v>
       </c>
       <c r="H19">
-        <v>1.3983200064649079</v>
+        <v>1.307412812433731</v>
       </c>
       <c r="I19">
-        <v>1.3983200064649091</v>
+        <v>1.307412812433731</v>
       </c>
       <c r="J19">
-        <v>1.3983200064649091</v>
+        <v>1.307412812433731</v>
       </c>
       <c r="K19">
-        <v>1.0005999999999899</v>
+        <v>0.9997489945929747</v>
       </c>
       <c r="L19">
-        <v>0.17678811035171491</v>
+        <v>0.2759989322748829</v>
       </c>
       <c r="M19">
-        <v>1.0000000000000031</v>
+        <v>0.9994717570110343</v>
       </c>
       <c r="N19">
-        <v>0.87512700098886409</v>
+        <v>0.9299852625689272</v>
       </c>
       <c r="O19">
-        <v>93.221333764327269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87.1608541622487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-4.5399857984443699</v>
+        <v>-4.646497568842197</v>
       </c>
       <c r="C20">
-        <v>16.519650735792659</v>
+        <v>3.260954878337863</v>
       </c>
       <c r="D20">
-        <v>4.668402632731075</v>
+        <v>4.660611039157168</v>
       </c>
       <c r="E20">
-        <v>-16.479723627890142</v>
+        <v>-3.256566746086552</v>
       </c>
       <c r="F20">
-        <v>0.12841683428670511</v>
+        <v>0.01411347031497012</v>
       </c>
       <c r="G20">
-        <v>3.9927107902521193E-2</v>
+        <v>0.004388132251311738</v>
       </c>
       <c r="H20">
-        <v>0.89920431843285276</v>
+        <v>0.2981016028808996</v>
       </c>
       <c r="I20">
-        <v>0.89920431843285276</v>
+        <v>0.2981016028808997</v>
       </c>
       <c r="J20">
-        <v>0.89920431843285276</v>
+        <v>0.2981016028808997</v>
       </c>
       <c r="K20">
-        <v>1.0000000000000031</v>
+        <v>0.9994717570110343</v>
       </c>
       <c r="L20">
-        <v>0.87512700098886409</v>
+        <v>0.9299852625689272</v>
       </c>
       <c r="M20">
-        <v>0.99976990072352878</v>
+        <v>1.001064057380033</v>
       </c>
       <c r="N20">
-        <v>1.3247363109167101</v>
+        <v>1.047883502236766</v>
       </c>
       <c r="O20">
-        <v>89.920431843285272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29.81016028808997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-2.2669329958724709</v>
+        <v>-2.302091180186632</v>
       </c>
       <c r="C21">
-        <v>8.981667874975436</v>
+        <v>7.50593552078425</v>
       </c>
       <c r="D21">
-        <v>2.3044763563658428</v>
+        <v>2.329087895513113</v>
       </c>
       <c r="E21">
-        <v>-8.9699949676516546</v>
+        <v>-7.497541755497626</v>
       </c>
       <c r="F21">
-        <v>3.754336049337148E-2</v>
+        <v>0.02699671532648118</v>
       </c>
       <c r="G21">
-        <v>1.167290732378135E-2</v>
+        <v>0.008393765286623278</v>
       </c>
       <c r="H21">
-        <v>0.48619890448472869</v>
+        <v>0.4122900630920179</v>
       </c>
       <c r="I21">
-        <v>0.48619890448472869</v>
+        <v>0.4122900630920179</v>
       </c>
       <c r="J21">
-        <v>0.48619890448472869</v>
+        <v>0.4122900630920179</v>
       </c>
       <c r="K21">
-        <v>1.0000000000000031</v>
+        <v>0.9994717570110343</v>
       </c>
       <c r="L21">
-        <v>0.87512700098886409</v>
+        <v>0.9299852625689272</v>
       </c>
       <c r="M21">
-        <v>0.99977900880755621</v>
+        <v>0.9994643869100923</v>
       </c>
       <c r="N21">
-        <v>1.1180033844450541</v>
+        <v>1.13630736892276</v>
       </c>
       <c r="O21">
-        <v>48.619890448472873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41.22900630920179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.3315973672695729</v>
+        <v>2.339387530140626</v>
       </c>
       <c r="C22">
-        <v>-7.5181836160842943</v>
+        <v>4.256566294136388</v>
       </c>
       <c r="D22">
-        <v>-2.3044763563659099</v>
+        <v>-2.329087871087571</v>
       </c>
       <c r="E22">
-        <v>7.5266160271057219</v>
+        <v>-4.253363944532814</v>
       </c>
       <c r="F22">
-        <v>2.712101090366259E-2</v>
+        <v>0.01029965905305552</v>
       </c>
       <c r="G22">
-        <v>8.4324110214275549E-3</v>
+        <v>0.003202349603574461</v>
       </c>
       <c r="H22">
-        <v>0.41323808548852292</v>
+        <v>0.2546588822041269</v>
       </c>
       <c r="I22">
-        <v>0.41323808548852292</v>
+        <v>0.2546588822041268</v>
       </c>
       <c r="J22">
-        <v>0.41323808548852292</v>
+        <v>0.2546588822041269</v>
       </c>
       <c r="K22">
-        <v>0.99976990072352878</v>
+        <v>1.001064057380033</v>
       </c>
       <c r="L22">
-        <v>1.3247363109167101</v>
+        <v>1.047883502236766</v>
       </c>
       <c r="M22">
-        <v>0.99977900880755621</v>
+        <v>0.9994643869100923</v>
       </c>
       <c r="N22">
-        <v>1.1180033844450541</v>
+        <v>1.13630736892276</v>
       </c>
       <c r="O22">
-        <v>41.323808548852291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25.46588822041269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-5.9339416638473281</v>
+        <v>-6.195895259806643</v>
       </c>
       <c r="C23">
-        <v>18.805720636637339</v>
+        <v>8.341468676107457</v>
       </c>
       <c r="D23">
-        <v>5.9812912244668173</v>
+        <v>6.209064299158568</v>
       </c>
       <c r="E23">
-        <v>-18.778304692141969</v>
+        <v>-8.333843649661468</v>
       </c>
       <c r="F23">
-        <v>4.7349560619489139E-2</v>
+        <v>0.01316903935192482</v>
       </c>
       <c r="G23">
-        <v>2.741594449536322E-2</v>
+        <v>0.007625026445989391</v>
       </c>
       <c r="H23">
-        <v>1.0343954887082929</v>
+        <v>0.5455137338444462</v>
       </c>
       <c r="I23">
-        <v>1.0343954887082929</v>
+        <v>0.5455137338444463</v>
       </c>
       <c r="J23">
-        <v>1.0343954887082929</v>
+        <v>0.5455137338444463</v>
       </c>
       <c r="K23">
-        <v>1.0005999999999899</v>
+        <v>0.9997489945929747</v>
       </c>
       <c r="L23">
-        <v>0.17678811035171491</v>
+        <v>0.2759989322748829</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0.9999166330160029</v>
       </c>
       <c r="N23">
-        <v>0.33204956282707498</v>
+        <v>0.3593491679793365</v>
       </c>
       <c r="O23">
-        <v>68.959699247219547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36.36758225629642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-5.9812912244310974</v>
+        <v>-6.209064298853702</v>
       </c>
       <c r="C24">
-        <v>14.606775282921859</v>
+        <v>9.233774006382504</v>
       </c>
       <c r="D24">
-        <v>6.0116628908333123</v>
+        <v>6.22416099751446</v>
       </c>
       <c r="E24">
-        <v>-14.589189735993431</v>
+        <v>-9.225032842850435</v>
       </c>
       <c r="F24">
-        <v>3.0371666402214888E-2</v>
+        <v>0.01509669866075747</v>
       </c>
       <c r="G24">
-        <v>1.7585546928430059E-2</v>
+        <v>0.008741163532068441</v>
       </c>
       <c r="H24">
-        <v>0.828443608421223</v>
+        <v>0.5840763672913507</v>
       </c>
       <c r="I24">
-        <v>0.828443608421223</v>
+        <v>0.5840763672913506</v>
       </c>
       <c r="J24">
-        <v>0.828443608421223</v>
+        <v>0.5840763672913507</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0.9999166330160029</v>
       </c>
       <c r="L24">
-        <v>0.33204956282707498</v>
+        <v>0.3593491679793365</v>
       </c>
       <c r="M24">
-        <v>0.9997005556993146</v>
+        <v>1.000023023982372</v>
       </c>
       <c r="N24">
-        <v>0.45830427314547151</v>
+        <v>0.4489628525898201</v>
       </c>
       <c r="O24">
-        <v>82.844360842122299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58.40763672913507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-5.6116628908104351</v>
+        <v>-5.824160997215277</v>
       </c>
       <c r="C25">
-        <v>10.800780734786329</v>
+        <v>11.13459014785613</v>
       </c>
       <c r="D25">
-        <v>5.6297342541931634</v>
+        <v>5.843409550095595</v>
       </c>
       <c r="E25">
-        <v>-10.79031720589664</v>
+        <v>-11.12344501260085</v>
       </c>
       <c r="F25">
-        <v>1.8071363382727409E-2</v>
+        <v>0.01924855288031768</v>
       </c>
       <c r="G25">
-        <v>1.0463528889692601E-2</v>
+        <v>0.01114513525528871</v>
       </c>
       <c r="H25">
-        <v>0.63903419868353295</v>
+        <v>0.6595195646027138</v>
       </c>
       <c r="I25">
-        <v>0.63903419868353306</v>
+        <v>0.6595195646027138</v>
       </c>
       <c r="J25">
-        <v>0.63903419868353306</v>
+        <v>0.6595195646027138</v>
       </c>
       <c r="K25">
-        <v>0.9997005556993146</v>
+        <v>1.000023023982372</v>
       </c>
       <c r="L25">
-        <v>0.45830427314547151</v>
+        <v>0.4489628525898201</v>
       </c>
       <c r="M25">
-        <v>0.99962372098681374</v>
+        <v>0.9999486529078315</v>
       </c>
       <c r="N25">
-        <v>0.55650817235266081</v>
+        <v>0.5502943078790836</v>
       </c>
       <c r="O25">
-        <v>63.903419868353303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65.95195646027138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-3.8251834142563061</v>
+        <v>-3.966630218459891</v>
       </c>
       <c r="C26">
-        <v>-2.9437398196732891</v>
+        <v>6.41372145472451</v>
       </c>
       <c r="D26">
-        <v>3.828025746044895</v>
+        <v>3.973563897831174</v>
       </c>
       <c r="E26">
-        <v>2.945385562728426</v>
+        <v>-6.409706773990314</v>
       </c>
       <c r="F26">
-        <v>2.8423317885888371E-3</v>
+        <v>0.006933679371282864</v>
       </c>
       <c r="G26">
-        <v>1.645743055137316E-3</v>
+        <v>0.004014680734195863</v>
       </c>
       <c r="H26">
-        <v>0.25343467053728358</v>
+        <v>0.3958316518032916</v>
       </c>
       <c r="I26">
-        <v>0.25343467053728358</v>
+        <v>0.3958316518032916</v>
       </c>
       <c r="J26">
-        <v>0.25343467053728358</v>
+        <v>0.3958316518032916</v>
       </c>
       <c r="K26">
-        <v>0.99962372098681374</v>
+        <v>0.9999486529078315</v>
       </c>
       <c r="L26">
-        <v>0.55650817235266081</v>
+        <v>0.5502943078790836</v>
       </c>
       <c r="M26">
-        <v>1.0002980924254821</v>
+        <v>0.9999800627170481</v>
       </c>
       <c r="N26">
-        <v>0.55141639752175098</v>
+        <v>0.6111400475778832</v>
       </c>
       <c r="O26">
-        <v>25.343467053728361</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>39.58316518032915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-3.4280257460448218</v>
+        <v>-3.573563897532188</v>
       </c>
       <c r="C27">
-        <v>6.480484580497814</v>
+        <v>5.287974947625209</v>
       </c>
       <c r="D27">
-        <v>3.4345742161701689</v>
+        <v>3.578529823174018</v>
       </c>
       <c r="E27">
-        <v>-6.4766929403825282</v>
+        <v>-5.285099619111421</v>
       </c>
       <c r="F27">
-        <v>6.5484701253470936E-3</v>
+        <v>0.004965925641830182</v>
       </c>
       <c r="G27">
-        <v>3.7916401152857659E-3</v>
+        <v>0.002875328513787245</v>
       </c>
       <c r="H27">
-        <v>0.38467907796663109</v>
+        <v>0.3349876122755436</v>
       </c>
       <c r="I27">
-        <v>0.3846790779666312</v>
+        <v>0.3349876122755436</v>
       </c>
       <c r="J27">
-        <v>0.3846790779666312</v>
+        <v>0.3349876122755436</v>
       </c>
       <c r="K27">
-        <v>1.0002980924254821</v>
+        <v>0.9999800627170481</v>
       </c>
       <c r="L27">
-        <v>0.55141639752175098</v>
+        <v>0.6111400475778832</v>
       </c>
       <c r="M27">
-        <v>1.0002591072488809</v>
+        <v>1.000042854991734</v>
       </c>
       <c r="N27">
-        <v>0.61051290683000647</v>
+        <v>0.6625273798898502</v>
       </c>
       <c r="O27">
-        <v>38.46790779666312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33.49876122755436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-2.3185028966015531</v>
+        <v>-2.386310818538918</v>
       </c>
       <c r="C28">
-        <v>3.2516985794290192</v>
+        <v>4.854938056259034</v>
       </c>
       <c r="D28">
-        <v>2.3204462174236591</v>
+        <v>2.389878170477017</v>
       </c>
       <c r="E28">
-        <v>-3.2505733741452021</v>
+        <v>-4.852872518132582</v>
       </c>
       <c r="F28">
-        <v>1.943320822105576E-3</v>
+        <v>0.003567351938099428</v>
       </c>
       <c r="G28">
-        <v>1.125205283817543E-3</v>
+        <v>0.002065538126451827</v>
       </c>
       <c r="H28">
-        <v>0.20955638268687349</v>
+        <v>0.2839236827564207</v>
       </c>
       <c r="I28">
-        <v>0.20955638268687349</v>
+        <v>0.2839236827564208</v>
       </c>
       <c r="J28">
-        <v>0.20955638268687349</v>
+        <v>0.2839236827564208</v>
       </c>
       <c r="K28">
-        <v>1.0002591072488809</v>
+        <v>1.000042854991734</v>
       </c>
       <c r="L28">
-        <v>0.61051290683000647</v>
+        <v>0.6625273798898502</v>
       </c>
       <c r="M28">
-        <v>1.0003123698545999</v>
+        <v>0.9999913647721517</v>
       </c>
       <c r="N28">
-        <v>0.64258406846546379</v>
+        <v>0.7060880507648809</v>
       </c>
       <c r="O28">
-        <v>20.955638268687348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28.39236827564208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.920446217418893</v>
+        <v>-1.989878170180482</v>
       </c>
       <c r="C29">
-        <v>-0.79073906751605327</v>
+        <v>2.366719870114162</v>
       </c>
       <c r="D29">
-        <v>1.920971729531221</v>
+        <v>1.991043760456086</v>
       </c>
       <c r="E29">
-        <v>0.79104334512105612</v>
+        <v>-2.366044979832558</v>
       </c>
       <c r="F29">
-        <v>5.2551211232843009E-4</v>
+        <v>0.001165590275604922</v>
       </c>
       <c r="G29">
-        <v>3.0427760500284512E-4</v>
+        <v>0.000674890281604501</v>
       </c>
       <c r="H29">
-        <v>0.1089732758204013</v>
+        <v>0.1622936766066518</v>
       </c>
       <c r="I29">
-        <v>0.1089732758204013</v>
+        <v>0.1622936766066518</v>
       </c>
       <c r="J29">
-        <v>0.1089732758204013</v>
+        <v>0.1622936766066518</v>
       </c>
       <c r="K29">
-        <v>1.0003123698545999</v>
+        <v>0.9999913647721517</v>
       </c>
       <c r="L29">
-        <v>0.64258406846546379</v>
+        <v>0.7060880507648809</v>
       </c>
       <c r="M29">
-        <v>1.0006022156561729</v>
+        <v>1.000066982544681</v>
       </c>
       <c r="N29">
-        <v>0.64482571072749184</v>
+        <v>0.7306655760943007</v>
       </c>
       <c r="O29">
-        <v>10.897327582040131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16.22936766066518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.520971729530938</v>
+        <v>-1.591043760156758</v>
       </c>
       <c r="C30">
-        <v>17.607240687064539</v>
+        <v>3.768201337161796</v>
       </c>
       <c r="D30">
-        <v>1.5590015680435609</v>
+        <v>1.593083118877233</v>
       </c>
       <c r="E30">
-        <v>-17.585220969707329</v>
+        <v>-3.767020524821508</v>
       </c>
       <c r="F30">
-        <v>3.8029838512623648E-2</v>
+        <v>0.002039358720475448</v>
       </c>
       <c r="G30">
-        <v>2.201971735721742E-2</v>
+        <v>0.001180812340288107</v>
       </c>
       <c r="H30">
-        <v>0.92702379485761477</v>
+        <v>0.2146720251414184</v>
       </c>
       <c r="I30">
-        <v>0.92702379485761488</v>
+        <v>0.2146720251414184</v>
       </c>
       <c r="J30">
-        <v>0.92702379485761488</v>
+        <v>0.2146720251414184</v>
       </c>
       <c r="K30">
-        <v>1.0006022156561729</v>
+        <v>1.000066982544681</v>
       </c>
       <c r="L30">
-        <v>0.64482571072749184</v>
+        <v>0.7306655760943007</v>
       </c>
       <c r="M30">
-        <v>0.99954797197666834</v>
+        <v>0.9999951282706461</v>
       </c>
       <c r="N30">
-        <v>0.7739421663889513</v>
+        <v>0.7634186612397401</v>
       </c>
       <c r="O30">
-        <v>92.702379485761483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21.46720251414184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.66345794550351167</v>
+        <v>-0.6992888791117543</v>
       </c>
       <c r="C31">
-        <v>-5.6030365862711644</v>
+        <v>1.737795106877192</v>
       </c>
       <c r="D31">
-        <v>0.66734233423994549</v>
+        <v>0.6997166545714368</v>
       </c>
       <c r="E31">
-        <v>5.6052856923790824</v>
+        <v>-1.737547419927077</v>
       </c>
       <c r="F31">
-        <v>3.8843887364338192E-3</v>
+        <v>0.0004277754596825334</v>
       </c>
       <c r="G31">
-        <v>2.2491061079179531E-3</v>
+        <v>0.0002476869501153445</v>
       </c>
       <c r="H31">
-        <v>0.29627157361284351</v>
+        <v>0.09831880117719226</v>
       </c>
       <c r="I31">
-        <v>0.29627157361284351</v>
+        <v>0.09831880117719224</v>
       </c>
       <c r="J31">
-        <v>0.29627157361284351</v>
+        <v>0.09831880117719226</v>
       </c>
       <c r="K31">
-        <v>0.99954797197666834</v>
+        <v>0.9999951282706461</v>
       </c>
       <c r="L31">
-        <v>0.7739421663889513</v>
+        <v>0.7634186612397401</v>
       </c>
       <c r="M31">
-        <v>1.000024771832482</v>
+        <v>0.9999577465225039</v>
       </c>
       <c r="N31">
-        <v>0.7374733031486479</v>
+        <v>0.7783858018338805</v>
       </c>
       <c r="O31">
-        <v>29.62715736128435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.831880117719226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.404550839917126</v>
+        <v>-1.476779331326789</v>
       </c>
       <c r="C32">
-        <v>5.688440523571944</v>
+        <v>4.771470865765478</v>
       </c>
       <c r="D32">
-        <v>1.415800901773548</v>
+        <v>1.484949238374334</v>
       </c>
       <c r="E32">
-        <v>-5.685706163114677</v>
+        <v>-4.769485145948516</v>
       </c>
       <c r="F32">
-        <v>1.125006185642197E-2</v>
+        <v>0.008169907047544944</v>
       </c>
       <c r="G32">
-        <v>2.7343604572669382E-3</v>
+        <v>0.001985719816961939</v>
       </c>
       <c r="H32">
-        <v>0.30764801092263572</v>
+        <v>0.2621713401468587</v>
       </c>
       <c r="I32">
-        <v>0.30764801092263561</v>
+        <v>0.2621713401468587</v>
       </c>
       <c r="J32">
-        <v>0.30764801092263572</v>
+        <v>0.2621713401468587</v>
       </c>
       <c r="K32">
-        <v>0.99962372098681374</v>
+        <v>0.9999486529078315</v>
       </c>
       <c r="L32">
-        <v>0.55650817235266081</v>
+        <v>0.5502943078790836</v>
       </c>
       <c r="M32">
-        <v>0.999632865393144</v>
+        <v>1.000053889308227</v>
       </c>
       <c r="N32">
-        <v>0.66971960784806983</v>
+        <v>0.6465471506666766</v>
       </c>
       <c r="O32">
-        <v>30.764801092263571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>26.21713401468587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.36444001323558012</v>
+        <v>-0.3961570248333094</v>
       </c>
       <c r="C33">
-        <v>2.2576364213237401</v>
+        <v>1.984396760833201</v>
       </c>
       <c r="D33">
-        <v>0.36615372983298139</v>
+        <v>0.3974976978338727</v>
       </c>
       <c r="E33">
-        <v>-2.2572198974895881</v>
+        <v>-1.984070906336963</v>
       </c>
       <c r="F33">
-        <v>1.7137165974013271E-3</v>
+        <v>0.001340673000563231</v>
       </c>
       <c r="G33">
-        <v>4.165238341524713E-4</v>
+        <v>0.0003258544962374543</v>
       </c>
       <c r="H33">
-        <v>0.1200732201552039</v>
+        <v>0.1062033186988316</v>
       </c>
       <c r="I33">
-        <v>0.1200732201552039</v>
+        <v>0.1062033186988316</v>
       </c>
       <c r="J33">
-        <v>0.1200732201552039</v>
+        <v>0.1062033186988316</v>
       </c>
       <c r="K33">
-        <v>0.999632865393144</v>
+        <v>1.000053889308227</v>
       </c>
       <c r="L33">
-        <v>0.66971960784806983</v>
+        <v>0.6465471506666766</v>
       </c>
       <c r="M33">
-        <v>0.99957279520592868</v>
+        <v>1.000025911292872</v>
       </c>
       <c r="N33">
-        <v>0.71377261125302116</v>
+        <v>0.6855803523543198</v>
       </c>
       <c r="O33">
-        <v>12.007322015520391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.62033186988316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.39942235108835872</v>
+        <v>-0.3975156141179284</v>
       </c>
       <c r="C34">
-        <v>0.99737337238223256</v>
+        <v>2.19338301435093</v>
       </c>
       <c r="D34">
-        <v>0.40000000000054992</v>
+        <v>0.4000000002901839</v>
       </c>
       <c r="E34">
-        <v>-0.99727761791634983</v>
+        <v>-2.192971187952664</v>
       </c>
       <c r="F34">
-        <v>5.7764891219114212E-4</v>
+        <v>0.002484386172255493</v>
       </c>
       <c r="G34">
-        <v>9.5754465882724737E-5</v>
+        <v>0.0004118263982664239</v>
       </c>
       <c r="H34">
-        <v>5.6414413317290323E-2</v>
+        <v>0.1169950932243201</v>
       </c>
       <c r="I34">
-        <v>5.6414413317290323E-2</v>
+        <v>0.1169950932243201</v>
       </c>
       <c r="J34">
-        <v>5.6414413317290323E-2</v>
+        <v>0.1169950932243201</v>
       </c>
       <c r="K34">
-        <v>0.99957279520592868</v>
+        <v>1.000025911292872</v>
       </c>
       <c r="L34">
-        <v>0.71377261125302116</v>
+        <v>0.6855803523543198</v>
       </c>
       <c r="M34">
-        <v>0.99969003468675444</v>
+        <v>1.000043512937636</v>
       </c>
       <c r="N34">
-        <v>0.7442650264093551</v>
+        <v>0.7503004763213893</v>
       </c>
       <c r="O34">
-        <v>5.6414413317290313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.69950932243201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.3268621253352497E-2</v>
+        <v>1.791657954573495e-05</v>
       </c>
       <c r="C35">
-        <v>-8.1534163980158105</v>
+        <v>0.1893013810989669</v>
       </c>
       <c r="D35">
-        <v>2.2995494397548549E-14</v>
+        <v>2.94704103134813e-10</v>
       </c>
       <c r="E35">
-        <v>8.1589311994662008</v>
+        <v>-0.189298411092986</v>
       </c>
       <c r="F35">
-        <v>3.3268621253375499E-2</v>
+        <v>1.791687424983809e-05</v>
       </c>
       <c r="G35">
-        <v>5.5148014503902942E-3</v>
+        <v>2.970005980929002e-06</v>
       </c>
       <c r="H35">
-        <v>0.42812983901123008</v>
+        <v>0.009935488360921367</v>
       </c>
       <c r="I35">
-        <v>0.42812983901122997</v>
+        <v>0.009935488360921367</v>
       </c>
       <c r="J35">
-        <v>0.42812983901123008</v>
+        <v>0.009935488360921367</v>
       </c>
       <c r="K35">
-        <v>0.99957279520592868</v>
+        <v>1.000025911292872</v>
       </c>
       <c r="L35">
-        <v>0.71377261125302116</v>
+        <v>0.6855803523543198</v>
       </c>
       <c r="M35">
-        <v>1.0002405589665671</v>
+        <v>1.000010217108321</v>
       </c>
       <c r="N35">
-        <v>0.47998827882919293</v>
+        <v>0.6910032460903427</v>
       </c>
       <c r="O35">
-        <v>42.812983901123012</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9935488360921366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.6513608885284432</v>
+        <v>-0.688792213245533</v>
       </c>
       <c r="C36">
-        <v>-9.8377299183777875</v>
+        <v>4.684355325683698</v>
       </c>
       <c r="D36">
-        <v>0.70000000000041251</v>
+        <v>0.7000000002879313</v>
       </c>
       <c r="E36">
-        <v>9.8457926222827226</v>
+        <v>-4.682497457280725</v>
       </c>
       <c r="F36">
-        <v>4.863911147196931E-2</v>
+        <v>0.01120778704239833</v>
       </c>
       <c r="G36">
-        <v>8.0627039049350202E-3</v>
+        <v>0.001857868402972862</v>
       </c>
       <c r="H36">
-        <v>0.5176675147517108</v>
+        <v>0.2484952155204192</v>
       </c>
       <c r="I36">
-        <v>0.51766751475171091</v>
+        <v>0.2484952155204191</v>
       </c>
       <c r="J36">
-        <v>0.51766751475171091</v>
+        <v>0.2484952155204192</v>
       </c>
       <c r="K36">
-        <v>0.999632865393144</v>
+        <v>1.000053889308227</v>
       </c>
       <c r="L36">
-        <v>0.66971960784806983</v>
+        <v>0.6465471506666766</v>
       </c>
       <c r="M36">
-        <v>1.0007861970097101</v>
+        <v>1.000012911962643</v>
       </c>
       <c r="N36">
-        <v>0.39109359101558527</v>
+        <v>0.7840082323725363</v>
       </c>
       <c r="O36">
-        <v>51.766751475171091</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24.84952155204192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.71607131956195613</v>
+        <v>-0.7922190043332487</v>
       </c>
       <c r="C37">
-        <v>1.0659747073373009</v>
+        <v>3.332852094093726</v>
       </c>
       <c r="D37">
-        <v>0.71661101847926789</v>
+        <v>0.7960614254176264</v>
       </c>
       <c r="E37">
-        <v>-1.0658435319360311</v>
+        <v>-3.331918182404405</v>
       </c>
       <c r="F37">
-        <v>5.3969891731175945E-4</v>
+        <v>0.003842421084377712</v>
       </c>
       <c r="G37">
-        <v>1.311754012698341E-4</v>
+        <v>0.0009339116893212207</v>
       </c>
       <c r="H37">
-        <v>6.7383323841598231E-2</v>
+        <v>0.179795631195241</v>
       </c>
       <c r="I37">
-        <v>6.7383323841598203E-2</v>
+        <v>0.1797956311952409</v>
       </c>
       <c r="J37">
-        <v>6.7383323841598231E-2</v>
+        <v>0.179795631195241</v>
       </c>
       <c r="K37">
-        <v>1.0002591072488809</v>
+        <v>1.000042854991734</v>
       </c>
       <c r="L37">
-        <v>0.61051290683000647</v>
+        <v>0.6625273798898502</v>
       </c>
       <c r="M37">
-        <v>1.00040878824371</v>
+        <v>1.00003767966767</v>
       </c>
       <c r="N37">
-        <v>0.63376171325488462</v>
+        <v>0.7286631805384765</v>
       </c>
       <c r="O37">
-        <v>6.7383323841598228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17.9795631195241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9.7268337122437386E-3</v>
+        <v>0.0002729945720776495</v>
       </c>
       <c r="C38">
-        <v>-0.87864254169904121</v>
+        <v>0.8822353789024322</v>
       </c>
       <c r="D38">
-        <v>-9.4742166153805579E-3</v>
+        <v>-1.814945571780927e-05</v>
       </c>
       <c r="E38">
-        <v>0.8787039410237123</v>
+        <v>-0.8821734380511023</v>
       </c>
       <c r="F38">
-        <v>2.5261709686318079E-4</v>
+        <v>0.0002548451163598402</v>
       </c>
       <c r="G38">
-        <v>6.1399324671085331E-5</v>
+        <v>6.194085132993354e-05</v>
       </c>
       <c r="H38">
-        <v>4.610075375842481E-2</v>
+        <v>0.0463036060121955</v>
       </c>
       <c r="I38">
-        <v>4.610075375842481E-2</v>
+        <v>0.04630360601219549</v>
       </c>
       <c r="J38">
-        <v>4.610075375842481E-2</v>
+        <v>0.0463036060121955</v>
       </c>
       <c r="K38">
-        <v>1.00040878824371</v>
+        <v>1.00003767966767</v>
       </c>
       <c r="L38">
-        <v>0.63376171325488462</v>
+        <v>0.7286631805384765</v>
       </c>
       <c r="M38">
-        <v>1.000475545840634</v>
+        <v>0.9999674203744158</v>
       </c>
       <c r="N38">
-        <v>0.61724749863041728</v>
+        <v>0.7452137252485237</v>
       </c>
       <c r="O38">
-        <v>4.6100753758424808</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.63036060121955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.32633785218434969</v>
+        <v>-0.3963344196910678</v>
       </c>
       <c r="C39">
-        <v>12.13819738165987</v>
+        <v>2.678527865616589</v>
       </c>
       <c r="D39">
-        <v>0.40000000000138169</v>
+        <v>0.4000000002913777</v>
       </c>
       <c r="E39">
-        <v>-12.125986712737751</v>
+        <v>-2.677920237513905</v>
       </c>
       <c r="F39">
-        <v>7.3662147817031953E-2</v>
+        <v>0.003665580600309915</v>
       </c>
       <c r="G39">
-        <v>1.2210668922115531E-2</v>
+        <v>0.0006076281026841102</v>
       </c>
       <c r="H39">
-        <v>0.63705992332024264</v>
+        <v>0.1421115848623123</v>
       </c>
       <c r="I39">
-        <v>0.63705992332024264</v>
+        <v>0.1421115848623123</v>
       </c>
       <c r="J39">
-        <v>0.63705992332024264</v>
+        <v>0.1421115848623123</v>
       </c>
       <c r="K39">
-        <v>1.00040878824371</v>
+        <v>1.00003767966767</v>
       </c>
       <c r="L39">
-        <v>0.63376171325488462</v>
+        <v>0.7286631805384765</v>
       </c>
       <c r="M39">
-        <v>0.99958481314521686</v>
+        <v>1.000014784444775</v>
       </c>
       <c r="N39">
-        <v>0.98305541170166044</v>
+        <v>0.8072766807367538</v>
       </c>
       <c r="O39">
-        <v>63.705992332024273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14.21115848623123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.4742166156215335E-3</v>
+        <v>1.814975166217073e-05</v>
       </c>
       <c r="C40">
-        <v>4.3550035550438198</v>
+        <v>0.1905180478940037</v>
       </c>
       <c r="D40">
-        <v>8.5061818699827541E-13</v>
+        <v>2.943896099116827e-10</v>
       </c>
       <c r="E40">
-        <v>-4.3534330534248946</v>
+        <v>-0.1905150392360996</v>
       </c>
       <c r="F40">
-        <v>9.4742166164721517E-3</v>
+        <v>1.815004605178064e-05</v>
       </c>
       <c r="G40">
-        <v>1.5705016189251351E-3</v>
+        <v>3.008657904035594e-06</v>
       </c>
       <c r="H40">
-        <v>0.2284702995983518</v>
+        <v>0.009999930042723582</v>
       </c>
       <c r="I40">
-        <v>0.22847029959835191</v>
+        <v>0.009999930042723582</v>
       </c>
       <c r="J40">
-        <v>0.22847029959835191</v>
+        <v>0.009999930042723582</v>
       </c>
       <c r="K40">
-        <v>1.000475545840634</v>
+        <v>0.9999674203744158</v>
       </c>
       <c r="L40">
-        <v>0.61724749863041728</v>
+        <v>0.7452137252485237</v>
       </c>
       <c r="M40">
-        <v>1.00011238767836</v>
+        <v>0.9999516243677122</v>
       </c>
       <c r="N40">
-        <v>0.74189303866320477</v>
+        <v>0.750672111188076</v>
       </c>
       <c r="O40">
-        <v>22.84702995983519</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9999930042723583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.49554362253950213</v>
+        <v>-0.4937942394684183</v>
       </c>
       <c r="C41">
-        <v>2.9426159190312942</v>
+        <v>3.488174711596717</v>
       </c>
       <c r="D41">
-        <v>0.49999999999964878</v>
+        <v>0.500000000290487</v>
       </c>
       <c r="E41">
-        <v>-2.9418772038109209</v>
+        <v>-3.487146008347441</v>
       </c>
       <c r="F41">
-        <v>4.4563774601467654E-3</v>
+        <v>0.006205760822068696</v>
       </c>
       <c r="G41">
-        <v>7.3871522037283199E-4</v>
+        <v>0.001028703249276841</v>
       </c>
       <c r="H41">
-        <v>0.15669281422206191</v>
+        <v>0.1849079623517472</v>
       </c>
       <c r="I41">
-        <v>0.15669281422206191</v>
+        <v>0.1849079623517473</v>
       </c>
       <c r="J41">
-        <v>0.15669281422206191</v>
+        <v>0.1849079623517473</v>
       </c>
       <c r="K41">
-        <v>0.99954797197666834</v>
+        <v>0.9999951282706461</v>
       </c>
       <c r="L41">
-        <v>0.7739421663889513</v>
+        <v>0.7634186612397401</v>
       </c>
       <c r="M41">
-        <v>0.99955299821611343</v>
+        <v>0.9999545076353359</v>
       </c>
       <c r="N41">
-        <v>0.86067458405162522</v>
+        <v>0.8656993526725024</v>
       </c>
       <c r="O41">
-        <v>15.66928142220619</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18.49079623517472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.26734233424257642</v>
+        <v>-0.2997166542731684</v>
       </c>
       <c r="C42">
-        <v>8.0775006014057062</v>
+        <v>0.690510475194775</v>
       </c>
       <c r="D42">
-        <v>0.30000000000072879</v>
+        <v>0.3000000002949054</v>
       </c>
       <c r="E42">
-        <v>-8.0720870755154159</v>
+        <v>-0.6904635060991899</v>
       </c>
       <c r="F42">
-        <v>3.2657665758152432E-2</v>
+        <v>0.0002833460217370187</v>
       </c>
       <c r="G42">
-        <v>5.4135258902903161E-3</v>
+        <v>4.69690955851032e-05</v>
       </c>
       <c r="H42">
-        <v>0.42418046714865099</v>
+        <v>0.03951087574996711</v>
       </c>
       <c r="I42">
-        <v>0.42418046714865099</v>
+        <v>0.03951087574996712</v>
       </c>
       <c r="J42">
-        <v>0.42418046714865099</v>
+        <v>0.03951087574996712</v>
       </c>
       <c r="K42">
-        <v>1.000024771832482</v>
+        <v>0.9999577465225039</v>
       </c>
       <c r="L42">
-        <v>0.7374733031486479</v>
+        <v>0.7783858018338805</v>
       </c>
       <c r="M42">
-        <v>0.99949721005346437</v>
+        <v>1.000050447255362</v>
       </c>
       <c r="N42">
-        <v>0.97026198246307249</v>
+        <v>0.799590954096145</v>
       </c>
       <c r="O42">
-        <v>42.418046714865113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.951087574996712</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.36897086824653391</v>
+        <v>-0.4874489879567153</v>
       </c>
       <c r="C43">
-        <v>-28.332003452725221</v>
+        <v>-8.066107404882864</v>
       </c>
       <c r="D43">
-        <v>0.40659148502639009</v>
+        <v>0.4905101584602681</v>
       </c>
       <c r="E43">
-        <v>28.351324658380062</v>
+        <v>8.067679561585923</v>
       </c>
       <c r="F43">
-        <v>3.7620616779856231E-2</v>
+        <v>0.003061170503552757</v>
       </c>
       <c r="G43">
-        <v>1.9321205654836859E-2</v>
+        <v>0.00157215670305888</v>
       </c>
       <c r="H43">
-        <v>1.4871706262157409</v>
+        <v>0.4242204527910926</v>
       </c>
       <c r="I43">
-        <v>1.4871706262157409</v>
+        <v>0.4242204527910926</v>
       </c>
       <c r="J43">
-        <v>1.4871706262157409</v>
+        <v>0.4242204527910926</v>
       </c>
       <c r="K43">
-        <v>1.0000000000000011</v>
+        <v>0.9997943112278614</v>
       </c>
       <c r="L43">
-        <v>0.2460395791768947</v>
+        <v>0.2741638675433569</v>
       </c>
       <c r="M43">
-        <v>1.000700000000011</v>
+        <v>1.000011384449252</v>
       </c>
       <c r="N43">
-        <v>0.17053394938438571</v>
+        <v>0.2531756228012375</v>
       </c>
       <c r="O43">
-        <v>74.358531310787043</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21.21102263955463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-8.9176003890593644E-2</v>
+        <v>-0.1045817959915888</v>
       </c>
       <c r="C44">
-        <v>12.65537266146932</v>
+        <v>-1.444999215494923</v>
       </c>
       <c r="D44">
-        <v>9.6670825997817289E-2</v>
+        <v>0.1046801499809329</v>
       </c>
       <c r="E44">
-        <v>-12.651523468880921</v>
+        <v>1.445049728161055</v>
       </c>
       <c r="F44">
-        <v>7.4948221072236448E-3</v>
+        <v>9.835398934408823e-05</v>
       </c>
       <c r="G44">
-        <v>3.8491925884009959E-3</v>
+        <v>5.051266613187444e-05</v>
       </c>
       <c r="H44">
-        <v>0.66378664095949436</v>
+        <v>0.07604030203415515</v>
       </c>
       <c r="I44">
-        <v>0.66378664095949436</v>
+        <v>0.07604030203415514</v>
       </c>
       <c r="J44">
-        <v>0.66378664095949436</v>
+        <v>0.07604030203415515</v>
       </c>
       <c r="K44">
-        <v>1.000700000000011</v>
+        <v>1.000011384449252</v>
       </c>
       <c r="L44">
-        <v>0.17053394938438571</v>
+        <v>0.2531756228012375</v>
       </c>
       <c r="M44">
-        <v>1.000399999999986</v>
+        <v>1.000051062292019</v>
       </c>
       <c r="N44">
-        <v>0.20459723614304659</v>
+        <v>0.2494404537450054</v>
       </c>
       <c r="O44">
-        <v>66.378664095949432</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.604030203415515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-6.1670825992188642E-2</v>
+        <v>-0.06968014703759225</v>
       </c>
       <c r="C45">
-        <v>-4.0360707796667397</v>
+        <v>1.022979977604311</v>
       </c>
       <c r="D45">
-        <v>6.2433728873999637E-2</v>
+        <v>0.06972940743517</v>
       </c>
       <c r="E45">
-        <v>4.0364625915171519</v>
+        <v>-1.02295467843716</v>
       </c>
       <c r="F45">
-        <v>7.6290288181100202E-4</v>
+        <v>4.92603975777578e-05</v>
       </c>
       <c r="G45">
-        <v>3.918118504122603E-4</v>
+        <v>2.52991671509939e-05</v>
       </c>
       <c r="H45">
-        <v>0.2117787940329742</v>
+        <v>0.05381418898196515</v>
       </c>
       <c r="I45">
-        <v>0.21177879403297409</v>
+        <v>0.05381418898196515</v>
       </c>
       <c r="J45">
-        <v>0.2117787940329742</v>
+        <v>0.05381418898196515</v>
       </c>
       <c r="K45">
-        <v>1.000399999999986</v>
+        <v>1.000051062292019</v>
       </c>
       <c r="L45">
-        <v>0.20459723614304659</v>
+        <v>0.2494404537450054</v>
       </c>
       <c r="M45">
-        <v>1.0004999999999979</v>
+        <v>1.000029710635558</v>
       </c>
       <c r="N45">
-        <v>0.19385569074504741</v>
+        <v>0.2522828548433622</v>
       </c>
       <c r="O45">
-        <v>21.177879403297421</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.381418898196515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-3.2433728873683718E-2</v>
+        <v>-0.03972940447529445</v>
       </c>
       <c r="C46">
-        <v>12.542234867068331</v>
+        <v>1.611618113787292</v>
       </c>
       <c r="D46">
-        <v>3.9797771015328318E-2</v>
+        <v>0.03985118000003489</v>
       </c>
       <c r="E46">
-        <v>-12.538452840486951</v>
+        <v>-1.611555572283228</v>
       </c>
       <c r="F46">
-        <v>7.364042141644607E-3</v>
+        <v>0.0001217755247404362</v>
       </c>
       <c r="G46">
-        <v>3.7820265813852671E-3</v>
+        <v>6.254150406426184e-05</v>
       </c>
       <c r="H46">
-        <v>0.65796982313971764</v>
+        <v>0.08461119874105487</v>
       </c>
       <c r="I46">
-        <v>0.65796982313971764</v>
+        <v>0.08461119874105487</v>
       </c>
       <c r="J46">
-        <v>0.65796982313971764</v>
+        <v>0.08461119874105487</v>
       </c>
       <c r="K46">
-        <v>1.0004999999999979</v>
+        <v>1.000029710635558</v>
       </c>
       <c r="L46">
-        <v>0.19385569074504741</v>
+        <v>0.2522828548433622</v>
       </c>
       <c r="M46">
-        <v>1.000199999999998</v>
+        <v>0.9999927909688686</v>
       </c>
       <c r="N46">
-        <v>0.22755086720839829</v>
+        <v>0.2566644944292782</v>
       </c>
       <c r="O46">
-        <v>65.796982313971768</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.461119874105487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.022289839227875E-4</v>
+        <v>0.0001488229453976645</v>
       </c>
       <c r="C47">
-        <v>2.0778285204516092</v>
+        <v>-1.782121250228451</v>
       </c>
       <c r="D47">
-        <v>-5.8567387051233766E-13</v>
+        <v>2.931772097661267e-09</v>
       </c>
       <c r="E47">
-        <v>-2.0777246596404129</v>
+        <v>1.782197684259196</v>
       </c>
       <c r="F47">
-        <v>2.022289833371136E-4</v>
+        <v>0.0001488258771697622</v>
       </c>
       <c r="G47">
-        <v>1.0386081119584389E-4</v>
+        <v>7.643403074419908e-05</v>
       </c>
       <c r="H47">
-        <v>0.1090359074816334</v>
+        <v>0.0935377822382036</v>
       </c>
       <c r="I47">
-        <v>0.1090359074816334</v>
+        <v>0.09353778223820361</v>
       </c>
       <c r="J47">
-        <v>0.1090359074816334</v>
+        <v>0.09353778223820361</v>
       </c>
       <c r="K47">
-        <v>1.000199999999998</v>
+        <v>0.9999927909688686</v>
       </c>
       <c r="L47">
-        <v>0.22755086720839829</v>
+        <v>0.2566644944292782</v>
       </c>
       <c r="M47">
-        <v>1.000150000000003</v>
+        <v>1.000035676527569</v>
       </c>
       <c r="N47">
-        <v>0.23312729812644739</v>
+        <v>0.2518796939472455</v>
       </c>
       <c r="O47">
-        <v>10.903590748163341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.353778223820362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.31741548113307633</v>
+        <v>-0.3859283595160584</v>
       </c>
       <c r="C48">
-        <v>28.514997268024199</v>
+        <v>0.9619399757790603</v>
       </c>
       <c r="D48">
-        <v>0.35546860967328597</v>
+        <v>0.3859786980926491</v>
       </c>
       <c r="E48">
-        <v>-28.495453932872699</v>
+        <v>-0.9619141228804654</v>
       </c>
       <c r="F48">
-        <v>3.8053128540209702E-2</v>
+        <v>5.033857659070273e-05</v>
       </c>
       <c r="G48">
-        <v>1.954333515150708E-2</v>
+        <v>2.585289859491358e-05</v>
       </c>
       <c r="H48">
-        <v>1.4956949497569181</v>
+        <v>0.05439992596847996</v>
       </c>
       <c r="I48">
-        <v>1.495694949756919</v>
+        <v>0.05439992596847994</v>
       </c>
       <c r="J48">
-        <v>1.495694949756919</v>
+        <v>0.05439992596847996</v>
       </c>
       <c r="K48">
-        <v>1.000700000000011</v>
+        <v>1.000011384449252</v>
       </c>
       <c r="L48">
-        <v>0.17053394938438571</v>
+        <v>0.2531756228012375</v>
       </c>
       <c r="M48">
-        <v>1.0000300000000031</v>
+        <v>1.000006320237394</v>
       </c>
       <c r="N48">
-        <v>0.2474740269112321</v>
+        <v>0.2562903854917804</v>
       </c>
       <c r="O48">
-        <v>74.78474748784592</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.719996298423998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.31046860967792489</v>
+        <v>-0.3409786951498236</v>
       </c>
       <c r="C49">
-        <v>-0.47586677997539151</v>
+        <v>0.1162478710859064</v>
       </c>
       <c r="D49">
-        <v>0.31048373689024389</v>
+        <v>0.3409847765011829</v>
       </c>
       <c r="E49">
-        <v>0.47587454901282938</v>
+        <v>-0.1162447478239738</v>
       </c>
       <c r="F49">
-        <v>1.512721231905489E-5</v>
+        <v>6.081351359266129e-06</v>
       </c>
       <c r="G49">
-        <v>7.7690374378769356E-6</v>
+        <v>3.123261932608257e-06</v>
       </c>
       <c r="H49">
-        <v>2.98213496263591E-2</v>
+        <v>0.01890810003321159</v>
       </c>
       <c r="I49">
-        <v>2.982134962635909E-2</v>
+        <v>0.01890810003321159</v>
       </c>
       <c r="J49">
-        <v>2.98213496263591E-2</v>
+        <v>0.01890810003321159</v>
       </c>
       <c r="K49">
-        <v>1.0000300000000031</v>
+        <v>1.000006320237394</v>
       </c>
       <c r="L49">
-        <v>0.2474740269112321</v>
+        <v>0.2562903854917804</v>
       </c>
       <c r="M49">
-        <v>1.0000559999999989</v>
+        <v>1.000019500705154</v>
       </c>
       <c r="N49">
-        <v>0.2466245692632115</v>
+        <v>0.2570726446428793</v>
       </c>
       <c r="O49">
-        <v>2.9821349626359099</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.890810003321159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.24548373689049399</v>
+        <v>-0.2759847735494796</v>
       </c>
       <c r="C50">
-        <v>-0.31154924044767668</v>
+        <v>-1.514164248570619</v>
       </c>
       <c r="D50">
-        <v>0.24549110824547149</v>
+        <v>0.2760957728705737</v>
       </c>
       <c r="E50">
-        <v>0.31155302622998621</v>
+        <v>1.514221255629354</v>
       </c>
       <c r="F50">
-        <v>7.3713549775256126E-6</v>
+        <v>0.0001109993210940408</v>
       </c>
       <c r="G50">
-        <v>3.7857823094733511E-6</v>
+        <v>5.700705873445955e-05</v>
       </c>
       <c r="H50">
-        <v>2.0817161240002359E-2</v>
+        <v>0.08078077296032381</v>
       </c>
       <c r="I50">
-        <v>2.0817161240002359E-2</v>
+        <v>0.08078077296032381</v>
       </c>
       <c r="J50">
-        <v>2.0817161240002359E-2</v>
+        <v>0.08078077296032381</v>
       </c>
       <c r="K50">
-        <v>1.0000559999999989</v>
+        <v>1.000019500705154</v>
       </c>
       <c r="L50">
-        <v>0.2466245692632115</v>
+        <v>0.2570726446428793</v>
       </c>
       <c r="M50">
-        <v>1.0000750000000129</v>
+        <v>1.000068874371744</v>
       </c>
       <c r="N50">
-        <v>0.24612666524537261</v>
+        <v>0.2533882154007533</v>
       </c>
       <c r="O50">
-        <v>2.081716124000236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.078077296032381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.23049110824029009</v>
+        <v>-0.261095769931197</v>
       </c>
       <c r="C51">
-        <v>-0.27842421398977751</v>
+        <v>4.469751607439768</v>
       </c>
       <c r="D51">
-        <v>0.23049635489543099</v>
+        <v>0.2619008465754101</v>
       </c>
       <c r="E51">
-        <v>0.27842690856822028</v>
+        <v>-4.469338135978049</v>
       </c>
       <c r="F51">
-        <v>5.2466551409557924E-6</v>
+        <v>0.0008050766442130319</v>
       </c>
       <c r="G51">
-        <v>2.6945784428189512E-6</v>
+        <v>0.000413471461719439</v>
       </c>
       <c r="H51">
-        <v>1.8969788884640779E-2</v>
+        <v>0.2349848438350922</v>
       </c>
       <c r="I51">
-        <v>1.8969788884640779E-2</v>
+        <v>0.2349848438350922</v>
       </c>
       <c r="J51">
-        <v>1.8969788884640779E-2</v>
+        <v>0.2349848438350922</v>
       </c>
       <c r="K51">
-        <v>1.0000750000000129</v>
+        <v>1.000068874371744</v>
       </c>
       <c r="L51">
-        <v>0.24612666524537261</v>
+        <v>0.2533882154007533</v>
       </c>
       <c r="M51">
-        <v>1.000090000000003</v>
+        <v>0.9999871816017444</v>
       </c>
       <c r="N51">
-        <v>0.24575840607075219</v>
+        <v>0.2639824578143751</v>
       </c>
       <c r="O51">
-        <v>1.8969788884640779</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23.49848438350922</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.1804963548842386</v>
+        <v>-0.2119008436305684</v>
       </c>
       <c r="C52">
-        <v>3.676570311799729</v>
+        <v>-0.5326783680500548</v>
       </c>
       <c r="D52">
-        <v>0.18113117509283999</v>
+        <v>0.2119162443176066</v>
       </c>
       <c r="E52">
-        <v>-3.6762442806802502</v>
+        <v>0.5326862775387062</v>
       </c>
       <c r="F52">
-        <v>6.3482020860142208E-4</v>
+        <v>1.54006870381751e-05</v>
       </c>
       <c r="G52">
-        <v>3.2603111947882008E-4</v>
+        <v>7.909488651480778e-06</v>
       </c>
       <c r="H52">
-        <v>0.19318491666875859</v>
+        <v>0.0300897022997567</v>
       </c>
       <c r="I52">
-        <v>0.19318491666875859</v>
+        <v>0.0300897022997567</v>
       </c>
       <c r="J52">
-        <v>0.19318491666875859</v>
+        <v>0.0300897022997567</v>
       </c>
       <c r="K52">
-        <v>1.000090000000003</v>
+        <v>0.9999871816017444</v>
       </c>
       <c r="L52">
-        <v>0.24575840607075219</v>
+        <v>0.2639824578143751</v>
       </c>
       <c r="M52">
-        <v>1.0000100000000109</v>
+        <v>1.000009931158291</v>
       </c>
       <c r="N52">
-        <v>0.255877324755655</v>
+        <v>0.2628444793329771</v>
       </c>
       <c r="O52">
-        <v>19.318491666875861</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.008970229975671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.12528603567108471</v>
+        <v>-0.1363545506939939</v>
       </c>
       <c r="C53">
-        <v>-0.46244082922040342</v>
+        <v>0.3896419526668898</v>
       </c>
       <c r="D53">
-        <v>0.12529679196662599</v>
+        <v>0.1363625360234997</v>
       </c>
       <c r="E53">
-        <v>0.46244635344132329</v>
+        <v>-0.3896378515593905</v>
       </c>
       <c r="F53">
-        <v>1.075629554134205E-5</v>
+        <v>7.985329505827421e-06</v>
       </c>
       <c r="G53">
-        <v>5.5242209199835024E-6</v>
+        <v>4.101107499265844e-06</v>
       </c>
       <c r="H53">
-        <v>2.5146596107376129E-2</v>
+        <v>0.02166677452939388</v>
       </c>
       <c r="I53">
-        <v>2.5146596107376129E-2</v>
+        <v>0.02166677452939388</v>
       </c>
       <c r="J53">
-        <v>2.5146596107376129E-2</v>
+        <v>0.02166677452939388</v>
       </c>
       <c r="K53">
-        <v>1.0000100000000109</v>
+        <v>1.000009931158291</v>
       </c>
       <c r="L53">
-        <v>0.255877324755655</v>
+        <v>0.2628444793329771</v>
       </c>
       <c r="M53">
-        <v>1.0000270000000091</v>
+        <v>1.000006943758257</v>
       </c>
       <c r="N53">
-        <v>0.25480853446880958</v>
+        <v>0.2640786069098506</v>
       </c>
       <c r="O53">
-        <v>2.5146596107376129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.166677452939388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-8.4696791954806547E-2</v>
+        <v>-0.09576253309458363</v>
       </c>
       <c r="C54">
-        <v>-12.003684689348949</v>
+        <v>0.8850243542618448</v>
       </c>
       <c r="D54">
-        <v>9.1448676633373444E-2</v>
+        <v>0.09579966585736333</v>
       </c>
       <c r="E54">
-        <v>12.007152323949301</v>
+        <v>-0.8850052836083679</v>
       </c>
       <c r="F54">
-        <v>6.7518846785668968E-3</v>
+        <v>3.713276277969579e-05</v>
       </c>
       <c r="G54">
-        <v>3.467634600351488E-3</v>
+        <v>1.907065347683812e-05</v>
       </c>
       <c r="H54">
-        <v>0.63002872561110157</v>
+        <v>0.04672254325470541</v>
       </c>
       <c r="I54">
-        <v>0.63002872561110135</v>
+        <v>0.04672254325470541</v>
       </c>
       <c r="J54">
-        <v>0.63002872561110157</v>
+        <v>0.04672254325470541</v>
       </c>
       <c r="K54">
-        <v>1.0000270000000091</v>
+        <v>1.000006943758257</v>
       </c>
       <c r="L54">
-        <v>0.25480853446880958</v>
+        <v>0.2640786069098506</v>
       </c>
       <c r="M54">
-        <v>1.000320000000003</v>
+        <v>0.9999901331194826</v>
       </c>
       <c r="N54">
-        <v>0.22270834447851731</v>
+        <v>0.2665868191866058</v>
       </c>
       <c r="O54">
-        <v>63.002872561110159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.672254325470542</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-3.8948676623293328E-2</v>
+        <v>-0.04329966291828233</v>
       </c>
       <c r="C55">
-        <v>10.530648221021901</v>
+        <v>1.579953609643877</v>
       </c>
       <c r="D55">
-        <v>4.340000000743701E-2</v>
+        <v>0.04340000294289952</v>
       </c>
       <c r="E55">
-        <v>-10.528362109259181</v>
+        <v>-1.579902076989258</v>
       </c>
       <c r="F55">
-        <v>4.4513233841436822E-3</v>
+        <v>0.0001003400246171876</v>
       </c>
       <c r="G55">
-        <v>2.2861117627215322E-3</v>
+        <v>5.153265461821377e-05</v>
       </c>
       <c r="H55">
-        <v>0.55254265637642852</v>
+        <v>0.08295801267360134</v>
       </c>
       <c r="I55">
-        <v>0.55254265637642852</v>
+        <v>0.08295801267360133</v>
       </c>
       <c r="J55">
-        <v>0.55254265637642852</v>
+        <v>0.08295801267360134</v>
       </c>
       <c r="K55">
-        <v>1.000320000000003</v>
+        <v>0.9999901331194826</v>
       </c>
       <c r="L55">
-        <v>0.22270834447851731</v>
+        <v>0.2665868191866058</v>
       </c>
       <c r="M55">
-        <v>1.0001044958427261</v>
+        <v>0.9999592825895464</v>
       </c>
       <c r="N55">
-        <v>0.24697827261850139</v>
+        <v>0.270274131412536</v>
       </c>
       <c r="O55">
-        <v>55.254265637642852</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.295801267360133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-5.5845139407991552E-2</v>
+        <v>-0.07556169067184411</v>
       </c>
       <c r="C56">
-        <v>-13.68063059754811</v>
+        <v>0.2351262082756706</v>
       </c>
       <c r="D56">
-        <v>6.3362435945765155E-2</v>
+        <v>0.07556414046093882</v>
       </c>
       <c r="E56">
-        <v>13.6844913325601</v>
+        <v>-0.2351249501123824</v>
       </c>
       <c r="F56">
-        <v>7.5172965377736031E-3</v>
+        <v>2.449789094707833e-06</v>
       </c>
       <c r="G56">
-        <v>3.860735011992134E-3</v>
+        <v>1.258163288164749e-06</v>
       </c>
       <c r="H56">
-        <v>0.71804568910637945</v>
+        <v>0.01296240500050134</v>
       </c>
       <c r="I56">
-        <v>0.71804568910637923</v>
+        <v>0.01296240500050134</v>
       </c>
       <c r="J56">
-        <v>0.71804568910637945</v>
+        <v>0.01296240500050134</v>
       </c>
       <c r="K56">
-        <v>1.0000100000000109</v>
+        <v>1.000009931158291</v>
       </c>
       <c r="L56">
-        <v>0.255877324755655</v>
+        <v>0.2628444793329771</v>
       </c>
       <c r="M56">
-        <v>1.0002945958845511</v>
+        <v>1.000008115987265</v>
       </c>
       <c r="N56">
-        <v>0.2244696369672233</v>
+        <v>0.2634748708559894</v>
       </c>
       <c r="O56">
-        <v>71.80456891063794</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.296240500050134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-2.976243595052773E-2</v>
+        <v>-0.0419641375139032</v>
       </c>
       <c r="C57">
-        <v>3.9653156845378659</v>
+        <v>4.273607356854668</v>
       </c>
       <c r="D57">
-        <v>3.039364767202006E-2</v>
+        <v>0.04269776392656612</v>
       </c>
       <c r="E57">
-        <v>-3.9649915066660859</v>
+        <v>-4.27323058082051</v>
       </c>
       <c r="F57">
-        <v>6.312117214923238E-4</v>
+        <v>0.0007336264126629188</v>
       </c>
       <c r="G57">
-        <v>3.2417787177951851E-4</v>
+        <v>0.0003767760341579773</v>
       </c>
       <c r="H57">
-        <v>0.20806966384647049</v>
+        <v>0.2243152073622411</v>
       </c>
       <c r="I57">
-        <v>0.2080696638464706</v>
+        <v>0.2243152073622411</v>
       </c>
       <c r="J57">
-        <v>0.2080696638464706</v>
+        <v>0.2243152073622411</v>
       </c>
       <c r="K57">
-        <v>1.0002945958845511</v>
+        <v>1.000008115987265</v>
       </c>
       <c r="L57">
-        <v>0.2244696369672233</v>
+        <v>0.2634748708559894</v>
       </c>
       <c r="M57">
-        <v>1.0002140308849501</v>
+        <v>0.9999216606762558</v>
       </c>
       <c r="N57">
-        <v>0.23362554296303539</v>
+        <v>0.2733600218861721</v>
       </c>
       <c r="O57">
-        <v>20.806966384647058</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22.43152073622412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.230635233027157E-2</v>
+        <v>2.239012024883276e-06</v>
       </c>
       <c r="C58">
-        <v>-17.507819405085289</v>
+        <v>-0.2362398173570381</v>
       </c>
       <c r="D58">
-        <v>3.7966990662496869E-12</v>
+        <v>2.933948455496535e-09</v>
       </c>
       <c r="E58">
-        <v>17.514139704555632</v>
+        <v>0.2362409687762046</v>
       </c>
       <c r="F58">
-        <v>1.2306352334068269E-2</v>
+        <v>2.241945973338773e-06</v>
       </c>
       <c r="G58">
-        <v>6.3202994703352999E-3</v>
+        <v>1.151419166567358e-06</v>
       </c>
       <c r="H58">
-        <v>0.9187257955367244</v>
+        <v>0.01240034617568995</v>
       </c>
       <c r="I58">
-        <v>0.9187257955367244</v>
+        <v>0.01240034617568994</v>
       </c>
       <c r="J58">
-        <v>0.9187257955367244</v>
+        <v>0.01240034617568995</v>
       </c>
       <c r="K58">
-        <v>1.0002140308849501</v>
+        <v>0.9999216606762558</v>
       </c>
       <c r="L58">
-        <v>0.23362554296303539</v>
+        <v>0.2733600218861721</v>
       </c>
       <c r="M58">
-        <v>1.0005748596365409</v>
+        <v>0.9999265341915188</v>
       </c>
       <c r="N58">
-        <v>0.19335199903937861</v>
+        <v>0.2728162776402503</v>
       </c>
       <c r="O58">
-        <v>91.872579553672438</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.240034617568995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-1.9308061578578271</v>
+        <v>-2.468660956291019</v>
       </c>
       <c r="C59">
-        <v>28.74609928945728</v>
+        <v>-2.062036575035709</v>
       </c>
       <c r="D59">
-        <v>1.9696560162941079</v>
+        <v>2.469146021400989</v>
       </c>
       <c r="E59">
-        <v>-28.72614676956902</v>
+        <v>2.062285694894656</v>
       </c>
       <c r="F59">
-        <v>3.884985843628086E-2</v>
+        <v>0.0004850651099697068</v>
       </c>
       <c r="G59">
-        <v>1.9952519888260412E-2</v>
+        <v>0.0002491198589473775</v>
       </c>
       <c r="H59">
-        <v>1.511271747536409</v>
+        <v>0.1688681952599956</v>
       </c>
       <c r="I59">
-        <v>1.511271747536409</v>
+        <v>0.1688681952599956</v>
       </c>
       <c r="J59">
-        <v>1.511271747536409</v>
+        <v>0.1688681952599956</v>
       </c>
       <c r="K59">
-        <v>1.0005999999999899</v>
+        <v>0.9997489945929747</v>
       </c>
       <c r="L59">
-        <v>0.17678811035171491</v>
+        <v>0.2759989322748829</v>
       </c>
       <c r="M59">
-        <v>1.0000000000000051</v>
+        <v>0.9999143422279139</v>
       </c>
       <c r="N59">
-        <v>0.25658164018569229</v>
+        <v>0.2738659557326975</v>
       </c>
       <c r="O59">
-        <v>75.563587376820479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.443409762999778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.33820813459991922</v>
+        <v>-0.4873969991926377</v>
       </c>
       <c r="C60">
-        <v>25.635177200709439</v>
+        <v>-0.9334936342327944</v>
       </c>
       <c r="D60">
-        <v>0.36897086824349812</v>
+        <v>0.4874489908959895</v>
       </c>
       <c r="E60">
-        <v>-25.619378068369031</v>
+        <v>0.9335203361446391</v>
       </c>
       <c r="F60">
-        <v>3.0762733643578899E-2</v>
+        <v>5.19917033517947e-05</v>
       </c>
       <c r="G60">
-        <v>1.579913234040831E-2</v>
+        <v>2.67019118447287e-05</v>
       </c>
       <c r="H60">
-        <v>1.344808067569331</v>
+        <v>0.05528596140102877</v>
       </c>
       <c r="I60">
-        <v>1.344808067569331</v>
+        <v>0.05528596140102875</v>
       </c>
       <c r="J60">
-        <v>1.344808067569331</v>
+        <v>0.05528596140102877</v>
       </c>
       <c r="K60">
-        <v>1.0005999999999899</v>
+        <v>0.9997489945929747</v>
       </c>
       <c r="L60">
-        <v>0.17678811035171491</v>
+        <v>0.2759989322748829</v>
       </c>
       <c r="M60">
-        <v>1.0000000000000011</v>
+        <v>0.9997943112278614</v>
       </c>
       <c r="N60">
-        <v>0.2460395791768947</v>
+        <v>0.2741638675433569</v>
       </c>
       <c r="O60">
-        <v>67.240403378466553</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.764298070051439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-14.638600379520691</v>
+        <v>-15.68624921271947</v>
       </c>
       <c r="C61">
-        <v>16.849353826011509</v>
+        <v>30.42010617628612</v>
       </c>
       <c r="D61">
-        <v>14.6993341897221</v>
+        <v>15.82906644755732</v>
       </c>
       <c r="E61">
-        <v>-16.814188245852179</v>
+        <v>-30.33741334171557</v>
       </c>
       <c r="F61">
-        <v>6.0733810201409E-2</v>
+        <v>0.1428172348378478</v>
       </c>
       <c r="G61">
-        <v>3.5165580159326033E-2</v>
+        <v>0.08269283457054755</v>
       </c>
       <c r="H61">
-        <v>1.171504348770626</v>
+        <v>1.796465789446629</v>
       </c>
       <c r="I61">
-        <v>1.171504348770626</v>
+        <v>1.796465789446629</v>
       </c>
       <c r="J61">
-        <v>1.171504348770626</v>
+        <v>1.796465789446629</v>
       </c>
       <c r="K61">
-        <v>1.00000000000001</v>
+        <v>0.9999723627083705</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61">
-        <v>1.0005999999999899</v>
+        <v>0.9997489945929747</v>
       </c>
       <c r="N61">
-        <v>0.17678811035171491</v>
+        <v>0.2759989322748829</v>
       </c>
       <c r="O61">
-        <v>58.575217438531332</v>
+        <v>89.82328947233147</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>75</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/line_ev.xlsx
+++ b/result/line_ev.xlsx
@@ -468,46 +468,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.469146018462075</v>
+        <v>2.512311540612045</v>
       </c>
       <c r="C2">
-        <v>1.186899638191192</v>
+        <v>0.860882333750651</v>
       </c>
       <c r="D2">
-        <v>2.469497778644142</v>
+        <v>-2.511981183000088</v>
       </c>
       <c r="E2">
-        <v>-1.186718981110032</v>
+        <v>-0.860712668606732</v>
       </c>
       <c r="F2">
-        <v>0.0003517601820668403</v>
+        <v>0.0003303576119573215</v>
       </c>
       <c r="G2">
-        <v>0.0001806570811602182</v>
+        <v>0.0001696651439190289</v>
       </c>
       <c r="H2">
-        <v>0.1438040713563252</v>
+        <v>0.1393605983208034</v>
       </c>
       <c r="I2">
-        <v>0.1438040713563252</v>
+        <v>0.1393605983208034</v>
       </c>
       <c r="J2">
-        <v>0.1438040713563252</v>
+        <v>0.1393605983208034</v>
       </c>
       <c r="K2">
-        <v>0.9999143422279139</v>
+        <v>1.000203388240797</v>
       </c>
       <c r="L2">
-        <v>0.2738659557326975</v>
+        <v>-0.1338215771628684</v>
       </c>
       <c r="M2">
-        <v>1.000001495204969</v>
+        <v>1.000064972828369</v>
       </c>
       <c r="N2">
-        <v>0.2804578331853104</v>
+        <v>-0.1349741197214263</v>
       </c>
       <c r="O2">
-        <v>9.586938090421683</v>
+        <v>9.290706554720225</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -515,46 +515,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.280497775711234</v>
+        <v>2.322981160386572</v>
       </c>
       <c r="C3">
-        <v>4.630800922469957</v>
+        <v>0.8607126593631693</v>
       </c>
       <c r="D3">
-        <v>2.281746342869456</v>
+        <v>-2.322693617800941</v>
       </c>
       <c r="E3">
-        <v>-4.630159683040549</v>
+        <v>-0.860564983171043</v>
       </c>
       <c r="F3">
-        <v>0.001248567158221192</v>
+        <v>0.0002875425856312397</v>
       </c>
       <c r="G3">
-        <v>0.0006412394294077473</v>
+        <v>0.0001476761921263003</v>
       </c>
       <c r="H3">
-        <v>0.2709279412260017</v>
+        <v>0.1300166374807626</v>
       </c>
       <c r="I3">
-        <v>0.2709279412260017</v>
+        <v>0.1300166374807626</v>
       </c>
       <c r="J3">
-        <v>0.2709279412260017</v>
+        <v>0.1300166374807626</v>
       </c>
       <c r="K3">
-        <v>1.000001495204969</v>
+        <v>1.000064972828369</v>
       </c>
       <c r="L3">
-        <v>0.2804578331853104</v>
+        <v>-0.1349741197214263</v>
       </c>
       <c r="M3">
-        <v>0.9999969497752743</v>
+        <v>0.9999354136117194</v>
       </c>
       <c r="N3">
-        <v>0.2960354202858904</v>
+        <v>-0.1358663616289451</v>
       </c>
       <c r="O3">
-        <v>18.06186274840011</v>
+        <v>8.66777583205084</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -562,46 +562,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.965560760409428</v>
+        <v>2.002333641024073</v>
       </c>
       <c r="C4">
-        <v>4.005744491980163</v>
+        <v>-6.27424039501349</v>
       </c>
       <c r="D4">
-        <v>1.966493711557658</v>
+        <v>-2.000300827187793</v>
       </c>
       <c r="E4">
-        <v>-4.005265346699098</v>
+        <v>6.275284408045455</v>
       </c>
       <c r="F4">
-        <v>0.000932951148229888</v>
+        <v>0.002032813836279956</v>
       </c>
       <c r="G4">
-        <v>0.0004791452810657404</v>
+        <v>0.001044013031965108</v>
       </c>
       <c r="H4">
-        <v>0.2341948253895499</v>
+        <v>0.3456978250724197</v>
       </c>
       <c r="I4">
-        <v>0.2341948253895499</v>
+        <v>0.3456978250724196</v>
       </c>
       <c r="J4">
-        <v>0.2341948253895499</v>
+        <v>0.3456978250724197</v>
       </c>
       <c r="K4">
-        <v>0.9999969497752743</v>
+        <v>0.9999354136117194</v>
       </c>
       <c r="L4">
-        <v>0.2960354202858904</v>
+        <v>-0.1358663616289451</v>
       </c>
       <c r="M4">
-        <v>0.9999926798696871</v>
+        <v>0.9999926440951248</v>
       </c>
       <c r="N4">
-        <v>0.3095006763293119</v>
+        <v>-0.155474169901938</v>
       </c>
       <c r="O4">
-        <v>23.41948253895499</v>
+        <v>34.56978250724197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -609,46 +609,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.22496215291412</v>
+        <v>1.228883300576222</v>
       </c>
       <c r="C5">
-        <v>2.009725374135509</v>
+        <v>-2.769588123150191</v>
       </c>
       <c r="D5">
-        <v>1.22522173626634</v>
+        <v>-1.228453087798339</v>
       </c>
       <c r="E5">
-        <v>-2.009592057253381</v>
+        <v>2.769809071934881</v>
       </c>
       <c r="F5">
-        <v>0.0002595833522198721</v>
+        <v>0.0004302127778825771</v>
       </c>
       <c r="G5">
-        <v>0.0001333168821280317</v>
+        <v>0.0002209487846900338</v>
       </c>
       <c r="H5">
-        <v>0.1235339310136917</v>
+        <v>0.1590338218406807</v>
       </c>
       <c r="I5">
-        <v>0.1235339310136917</v>
+        <v>0.1590338218406806</v>
       </c>
       <c r="J5">
-        <v>0.1235339310136917</v>
+        <v>0.1590338218406807</v>
       </c>
       <c r="K5">
-        <v>0.9999926798696871</v>
+        <v>0.9999926440951248</v>
       </c>
       <c r="L5">
-        <v>0.3095006763293119</v>
+        <v>-0.155474169901938</v>
       </c>
       <c r="M5">
-        <v>1.000001722416862</v>
+        <v>1.000001725225278</v>
       </c>
       <c r="N5">
-        <v>0.3165856150444903</v>
+        <v>-0.1646046460903015</v>
       </c>
       <c r="O5">
-        <v>12.35339310136917</v>
+        <v>15.90338218406807</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -656,46 +656,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.057921733337779</v>
+        <v>1.061153083169306</v>
       </c>
       <c r="C6">
-        <v>2.206552120905885</v>
+        <v>-1.919168482326132</v>
       </c>
       <c r="D6">
-        <v>1.058202330392823</v>
+        <v>-1.060927724711257</v>
       </c>
       <c r="E6">
-        <v>-2.206408011801072</v>
+        <v>1.919284221978661</v>
       </c>
       <c r="F6">
-        <v>0.0002805970550441295</v>
+        <v>0.0002253584580484969</v>
       </c>
       <c r="G6">
-        <v>0.0001441091048133281</v>
+        <v>0.0001157396525286458</v>
       </c>
       <c r="H6">
-        <v>0.1284367766162437</v>
+        <v>0.1151025047467141</v>
       </c>
       <c r="I6">
-        <v>0.1284367766162438</v>
+        <v>0.1151025047467141</v>
       </c>
       <c r="J6">
-        <v>0.1284367766162438</v>
+        <v>0.1151025047467141</v>
       </c>
       <c r="K6">
-        <v>1.000001722416862</v>
+        <v>1.000001725225278</v>
       </c>
       <c r="L6">
-        <v>0.3165856150444903</v>
+        <v>-0.1646046460903015</v>
       </c>
       <c r="M6">
-        <v>0.9999982012743093</v>
+        <v>0.9999981937213921</v>
       </c>
       <c r="N6">
-        <v>0.3239686354750997</v>
+        <v>-0.1712205396696795</v>
       </c>
       <c r="O6">
-        <v>12.84367766162438</v>
+        <v>11.51025047467141</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -703,46 +703,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.7323845215577389</v>
+        <v>0.7343789363846225</v>
       </c>
       <c r="C7">
-        <v>1.189764003115078</v>
+        <v>-1.666467230051612</v>
       </c>
       <c r="D7">
-        <v>0.7324759881464372</v>
+        <v>-0.7342235297710804</v>
       </c>
       <c r="E7">
-        <v>-1.18971702768187</v>
+        <v>1.666547043818567</v>
       </c>
       <c r="F7">
-        <v>9.146658869829682e-05</v>
+        <v>0.0001554066135420751</v>
       </c>
       <c r="G7">
-        <v>4.697543320797415e-05</v>
+        <v>7.981376695509468e-05</v>
       </c>
       <c r="H7">
-        <v>0.07332956086906468</v>
+        <v>0.09558342571970996</v>
       </c>
       <c r="I7">
-        <v>0.07332956086906468</v>
+        <v>0.09558342571970993</v>
       </c>
       <c r="J7">
-        <v>0.07332956086906468</v>
+        <v>0.09558342571970996</v>
       </c>
       <c r="K7">
-        <v>0.9999982012743093</v>
+        <v>0.9999981937213921</v>
       </c>
       <c r="L7">
-        <v>0.3239686354750997</v>
+        <v>-0.1712205396696795</v>
       </c>
       <c r="M7">
-        <v>1.000003890154015</v>
+        <v>1.000003891077364</v>
       </c>
       <c r="N7">
-        <v>0.328172842124031</v>
+        <v>-0.1767073712744211</v>
       </c>
       <c r="O7">
-        <v>7.332956086906468</v>
+        <v>9.558342571970996</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -750,46 +750,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.6176759852254092</v>
+        <v>0.619423525122461</v>
       </c>
       <c r="C8">
-        <v>1.111786659969843</v>
+        <v>-1.296960809312857</v>
       </c>
       <c r="D8">
-        <v>0.6177517842509084</v>
+        <v>-0.619326723847458</v>
       </c>
       <c r="E8">
-        <v>-1.111747731087611</v>
+        <v>1.297010524535574</v>
       </c>
       <c r="F8">
-        <v>7.579902549914586e-05</v>
+        <v>9.680127500300006e-05</v>
       </c>
       <c r="G8">
-        <v>3.892888223178126e-05</v>
+        <v>4.971522271746132e-05</v>
       </c>
       <c r="H8">
-        <v>0.06675436273463979</v>
+        <v>0.0754376901243847</v>
       </c>
       <c r="I8">
-        <v>0.06675436273463979</v>
+        <v>0.0754376901243847</v>
       </c>
       <c r="J8">
-        <v>0.06675436273463979</v>
+        <v>0.0754376901243847</v>
       </c>
       <c r="K8">
-        <v>1.000003890154015</v>
+        <v>1.000003891077364</v>
       </c>
       <c r="L8">
-        <v>0.328172842124031</v>
+        <v>-0.1767073712744211</v>
       </c>
       <c r="M8">
-        <v>1.000006079991471</v>
+        <v>1.000006080862365</v>
       </c>
       <c r="N8">
-        <v>0.3320094916079875</v>
+        <v>-0.1810435905821711</v>
       </c>
       <c r="O8">
-        <v>6.675436273463979</v>
+        <v>7.54376901243847</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -797,46 +797,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.5141517813213536</v>
+        <v>0.5157267192148463</v>
       </c>
       <c r="C9">
-        <v>1.049276772752599</v>
+        <v>-0.9557294457028374</v>
       </c>
       <c r="D9">
-        <v>0.5142157594082252</v>
+        <v>-0.5156714541241373</v>
       </c>
       <c r="E9">
-        <v>-1.049243914870946</v>
+        <v>0.9557578287617695</v>
       </c>
       <c r="F9">
-        <v>6.397808687153006e-05</v>
+        <v>5.52650907089669e-05</v>
       </c>
       <c r="G9">
-        <v>3.285788165263703e-05</v>
+        <v>2.838305893215765e-05</v>
       </c>
       <c r="H9">
-        <v>0.06132865889308674</v>
+        <v>0.05699979408825447</v>
       </c>
       <c r="I9">
-        <v>0.06132865889308672</v>
+        <v>0.05699979408825447</v>
       </c>
       <c r="J9">
-        <v>0.06132865889308674</v>
+        <v>0.05699979408825447</v>
       </c>
       <c r="K9">
-        <v>1.000006079991471</v>
+        <v>1.000006080862365</v>
       </c>
       <c r="L9">
-        <v>0.3320094916079875</v>
+        <v>-0.1810435905821711</v>
       </c>
       <c r="M9">
-        <v>1.000004922773513</v>
+        <v>1.00000491650224</v>
       </c>
       <c r="N9">
-        <v>0.3355355625980894</v>
+        <v>-0.1843206752792546</v>
       </c>
       <c r="O9">
-        <v>4.088577259539116</v>
+        <v>3.799986272550298</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -844,46 +844,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2415127519187456</v>
+        <v>0.2423519232782682</v>
       </c>
       <c r="C10">
-        <v>0.5767691754118124</v>
+        <v>-0.3658273789151369</v>
       </c>
       <c r="D10">
-        <v>0.2415310733870067</v>
+        <v>-0.242342899907543</v>
       </c>
       <c r="E10">
-        <v>-0.5767597658676189</v>
+        <v>0.3658320131401021</v>
       </c>
       <c r="F10">
-        <v>1.832146826116765e-05</v>
+        <v>9.023370725280699e-06</v>
       </c>
       <c r="G10">
-        <v>9.409544193483832e-06</v>
+        <v>4.634224965160971e-06</v>
       </c>
       <c r="H10">
-        <v>0.03281919924351877</v>
+        <v>0.02303203137916444</v>
       </c>
       <c r="I10">
-        <v>0.03281919924351877</v>
+        <v>0.02303203137916444</v>
       </c>
       <c r="J10">
-        <v>0.03281919924351877</v>
+        <v>0.02303203137916444</v>
       </c>
       <c r="K10">
-        <v>1.000004922773513</v>
+        <v>1.00000491650224</v>
       </c>
       <c r="L10">
-        <v>0.3355355625980894</v>
+        <v>-0.1843206752792546</v>
       </c>
       <c r="M10">
-        <v>1.000002359899426</v>
+        <v>1.000002364331789</v>
       </c>
       <c r="N10">
-        <v>0.3374171074241508</v>
+        <v>-0.1856370338803617</v>
       </c>
       <c r="O10">
-        <v>3.281919924351877</v>
+        <v>2.303203137916444</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -891,46 +891,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1271855795291927</v>
+        <v>0.1313599729957532</v>
       </c>
       <c r="C11">
-        <v>1.017809135662239</v>
+        <v>-4.405762107782014</v>
       </c>
       <c r="D11">
-        <v>0.1274000029220642</v>
+        <v>-0.12740000395938</v>
       </c>
       <c r="E11">
-        <v>-1.01778704118368</v>
+        <v>4.406170148387099</v>
       </c>
       <c r="F11">
-        <v>0.0002144233928715045</v>
+        <v>0.003959969036373245</v>
       </c>
       <c r="G11">
-        <v>2.209447855983093e-05</v>
+        <v>0.0004080406050857022</v>
       </c>
       <c r="H11">
-        <v>0.05383676037486325</v>
+        <v>0.2313602429000537</v>
       </c>
       <c r="I11">
-        <v>0.05383676037486324</v>
+        <v>0.2313602429000537</v>
       </c>
       <c r="J11">
-        <v>0.05383676037486325</v>
+        <v>0.2313602429000537</v>
       </c>
       <c r="K11">
-        <v>0.9999969497752743</v>
+        <v>0.9999354136117194</v>
       </c>
       <c r="L11">
-        <v>0.2960354202858904</v>
+        <v>-0.1358663616289451</v>
       </c>
       <c r="M11">
-        <v>1.00000151850017</v>
+        <v>1.00000157312937</v>
       </c>
       <c r="N11">
-        <v>0.3080734013414929</v>
+        <v>-0.1874736464556613</v>
       </c>
       <c r="O11">
-        <v>5.383676037486325</v>
+        <v>23.13602429000537</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -938,46 +938,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.5525315557270962</v>
+        <v>0.5824175221377921</v>
       </c>
       <c r="C12">
-        <v>5.016088919999443</v>
+        <v>-5.98807454057564</v>
       </c>
       <c r="D12">
-        <v>0.5585867638395647</v>
+        <v>-0.5738110647567938</v>
       </c>
       <c r="E12">
-        <v>-5.015464983105129</v>
+        <v>5.988961361670741</v>
       </c>
       <c r="F12">
-        <v>0.006055208112468513</v>
+        <v>0.0086064573809983</v>
       </c>
       <c r="G12">
-        <v>0.0006239368943141699</v>
+        <v>0.0008868210951007427</v>
       </c>
       <c r="H12">
-        <v>0.2648707362513986</v>
+        <v>0.3157778423311534</v>
       </c>
       <c r="I12">
-        <v>0.2648707362513986</v>
+        <v>0.3157778423311534</v>
       </c>
       <c r="J12">
-        <v>0.2648707362513986</v>
+        <v>0.3157778423311534</v>
       </c>
       <c r="K12">
-        <v>0.9999926798696871</v>
+        <v>0.9999926440951248</v>
       </c>
       <c r="L12">
-        <v>0.3095006763293119</v>
+        <v>-0.155474169901938</v>
       </c>
       <c r="M12">
-        <v>1.000001887880268</v>
+        <v>1.000001905386841</v>
       </c>
       <c r="N12">
-        <v>0.3786115493525787</v>
+        <v>-0.2378685738213087</v>
       </c>
       <c r="O12">
-        <v>26.48707362513986</v>
+        <v>31.57778423311533</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -985,46 +985,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.4535867609715724</v>
+        <v>0.4688110599934395</v>
       </c>
       <c r="C13">
-        <v>4.595319095068646</v>
+        <v>-4.358321899876347</v>
       </c>
       <c r="D13">
-        <v>0.4586566099022306</v>
+        <v>-0.4642424124376856</v>
       </c>
       <c r="E13">
-        <v>-4.594796690927009</v>
+        <v>4.358792659545413</v>
       </c>
       <c r="F13">
-        <v>0.005069848930658261</v>
+        <v>0.004568647555753869</v>
       </c>
       <c r="G13">
-        <v>0.0005224041416376224</v>
+        <v>0.0004707596690662896</v>
       </c>
       <c r="H13">
-        <v>0.2423633523496002</v>
+        <v>0.2300717361481658</v>
       </c>
       <c r="I13">
-        <v>0.2423633523496002</v>
+        <v>0.2300717361481658</v>
       </c>
       <c r="J13">
-        <v>0.2423633523496002</v>
+        <v>0.2300717361481658</v>
       </c>
       <c r="K13">
-        <v>1.000001887880268</v>
+        <v>1.000001905386841</v>
       </c>
       <c r="L13">
-        <v>0.3786115493525787</v>
+        <v>-0.2378685738213087</v>
       </c>
       <c r="M13">
-        <v>0.9999977603734782</v>
+        <v>0.9999977646328914</v>
       </c>
       <c r="N13">
-        <v>0.4418509668850923</v>
+        <v>-0.2979007128628411</v>
       </c>
       <c r="O13">
-        <v>24.23633523496002</v>
+        <v>23.00717361481658</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.3116566071016881</v>
+        <v>0.3172424075758082</v>
       </c>
       <c r="C14">
-        <v>3.034392000295208</v>
+        <v>-3.068748298816229</v>
       </c>
       <c r="D14">
-        <v>0.3138689740531141</v>
+        <v>-0.3149793495277629</v>
       </c>
       <c r="E14">
-        <v>-3.034164034990116</v>
+        <v>3.068981487400984</v>
       </c>
       <c r="F14">
-        <v>0.002212366951425959</v>
+        <v>0.00226305804804533</v>
       </c>
       <c r="G14">
-        <v>0.0002279653050920594</v>
+        <v>0.000233188584755073</v>
       </c>
       <c r="H14">
-        <v>0.1601024665892758</v>
+        <v>0.1619262613069896</v>
       </c>
       <c r="I14">
-        <v>0.1601024665892758</v>
+        <v>0.1619262613069895</v>
       </c>
       <c r="J14">
-        <v>0.1601024665892758</v>
+        <v>0.1619262613069896</v>
       </c>
       <c r="K14">
-        <v>0.9999977603734782</v>
+        <v>0.9999977646328914</v>
       </c>
       <c r="L14">
-        <v>0.4418509668850923</v>
+        <v>-0.2979007128628411</v>
       </c>
       <c r="M14">
-        <v>0.9999977857313992</v>
+        <v>0.9999977905833595</v>
       </c>
       <c r="N14">
-        <v>0.4836265814739899</v>
+        <v>-0.340152210924106</v>
       </c>
       <c r="O14">
-        <v>16.01024665892758</v>
+        <v>16.19262613069895</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.1675689712885799</v>
+        <v>0.1686793445990843</v>
       </c>
       <c r="C15">
-        <v>1.444599223711356</v>
+        <v>-1.817930078736936</v>
       </c>
       <c r="D15">
-        <v>0.1680000027445066</v>
+        <v>-0.1680000049636095</v>
       </c>
       <c r="E15">
-        <v>-1.444554809642844</v>
+        <v>1.818000078818596</v>
       </c>
       <c r="F15">
-        <v>0.0004310314559266559</v>
+        <v>0.0006793396354748127</v>
       </c>
       <c r="G15">
-        <v>4.441406851185548e-05</v>
+        <v>7.000008166002658e-05</v>
       </c>
       <c r="H15">
-        <v>0.07633036149920484</v>
+        <v>0.09582665165710835</v>
       </c>
       <c r="I15">
-        <v>0.07633036149920484</v>
+        <v>0.09582665165710834</v>
       </c>
       <c r="J15">
-        <v>0.07633036149920484</v>
+        <v>0.09582665165710835</v>
       </c>
       <c r="K15">
-        <v>0.9999977857313992</v>
+        <v>0.9999977905833595</v>
       </c>
       <c r="L15">
-        <v>0.4836265814739899</v>
+        <v>-0.340152210924106</v>
       </c>
       <c r="M15">
-        <v>1.000001644370932</v>
+        <v>1.000001659947109</v>
       </c>
       <c r="N15">
-        <v>0.5006967607433176</v>
+        <v>-0.3615831034015768</v>
       </c>
       <c r="O15">
-        <v>7.633036149920485</v>
+        <v>9.582665165710836</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.1368178059002157</v>
+        <v>0.1375487836926299</v>
       </c>
       <c r="C16">
-        <v>1.36257560850089</v>
+        <v>-1.30093782281942</v>
       </c>
       <c r="D16">
-        <v>0.1372000029143729</v>
+        <v>-0.1372000046628373</v>
       </c>
       <c r="E16">
-        <v>-1.362536226399796</v>
+        <v>1.300973761485872</v>
       </c>
       <c r="F16">
-        <v>0.0003821970141572317</v>
+        <v>0.0003487790297925786</v>
       </c>
       <c r="G16">
-        <v>3.938210109399876e-05</v>
+        <v>3.59386664519068e-05</v>
       </c>
       <c r="H16">
-        <v>0.07187642723124177</v>
+        <v>0.06866224816221053</v>
       </c>
       <c r="I16">
-        <v>0.07187642723124175</v>
+        <v>0.06866224816221053</v>
       </c>
       <c r="J16">
-        <v>0.07187642723124177</v>
+        <v>0.06866224816221053</v>
       </c>
       <c r="K16">
-        <v>0.9999982012743093</v>
+        <v>0.9999981937213921</v>
       </c>
       <c r="L16">
-        <v>0.3239686354750997</v>
+        <v>-0.1712205396696795</v>
       </c>
       <c r="M16">
-        <v>0.9999975102397403</v>
+        <v>0.9999975166629766</v>
       </c>
       <c r="N16">
-        <v>0.3400440860930951</v>
+        <v>-0.1865771238600582</v>
       </c>
       <c r="O16">
-        <v>7.187642723124177</v>
+        <v>6.866224816221053</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1257030045607742</v>
+        <v>0.1263195262013098</v>
       </c>
       <c r="C17">
-        <v>1.200626617708895</v>
+        <v>-1.24573882212717</v>
       </c>
       <c r="D17">
-        <v>0.1260000029105045</v>
+        <v>-0.1260000046616268</v>
       </c>
       <c r="E17">
-        <v>-1.200596014594269</v>
+        <v>1.245771746061977</v>
       </c>
       <c r="F17">
-        <v>0.0002969983497303208</v>
+        <v>0.0003195215396830375</v>
       </c>
       <c r="G17">
-        <v>3.060311462554921e-05</v>
+        <v>3.292393480647249e-05</v>
       </c>
       <c r="H17">
-        <v>0.06336068365457605</v>
+        <v>0.06571929662340521</v>
       </c>
       <c r="I17">
-        <v>0.06336068365457605</v>
+        <v>0.06571929662340521</v>
       </c>
       <c r="J17">
-        <v>0.06336068365457605</v>
+        <v>0.06571929662340521</v>
       </c>
       <c r="K17">
-        <v>1.000004922773513</v>
+        <v>1.00000491650224</v>
       </c>
       <c r="L17">
-        <v>0.3355355625980894</v>
+        <v>-0.1843206752792546</v>
       </c>
       <c r="M17">
-        <v>1.000005358678113</v>
+        <v>1.000005365792173</v>
       </c>
       <c r="N17">
-        <v>0.3497063508115107</v>
+        <v>-0.199018973943014</v>
       </c>
       <c r="O17">
-        <v>6.336068365457605</v>
+        <v>6.571929662340521</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1351310704628314</v>
+        <v>0.1359428952750597</v>
       </c>
       <c r="C18">
-        <v>1.806661840404934</v>
+        <v>-0.8262256083004046</v>
       </c>
       <c r="D18">
-        <v>0.1358000029053903</v>
+        <v>-0.1358000046554724</v>
       </c>
       <c r="E18">
-        <v>-1.806592912694612</v>
+        <v>0.8262403319445396</v>
       </c>
       <c r="F18">
-        <v>0.0006689324425588894</v>
+        <v>0.0001428906195873048</v>
       </c>
       <c r="G18">
-        <v>6.892771032207534e-05</v>
+        <v>1.472364413501737e-05</v>
       </c>
       <c r="H18">
-        <v>0.09508980705222488</v>
+        <v>0.04394856470215189</v>
       </c>
       <c r="I18">
-        <v>0.09508980705222486</v>
+        <v>0.04394856470215189</v>
       </c>
       <c r="J18">
-        <v>0.09508980705222488</v>
+        <v>0.04394856470215189</v>
       </c>
       <c r="K18">
-        <v>1.000002359899426</v>
+        <v>1.000002364331789</v>
       </c>
       <c r="L18">
-        <v>0.3374171074241508</v>
+        <v>-0.1856370338803617</v>
       </c>
       <c r="M18">
-        <v>0.9999920287958189</v>
+        <v>0.9999920243690669</v>
       </c>
       <c r="N18">
-        <v>0.3586761628081203</v>
+        <v>-0.195448472436646</v>
       </c>
       <c r="O18">
-        <v>9.508980705222488</v>
+        <v>4.394856470215189</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-6.677113253227951</v>
+        <v>7.362133397760338</v>
       </c>
       <c r="C19">
-        <v>23.99147486259864</v>
+        <v>-21.0391393397672</v>
       </c>
       <c r="D19">
-        <v>6.94858876781719</v>
+        <v>-7.144850290867583</v>
       </c>
       <c r="E19">
-        <v>-23.90706823301536</v>
+        <v>21.10669657322876</v>
       </c>
       <c r="F19">
-        <v>0.2714755145892394</v>
+        <v>0.2172831068927552</v>
       </c>
       <c r="G19">
-        <v>0.0844066295832846</v>
+        <v>0.06755723346156017</v>
       </c>
       <c r="H19">
-        <v>1.307412812433731</v>
+        <v>1.169662012550552</v>
       </c>
       <c r="I19">
-        <v>1.307412812433731</v>
+        <v>1.169662012550552</v>
       </c>
       <c r="J19">
-        <v>1.307412812433731</v>
+        <v>1.169662012550552</v>
       </c>
       <c r="K19">
-        <v>0.9997489945929747</v>
+        <v>1.00022423336732</v>
       </c>
       <c r="L19">
-        <v>0.2759989322748829</v>
+        <v>-0.1361280933070403</v>
       </c>
       <c r="M19">
-        <v>0.9994717570110343</v>
+        <v>0.9999173160093502</v>
       </c>
       <c r="N19">
-        <v>0.9299852625689272</v>
+        <v>-0.7208478225844115</v>
       </c>
       <c r="O19">
-        <v>87.1608541622487</v>
+        <v>77.97746750337015</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-4.646497568842197</v>
+        <v>4.763235041130273</v>
       </c>
       <c r="C20">
-        <v>3.260954878337863</v>
+        <v>-14.07113068059647</v>
       </c>
       <c r="D20">
-        <v>4.660611039157168</v>
+        <v>-4.666664769623809</v>
       </c>
       <c r="E20">
-        <v>-3.256566746086552</v>
+        <v>14.10115611824279</v>
       </c>
       <c r="F20">
-        <v>0.01411347031497012</v>
+        <v>0.09657027150646424</v>
       </c>
       <c r="G20">
-        <v>0.004388132251311738</v>
+        <v>0.03002543764631938</v>
       </c>
       <c r="H20">
-        <v>0.2981016028808996</v>
+        <v>0.7797746822054272</v>
       </c>
       <c r="I20">
-        <v>0.2981016028808997</v>
+        <v>0.7797746822054272</v>
       </c>
       <c r="J20">
-        <v>0.2981016028808997</v>
+        <v>0.7797746822054272</v>
       </c>
       <c r="K20">
-        <v>0.9994717570110343</v>
+        <v>0.9999173160093502</v>
       </c>
       <c r="L20">
-        <v>0.9299852625689272</v>
+        <v>-0.7208478225844115</v>
       </c>
       <c r="M20">
-        <v>1.001064057380033</v>
+        <v>0.9997705862723731</v>
       </c>
       <c r="N20">
-        <v>1.047883502236766</v>
+        <v>-1.110834098062683</v>
       </c>
       <c r="O20">
-        <v>29.81016028808997</v>
+        <v>77.97746822054272</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-2.302091180186632</v>
+        <v>2.381616594592137</v>
       </c>
       <c r="C21">
-        <v>7.50593552078425</v>
+        <v>-7.035565480076938</v>
       </c>
       <c r="D21">
-        <v>2.329087895513113</v>
+        <v>-2.357474027784903</v>
       </c>
       <c r="E21">
-        <v>-7.497541755497626</v>
+        <v>7.043071839156029</v>
       </c>
       <c r="F21">
-        <v>0.02699671532648118</v>
+        <v>0.02414256680723392</v>
       </c>
       <c r="G21">
-        <v>0.008393765286623278</v>
+        <v>0.007506359079090252</v>
       </c>
       <c r="H21">
-        <v>0.4122900630920179</v>
+        <v>0.3898873324677901</v>
       </c>
       <c r="I21">
-        <v>0.4122900630920179</v>
+        <v>0.3898873324677901</v>
       </c>
       <c r="J21">
-        <v>0.4122900630920179</v>
+        <v>0.3898873324677901</v>
       </c>
       <c r="K21">
-        <v>0.9994717570110343</v>
+        <v>0.9999173160093502</v>
       </c>
       <c r="L21">
-        <v>0.9299852625689272</v>
+        <v>-0.7208478225844115</v>
       </c>
       <c r="M21">
-        <v>0.9994643869100923</v>
+        <v>0.99983816134306</v>
       </c>
       <c r="N21">
-        <v>1.13630736892276</v>
+        <v>-0.9158266485929057</v>
       </c>
       <c r="O21">
-        <v>41.22900630920179</v>
+        <v>38.98873324677901</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.339387530140626</v>
+        <v>-2.333333311578842</v>
       </c>
       <c r="C22">
-        <v>4.256566294136388</v>
+        <v>7.050577925668147</v>
       </c>
       <c r="D22">
-        <v>-2.329087871087571</v>
+        <v>2.357475880524841</v>
       </c>
       <c r="E22">
-        <v>-4.253363944532814</v>
+        <v>-7.043071565924077</v>
       </c>
       <c r="F22">
-        <v>0.01029965905305552</v>
+        <v>0.02414256894599909</v>
       </c>
       <c r="G22">
-        <v>0.003202349603574461</v>
+        <v>0.007506359744070323</v>
       </c>
       <c r="H22">
-        <v>0.2546588822041269</v>
+        <v>0.3898873497376431</v>
       </c>
       <c r="I22">
-        <v>0.2546588822041268</v>
+        <v>0.3898873497376431</v>
       </c>
       <c r="J22">
-        <v>0.2546588822041269</v>
+        <v>0.3898873497376431</v>
       </c>
       <c r="K22">
-        <v>1.001064057380033</v>
+        <v>0.9997705862723731</v>
       </c>
       <c r="L22">
-        <v>1.047883502236766</v>
+        <v>-1.110834098062683</v>
       </c>
       <c r="M22">
-        <v>0.9994643869100923</v>
+        <v>0.99983816134306</v>
       </c>
       <c r="N22">
-        <v>1.13630736892276</v>
+        <v>-0.9158266485929057</v>
       </c>
       <c r="O22">
-        <v>25.46588822041269</v>
+        <v>38.98873497376431</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-6.195895259806643</v>
+        <v>-0.0006718161674588771</v>
       </c>
       <c r="C23">
-        <v>8.341468676107457</v>
+        <v>2.473809162085556</v>
       </c>
       <c r="D23">
-        <v>6.209064299158568</v>
+        <v>0.001417532692669927</v>
       </c>
       <c r="E23">
-        <v>-8.333843649661468</v>
+        <v>-2.473377383572789</v>
       </c>
       <c r="F23">
-        <v>0.01316903935192482</v>
+        <v>0.0007457165252110496</v>
       </c>
       <c r="G23">
-        <v>0.007625026445989391</v>
+        <v>0.0004317785127674334</v>
       </c>
       <c r="H23">
-        <v>0.5455137338444462</v>
+        <v>0.1298122043469841</v>
       </c>
       <c r="I23">
-        <v>0.5455137338444463</v>
+        <v>0.1298122043469841</v>
       </c>
       <c r="J23">
-        <v>0.5455137338444463</v>
+        <v>0.1298122043469841</v>
       </c>
       <c r="K23">
-        <v>0.9997489945929747</v>
+        <v>1.00022423336732</v>
       </c>
       <c r="L23">
-        <v>0.2759989322748829</v>
+        <v>-0.1361280933070403</v>
       </c>
       <c r="M23">
-        <v>0.9999166330160029</v>
+        <v>1.000049781647435</v>
       </c>
       <c r="N23">
-        <v>0.3593491679793365</v>
+        <v>-0.1188508591990884</v>
       </c>
       <c r="O23">
-        <v>36.36758225629642</v>
+        <v>8.654146956465606</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-6.209064298853702</v>
+        <v>4.779286041616371</v>
       </c>
       <c r="C24">
-        <v>9.233774006382504</v>
+        <v>-7.863227748358608</v>
       </c>
       <c r="D24">
-        <v>6.22416099751446</v>
+        <v>-4.768964791773183</v>
       </c>
       <c r="E24">
-        <v>-9.225032842850435</v>
+        <v>7.869203871666226</v>
       </c>
       <c r="F24">
-        <v>0.01509669866075747</v>
+        <v>0.01032124984318816</v>
       </c>
       <c r="G24">
-        <v>0.008741163532068441</v>
+        <v>0.005976123307617875</v>
       </c>
       <c r="H24">
-        <v>0.5840763672913507</v>
+        <v>0.4829417890756082</v>
       </c>
       <c r="I24">
-        <v>0.5840763672913506</v>
+        <v>0.4829417890756083</v>
       </c>
       <c r="J24">
-        <v>0.5840763672913507</v>
+        <v>0.4829417890756083</v>
       </c>
       <c r="K24">
-        <v>0.9999166330160029</v>
+        <v>1.000049781647435</v>
       </c>
       <c r="L24">
-        <v>0.3593491679793365</v>
+        <v>-0.1188508591990884</v>
       </c>
       <c r="M24">
-        <v>1.000023023982372</v>
+        <v>1.000023024152161</v>
       </c>
       <c r="N24">
-        <v>0.4489628525898201</v>
+        <v>-0.1930981313079649</v>
       </c>
       <c r="O24">
-        <v>58.40763672913507</v>
+        <v>48.29417890756083</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1549,46 +1549,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-5.824160997215277</v>
+        <v>4.368964792130221</v>
       </c>
       <c r="C25">
-        <v>11.13459014785613</v>
+        <v>-6.483402153318231</v>
       </c>
       <c r="D25">
-        <v>5.843409550095595</v>
+        <v>-4.361513764285207</v>
       </c>
       <c r="E25">
-        <v>-11.12344501260085</v>
+        <v>6.487716384816046</v>
       </c>
       <c r="F25">
-        <v>0.01924855288031768</v>
+        <v>0.007451027845013947</v>
       </c>
       <c r="G25">
-        <v>0.01114513525528871</v>
+        <v>0.004314231497815513</v>
       </c>
       <c r="H25">
-        <v>0.6595195646027138</v>
+        <v>0.410333272976249</v>
       </c>
       <c r="I25">
-        <v>0.6595195646027138</v>
+        <v>0.4103332729762491</v>
       </c>
       <c r="J25">
-        <v>0.6595195646027138</v>
+        <v>0.4103332729762491</v>
       </c>
       <c r="K25">
-        <v>1.000023023982372</v>
+        <v>1.000023024152161</v>
       </c>
       <c r="L25">
-        <v>0.4489628525898201</v>
+        <v>-0.1930981313079649</v>
       </c>
       <c r="M25">
-        <v>0.9999486529078315</v>
+        <v>0.9999486554720137</v>
       </c>
       <c r="N25">
-        <v>0.5502943078790836</v>
+        <v>-0.2560552005949266</v>
       </c>
       <c r="O25">
-        <v>65.95195646027138</v>
+        <v>41.03332729762491</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1596,46 +1596,46 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-3.966630218459891</v>
+        <v>3.136731803456359</v>
       </c>
       <c r="C26">
-        <v>6.41372145472451</v>
+        <v>-5.856113311586822</v>
       </c>
       <c r="D26">
-        <v>3.973563897831174</v>
+        <v>-3.131351018785304</v>
       </c>
       <c r="E26">
-        <v>-6.409706773990314</v>
+        <v>5.859228848287756</v>
       </c>
       <c r="F26">
-        <v>0.006933679371282864</v>
+        <v>0.005380784671054961</v>
       </c>
       <c r="G26">
-        <v>0.004014680734195863</v>
+        <v>0.003115536700934562</v>
       </c>
       <c r="H26">
-        <v>0.3958316518032916</v>
+        <v>0.3486995986486827</v>
       </c>
       <c r="I26">
-        <v>0.3958316518032916</v>
+        <v>0.3486995986486826</v>
       </c>
       <c r="J26">
-        <v>0.3958316518032916</v>
+        <v>0.3486995986486827</v>
       </c>
       <c r="K26">
-        <v>0.9999486529078315</v>
+        <v>0.9999486554720137</v>
       </c>
       <c r="L26">
-        <v>0.5502943078790836</v>
+        <v>-0.2560552005949266</v>
       </c>
       <c r="M26">
-        <v>0.9999800627170481</v>
+        <v>0.9999800625735284</v>
       </c>
       <c r="N26">
-        <v>0.6111400475778832</v>
+        <v>-0.3096492172480587</v>
       </c>
       <c r="O26">
-        <v>39.58316518032915</v>
+        <v>34.86995986486826</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1643,46 +1643,46 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-3.573563897532188</v>
+        <v>3.131351018966479</v>
       </c>
       <c r="C27">
-        <v>5.287974947625209</v>
+        <v>-6.290772867341428</v>
       </c>
       <c r="D27">
-        <v>3.578529823174018</v>
+        <v>-3.125331007676755</v>
       </c>
       <c r="E27">
-        <v>-5.285099619111421</v>
+        <v>6.294258523664763</v>
       </c>
       <c r="F27">
-        <v>0.004965925641830182</v>
+        <v>0.006020011289724625</v>
       </c>
       <c r="G27">
-        <v>0.002875328513787245</v>
+        <v>0.00348565632333564</v>
       </c>
       <c r="H27">
-        <v>0.3349876122755436</v>
+        <v>0.3688308963195127</v>
       </c>
       <c r="I27">
-        <v>0.3349876122755436</v>
+        <v>0.3688308963195127</v>
       </c>
       <c r="J27">
-        <v>0.3349876122755436</v>
+        <v>0.3688308963195127</v>
       </c>
       <c r="K27">
-        <v>0.9999800627170481</v>
+        <v>0.9999800625735284</v>
       </c>
       <c r="L27">
-        <v>0.6111400475778832</v>
+        <v>-0.3096492172480587</v>
       </c>
       <c r="M27">
-        <v>1.000042854991734</v>
+        <v>1.000042857046211</v>
       </c>
       <c r="N27">
-        <v>0.6625273798898502</v>
+        <v>-0.3662523994193972</v>
       </c>
       <c r="O27">
-        <v>33.49876122755436</v>
+        <v>36.88308963195127</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1690,46 +1690,46 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-2.386310818538918</v>
+        <v>1.909848420686208</v>
       </c>
       <c r="C28">
-        <v>4.854938056259034</v>
+        <v>-2.567518306867624</v>
       </c>
       <c r="D28">
-        <v>2.389878170477017</v>
+        <v>-1.908600218664184</v>
       </c>
       <c r="E28">
-        <v>-4.852872518132582</v>
+        <v>2.568241030308076</v>
       </c>
       <c r="F28">
-        <v>0.003567351938099428</v>
+        <v>0.001248202022023692</v>
       </c>
       <c r="G28">
-        <v>0.002065538126451827</v>
+        <v>0.0007227234404516558</v>
       </c>
       <c r="H28">
-        <v>0.2839236827564207</v>
+        <v>0.1679465481213196</v>
       </c>
       <c r="I28">
-        <v>0.2839236827564208</v>
+        <v>0.1679465481213197</v>
       </c>
       <c r="J28">
-        <v>0.2839236827564208</v>
+        <v>0.1679465481213197</v>
       </c>
       <c r="K28">
-        <v>1.000042854991734</v>
+        <v>1.000042857046211</v>
       </c>
       <c r="L28">
-        <v>0.6625273798898502</v>
+        <v>-0.3662523994193972</v>
       </c>
       <c r="M28">
-        <v>0.9999913647721517</v>
+        <v>0.9999913644753039</v>
       </c>
       <c r="N28">
-        <v>0.7060880507648809</v>
+        <v>-0.3919093668518416</v>
       </c>
       <c r="O28">
-        <v>28.39236827564208</v>
+        <v>16.79465481213197</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1737,46 +1737,46 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.989878170180482</v>
+        <v>1.508600218849306</v>
       </c>
       <c r="C29">
-        <v>2.366719870114162</v>
+        <v>-3.674565622314109</v>
       </c>
       <c r="D29">
-        <v>1.991043760456086</v>
+        <v>-1.506676666549013</v>
       </c>
       <c r="E29">
-        <v>-2.366044979832558</v>
+        <v>3.675679381394632</v>
       </c>
       <c r="F29">
-        <v>0.001165590275604922</v>
+        <v>0.001923552300292286</v>
       </c>
       <c r="G29">
-        <v>0.000674890281604501</v>
+        <v>0.001113759080523025</v>
       </c>
       <c r="H29">
-        <v>0.1622936766066518</v>
+        <v>0.2084877971368512</v>
       </c>
       <c r="I29">
-        <v>0.1622936766066518</v>
+        <v>0.2084877971368512</v>
       </c>
       <c r="J29">
-        <v>0.1622936766066518</v>
+        <v>0.2084877971368512</v>
       </c>
       <c r="K29">
-        <v>0.9999913647721517</v>
+        <v>0.9999913644753039</v>
       </c>
       <c r="L29">
-        <v>0.7060880507648809</v>
+        <v>-0.3919093668518416</v>
       </c>
       <c r="M29">
-        <v>1.000066982544681</v>
+        <v>1.000066982489264</v>
       </c>
       <c r="N29">
-        <v>0.7306655760943007</v>
+        <v>-0.4236751704108245</v>
       </c>
       <c r="O29">
-        <v>16.22936766066518</v>
+        <v>20.84877971368512</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1784,46 +1784,46 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.591043760156758</v>
+        <v>1.106676666737179</v>
       </c>
       <c r="C30">
-        <v>3.768201337161796</v>
+        <v>-0.8930815560889385</v>
       </c>
       <c r="D30">
-        <v>1.593083118877233</v>
+        <v>-1.106430159604516</v>
       </c>
       <c r="E30">
-        <v>-3.767020524821508</v>
+        <v>0.8932242865763683</v>
       </c>
       <c r="F30">
-        <v>0.002039358720475448</v>
+        <v>0.0002465071326636092</v>
       </c>
       <c r="G30">
-        <v>0.001180812340288107</v>
+        <v>0.0001427304874298541</v>
       </c>
       <c r="H30">
-        <v>0.2146720251414184</v>
+        <v>0.07463514590653285</v>
       </c>
       <c r="I30">
-        <v>0.2146720251414184</v>
+        <v>0.07463514590653285</v>
       </c>
       <c r="J30">
-        <v>0.2146720251414184</v>
+        <v>0.07463514590653285</v>
       </c>
       <c r="K30">
-        <v>1.000066982544681</v>
+        <v>1.000066982489264</v>
       </c>
       <c r="L30">
-        <v>0.7306655760943007</v>
+        <v>-0.4236751704108245</v>
       </c>
       <c r="M30">
-        <v>0.9999951282706461</v>
+        <v>0.9999951305860527</v>
       </c>
       <c r="N30">
-        <v>0.7634186612397401</v>
+        <v>-0.4343883287780556</v>
       </c>
       <c r="O30">
-        <v>21.46720251414184</v>
+        <v>7.463514590653284</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1831,46 +1831,46 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.6992888791117543</v>
+        <v>0.7044895848845401</v>
       </c>
       <c r="C31">
-        <v>1.737795106877192</v>
+        <v>-0.6869841495751646</v>
       </c>
       <c r="D31">
-        <v>0.6997166545714368</v>
+        <v>-0.704371544916722</v>
       </c>
       <c r="E31">
-        <v>-1.737547419927077</v>
+        <v>0.6870524960849018</v>
       </c>
       <c r="F31">
-        <v>0.0004277754596825334</v>
+        <v>0.0001180399678180066</v>
       </c>
       <c r="G31">
-        <v>0.0002476869501153445</v>
+        <v>6.834650973719381e-05</v>
       </c>
       <c r="H31">
-        <v>0.09831880117719226</v>
+        <v>0.05164677196354965</v>
       </c>
       <c r="I31">
-        <v>0.09831880117719224</v>
+        <v>0.05164677196354964</v>
       </c>
       <c r="J31">
-        <v>0.09831880117719226</v>
+        <v>0.05164677196354965</v>
       </c>
       <c r="K31">
-        <v>0.9999951282706461</v>
+        <v>0.9999951305860527</v>
       </c>
       <c r="L31">
-        <v>0.7634186612397401</v>
+        <v>-0.4343883287780556</v>
       </c>
       <c r="M31">
-        <v>0.9999577465225039</v>
+        <v>0.999957747624553</v>
       </c>
       <c r="N31">
-        <v>0.7783858018338805</v>
+        <v>-0.4420363729778551</v>
       </c>
       <c r="O31">
-        <v>9.831880117719226</v>
+        <v>5.164677196354965</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1878,46 +1878,46 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.476779331326789</v>
+        <v>1.224781961018979</v>
       </c>
       <c r="C32">
-        <v>4.771470865765478</v>
+        <v>-6.331755398596719</v>
       </c>
       <c r="D32">
-        <v>1.484949238374334</v>
+        <v>-1.211161672980209</v>
       </c>
       <c r="E32">
-        <v>-4.769485145948516</v>
+        <v>6.335065849464021</v>
       </c>
       <c r="F32">
-        <v>0.008169907047544944</v>
+        <v>0.01362028803876991</v>
       </c>
       <c r="G32">
-        <v>0.001985719816961939</v>
+        <v>0.00331045086730164</v>
       </c>
       <c r="H32">
-        <v>0.2621713401468587</v>
+        <v>0.338508674610392</v>
       </c>
       <c r="I32">
-        <v>0.2621713401468587</v>
+        <v>0.338508674610392</v>
       </c>
       <c r="J32">
-        <v>0.2621713401468587</v>
+        <v>0.338508674610392</v>
       </c>
       <c r="K32">
-        <v>0.9999486529078315</v>
+        <v>0.9999486554720137</v>
       </c>
       <c r="L32">
-        <v>0.5502943078790836</v>
+        <v>-0.2560552005949266</v>
       </c>
       <c r="M32">
-        <v>1.000053889308227</v>
+        <v>1.000053890734304</v>
       </c>
       <c r="N32">
-        <v>0.6465471506666766</v>
+        <v>-0.3804318697659779</v>
       </c>
       <c r="O32">
-        <v>26.21713401468587</v>
+        <v>33.8508674610392</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1925,46 +1925,46 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.3961570248333094</v>
+        <v>0.8092297189391614</v>
       </c>
       <c r="C33">
-        <v>1.984396760833201</v>
+        <v>-2.971121679821455</v>
       </c>
       <c r="D33">
-        <v>0.3974976978338727</v>
+        <v>-0.8061250714640777</v>
       </c>
       <c r="E33">
-        <v>-1.984070906336963</v>
+        <v>2.971876273475957</v>
       </c>
       <c r="F33">
-        <v>0.001340673000563231</v>
+        <v>0.003104647475083655</v>
       </c>
       <c r="G33">
-        <v>0.0003258544962374543</v>
+        <v>0.0007545936545025889</v>
       </c>
       <c r="H33">
-        <v>0.1062033186988316</v>
+        <v>0.1616154230915448</v>
       </c>
       <c r="I33">
-        <v>0.1062033186988316</v>
+        <v>0.1616154230915448</v>
       </c>
       <c r="J33">
-        <v>0.1062033186988316</v>
+        <v>0.1616154230915448</v>
       </c>
       <c r="K33">
-        <v>1.000053889308227</v>
+        <v>1.000053890734304</v>
       </c>
       <c r="L33">
-        <v>0.6465471506666766</v>
+        <v>-0.3804318697659779</v>
       </c>
       <c r="M33">
-        <v>1.000025911292872</v>
+        <v>1.000025912917362</v>
       </c>
       <c r="N33">
-        <v>0.6855803523543198</v>
+        <v>-0.4398592895593121</v>
       </c>
       <c r="O33">
-        <v>10.62033186988316</v>
+        <v>16.16154230915448</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1972,46 +1972,46 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.3975156141179284</v>
+        <v>0.4035550122143363</v>
       </c>
       <c r="C34">
-        <v>2.19338301435093</v>
+        <v>-2.635795729225736</v>
       </c>
       <c r="D34">
-        <v>0.4000000002901839</v>
+        <v>-0.3999999998085551</v>
       </c>
       <c r="E34">
-        <v>-2.192971187952664</v>
+        <v>2.636385028897107</v>
       </c>
       <c r="F34">
-        <v>0.002484386172255493</v>
+        <v>0.003555012405781155</v>
       </c>
       <c r="G34">
-        <v>0.0004118263982664239</v>
+        <v>0.0005892996713710019</v>
       </c>
       <c r="H34">
-        <v>0.1169950932243201</v>
+        <v>0.139951854102613</v>
       </c>
       <c r="I34">
-        <v>0.1169950932243201</v>
+        <v>0.139951854102613</v>
       </c>
       <c r="J34">
-        <v>0.1169950932243201</v>
+        <v>0.139951854102613</v>
       </c>
       <c r="K34">
-        <v>1.000025911292872</v>
+        <v>1.000025912917362</v>
       </c>
       <c r="L34">
-        <v>0.6855803523543198</v>
+        <v>-0.4398592895593121</v>
       </c>
       <c r="M34">
-        <v>1.000043512937636</v>
+        <v>1.000043510732299</v>
       </c>
       <c r="N34">
-        <v>0.7503004763213893</v>
+        <v>-0.5172816223092547</v>
       </c>
       <c r="O34">
-        <v>11.69950932243201</v>
+        <v>13.9951854102613</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2019,46 +2019,46 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.791657954573495e-05</v>
+        <v>0.40257005943847</v>
       </c>
       <c r="C35">
-        <v>0.1893013810989669</v>
+        <v>-2.231196548044784</v>
       </c>
       <c r="D35">
-        <v>2.94704103134813e-10</v>
+        <v>-0.3999999998094758</v>
       </c>
       <c r="E35">
-        <v>-0.189298411092986</v>
+        <v>2.231622576176867</v>
       </c>
       <c r="F35">
-        <v>1.791687424983809e-05</v>
+        <v>0.002570059628994203</v>
       </c>
       <c r="G35">
-        <v>2.970005980929002e-06</v>
+        <v>0.000426028132083367</v>
       </c>
       <c r="H35">
-        <v>0.009935488360921367</v>
+        <v>0.1189952692388338</v>
       </c>
       <c r="I35">
-        <v>0.009935488360921367</v>
+        <v>0.1189952692388337</v>
       </c>
       <c r="J35">
-        <v>0.009935488360921367</v>
+        <v>0.1189952692388338</v>
       </c>
       <c r="K35">
-        <v>1.000025911292872</v>
+        <v>1.000025912917362</v>
       </c>
       <c r="L35">
-        <v>0.6855803523543198</v>
+        <v>-0.4398592895593121</v>
       </c>
       <c r="M35">
-        <v>1.000010217108321</v>
+        <v>1.000010216183736</v>
       </c>
       <c r="N35">
-        <v>0.6910032460903427</v>
+        <v>-0.505688828092886</v>
       </c>
       <c r="O35">
-        <v>0.9935488360921366</v>
+        <v>11.89952692388338</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2066,46 +2066,46 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.688792213245533</v>
+        <v>0.4019319542283361</v>
       </c>
       <c r="C36">
-        <v>4.684355325683698</v>
+        <v>-1.924243262990907</v>
       </c>
       <c r="D36">
-        <v>0.7000000002879313</v>
+        <v>-0.3999999998112885</v>
       </c>
       <c r="E36">
-        <v>-4.682497457280725</v>
+        <v>1.924563515066883</v>
       </c>
       <c r="F36">
-        <v>0.01120778704239833</v>
+        <v>0.001931954417047521</v>
       </c>
       <c r="G36">
-        <v>0.001857868402972862</v>
+        <v>0.0003202520759750804</v>
       </c>
       <c r="H36">
-        <v>0.2484952155204192</v>
+        <v>0.1031707372088778</v>
       </c>
       <c r="I36">
-        <v>0.2484952155204191</v>
+        <v>0.1031707372088778</v>
       </c>
       <c r="J36">
-        <v>0.2484952155204192</v>
+        <v>0.1031707372088778</v>
       </c>
       <c r="K36">
-        <v>1.000053889308227</v>
+        <v>1.000053890734304</v>
       </c>
       <c r="L36">
-        <v>0.6465471506666766</v>
+        <v>-0.3804318697659779</v>
       </c>
       <c r="M36">
-        <v>1.000012911962643</v>
+        <v>1.00001290862386</v>
       </c>
       <c r="N36">
-        <v>0.7840082323725363</v>
+        <v>-0.4374632323858297</v>
       </c>
       <c r="O36">
-        <v>24.84952155204192</v>
+        <v>10.31707372088778</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2113,46 +2113,46 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.7922190043332487</v>
+        <v>1.215482587171443</v>
       </c>
       <c r="C37">
-        <v>3.332852094093726</v>
+        <v>-4.917545913551135</v>
       </c>
       <c r="D37">
-        <v>0.7960614254176264</v>
+        <v>-1.207081148467726</v>
       </c>
       <c r="E37">
-        <v>-3.331918182404405</v>
+        <v>4.919587907814702</v>
       </c>
       <c r="F37">
-        <v>0.003842421084377712</v>
+        <v>0.008401438703716346</v>
       </c>
       <c r="G37">
-        <v>0.0009339116893212207</v>
+        <v>0.002041994263566771</v>
       </c>
       <c r="H37">
-        <v>0.179795631195241</v>
+        <v>0.2658602984443563</v>
       </c>
       <c r="I37">
-        <v>0.1797956311952409</v>
+        <v>0.2658602984443563</v>
       </c>
       <c r="J37">
-        <v>0.179795631195241</v>
+        <v>0.2658602984443563</v>
       </c>
       <c r="K37">
-        <v>1.000042854991734</v>
+        <v>1.000042857046211</v>
       </c>
       <c r="L37">
-        <v>0.6625273798898502</v>
+        <v>-0.3662523994193972</v>
       </c>
       <c r="M37">
-        <v>1.00003767966767</v>
+        <v>1.000037680399007</v>
       </c>
       <c r="N37">
-        <v>0.7286631805384765</v>
+        <v>-0.4640466593087983</v>
       </c>
       <c r="O37">
-        <v>17.9795631195241</v>
+        <v>26.58602984443563</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2160,46 +2160,46 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0002729945720776495</v>
+        <v>0.804702513588651</v>
       </c>
       <c r="C38">
-        <v>0.8822353789024322</v>
+        <v>-2.423347972162436</v>
       </c>
       <c r="D38">
-        <v>-1.814945571780927e-05</v>
+        <v>-0.8025676718307411</v>
       </c>
       <c r="E38">
-        <v>-0.8821734380511023</v>
+        <v>2.423866851699265</v>
       </c>
       <c r="F38">
-        <v>0.0002548451163598402</v>
+        <v>0.0021348417579099</v>
       </c>
       <c r="G38">
-        <v>6.194085132993354e-05</v>
+        <v>0.0005188795368287202</v>
       </c>
       <c r="H38">
-        <v>0.0463036060121955</v>
+        <v>0.1340168793360821</v>
       </c>
       <c r="I38">
-        <v>0.04630360601219549</v>
+        <v>0.1340168793360821</v>
       </c>
       <c r="J38">
-        <v>0.0463036060121955</v>
+        <v>0.1340168793360821</v>
       </c>
       <c r="K38">
-        <v>1.00003767966767</v>
+        <v>1.000037680399007</v>
       </c>
       <c r="L38">
-        <v>0.7286631805384765</v>
+        <v>-0.4640466593087983</v>
       </c>
       <c r="M38">
-        <v>0.9999674203744158</v>
+        <v>0.9999674203581029</v>
       </c>
       <c r="N38">
-        <v>0.7452137252485237</v>
+        <v>-0.5131809811806596</v>
       </c>
       <c r="O38">
-        <v>4.63036060121955</v>
+        <v>13.40168793360821</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2207,46 +2207,46 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.3963344196910678</v>
+        <v>0.4023786350681398</v>
       </c>
       <c r="C39">
-        <v>2.678527865616589</v>
+        <v>-2.143744814766761</v>
       </c>
       <c r="D39">
-        <v>0.4000000002913777</v>
+        <v>-0.3999999998103706</v>
       </c>
       <c r="E39">
-        <v>-2.677920237513905</v>
+        <v>2.144139111274259</v>
       </c>
       <c r="F39">
-        <v>0.003665580600309915</v>
+        <v>0.002378635257769157</v>
       </c>
       <c r="G39">
-        <v>0.0006076281026841102</v>
+        <v>0.0003942965074985594</v>
       </c>
       <c r="H39">
-        <v>0.1421115848623123</v>
+        <v>0.114477997022966</v>
       </c>
       <c r="I39">
-        <v>0.1421115848623123</v>
+        <v>0.114477997022966</v>
       </c>
       <c r="J39">
-        <v>0.1421115848623123</v>
+        <v>0.114477997022966</v>
       </c>
       <c r="K39">
-        <v>1.00003767966767</v>
+        <v>1.000037680399007</v>
       </c>
       <c r="L39">
-        <v>0.7286631805384765</v>
+        <v>-0.4640466593087983</v>
       </c>
       <c r="M39">
-        <v>1.000014784444775</v>
+        <v>1.000014782148853</v>
       </c>
       <c r="N39">
-        <v>0.8072766807367538</v>
+        <v>-0.5273689944599679</v>
       </c>
       <c r="O39">
-        <v>14.21115848623123</v>
+        <v>11.4477997022966</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2254,46 +2254,46 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.814975166217073e-05</v>
+        <v>0.4025676720173849</v>
       </c>
       <c r="C40">
-        <v>0.1905180478940037</v>
+        <v>-2.229991973463442</v>
       </c>
       <c r="D40">
-        <v>2.943896099116827e-10</v>
+        <v>-0.3999999998088996</v>
       </c>
       <c r="E40">
-        <v>-0.1905150392360996</v>
+        <v>2.230417605842723</v>
       </c>
       <c r="F40">
-        <v>1.815004605178064e-05</v>
+        <v>0.002567672208485305</v>
       </c>
       <c r="G40">
-        <v>3.008657904035594e-06</v>
+        <v>0.0004256323792812822</v>
       </c>
       <c r="H40">
-        <v>0.009999930042723582</v>
+        <v>0.1189399869120248</v>
       </c>
       <c r="I40">
-        <v>0.009999930042723582</v>
+        <v>0.1189399869120248</v>
       </c>
       <c r="J40">
-        <v>0.009999930042723582</v>
+        <v>0.1189399869120248</v>
       </c>
       <c r="K40">
-        <v>0.9999674203744158</v>
+        <v>0.9999674203581029</v>
       </c>
       <c r="L40">
-        <v>0.7452137252485237</v>
+        <v>-0.5131809811806596</v>
       </c>
       <c r="M40">
-        <v>0.9999516243677122</v>
+        <v>0.9999516234416395</v>
       </c>
       <c r="N40">
-        <v>0.750672111188076</v>
+        <v>-0.578983704681207</v>
       </c>
       <c r="O40">
-        <v>0.9999930042723583</v>
+        <v>11.89399869120248</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2301,46 +2301,46 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.4937942394684183</v>
+        <v>0.4019405749034369</v>
       </c>
       <c r="C41">
-        <v>3.488174711596717</v>
+        <v>-1.928598457034392</v>
       </c>
       <c r="D41">
-        <v>0.500000000290487</v>
+        <v>-0.3999999998126627</v>
       </c>
       <c r="E41">
-        <v>-3.487146008347441</v>
+        <v>1.928920138123719</v>
       </c>
       <c r="F41">
-        <v>0.006205760822068696</v>
+        <v>0.001940575090774166</v>
       </c>
       <c r="G41">
-        <v>0.001028703249276841</v>
+        <v>0.0003216810893269528</v>
       </c>
       <c r="H41">
-        <v>0.1849079623517472</v>
+        <v>0.1034006627449977</v>
       </c>
       <c r="I41">
-        <v>0.1849079623517473</v>
+        <v>0.1034006627449976</v>
       </c>
       <c r="J41">
-        <v>0.1849079623517473</v>
+        <v>0.1034006627449977</v>
       </c>
       <c r="K41">
-        <v>0.9999951282706461</v>
+        <v>0.9999951305860527</v>
       </c>
       <c r="L41">
-        <v>0.7634186612397401</v>
+        <v>-0.4343883287780556</v>
       </c>
       <c r="M41">
-        <v>0.9999545076353359</v>
+        <v>0.9999545049649925</v>
       </c>
       <c r="N41">
-        <v>0.8656993526725024</v>
+        <v>-0.4915511902435353</v>
       </c>
       <c r="O41">
-        <v>18.49079623517472</v>
+        <v>10.34006627449977</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2348,46 +2348,46 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.2997166542731684</v>
+        <v>0.3043715451038535</v>
       </c>
       <c r="C42">
-        <v>0.690510475194775</v>
+        <v>-2.941014320414022</v>
       </c>
       <c r="D42">
-        <v>0.3000000002949054</v>
+        <v>-0.2999999998104904</v>
       </c>
       <c r="E42">
-        <v>-0.6904635060991899</v>
+        <v>2.941738973357728</v>
       </c>
       <c r="F42">
-        <v>0.0002833460217370187</v>
+        <v>0.004371545293363088</v>
       </c>
       <c r="G42">
-        <v>4.69690955851032e-05</v>
+        <v>0.000724652943705717</v>
       </c>
       <c r="H42">
-        <v>0.03951087574996711</v>
+        <v>0.1551942360267466</v>
       </c>
       <c r="I42">
-        <v>0.03951087574996712</v>
+        <v>0.1551942360267466</v>
       </c>
       <c r="J42">
-        <v>0.03951087574996712</v>
+        <v>0.1551942360267466</v>
       </c>
       <c r="K42">
-        <v>0.9999577465225039</v>
+        <v>0.999957747624553</v>
       </c>
       <c r="L42">
-        <v>0.7783858018338805</v>
+        <v>-0.4420363729778551</v>
       </c>
       <c r="M42">
-        <v>1.000050447255362</v>
+        <v>1.000050445798284</v>
       </c>
       <c r="N42">
-        <v>0.799590954096145</v>
+        <v>-0.5277363858398231</v>
       </c>
       <c r="O42">
-        <v>3.951087574996712</v>
+        <v>15.51942360267466</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2395,46 +2395,46 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.4874489879567153</v>
+        <v>0.4956010314776819</v>
       </c>
       <c r="C43">
-        <v>-8.066107404882864</v>
+        <v>2.99444620874059</v>
       </c>
       <c r="D43">
-        <v>0.4905101584602681</v>
+        <v>-0.4951694776620731</v>
       </c>
       <c r="E43">
-        <v>8.067679561585923</v>
+        <v>-2.994224571225412</v>
       </c>
       <c r="F43">
-        <v>0.003061170503552757</v>
+        <v>0.0004315538156087206</v>
       </c>
       <c r="G43">
-        <v>0.00157215670305888</v>
+        <v>0.0002216375151777861</v>
       </c>
       <c r="H43">
-        <v>0.4242204527910926</v>
+        <v>0.1592814951147647</v>
       </c>
       <c r="I43">
-        <v>0.4242204527910926</v>
+        <v>0.1592814951147647</v>
       </c>
       <c r="J43">
-        <v>0.4242204527910926</v>
+        <v>0.1592814951147647</v>
       </c>
       <c r="K43">
-        <v>0.9997943112278614</v>
+        <v>1.000152146553382</v>
       </c>
       <c r="L43">
-        <v>0.2741638675433569</v>
+        <v>-0.1280921580273475</v>
       </c>
       <c r="M43">
-        <v>1.000011384449252</v>
+        <v>1.000056880980615</v>
       </c>
       <c r="N43">
-        <v>0.2531756228012375</v>
+        <v>-0.1207374288173283</v>
       </c>
       <c r="O43">
-        <v>21.21102263955463</v>
+        <v>7.964074755738237</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2442,46 +2442,46 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.1045817959915888</v>
+        <v>0.1052828100982548</v>
       </c>
       <c r="C44">
-        <v>-1.444999215494923</v>
+        <v>0.8441348440050599</v>
       </c>
       <c r="D44">
-        <v>0.1046801499809329</v>
+        <v>-0.1052489041642051</v>
       </c>
       <c r="E44">
-        <v>1.445049728161055</v>
+        <v>-0.844117430587079</v>
       </c>
       <c r="F44">
-        <v>9.835398934408823e-05</v>
+        <v>3.390593404971332e-05</v>
       </c>
       <c r="G44">
-        <v>5.051266613187444e-05</v>
+        <v>1.74134179808938e-05</v>
       </c>
       <c r="H44">
-        <v>0.07604030203415515</v>
+        <v>0.04464632328438484</v>
       </c>
       <c r="I44">
-        <v>0.07604030203415514</v>
+        <v>0.04464632328438485</v>
       </c>
       <c r="J44">
-        <v>0.07604030203415515</v>
+        <v>0.04464632328438485</v>
       </c>
       <c r="K44">
-        <v>1.000011384449252</v>
+        <v>1.000056880980615</v>
       </c>
       <c r="L44">
-        <v>0.2531756228012375</v>
+        <v>-0.1207374288173283</v>
       </c>
       <c r="M44">
-        <v>1.000051062292019</v>
+        <v>1.000031634554811</v>
       </c>
       <c r="N44">
-        <v>0.2494404537450054</v>
+        <v>-0.1186164126772664</v>
       </c>
       <c r="O44">
-        <v>7.604030203415515</v>
+        <v>4.464632328438485</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2489,46 +2489,46 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.06968014703759225</v>
+        <v>0.07024889959856374</v>
       </c>
       <c r="C45">
-        <v>1.022979977604311</v>
+        <v>-0.05706296119787617</v>
       </c>
       <c r="D45">
-        <v>0.06972940743517</v>
+        <v>-0.07024851579245794</v>
       </c>
       <c r="E45">
-        <v>-1.02295467843716</v>
+        <v>0.05706315831311076</v>
       </c>
       <c r="F45">
-        <v>4.92603975777578e-05</v>
+        <v>3.838061057997999e-07</v>
       </c>
       <c r="G45">
-        <v>2.52991671509939e-05</v>
+        <v>1.971152345861538e-07</v>
       </c>
       <c r="H45">
-        <v>0.05381418898196515</v>
+        <v>0.004750111269433166</v>
       </c>
       <c r="I45">
-        <v>0.05381418898196515</v>
+        <v>0.004750111269433166</v>
       </c>
       <c r="J45">
-        <v>0.05381418898196515</v>
+        <v>0.004750111269433166</v>
       </c>
       <c r="K45">
-        <v>1.000051062292019</v>
+        <v>1.000031634554811</v>
       </c>
       <c r="L45">
-        <v>0.2494404537450054</v>
+        <v>-0.1186164126772664</v>
       </c>
       <c r="M45">
-        <v>1.000029710635558</v>
+        <v>1.00002971608025</v>
       </c>
       <c r="N45">
-        <v>0.2522828548433622</v>
+        <v>-0.1188664682155335</v>
       </c>
       <c r="O45">
-        <v>5.381418898196515</v>
+        <v>0.4750111269433167</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2536,46 +2536,46 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.03972940447529445</v>
+        <v>0.04024851123425682</v>
       </c>
       <c r="C46">
-        <v>1.611618113787292</v>
+        <v>1.456737118480627</v>
       </c>
       <c r="D46">
-        <v>0.03985118000003489</v>
+        <v>-0.04014900148009087</v>
       </c>
       <c r="E46">
-        <v>-1.611555572283228</v>
+        <v>-1.456686012236512</v>
       </c>
       <c r="F46">
-        <v>0.0001217755247404362</v>
+        <v>9.950975416595648e-05</v>
       </c>
       <c r="G46">
-        <v>6.254150406426184e-05</v>
+        <v>5.110624411508446e-05</v>
       </c>
       <c r="H46">
-        <v>0.08461119874105487</v>
+        <v>0.07648577469758373</v>
       </c>
       <c r="I46">
-        <v>0.08461119874105487</v>
+        <v>0.07648577469758372</v>
       </c>
       <c r="J46">
-        <v>0.08461119874105487</v>
+        <v>0.07648577469758373</v>
       </c>
       <c r="K46">
-        <v>1.000029710635558</v>
+        <v>1.00002971608025</v>
       </c>
       <c r="L46">
-        <v>0.2522828548433622</v>
+        <v>-0.1188664682155335</v>
       </c>
       <c r="M46">
-        <v>0.9999927909688686</v>
+        <v>0.9999927754128093</v>
       </c>
       <c r="N46">
-        <v>0.2566644944292782</v>
+        <v>-0.1150109297726141</v>
       </c>
       <c r="O46">
-        <v>8.461119874105487</v>
+        <v>7.648577469758373</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2583,46 +2583,46 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0001488229453976645</v>
+        <v>0.0001489968546448945</v>
       </c>
       <c r="C47">
-        <v>-1.782121250228451</v>
+        <v>-1.783117014764467</v>
       </c>
       <c r="D47">
-        <v>2.931772097661267e-09</v>
+        <v>-4.61274021973726e-09</v>
       </c>
       <c r="E47">
-        <v>1.782197684259196</v>
+        <v>1.783193534236852</v>
       </c>
       <c r="F47">
-        <v>0.0001488258771697622</v>
+        <v>0.0001489922419046748</v>
       </c>
       <c r="G47">
-        <v>7.643403074419908e-05</v>
+        <v>7.651947238529466e-05</v>
       </c>
       <c r="H47">
-        <v>0.0935377822382036</v>
+        <v>0.09359004815536434</v>
       </c>
       <c r="I47">
-        <v>0.09353778223820361</v>
+        <v>0.09359004815536434</v>
       </c>
       <c r="J47">
-        <v>0.09353778223820361</v>
+        <v>0.09359004815536434</v>
       </c>
       <c r="K47">
-        <v>0.9999927909688686</v>
+        <v>0.9999927754128093</v>
       </c>
       <c r="L47">
-        <v>0.2566644944292782</v>
+        <v>-0.1150109297726141</v>
       </c>
       <c r="M47">
-        <v>1.000035676527569</v>
+        <v>1.000035684932283</v>
       </c>
       <c r="N47">
-        <v>0.2518796939472455</v>
+        <v>-0.1197984039328167</v>
       </c>
       <c r="O47">
-        <v>9.353778223820362</v>
+        <v>9.359004815536434</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2630,46 +2630,46 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.3859283595160584</v>
+        <v>0.3898866572433786</v>
       </c>
       <c r="C48">
-        <v>0.9619399757790603</v>
+        <v>2.150089724296983</v>
       </c>
       <c r="D48">
-        <v>0.3859786980926491</v>
+        <v>-0.3896629333696096</v>
       </c>
       <c r="E48">
-        <v>-0.9619141228804654</v>
+        <v>-2.149974824134651</v>
       </c>
       <c r="F48">
-        <v>5.033857659070273e-05</v>
+        <v>0.0002237238737689551</v>
       </c>
       <c r="G48">
-        <v>2.585289859491358e-05</v>
+        <v>0.0001149001623312884</v>
       </c>
       <c r="H48">
-        <v>0.05439992596847996</v>
+        <v>0.1146843106500914</v>
       </c>
       <c r="I48">
-        <v>0.05439992596847994</v>
+        <v>0.1146843106500914</v>
       </c>
       <c r="J48">
-        <v>0.05439992596847996</v>
+        <v>0.1146843106500914</v>
       </c>
       <c r="K48">
-        <v>1.000011384449252</v>
+        <v>1.000056880980615</v>
       </c>
       <c r="L48">
-        <v>0.2531756228012375</v>
+        <v>-0.1207374288173283</v>
       </c>
       <c r="M48">
-        <v>1.000006320237394</v>
+        <v>0.9999868749330977</v>
       </c>
       <c r="N48">
-        <v>0.2562903854917804</v>
+        <v>-0.1155025951465747</v>
       </c>
       <c r="O48">
-        <v>2.719996298423998</v>
+        <v>5.734215532504569</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2677,46 +2677,46 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.3409786951498236</v>
+        <v>0.3446629287927148</v>
       </c>
       <c r="C49">
-        <v>0.1162478710859064</v>
+        <v>-2.026339342921478</v>
       </c>
       <c r="D49">
-        <v>0.3409847765011829</v>
+        <v>-0.3444649495164875</v>
       </c>
       <c r="E49">
-        <v>-0.1162447478239738</v>
+        <v>2.026441021167047</v>
       </c>
       <c r="F49">
-        <v>6.081351359266129e-06</v>
+        <v>0.0001979792762272226</v>
       </c>
       <c r="G49">
-        <v>3.123261932608257e-06</v>
+        <v>0.000101678245568948</v>
       </c>
       <c r="H49">
-        <v>0.01890810003321159</v>
+        <v>0.1078841661757354</v>
       </c>
       <c r="I49">
-        <v>0.01890810003321159</v>
+        <v>0.1078841661757354</v>
       </c>
       <c r="J49">
-        <v>0.01890810003321159</v>
+        <v>0.1078841661757354</v>
       </c>
       <c r="K49">
-        <v>1.000006320237394</v>
+        <v>0.9999868749330977</v>
       </c>
       <c r="L49">
-        <v>0.2562903854917804</v>
+        <v>-0.1155025951465747</v>
       </c>
       <c r="M49">
-        <v>1.000019500705154</v>
+        <v>1.000019496074432</v>
       </c>
       <c r="N49">
-        <v>0.2570726446428793</v>
+        <v>-0.1214182295197501</v>
       </c>
       <c r="O49">
-        <v>1.890810003321159</v>
+        <v>10.78841661757354</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2724,46 +2724,46 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.2759847735494796</v>
+        <v>0.2794649449450324</v>
       </c>
       <c r="C50">
-        <v>-1.514164248570619</v>
+        <v>-2.596804487148753</v>
       </c>
       <c r="D50">
-        <v>0.2760957728705737</v>
+        <v>-0.27914530557293</v>
       </c>
       <c r="E50">
-        <v>1.514221255629354</v>
+        <v>2.5969686476164</v>
       </c>
       <c r="F50">
-        <v>0.0001109993210940408</v>
+        <v>0.0003196393721023871</v>
       </c>
       <c r="G50">
-        <v>5.700705873445955e-05</v>
+        <v>0.000164160467647001</v>
       </c>
       <c r="H50">
-        <v>0.08078077296032381</v>
+        <v>0.1370812252727794</v>
       </c>
       <c r="I50">
-        <v>0.08078077296032381</v>
+        <v>0.1370812252727794</v>
       </c>
       <c r="J50">
-        <v>0.08078077296032381</v>
+        <v>0.1370812252727794</v>
       </c>
       <c r="K50">
-        <v>1.000019500705154</v>
+        <v>1.000019496074432</v>
       </c>
       <c r="L50">
-        <v>0.2570726446428793</v>
+        <v>-0.1214182295197501</v>
       </c>
       <c r="M50">
-        <v>1.000068874371744</v>
+        <v>1.00006890276361</v>
       </c>
       <c r="N50">
-        <v>0.2533882154007533</v>
+        <v>-0.1287749649886974</v>
       </c>
       <c r="O50">
-        <v>8.078077296032381</v>
+        <v>13.70812252727794</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2771,46 +2771,46 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.261095769931197</v>
+        <v>0.2641453009564495</v>
       </c>
       <c r="C51">
-        <v>4.469751607439768</v>
+        <v>3.449140457832414</v>
       </c>
       <c r="D51">
-        <v>0.2619008465754101</v>
+        <v>-0.2636647355699085</v>
       </c>
       <c r="E51">
-        <v>-4.469338135978049</v>
+        <v>-3.448893648942536</v>
       </c>
       <c r="F51">
-        <v>0.0008050766442130319</v>
+        <v>0.0004805653865410098</v>
       </c>
       <c r="G51">
-        <v>0.000413471461719439</v>
+        <v>0.0002468088898779364</v>
       </c>
       <c r="H51">
-        <v>0.2349848438350922</v>
+        <v>0.1815505134280655</v>
       </c>
       <c r="I51">
-        <v>0.2349848438350922</v>
+        <v>0.1815505134280655</v>
       </c>
       <c r="J51">
-        <v>0.2349848438350922</v>
+        <v>0.1815505134280655</v>
       </c>
       <c r="K51">
-        <v>1.000068874371744</v>
+        <v>1.00006890276361</v>
       </c>
       <c r="L51">
-        <v>0.2533882154007533</v>
+        <v>-0.1287749649886974</v>
       </c>
       <c r="M51">
-        <v>0.9999871816017444</v>
+        <v>0.9999871585677315</v>
       </c>
       <c r="N51">
-        <v>0.2639824578143751</v>
+        <v>-0.1211500742434596</v>
       </c>
       <c r="O51">
-        <v>23.49848438350922</v>
+        <v>18.15505134280655</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2818,46 +2818,46 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.2119008436305684</v>
+        <v>0.2136647309433342</v>
       </c>
       <c r="C52">
-        <v>-0.5326783680500548</v>
+        <v>-1.362396845445339</v>
       </c>
       <c r="D52">
-        <v>0.2119162443176066</v>
+        <v>-0.2135756122907053</v>
       </c>
       <c r="E52">
-        <v>0.5326862775387062</v>
+        <v>1.362442615024961</v>
       </c>
       <c r="F52">
-        <v>1.54006870381751e-05</v>
+        <v>8.911865262889451e-05</v>
       </c>
       <c r="G52">
-        <v>7.909488651480778e-06</v>
+        <v>4.576957962187933e-05</v>
       </c>
       <c r="H52">
-        <v>0.0300897022997567</v>
+        <v>0.07238226168427082</v>
       </c>
       <c r="I52">
-        <v>0.0300897022997567</v>
+        <v>0.07238226168427084</v>
       </c>
       <c r="J52">
-        <v>0.0300897022997567</v>
+        <v>0.07238226168427084</v>
       </c>
       <c r="K52">
-        <v>0.9999871816017444</v>
+        <v>0.9999871585677315</v>
       </c>
       <c r="L52">
-        <v>0.2639824578143751</v>
+        <v>-0.1211500742434596</v>
       </c>
       <c r="M52">
-        <v>1.000009931158291</v>
+        <v>1.000009936616363</v>
       </c>
       <c r="N52">
-        <v>0.2628444793329771</v>
+        <v>-0.1251025388637787</v>
       </c>
       <c r="O52">
-        <v>3.008970229975671</v>
+        <v>7.238226168427084</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2865,46 +2865,46 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1363545506939939</v>
+        <v>0.1365946228884583</v>
       </c>
       <c r="C53">
-        <v>0.3896419526668898</v>
+        <v>-0.1417183227070032</v>
       </c>
       <c r="D53">
-        <v>0.1363625360234997</v>
+        <v>-0.1365928074854741</v>
       </c>
       <c r="E53">
-        <v>-0.3896378515593905</v>
+        <v>0.141719255062116</v>
       </c>
       <c r="F53">
-        <v>7.985329505827421e-06</v>
+        <v>1.815402984217673e-06</v>
       </c>
       <c r="G53">
-        <v>4.101107499265844e-06</v>
+        <v>9.323551128648244e-07</v>
       </c>
       <c r="H53">
-        <v>0.02166677452939388</v>
+        <v>0.01033080979656425</v>
       </c>
       <c r="I53">
-        <v>0.02166677452939388</v>
+        <v>0.01033080979656425</v>
       </c>
       <c r="J53">
-        <v>0.02166677452939388</v>
+        <v>0.01033080979656425</v>
       </c>
       <c r="K53">
-        <v>1.000009931158291</v>
+        <v>1.000009936616363</v>
       </c>
       <c r="L53">
-        <v>0.2628444793329771</v>
+        <v>-0.1251025388637787</v>
       </c>
       <c r="M53">
-        <v>1.000006943758257</v>
+        <v>1.000006946548613</v>
       </c>
       <c r="N53">
-        <v>0.2640786069098506</v>
+        <v>-0.1256713704867876</v>
       </c>
       <c r="O53">
-        <v>2.166677452939388</v>
+        <v>1.033080979656425</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2912,46 +2912,46 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.09576253309458363</v>
+        <v>0.09599280287444754</v>
       </c>
       <c r="C54">
-        <v>0.8850243542618448</v>
+        <v>0.5115798443504846</v>
       </c>
       <c r="D54">
-        <v>0.09579966585736333</v>
+        <v>-0.09598010747306771</v>
       </c>
       <c r="E54">
-        <v>-0.8850052836083679</v>
+        <v>-0.5115733242431092</v>
       </c>
       <c r="F54">
-        <v>3.713276277969579e-05</v>
+        <v>1.269540137983916e-05</v>
       </c>
       <c r="G54">
-        <v>1.907065347683812e-05</v>
+        <v>6.520107375451722e-06</v>
       </c>
       <c r="H54">
-        <v>0.04672254325470541</v>
+        <v>0.02731939398066094</v>
       </c>
       <c r="I54">
-        <v>0.04672254325470541</v>
+        <v>0.02731939398066094</v>
       </c>
       <c r="J54">
-        <v>0.04672254325470541</v>
+        <v>0.02731939398066094</v>
       </c>
       <c r="K54">
-        <v>1.000006943758257</v>
+        <v>1.000006946548613</v>
       </c>
       <c r="L54">
-        <v>0.2640786069098506</v>
+        <v>-0.1256713704867876</v>
       </c>
       <c r="M54">
-        <v>0.9999901331194826</v>
+        <v>0.9999901369851396</v>
       </c>
       <c r="N54">
-        <v>0.2665868191866058</v>
+        <v>-0.1244302140066954</v>
       </c>
       <c r="O54">
-        <v>4.672254325470542</v>
+        <v>2.731939398066094</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2959,46 +2959,46 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.04329966291828233</v>
+        <v>0.04348010285601003</v>
       </c>
       <c r="C55">
-        <v>1.579953609643877</v>
+        <v>1.411483340944375</v>
       </c>
       <c r="D55">
-        <v>0.04340000294289952</v>
+        <v>-0.04340000463052857</v>
       </c>
       <c r="E55">
-        <v>-1.579902076989258</v>
+        <v>-1.411442204077955</v>
       </c>
       <c r="F55">
-        <v>0.0001003400246171876</v>
+        <v>8.009822548145362e-05</v>
       </c>
       <c r="G55">
-        <v>5.153265461821377e-05</v>
+        <v>4.113686641993297e-05</v>
       </c>
       <c r="H55">
-        <v>0.08295801267360134</v>
+        <v>0.07411953488389121</v>
       </c>
       <c r="I55">
-        <v>0.08295801267360133</v>
+        <v>0.07411953488389121</v>
       </c>
       <c r="J55">
-        <v>0.08295801267360134</v>
+        <v>0.07411953488389121</v>
       </c>
       <c r="K55">
-        <v>0.9999901331194826</v>
+        <v>0.9999901369851396</v>
       </c>
       <c r="L55">
-        <v>0.2665868191866058</v>
+        <v>-0.1244302140066954</v>
       </c>
       <c r="M55">
-        <v>0.9999592825895464</v>
+        <v>0.9999592756281669</v>
       </c>
       <c r="N55">
-        <v>0.270274131412536</v>
+        <v>-0.1212331927317117</v>
       </c>
       <c r="O55">
-        <v>8.295801267360133</v>
+        <v>7.411953488389121</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3006,46 +3006,46 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.07556169067184411</v>
+        <v>0.07698098478813899</v>
       </c>
       <c r="C56">
-        <v>0.2351262082756706</v>
+        <v>-0.06257121059521782</v>
       </c>
       <c r="D56">
-        <v>0.07556414046093882</v>
+        <v>-0.07698058952020838</v>
       </c>
       <c r="E56">
-        <v>-0.2351249501123824</v>
+        <v>0.0625714135970192</v>
       </c>
       <c r="F56">
-        <v>2.449789094707833e-06</v>
+        <v>3.952679306085116e-07</v>
       </c>
       <c r="G56">
-        <v>1.258163288164749e-06</v>
+        <v>2.030018013826629e-07</v>
       </c>
       <c r="H56">
-        <v>0.01296240500050134</v>
+        <v>0.005206753624507589</v>
       </c>
       <c r="I56">
-        <v>0.01296240500050134</v>
+        <v>0.005206753624507589</v>
       </c>
       <c r="J56">
-        <v>0.01296240500050134</v>
+        <v>0.005206753624507589</v>
       </c>
       <c r="K56">
-        <v>1.000009931158291</v>
+        <v>1.000009936616363</v>
       </c>
       <c r="L56">
-        <v>0.2628444793329771</v>
+        <v>-0.1251025388637787</v>
       </c>
       <c r="M56">
-        <v>1.000008115987265</v>
+        <v>1.000008135404287</v>
       </c>
       <c r="N56">
-        <v>0.2634748708559894</v>
+        <v>-0.1253375139002345</v>
       </c>
       <c r="O56">
-        <v>1.296240500050134</v>
+        <v>0.520675362450759</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3053,46 +3053,46 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.0419641375139032</v>
+        <v>0.04338058489905137</v>
       </c>
       <c r="C57">
-        <v>4.273607356854668</v>
+        <v>4.10931203876503</v>
       </c>
       <c r="D57">
-        <v>0.04269776392656612</v>
+        <v>-0.04270227138446346</v>
       </c>
       <c r="E57">
-        <v>-4.27323058082051</v>
+        <v>-4.108963670342723</v>
       </c>
       <c r="F57">
-        <v>0.0007336264126629188</v>
+        <v>0.0006783135145879138</v>
       </c>
       <c r="G57">
-        <v>0.0003767760341579773</v>
+        <v>0.0003483684223075656</v>
       </c>
       <c r="H57">
-        <v>0.2243152073622411</v>
+        <v>0.2156932096087959</v>
       </c>
       <c r="I57">
-        <v>0.2243152073622411</v>
+        <v>0.215693209608796</v>
       </c>
       <c r="J57">
-        <v>0.2243152073622411</v>
+        <v>0.215693209608796</v>
       </c>
       <c r="K57">
-        <v>1.000008115987265</v>
+        <v>1.000008135404287</v>
       </c>
       <c r="L57">
-        <v>0.2634748708559894</v>
+        <v>-0.1253375139002345</v>
       </c>
       <c r="M57">
-        <v>0.9999216606762558</v>
+        <v>0.9999216398926332</v>
       </c>
       <c r="N57">
-        <v>0.2733600218861721</v>
+        <v>-0.1159313587576801</v>
       </c>
       <c r="O57">
-        <v>22.43152073622412</v>
+        <v>21.56932096087959</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3100,46 +3100,46 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.239012024883276e-06</v>
+        <v>2.266769766347027e-06</v>
       </c>
       <c r="C58">
-        <v>-0.2362398173570381</v>
+        <v>-0.2373014122664459</v>
       </c>
       <c r="D58">
-        <v>2.933948455496535e-09</v>
+        <v>-4.62908428825121e-09</v>
       </c>
       <c r="E58">
-        <v>0.2362409687762046</v>
+        <v>0.2373025740572159</v>
       </c>
       <c r="F58">
-        <v>2.241945973338773e-06</v>
+        <v>2.262140682058776e-06</v>
       </c>
       <c r="G58">
-        <v>1.151419166567358e-06</v>
+        <v>1.161790770032312e-06</v>
       </c>
       <c r="H58">
-        <v>0.01240034617568995</v>
+        <v>0.01245607008238553</v>
       </c>
       <c r="I58">
-        <v>0.01240034617568994</v>
+        <v>0.01245607008238552</v>
       </c>
       <c r="J58">
-        <v>0.01240034617568995</v>
+        <v>0.01245607008238553</v>
       </c>
       <c r="K58">
-        <v>0.9999216606762558</v>
+        <v>0.9999216398926332</v>
       </c>
       <c r="L58">
-        <v>0.2733600218861721</v>
+        <v>-0.1159313587576801</v>
       </c>
       <c r="M58">
-        <v>0.9999265341915188</v>
+        <v>0.9999265353076894</v>
       </c>
       <c r="N58">
-        <v>0.2728162776402503</v>
+        <v>-0.1164775464680837</v>
       </c>
       <c r="O58">
-        <v>1.240034617568995</v>
+        <v>1.245607008238553</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3147,46 +3147,46 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-2.468660956291019</v>
+        <v>0.002818813288273566</v>
       </c>
       <c r="C59">
-        <v>-2.062036575035709</v>
+        <v>0.860900171463945</v>
       </c>
       <c r="D59">
-        <v>2.469146021400989</v>
+        <v>-0.002784098606508083</v>
       </c>
       <c r="E59">
-        <v>2.062285694894656</v>
+        <v>-0.8608823426891125</v>
       </c>
       <c r="F59">
-        <v>0.0004850651099697068</v>
+        <v>3.471468176548297e-05</v>
       </c>
       <c r="G59">
-        <v>0.0002491198589473775</v>
+        <v>1.782877483258449e-05</v>
       </c>
       <c r="H59">
-        <v>0.1688681952599956</v>
+        <v>0.04517565284490091</v>
       </c>
       <c r="I59">
-        <v>0.1688681952599956</v>
+        <v>0.04517565284490092</v>
       </c>
       <c r="J59">
-        <v>0.1688681952599956</v>
+        <v>0.04517565284490092</v>
       </c>
       <c r="K59">
-        <v>0.9997489945929747</v>
+        <v>1.00022423336732</v>
       </c>
       <c r="L59">
-        <v>0.2759989322748829</v>
+        <v>-0.1361280933070403</v>
       </c>
       <c r="M59">
-        <v>0.9999143422279139</v>
+        <v>1.000203388240797</v>
       </c>
       <c r="N59">
-        <v>0.2738659557326975</v>
+        <v>-0.1338215771628684</v>
       </c>
       <c r="O59">
-        <v>8.443409762999778</v>
+        <v>2.258782642245046</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3194,46 +3194,46 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.4873969991926377</v>
+        <v>0.000916286370572738</v>
       </c>
       <c r="C60">
-        <v>-0.9334936342327944</v>
+        <v>2.994661938860684</v>
       </c>
       <c r="D60">
-        <v>0.4874489908959895</v>
+        <v>-0.0004962386907031721</v>
       </c>
       <c r="E60">
-        <v>0.9335203361446391</v>
+        <v>-2.994446210669542</v>
       </c>
       <c r="F60">
-        <v>5.19917033517947e-05</v>
+        <v>0.0004200476798695658</v>
       </c>
       <c r="G60">
-        <v>2.67019118447287e-05</v>
+        <v>0.0002157281911419062</v>
       </c>
       <c r="H60">
-        <v>0.05528596140102877</v>
+        <v>0.1571437592589662</v>
       </c>
       <c r="I60">
-        <v>0.05528596140102875</v>
+        <v>0.1571437592589662</v>
       </c>
       <c r="J60">
-        <v>0.05528596140102877</v>
+        <v>0.1571437592589662</v>
       </c>
       <c r="K60">
-        <v>0.9997489945929747</v>
+        <v>1.00022423336732</v>
       </c>
       <c r="L60">
-        <v>0.2759989322748829</v>
+        <v>-0.1361280933070403</v>
       </c>
       <c r="M60">
-        <v>0.9997943112278614</v>
+        <v>1.000152146553382</v>
       </c>
       <c r="N60">
-        <v>0.2741638675433569</v>
+        <v>-0.1280921580273475</v>
       </c>
       <c r="O60">
-        <v>2.764298070051439</v>
+        <v>7.85718796294831</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3241,46 +3241,46 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-15.68624921271947</v>
+        <v>7.400070402869074</v>
       </c>
       <c r="C61">
-        <v>30.42010617628612</v>
+        <v>-15.20957577792338</v>
       </c>
       <c r="D61">
-        <v>15.82906644755732</v>
+        <v>-7.365196642962425</v>
       </c>
       <c r="E61">
-        <v>-30.33741334171557</v>
+        <v>15.2297680891811</v>
       </c>
       <c r="F61">
-        <v>0.1428172348378478</v>
+        <v>0.03487375990664887</v>
       </c>
       <c r="G61">
-        <v>0.08269283457054755</v>
+        <v>0.02019231125772336</v>
       </c>
       <c r="H61">
-        <v>1.796465789446629</v>
+        <v>0.8877241357046007</v>
       </c>
       <c r="I61">
-        <v>1.796465789446629</v>
+        <v>0.8877241357046006</v>
       </c>
       <c r="J61">
-        <v>1.796465789446629</v>
+        <v>0.8877241357046007</v>
       </c>
       <c r="K61">
-        <v>0.9999723627083705</v>
+        <v>1.000049959814275</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.9997489945929747</v>
+        <v>1.00022423336732</v>
       </c>
       <c r="N61">
-        <v>0.2759989322748829</v>
+        <v>-0.1361280933070403</v>
       </c>
       <c r="O61">
-        <v>89.82328947233147</v>
+        <v>44.38620678523004</v>
       </c>
     </row>
   </sheetData>

--- a/result/line_ev.xlsx
+++ b/result/line_ev.xlsx
@@ -468,46 +468,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.512311540612045</v>
+        <v>25.0336553988071</v>
       </c>
       <c r="C2">
-        <v>0.860882333750651</v>
+        <v>0.07891984416701742</v>
       </c>
       <c r="D2">
-        <v>-2.511981183000088</v>
+        <v>-24.95798676875201</v>
       </c>
       <c r="E2">
-        <v>-0.860712668606732</v>
+        <v>-0.03510683018149372</v>
       </c>
       <c r="F2">
-        <v>0.0003303576119573215</v>
+        <v>0.07566863005508395</v>
       </c>
       <c r="G2">
-        <v>0.0001696651439190289</v>
+        <v>0.0438130139855237</v>
       </c>
       <c r="H2">
-        <v>0.1393605983208034</v>
+        <v>1.307635121848836</v>
       </c>
       <c r="I2">
-        <v>0.1393605983208034</v>
+        <v>1.307635121848836</v>
       </c>
       <c r="J2">
-        <v>0.1393605983208034</v>
+        <v>1.307635121848836</v>
       </c>
       <c r="K2">
-        <v>1.000203388240797</v>
+        <v>1.004815992114793</v>
       </c>
       <c r="L2">
-        <v>-0.1338215771628684</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.000064972828369</v>
+        <v>1.001774771884638</v>
       </c>
       <c r="N2">
-        <v>-0.1349741197214263</v>
+        <v>-0.1000328811148825</v>
       </c>
       <c r="O2">
-        <v>9.290706554720225</v>
+        <v>74.72200696279063</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -515,46 +515,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.322981160386572</v>
+        <v>2.535625404827052</v>
       </c>
       <c r="C3">
-        <v>0.8607126593631693</v>
+        <v>0.0009003695847399473</v>
       </c>
       <c r="D3">
-        <v>-2.322693617800941</v>
+        <v>-2.535325193032081</v>
       </c>
       <c r="E3">
-        <v>-0.860564983171043</v>
+        <v>-0.0007461867369522503</v>
       </c>
       <c r="F3">
-        <v>0.0002875425856312397</v>
+        <v>0.0003002117949710836</v>
       </c>
       <c r="G3">
-        <v>0.0001476761921263003</v>
+        <v>0.0001541828477876969</v>
       </c>
       <c r="H3">
-        <v>0.1300166374807626</v>
+        <v>0.1328500489530947</v>
       </c>
       <c r="I3">
-        <v>0.1300166374807626</v>
+        <v>0.1328500489530948</v>
       </c>
       <c r="J3">
-        <v>0.1300166374807626</v>
+        <v>0.1328500489530948</v>
       </c>
       <c r="K3">
-        <v>1.000064972828369</v>
+        <v>1.001774771884638</v>
       </c>
       <c r="L3">
-        <v>-0.1349741197214263</v>
+        <v>-0.1000328811148825</v>
       </c>
       <c r="M3">
-        <v>0.9999354136117194</v>
+        <v>1.001656144456674</v>
       </c>
       <c r="N3">
-        <v>-0.1358663616289451</v>
+        <v>-0.1035148477375881</v>
       </c>
       <c r="O3">
-        <v>8.66777583205084</v>
+        <v>53.14001958123791</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -562,46 +562,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.002333641024073</v>
+        <v>2.53532244980391</v>
       </c>
       <c r="C4">
-        <v>-6.27424039501349</v>
+        <v>0.0007450091627138047</v>
       </c>
       <c r="D4">
-        <v>-2.000300827187793</v>
+        <v>-2.53502223865868</v>
       </c>
       <c r="E4">
-        <v>6.275284408045455</v>
+        <v>-0.0005908266486203137</v>
       </c>
       <c r="F4">
-        <v>0.002032813836279956</v>
+        <v>0.0003002111452299339</v>
       </c>
       <c r="G4">
-        <v>0.001044013031965108</v>
+        <v>0.000154182514093491</v>
       </c>
       <c r="H4">
-        <v>0.3456978250724197</v>
+        <v>0.1328499051908772</v>
       </c>
       <c r="I4">
-        <v>0.3456978250724196</v>
+        <v>0.1328499051908772</v>
       </c>
       <c r="J4">
-        <v>0.3456978250724197</v>
+        <v>0.1328499051908772</v>
       </c>
       <c r="K4">
-        <v>0.9999354136117194</v>
+        <v>1.001656144456674</v>
       </c>
       <c r="L4">
-        <v>-0.1358663616289451</v>
+        <v>-0.1035148477375881</v>
       </c>
       <c r="M4">
-        <v>0.9999926440951248</v>
+        <v>1.001537520885538</v>
       </c>
       <c r="N4">
-        <v>-0.155474169901938</v>
+        <v>-0.1069976385731517</v>
       </c>
       <c r="O4">
-        <v>34.56978250724197</v>
+        <v>66.4249525954386</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -609,46 +609,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.228883300576222</v>
+        <v>2.408314104242633</v>
       </c>
       <c r="C5">
-        <v>-2.769588123150191</v>
+        <v>0.000586539751409881</v>
       </c>
       <c r="D5">
-        <v>-1.228453087798339</v>
+        <v>-2.408043154012323</v>
       </c>
       <c r="E5">
-        <v>2.769809071934881</v>
+        <v>-0.0004473850652257378</v>
       </c>
       <c r="F5">
-        <v>0.0004302127778825771</v>
+        <v>0.0002709502303104294</v>
       </c>
       <c r="G5">
-        <v>0.0002209487846900338</v>
+        <v>0.0001391546861841432</v>
       </c>
       <c r="H5">
-        <v>0.1590338218406807</v>
+        <v>0.1262096625183799</v>
       </c>
       <c r="I5">
-        <v>0.1590338218406806</v>
+        <v>0.12620966251838</v>
       </c>
       <c r="J5">
-        <v>0.1590338218406807</v>
+        <v>0.12620966251838</v>
       </c>
       <c r="K5">
-        <v>0.9999926440951248</v>
+        <v>1.001537520885538</v>
       </c>
       <c r="L5">
-        <v>-0.155474169901938</v>
+        <v>-0.1069976385731517</v>
       </c>
       <c r="M5">
-        <v>1.000001725225278</v>
+        <v>1.001424829303802</v>
       </c>
       <c r="N5">
-        <v>-0.1646046460903015</v>
+        <v>-0.1103070456009604</v>
       </c>
       <c r="O5">
-        <v>15.90338218406807</v>
+        <v>63.10483125918998</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -656,46 +656,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.061153083169306</v>
+        <v>2.109108343163671</v>
       </c>
       <c r="C6">
-        <v>-1.919168482326132</v>
+        <v>0.0004324511191315054</v>
       </c>
       <c r="D6">
-        <v>-1.060927724711257</v>
+        <v>-2.108900488977309</v>
       </c>
       <c r="E6">
-        <v>1.919284221978661</v>
+        <v>-0.0003257013147779028</v>
       </c>
       <c r="F6">
-        <v>0.0002253584580484969</v>
+        <v>0.0002078541863617112</v>
       </c>
       <c r="G6">
-        <v>0.0001157396525286458</v>
+        <v>0.0001067498043536026</v>
       </c>
       <c r="H6">
-        <v>0.1151025047467141</v>
+        <v>0.1105419779389291</v>
       </c>
       <c r="I6">
-        <v>0.1151025047467141</v>
+        <v>0.1105419779389291</v>
       </c>
       <c r="J6">
-        <v>0.1151025047467141</v>
+        <v>0.1105419779389291</v>
       </c>
       <c r="K6">
-        <v>1.000001725225278</v>
+        <v>1.001424829303802</v>
       </c>
       <c r="L6">
-        <v>-0.1646046460903015</v>
+        <v>-0.1103070456009604</v>
       </c>
       <c r="M6">
-        <v>0.9999981937213921</v>
+        <v>1.001326129039917</v>
       </c>
       <c r="N6">
-        <v>-0.1712205396696795</v>
+        <v>-0.113206125587561</v>
       </c>
       <c r="O6">
-        <v>11.51025047467141</v>
+        <v>55.27098896946455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -703,46 +703,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7343789363846225</v>
+        <v>1.408042752074948</v>
       </c>
       <c r="C7">
-        <v>-1.666467230051612</v>
+        <v>0.0002580707841264109</v>
       </c>
       <c r="D7">
-        <v>-0.7342235297710804</v>
+        <v>-1.407950095063588</v>
       </c>
       <c r="E7">
-        <v>1.666547043818567</v>
+        <v>-0.0002104839733540393</v>
       </c>
       <c r="F7">
-        <v>0.0001554066135420751</v>
+        <v>9.265701135974247e-05</v>
       </c>
       <c r="G7">
-        <v>7.981376695509468e-05</v>
+        <v>4.758681077237162e-05</v>
       </c>
       <c r="H7">
-        <v>0.09558342571970996</v>
+        <v>0.07380520437475692</v>
       </c>
       <c r="I7">
-        <v>0.09558342571970993</v>
+        <v>0.07380520437475692</v>
       </c>
       <c r="J7">
-        <v>0.09558342571970996</v>
+        <v>0.07380520437475692</v>
       </c>
       <c r="K7">
-        <v>0.9999981937213921</v>
+        <v>1.001326129039917</v>
       </c>
       <c r="L7">
-        <v>-0.1712205396696795</v>
+        <v>-0.113206125587561</v>
       </c>
       <c r="M7">
-        <v>1.000003891077364</v>
+        <v>1.001260230606067</v>
       </c>
       <c r="N7">
-        <v>-0.1767073712744211</v>
+        <v>-0.1151419543692475</v>
       </c>
       <c r="O7">
-        <v>9.558342571970996</v>
+        <v>36.90260218737846</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -750,46 +750,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.619423525122461</v>
+        <v>1.229477261682764</v>
       </c>
       <c r="C8">
-        <v>-1.296960809312857</v>
+        <v>0.0001990634405389445</v>
       </c>
       <c r="D8">
-        <v>-0.619326723847458</v>
+        <v>-1.229406606378803</v>
       </c>
       <c r="E8">
-        <v>1.297010524535574</v>
+        <v>-0.0001627762720849322</v>
       </c>
       <c r="F8">
-        <v>9.680127500300006e-05</v>
+        <v>7.065530396133113e-05</v>
       </c>
       <c r="G8">
-        <v>4.971522271746132e-05</v>
+        <v>3.628716845401232e-05</v>
       </c>
       <c r="H8">
-        <v>0.0754376901243847</v>
+        <v>0.06444960021390843</v>
       </c>
       <c r="I8">
-        <v>0.0754376901243847</v>
+        <v>0.06444960021390841</v>
       </c>
       <c r="J8">
-        <v>0.0754376901243847</v>
+        <v>0.06444960021390843</v>
       </c>
       <c r="K8">
-        <v>1.000003891077364</v>
+        <v>1.001260230606067</v>
       </c>
       <c r="L8">
-        <v>-0.1767073712744211</v>
+        <v>-0.1151419543692475</v>
       </c>
       <c r="M8">
-        <v>1.000006080862365</v>
+        <v>1.001202686076332</v>
       </c>
       <c r="N8">
-        <v>-0.1810435905821711</v>
+        <v>-0.1168325635612796</v>
       </c>
       <c r="O8">
-        <v>7.54376901243847</v>
+        <v>32.22480010695421</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -797,46 +797,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5157267192148463</v>
+        <v>0.8794868769160435</v>
       </c>
       <c r="C9">
-        <v>-0.9557294457028374</v>
+        <v>0.000136165858117887</v>
       </c>
       <c r="D9">
-        <v>-0.5156714541241373</v>
+        <v>-0.8794507182488501</v>
       </c>
       <c r="E9">
-        <v>0.9557578287617695</v>
+        <v>-0.0001175954808925175</v>
       </c>
       <c r="F9">
-        <v>5.52650907089669e-05</v>
+        <v>3.615866719341998e-05</v>
       </c>
       <c r="G9">
-        <v>2.838305893215765e-05</v>
+        <v>1.857037722536952e-05</v>
       </c>
       <c r="H9">
-        <v>0.05699979408825447</v>
+        <v>0.04610563950042373</v>
       </c>
       <c r="I9">
-        <v>0.05699979408825447</v>
+        <v>0.04610563950042373</v>
       </c>
       <c r="J9">
-        <v>0.05699979408825447</v>
+        <v>0.04610563950042373</v>
       </c>
       <c r="K9">
-        <v>1.000006080862365</v>
+        <v>1.001202686076332</v>
       </c>
       <c r="L9">
-        <v>-0.1810435905821711</v>
+        <v>-0.1168325635612796</v>
       </c>
       <c r="M9">
-        <v>1.00000491650224</v>
+        <v>1.001161520213349</v>
       </c>
       <c r="N9">
-        <v>-0.1843206752792546</v>
+        <v>-0.1180420497091423</v>
       </c>
       <c r="O9">
-        <v>3.799986272550298</v>
+        <v>46.10563950042372</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -844,46 +844,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2423519232782682</v>
+        <v>0.7528070893973474</v>
       </c>
       <c r="C10">
-        <v>-0.3658273789151369</v>
+        <v>0.0001036140123081928</v>
       </c>
       <c r="D10">
-        <v>-0.242342899907543</v>
+        <v>-0.7527805948319938</v>
       </c>
       <c r="E10">
-        <v>0.3658320131401021</v>
+        <v>-9.000692689205129e-05</v>
       </c>
       <c r="F10">
-        <v>9.023370725280699e-06</v>
+        <v>2.649456535364081e-05</v>
       </c>
       <c r="G10">
-        <v>4.634224965160971e-06</v>
+        <v>1.360708541614151e-05</v>
       </c>
       <c r="H10">
-        <v>0.02303203137916444</v>
+        <v>0.03946628455167878</v>
       </c>
       <c r="I10">
-        <v>0.02303203137916444</v>
+        <v>0.03946628455167878</v>
       </c>
       <c r="J10">
-        <v>0.02303203137916444</v>
+        <v>0.03946628455167878</v>
       </c>
       <c r="K10">
-        <v>1.00000491650224</v>
+        <v>1.001161520213349</v>
       </c>
       <c r="L10">
-        <v>-0.1843206752792546</v>
+        <v>-0.1180420497091423</v>
       </c>
       <c r="M10">
-        <v>1.000002364331789</v>
+        <v>1.001126282645646</v>
       </c>
       <c r="N10">
-        <v>-0.1856370338803617</v>
+        <v>-0.119077437206911</v>
       </c>
       <c r="O10">
-        <v>2.303203137916444</v>
+        <v>39.46628455167878</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -891,46 +891,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1313599729957532</v>
+        <v>0.6044510724214334</v>
       </c>
       <c r="C11">
-        <v>-4.405762107782014</v>
+        <v>7.511080389662546e-05</v>
       </c>
       <c r="D11">
-        <v>-0.12740000395938</v>
+        <v>-0.6044339902815473</v>
       </c>
       <c r="E11">
-        <v>4.406170148387099</v>
+        <v>-6.633775427605467e-05</v>
       </c>
       <c r="F11">
-        <v>0.003959969036373245</v>
+        <v>1.708213988604879e-05</v>
       </c>
       <c r="G11">
-        <v>0.0004080406050857022</v>
+        <v>8.773049620570787e-06</v>
       </c>
       <c r="H11">
-        <v>0.2313602429000537</v>
+        <v>0.03168976219523274</v>
       </c>
       <c r="I11">
-        <v>0.2313602429000537</v>
+        <v>0.03168976219523274</v>
       </c>
       <c r="J11">
-        <v>0.2313602429000537</v>
+        <v>0.03168976219523274</v>
       </c>
       <c r="K11">
-        <v>0.9999354136117194</v>
+        <v>1.001126282645646</v>
       </c>
       <c r="L11">
-        <v>-0.1358663616289451</v>
+        <v>-0.119077437206911</v>
       </c>
       <c r="M11">
-        <v>1.00000157312937</v>
+        <v>1.001097988533181</v>
       </c>
       <c r="N11">
-        <v>-0.1874736464556613</v>
+        <v>-0.1199088548597606</v>
       </c>
       <c r="O11">
-        <v>23.13602429000537</v>
+        <v>31.68976219523274</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -938,46 +938,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5824175221377921</v>
+        <v>0.2756113380897451</v>
       </c>
       <c r="C12">
-        <v>-5.98807454057564</v>
+        <v>3.425021728030561e-05</v>
       </c>
       <c r="D12">
-        <v>-0.5738110647567938</v>
+        <v>-0.2756077863701041</v>
       </c>
       <c r="E12">
-        <v>5.988961361670741</v>
+        <v>-3.242612423010342e-05</v>
       </c>
       <c r="F12">
-        <v>0.0086064573809983</v>
+        <v>3.551719641003981e-06</v>
       </c>
       <c r="G12">
-        <v>0.0008868210951007427</v>
+        <v>1.824093050202188e-06</v>
       </c>
       <c r="H12">
-        <v>0.3157778423311534</v>
+        <v>0.01444997785968787</v>
       </c>
       <c r="I12">
-        <v>0.3157778423311534</v>
+        <v>0.01444997785968788</v>
       </c>
       <c r="J12">
-        <v>0.3157778423311534</v>
+        <v>0.01444997785968788</v>
       </c>
       <c r="K12">
-        <v>0.9999926440951248</v>
+        <v>1.001097988533181</v>
       </c>
       <c r="L12">
-        <v>-0.155474169901938</v>
+        <v>-0.1199088548597606</v>
       </c>
       <c r="M12">
-        <v>1.000001905386841</v>
+        <v>1.001085086886075</v>
       </c>
       <c r="N12">
-        <v>-0.2378685738213087</v>
+        <v>-0.1202879716630308</v>
       </c>
       <c r="O12">
-        <v>31.57778423311533</v>
+        <v>14.44997785968787</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -985,46 +985,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4688110599934395</v>
+        <v>0.1288315877959569</v>
       </c>
       <c r="C13">
-        <v>-4.358321899876347</v>
+        <v>7.72052266750521e-06</v>
       </c>
       <c r="D13">
-        <v>-0.4642424124376856</v>
+        <v>-0.1288282148008437</v>
       </c>
       <c r="E13">
-        <v>4.358792659545413</v>
+        <v>-7.372964655234337e-06</v>
       </c>
       <c r="F13">
-        <v>0.004568647555753869</v>
+        <v>3.372995113187782e-06</v>
       </c>
       <c r="G13">
-        <v>0.0004707596690662896</v>
+        <v>3.475580122708731e-07</v>
       </c>
       <c r="H13">
-        <v>0.2300717361481658</v>
+        <v>0.006752283877852689</v>
       </c>
       <c r="I13">
-        <v>0.2300717361481658</v>
+        <v>0.006752283877852691</v>
       </c>
       <c r="J13">
-        <v>0.2300717361481658</v>
+        <v>0.006752283877852691</v>
       </c>
       <c r="K13">
-        <v>1.000001905386841</v>
+        <v>1.001424829303802</v>
       </c>
       <c r="L13">
-        <v>-0.2378685738213087</v>
+        <v>-0.1103070456009604</v>
       </c>
       <c r="M13">
-        <v>0.9999977646328914</v>
+        <v>1.001398610412223</v>
       </c>
       <c r="N13">
-        <v>-0.2979007128628411</v>
+        <v>-0.1104615305929179</v>
       </c>
       <c r="O13">
-        <v>23.00717361481658</v>
+        <v>13.50456775570538</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3172424075758082</v>
+        <v>0.542673012622596</v>
       </c>
       <c r="C14">
-        <v>-3.068748298816229</v>
+        <v>5.785625466690042e-05</v>
       </c>
       <c r="D14">
-        <v>-0.3149793495277629</v>
+        <v>-0.5426031765436177</v>
       </c>
       <c r="E14">
-        <v>3.068981487400984</v>
+        <v>-5.066024993520004e-05</v>
       </c>
       <c r="F14">
-        <v>0.00226305804804533</v>
+        <v>6.983607897836919e-05</v>
       </c>
       <c r="G14">
-        <v>0.000233188584755073</v>
+        <v>7.196004731700387e-06</v>
       </c>
       <c r="H14">
-        <v>0.1619262613069896</v>
+        <v>0.02844522447997225</v>
       </c>
       <c r="I14">
-        <v>0.1619262613069895</v>
+        <v>0.02844522447997224</v>
       </c>
       <c r="J14">
-        <v>0.1619262613069896</v>
+        <v>0.02844522447997225</v>
       </c>
       <c r="K14">
-        <v>0.9999977646328914</v>
+        <v>1.001326129039917</v>
       </c>
       <c r="L14">
-        <v>-0.2979007128628411</v>
+        <v>-0.113206125587561</v>
       </c>
       <c r="M14">
-        <v>0.9999977905833595</v>
+        <v>1.001197267997012</v>
       </c>
       <c r="N14">
-        <v>-0.340152210924106</v>
+        <v>-0.1139651961576056</v>
       </c>
       <c r="O14">
-        <v>16.19262613069895</v>
+        <v>28.44522447997225</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1686793445990843</v>
+        <v>0.4145855102789968</v>
       </c>
       <c r="C15">
-        <v>-1.817930078736936</v>
+        <v>4.014103383522438e-05</v>
       </c>
       <c r="D15">
-        <v>-0.1680000049636095</v>
+        <v>-0.4145447400244578</v>
       </c>
       <c r="E15">
-        <v>1.818000078818596</v>
+        <v>-3.594001125681691e-05</v>
       </c>
       <c r="F15">
-        <v>0.0006793396354748127</v>
+        <v>4.077025453896876e-05</v>
       </c>
       <c r="G15">
-        <v>7.000008166002658e-05</v>
+        <v>4.201022578407469e-06</v>
       </c>
       <c r="H15">
-        <v>0.09582665165710835</v>
+        <v>0.02173407458656593</v>
       </c>
       <c r="I15">
-        <v>0.09582665165710834</v>
+        <v>0.02173407458656594</v>
       </c>
       <c r="J15">
-        <v>0.09582665165710835</v>
+        <v>0.02173407458656594</v>
       </c>
       <c r="K15">
-        <v>0.9999977905833595</v>
+        <v>1.001197267997012</v>
       </c>
       <c r="L15">
-        <v>-0.340152210924106</v>
+        <v>-0.1139651961576056</v>
       </c>
       <c r="M15">
-        <v>1.000001659947109</v>
+        <v>1.001098809531794</v>
       </c>
       <c r="N15">
-        <v>-0.3615831034015768</v>
+        <v>-0.114545289607787</v>
       </c>
       <c r="O15">
-        <v>9.582665165710836</v>
+        <v>21.73407458656594</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1375487836926299</v>
+        <v>0.244593297294049</v>
       </c>
       <c r="C16">
-        <v>-1.30093782281942</v>
+        <v>2.486205576154182e-05</v>
       </c>
       <c r="D16">
-        <v>-0.1372000046628373</v>
+        <v>-0.2445791037872683</v>
       </c>
       <c r="E16">
-        <v>1.300973761485872</v>
+        <v>-2.339953748377646e-05</v>
       </c>
       <c r="F16">
-        <v>0.0003487790297925786</v>
+        <v>1.419350678066866e-05</v>
       </c>
       <c r="G16">
-        <v>3.59386664519068e-05</v>
+        <v>1.462518277765357e-06</v>
       </c>
       <c r="H16">
-        <v>0.06866224816221053</v>
+        <v>0.01282372796222926</v>
       </c>
       <c r="I16">
-        <v>0.06866224816221053</v>
+        <v>0.01282372796222926</v>
       </c>
       <c r="J16">
-        <v>0.06866224816221053</v>
+        <v>0.01282372796222926</v>
       </c>
       <c r="K16">
-        <v>0.9999981937213921</v>
+        <v>1.001098809531794</v>
       </c>
       <c r="L16">
-        <v>-0.1712205396696795</v>
+        <v>-0.114545289607787</v>
       </c>
       <c r="M16">
-        <v>0.9999975166629766</v>
+        <v>1.001040716169441</v>
       </c>
       <c r="N16">
-        <v>-0.1865771238600582</v>
+        <v>-0.1148875652187092</v>
       </c>
       <c r="O16">
-        <v>6.866224816221053</v>
+        <v>25.64745592445852</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1263195262013098</v>
+        <v>0.127179210883958</v>
       </c>
       <c r="C17">
-        <v>-1.24573882212717</v>
+        <v>1.194907350696406e-05</v>
       </c>
       <c r="D17">
-        <v>-0.1260000046616268</v>
+        <v>-0.1271759213340999</v>
       </c>
       <c r="E17">
-        <v>1.245771746061977</v>
+        <v>-1.161011380746839e-05</v>
       </c>
       <c r="F17">
-        <v>0.0003195215396830375</v>
+        <v>3.289549858148666e-06</v>
       </c>
       <c r="G17">
-        <v>3.292393480647249e-05</v>
+        <v>3.389596994956634e-07</v>
       </c>
       <c r="H17">
-        <v>0.06571929662340521</v>
+        <v>0.006668237708401048</v>
       </c>
       <c r="I17">
-        <v>0.06571929662340521</v>
+        <v>0.006668237708401049</v>
       </c>
       <c r="J17">
-        <v>0.06571929662340521</v>
+        <v>0.006668237708401049</v>
       </c>
       <c r="K17">
-        <v>1.00000491650224</v>
+        <v>1.001040716169441</v>
       </c>
       <c r="L17">
-        <v>-0.1843206752792546</v>
+        <v>-0.1148875652187092</v>
       </c>
       <c r="M17">
-        <v>1.000005365792173</v>
+        <v>1.001014823535554</v>
       </c>
       <c r="N17">
-        <v>-0.199018973943014</v>
+        <v>-0.1150401353870413</v>
       </c>
       <c r="O17">
-        <v>6.571929662340521</v>
+        <v>13.3364754168021</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1359428952750597</v>
+        <v>0.1805612079869761</v>
       </c>
       <c r="C18">
-        <v>-0.8262256083004046</v>
+        <v>1.372651315805499e-05</v>
       </c>
       <c r="D18">
-        <v>-0.1358000046554724</v>
+        <v>-0.1805545795276535</v>
       </c>
       <c r="E18">
-        <v>0.8262403319445396</v>
+        <v>-1.304350767797129e-05</v>
       </c>
       <c r="F18">
-        <v>0.0001428906195873048</v>
+        <v>6.628459322671754e-06</v>
       </c>
       <c r="G18">
-        <v>1.472364413501737e-05</v>
+        <v>6.830054800836924e-07</v>
       </c>
       <c r="H18">
-        <v>0.04394856470215189</v>
+        <v>0.009465621495888487</v>
       </c>
       <c r="I18">
-        <v>0.04394856470215189</v>
+        <v>0.009465621495888485</v>
       </c>
       <c r="J18">
-        <v>0.04394856470215189</v>
+        <v>0.009465621495888487</v>
       </c>
       <c r="K18">
-        <v>1.000002364331789</v>
+        <v>1.001202686076332</v>
       </c>
       <c r="L18">
-        <v>-0.1856370338803617</v>
+        <v>-0.1168325635612796</v>
       </c>
       <c r="M18">
-        <v>0.9999920243690669</v>
+        <v>1.001165931327026</v>
       </c>
       <c r="N18">
-        <v>-0.195448472436646</v>
+        <v>-0.117049143277342</v>
       </c>
       <c r="O18">
-        <v>4.394856470215189</v>
+        <v>18.93124299177697</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.362133397760338</v>
+        <v>0.179105456544076</v>
       </c>
       <c r="C19">
-        <v>-21.0391393397672</v>
+        <v>1.645966995383137e-05</v>
       </c>
       <c r="D19">
-        <v>-7.144850290867583</v>
+        <v>-0.1790989331718203</v>
       </c>
       <c r="E19">
-        <v>21.10669657322876</v>
+        <v>-1.578749278830259e-05</v>
       </c>
       <c r="F19">
-        <v>0.2172831068927552</v>
+        <v>6.523372255762272e-06</v>
       </c>
       <c r="G19">
-        <v>0.06755723346156017</v>
+        <v>6.721771655287851e-07</v>
       </c>
       <c r="H19">
-        <v>1.169662012550552</v>
+        <v>0.009390288115481617</v>
       </c>
       <c r="I19">
-        <v>1.169662012550552</v>
+        <v>0.009390288115481621</v>
       </c>
       <c r="J19">
-        <v>1.169662012550552</v>
+        <v>0.009390288115481621</v>
       </c>
       <c r="K19">
-        <v>1.00022423336732</v>
+        <v>1.001097988533181</v>
       </c>
       <c r="L19">
-        <v>-0.1361280933070403</v>
+        <v>-0.1199088548597606</v>
       </c>
       <c r="M19">
-        <v>0.9999173160093502</v>
+        <v>1.001061526241666</v>
       </c>
       <c r="N19">
-        <v>-0.7208478225844115</v>
+        <v>-0.1201237001702825</v>
       </c>
       <c r="O19">
-        <v>77.97746750337015</v>
+        <v>18.78057623096324</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.763235041130273</v>
+        <v>0.1153968375192934</v>
       </c>
       <c r="C20">
-        <v>-14.07113068059647</v>
+        <v>1.643240103032874e-05</v>
       </c>
       <c r="D20">
-        <v>-4.666664769623809</v>
+        <v>-0.1153941294888565</v>
       </c>
       <c r="E20">
-        <v>14.10115611824279</v>
+        <v>-1.615336188434097e-05</v>
       </c>
       <c r="F20">
-        <v>0.09657027150646424</v>
+        <v>2.708030436851527e-06</v>
       </c>
       <c r="G20">
-        <v>0.03002543764631938</v>
+        <v>2.79039145987777e-07</v>
       </c>
       <c r="H20">
-        <v>0.7797746822054272</v>
+        <v>0.006050198271096367</v>
       </c>
       <c r="I20">
-        <v>0.7797746822054272</v>
+        <v>0.006050198271096367</v>
       </c>
       <c r="J20">
-        <v>0.7797746822054272</v>
+        <v>0.006050198271096367</v>
       </c>
       <c r="K20">
-        <v>0.9999173160093502</v>
+        <v>1.001085086886075</v>
       </c>
       <c r="L20">
-        <v>-0.7208478225844115</v>
+        <v>-0.1202879716630308</v>
       </c>
       <c r="M20">
-        <v>0.9997705862723731</v>
+        <v>1.001061593969547</v>
       </c>
       <c r="N20">
-        <v>-1.110834098062683</v>
+        <v>-0.1204263293999585</v>
       </c>
       <c r="O20">
-        <v>77.97746822054272</v>
+        <v>12.10039654219274</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.381616594592137</v>
+        <v>5.018250647547754</v>
       </c>
       <c r="C21">
-        <v>-7.035565480076938</v>
+        <v>0.005672879364669389</v>
       </c>
       <c r="D21">
-        <v>-2.357474027784903</v>
+        <v>-5.007271625952436</v>
       </c>
       <c r="E21">
-        <v>7.043071839156029</v>
+        <v>-0.002259303704318925</v>
       </c>
       <c r="F21">
-        <v>0.02414256680723392</v>
+        <v>0.01097902159531827</v>
       </c>
       <c r="G21">
-        <v>0.007506359079090252</v>
+        <v>0.003413575660350464</v>
       </c>
       <c r="H21">
-        <v>0.3898873324677901</v>
+        <v>0.2629233903651554</v>
       </c>
       <c r="I21">
-        <v>0.3898873324677901</v>
+        <v>0.2629233903651555</v>
       </c>
       <c r="J21">
-        <v>0.3898873324677901</v>
+        <v>0.2629233903651555</v>
       </c>
       <c r="K21">
-        <v>0.9999173160093502</v>
+        <v>1.001774771884638</v>
       </c>
       <c r="L21">
-        <v>-0.7208478225844115</v>
+        <v>-0.1000328811148825</v>
       </c>
       <c r="M21">
-        <v>0.99983816134306</v>
+        <v>0.9995825335668155</v>
       </c>
       <c r="N21">
-        <v>-0.9158266485929057</v>
+        <v>-0.1389507294873439</v>
       </c>
       <c r="O21">
-        <v>38.98873324677901</v>
+        <v>87.6411301217185</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-2.333333311578842</v>
+        <v>3.338195506386658</v>
       </c>
       <c r="C22">
-        <v>7.050577925668147</v>
+        <v>0.001511356560965715</v>
       </c>
       <c r="D22">
-        <v>2.357475880524841</v>
+        <v>-3.333315899062531</v>
       </c>
       <c r="E22">
-        <v>-7.043071565924077</v>
+        <v>5.801288583380873e-06</v>
       </c>
       <c r="F22">
-        <v>0.02414256894599909</v>
+        <v>0.0048796073241264</v>
       </c>
       <c r="G22">
-        <v>0.007506359744070323</v>
+        <v>0.001517157849549096</v>
       </c>
       <c r="H22">
-        <v>0.3898873497376431</v>
+        <v>0.1752830176624728</v>
       </c>
       <c r="I22">
-        <v>0.3898873497376431</v>
+        <v>0.1752830176624728</v>
       </c>
       <c r="J22">
-        <v>0.3898873497376431</v>
+        <v>0.1752830176624728</v>
       </c>
       <c r="K22">
-        <v>0.9997705862723731</v>
+        <v>0.9995825335668155</v>
       </c>
       <c r="L22">
-        <v>-1.110834098062683</v>
+        <v>-0.1389507294873439</v>
       </c>
       <c r="M22">
-        <v>0.99983816134306</v>
+        <v>0.9981212914899361</v>
       </c>
       <c r="N22">
-        <v>-0.9158266485929057</v>
+        <v>-0.1649909126140389</v>
       </c>
       <c r="O22">
-        <v>38.98873497376431</v>
+        <v>58.4276725541576</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.0006718161674588771</v>
+        <v>1.66908926022142</v>
       </c>
       <c r="C23">
-        <v>2.473809162085556</v>
+        <v>0.0007529943489798735</v>
       </c>
       <c r="D23">
-        <v>0.001417532692669927</v>
+        <v>-1.667869370806729</v>
       </c>
       <c r="E23">
-        <v>-2.473377383572789</v>
+        <v>-0.0003737087470566574</v>
       </c>
       <c r="F23">
-        <v>0.0007457165252110496</v>
+        <v>0.001219889414690867</v>
       </c>
       <c r="G23">
-        <v>0.0004317785127674334</v>
+        <v>0.0003792856019232162</v>
       </c>
       <c r="H23">
-        <v>0.1298122043469841</v>
+        <v>0.0876410628160005</v>
       </c>
       <c r="I23">
-        <v>0.1298122043469841</v>
+        <v>0.08764106281600047</v>
       </c>
       <c r="J23">
-        <v>0.1298122043469841</v>
+        <v>0.0876410628160005</v>
       </c>
       <c r="K23">
-        <v>1.00022423336732</v>
+        <v>0.9995825335668155</v>
       </c>
       <c r="L23">
-        <v>-0.1361280933070403</v>
+        <v>-0.1389507294873439</v>
       </c>
       <c r="M23">
-        <v>1.000049781647435</v>
+        <v>0.9988518908208992</v>
       </c>
       <c r="N23">
-        <v>-0.1188508591990884</v>
+        <v>-0.1519612983979938</v>
       </c>
       <c r="O23">
-        <v>8.654146956465606</v>
+        <v>29.2136876053335</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.779286041616371</v>
+        <v>-1.666666431304856</v>
       </c>
       <c r="C24">
-        <v>-7.863227748358608</v>
+        <v>2.244908790293224e-07</v>
       </c>
       <c r="D24">
-        <v>-4.768964791773183</v>
+        <v>1.667886345552298</v>
       </c>
       <c r="E24">
-        <v>7.869203871666226</v>
+        <v>0.0003790688319939058</v>
       </c>
       <c r="F24">
-        <v>0.01032124984318816</v>
+        <v>0.001219914247441833</v>
       </c>
       <c r="G24">
-        <v>0.005976123307617875</v>
+        <v>0.0003792933228729351</v>
       </c>
       <c r="H24">
-        <v>0.4829417890756082</v>
+        <v>0.08764195484669826</v>
       </c>
       <c r="I24">
-        <v>0.4829417890756083</v>
+        <v>0.08764195484669825</v>
       </c>
       <c r="J24">
-        <v>0.4829417890756083</v>
+        <v>0.08764195484669826</v>
       </c>
       <c r="K24">
-        <v>1.000049781647435</v>
+        <v>0.9981212914899361</v>
       </c>
       <c r="L24">
-        <v>-0.1188508591990884</v>
+        <v>-0.1649909126140389</v>
       </c>
       <c r="M24">
-        <v>1.000023024152161</v>
+        <v>0.9988518908208992</v>
       </c>
       <c r="N24">
-        <v>-0.1930981313079649</v>
+        <v>-0.1519612983979938</v>
       </c>
       <c r="O24">
-        <v>48.29417890756083</v>
+        <v>29.21398494889942</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1549,46 +1549,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.368964792130221</v>
+        <v>5.490496157461833</v>
       </c>
       <c r="C25">
-        <v>-6.483402153318231</v>
+        <v>0.01423121470825206</v>
       </c>
       <c r="D25">
-        <v>-4.361513764285207</v>
+        <v>-5.486834126487488</v>
       </c>
       <c r="E25">
-        <v>6.487716384816046</v>
+        <v>-0.01211085632225254</v>
       </c>
       <c r="F25">
-        <v>0.007451027845013947</v>
+        <v>0.003662030974345143</v>
       </c>
       <c r="G25">
-        <v>0.004314231497815513</v>
+        <v>0.002120358385999523</v>
       </c>
       <c r="H25">
-        <v>0.410333272976249</v>
+        <v>0.287666737417997</v>
       </c>
       <c r="I25">
-        <v>0.4103332729762491</v>
+        <v>0.287666737417997</v>
       </c>
       <c r="J25">
-        <v>0.4103332729762491</v>
+        <v>0.287666737417997</v>
       </c>
       <c r="K25">
-        <v>1.000023024152161</v>
+        <v>1.001774771884638</v>
       </c>
       <c r="L25">
-        <v>-0.1930981313079649</v>
+        <v>-0.1000328811148825</v>
       </c>
       <c r="M25">
-        <v>0.9999486554720137</v>
+        <v>1.001105687640972</v>
       </c>
       <c r="N25">
-        <v>-0.2560552005949266</v>
+        <v>-0.1220752904586166</v>
       </c>
       <c r="O25">
-        <v>41.03332729762491</v>
+        <v>57.53334748359941</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1596,46 +1596,46 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.136731803456359</v>
+        <v>5.486853980777427</v>
       </c>
       <c r="C26">
-        <v>-5.856113311586822</v>
+        <v>0.0121223315704832</v>
       </c>
       <c r="D26">
-        <v>-3.131351018785304</v>
+        <v>-5.483191923266979</v>
       </c>
       <c r="E26">
-        <v>5.859228848287756</v>
+        <v>-0.0100019578197715</v>
       </c>
       <c r="F26">
-        <v>0.005380784671054961</v>
+        <v>0.003662057510448236</v>
       </c>
       <c r="G26">
-        <v>0.003115536700934562</v>
+        <v>0.002120373750711699</v>
       </c>
       <c r="H26">
-        <v>0.3486995986486827</v>
+        <v>0.2876677796730578</v>
       </c>
       <c r="I26">
-        <v>0.3486995986486826</v>
+        <v>0.2876677796730578</v>
       </c>
       <c r="J26">
-        <v>0.3486995986486827</v>
+        <v>0.2876677796730578</v>
       </c>
       <c r="K26">
-        <v>0.9999486554720137</v>
+        <v>1.001105687640972</v>
       </c>
       <c r="L26">
-        <v>-0.2560552005949266</v>
+        <v>-0.1220752904586166</v>
       </c>
       <c r="M26">
-        <v>0.9999800625735284</v>
+        <v>1.000436748536074</v>
       </c>
       <c r="N26">
-        <v>-0.3096492172480587</v>
+        <v>-0.1441471803304351</v>
       </c>
       <c r="O26">
-        <v>34.86995986486826</v>
+        <v>57.53355593461157</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1643,46 +1643,46 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.131351018966479</v>
+        <v>4.883391508516904</v>
       </c>
       <c r="C27">
-        <v>-6.290772867341428</v>
+        <v>0.01002232954071259</v>
       </c>
       <c r="D27">
-        <v>-3.125331007676755</v>
+        <v>-4.880486805490537</v>
       </c>
       <c r="E27">
-        <v>6.294258523664763</v>
+        <v>-0.008340472815866981</v>
       </c>
       <c r="F27">
-        <v>0.006020011289724625</v>
+        <v>0.002904703026366917</v>
       </c>
       <c r="G27">
-        <v>0.00348565632333564</v>
+        <v>0.001681856724845604</v>
       </c>
       <c r="H27">
-        <v>0.3688308963195127</v>
+        <v>0.256200226725053</v>
       </c>
       <c r="I27">
-        <v>0.3688308963195127</v>
+        <v>0.256200226725053</v>
       </c>
       <c r="J27">
-        <v>0.3688308963195127</v>
+        <v>0.256200226725053</v>
       </c>
       <c r="K27">
-        <v>0.9999800625735284</v>
+        <v>1.000436748536074</v>
       </c>
       <c r="L27">
-        <v>-0.3096492172480587</v>
+        <v>-0.1441471803304351</v>
       </c>
       <c r="M27">
-        <v>1.000042857046211</v>
+        <v>0.999841030425033</v>
       </c>
       <c r="N27">
-        <v>-0.3662523994193972</v>
+        <v>-0.1638217316234057</v>
       </c>
       <c r="O27">
-        <v>36.88308963195127</v>
+        <v>51.2400453450106</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1690,46 +1690,46 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.909848420686208</v>
+        <v>3.681317582137854</v>
       </c>
       <c r="C28">
-        <v>-2.567518306867624</v>
+        <v>0.007464497913106672</v>
       </c>
       <c r="D28">
-        <v>-1.908600218664184</v>
+        <v>-3.679664925856731</v>
       </c>
       <c r="E28">
-        <v>2.568241030308076</v>
+        <v>-0.006507590768026844</v>
       </c>
       <c r="F28">
-        <v>0.001248202022023692</v>
+        <v>0.001652656281123654</v>
       </c>
       <c r="G28">
-        <v>0.0007227234404516558</v>
+        <v>0.0009569071450798283</v>
       </c>
       <c r="H28">
-        <v>0.1679465481213196</v>
+        <v>0.1932501814691482</v>
       </c>
       <c r="I28">
-        <v>0.1679465481213197</v>
+        <v>0.1932501814691482</v>
       </c>
       <c r="J28">
-        <v>0.1679465481213197</v>
+        <v>0.1932501814691482</v>
       </c>
       <c r="K28">
-        <v>1.000042857046211</v>
+        <v>0.999841030425033</v>
       </c>
       <c r="L28">
-        <v>-0.3662523994193972</v>
+        <v>-0.1638217316234057</v>
       </c>
       <c r="M28">
-        <v>0.9999913644753039</v>
+        <v>0.9993916795685955</v>
       </c>
       <c r="N28">
-        <v>-0.3919093668518416</v>
+        <v>-0.1786694267808757</v>
       </c>
       <c r="O28">
-        <v>16.79465481213197</v>
+        <v>38.65003629382964</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1737,46 +1737,46 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.508600218849306</v>
+        <v>3.380590373624975</v>
       </c>
       <c r="C29">
-        <v>-3.674565622314109</v>
+        <v>0.006542022369057501</v>
       </c>
       <c r="D29">
-        <v>-1.506676666549013</v>
+        <v>-3.379195447008181</v>
       </c>
       <c r="E29">
-        <v>3.675679381394632</v>
+        <v>-0.005734343687338805</v>
       </c>
       <c r="F29">
-        <v>0.001923552300292286</v>
+        <v>0.001394926616793413</v>
       </c>
       <c r="G29">
-        <v>0.001113759080523025</v>
+        <v>0.0008076786817186963</v>
       </c>
       <c r="H29">
-        <v>0.2084877971368512</v>
+        <v>0.1775433138468587</v>
       </c>
       <c r="I29">
-        <v>0.2084877971368512</v>
+        <v>0.1775433138468587</v>
       </c>
       <c r="J29">
-        <v>0.2084877971368512</v>
+        <v>0.1775433138468587</v>
       </c>
       <c r="K29">
-        <v>0.9999913644753039</v>
+        <v>0.9993916795685955</v>
       </c>
       <c r="L29">
-        <v>-0.3919093668518416</v>
+        <v>-0.1786694267808757</v>
       </c>
       <c r="M29">
-        <v>1.000066982489264</v>
+        <v>0.9989788702959105</v>
       </c>
       <c r="N29">
-        <v>-0.4236751704108245</v>
+        <v>-0.1923181673022126</v>
       </c>
       <c r="O29">
-        <v>20.84877971368512</v>
+        <v>35.50866276937174</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1784,46 +1784,46 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.106676666737179</v>
+        <v>2.18824489467635</v>
       </c>
       <c r="C30">
-        <v>-0.8930815560889385</v>
+        <v>0.002628383404128558</v>
       </c>
       <c r="D30">
-        <v>-1.106430159604516</v>
+        <v>-2.187659948424888</v>
       </c>
       <c r="E30">
-        <v>0.8932242865763683</v>
+        <v>-0.002289692743580545</v>
       </c>
       <c r="F30">
-        <v>0.0002465071326636092</v>
+        <v>0.0005849462514628812</v>
       </c>
       <c r="G30">
-        <v>0.0001427304874298541</v>
+        <v>0.000338690660548013</v>
       </c>
       <c r="H30">
-        <v>0.07463514590653285</v>
+        <v>0.1149705535160019</v>
       </c>
       <c r="I30">
-        <v>0.07463514590653285</v>
+        <v>0.1149705535160019</v>
       </c>
       <c r="J30">
-        <v>0.07463514590653285</v>
+        <v>0.1149705535160019</v>
       </c>
       <c r="K30">
-        <v>1.000066982489264</v>
+        <v>0.9989788702959105</v>
       </c>
       <c r="L30">
-        <v>-0.4236751704108245</v>
+        <v>-0.1923181673022126</v>
       </c>
       <c r="M30">
-        <v>0.9999951305860527</v>
+        <v>0.9987116568685992</v>
       </c>
       <c r="N30">
-        <v>-0.4343883287780556</v>
+        <v>-0.2011702125450725</v>
       </c>
       <c r="O30">
-        <v>7.463514590653284</v>
+        <v>22.99411070320038</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1831,46 +1831,46 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7044895848845401</v>
+        <v>1.789346450030751</v>
       </c>
       <c r="C31">
-        <v>-0.6869841495751646</v>
+        <v>0.002332102794795605</v>
       </c>
       <c r="D31">
-        <v>-0.704371544916722</v>
+        <v>-1.788955117938773</v>
       </c>
       <c r="E31">
-        <v>0.6870524960849018</v>
+        <v>-0.002105516977048817</v>
       </c>
       <c r="F31">
-        <v>0.0001180399678180066</v>
+        <v>0.0003913320919777252</v>
       </c>
       <c r="G31">
-        <v>6.834650973719381e-05</v>
+        <v>0.0002265858177467883</v>
       </c>
       <c r="H31">
-        <v>0.05164677196354965</v>
+        <v>0.09403756465269761</v>
       </c>
       <c r="I31">
-        <v>0.05164677196354964</v>
+        <v>0.09403756465269761</v>
       </c>
       <c r="J31">
-        <v>0.05164677196354965</v>
+        <v>0.09403756465269761</v>
       </c>
       <c r="K31">
-        <v>0.9999951305860527</v>
+        <v>0.9987116568685992</v>
       </c>
       <c r="L31">
-        <v>-0.4343883287780556</v>
+        <v>-0.2011702125450725</v>
       </c>
       <c r="M31">
-        <v>0.999957747624553</v>
+        <v>0.9984930810159861</v>
       </c>
       <c r="N31">
-        <v>-0.4420363729778551</v>
+        <v>-0.2084108460400018</v>
       </c>
       <c r="O31">
-        <v>5.164677196354965</v>
+        <v>18.80751293053952</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1878,46 +1878,46 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.224781961018979</v>
+        <v>1.390914917945511</v>
       </c>
       <c r="C32">
-        <v>-6.331755398596719</v>
+        <v>0.002150275280301365</v>
       </c>
       <c r="D32">
-        <v>-1.211161672980209</v>
+        <v>-1.390678354225372</v>
       </c>
       <c r="E32">
-        <v>6.335065849464021</v>
+        <v>-0.002013302143991546</v>
       </c>
       <c r="F32">
-        <v>0.01362028803876991</v>
+        <v>0.0002365637201389159</v>
       </c>
       <c r="G32">
-        <v>0.00331045086730164</v>
+        <v>0.0001369731363098188</v>
       </c>
       <c r="H32">
-        <v>0.338508674610392</v>
+        <v>0.07311436487078532</v>
       </c>
       <c r="I32">
-        <v>0.338508674610392</v>
+        <v>0.07311436487078532</v>
       </c>
       <c r="J32">
-        <v>0.338508674610392</v>
+        <v>0.07311436487078532</v>
       </c>
       <c r="K32">
-        <v>0.9999486554720137</v>
+        <v>0.9984930810159861</v>
       </c>
       <c r="L32">
-        <v>-0.2560552005949266</v>
+        <v>-0.2084108460400018</v>
       </c>
       <c r="M32">
-        <v>1.000053890734304</v>
+        <v>0.9983231127426614</v>
       </c>
       <c r="N32">
-        <v>-0.3804318697659779</v>
+        <v>-0.2140390426532215</v>
       </c>
       <c r="O32">
-        <v>33.8508674610392</v>
+        <v>14.62287297415706</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1925,46 +1925,46 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8092297189391614</v>
+        <v>0.9952297509514497</v>
       </c>
       <c r="C33">
-        <v>-2.971121679821455</v>
+        <v>-1.819709136836531e-05</v>
       </c>
       <c r="D33">
-        <v>-0.8061250714640777</v>
+        <v>-0.995108596174754</v>
       </c>
       <c r="E33">
-        <v>2.971876273475957</v>
+        <v>8.83471115540259e-05</v>
       </c>
       <c r="F33">
-        <v>0.003104647475083655</v>
+        <v>0.0001211547766957199</v>
       </c>
       <c r="G33">
-        <v>0.0007545936545025889</v>
+        <v>7.015002018566059e-05</v>
       </c>
       <c r="H33">
-        <v>0.1616154230915448</v>
+        <v>0.05232375601366013</v>
       </c>
       <c r="I33">
-        <v>0.1616154230915448</v>
+        <v>0.05232375601366013</v>
       </c>
       <c r="J33">
-        <v>0.1616154230915448</v>
+        <v>0.05232375601366013</v>
       </c>
       <c r="K33">
-        <v>1.000053890734304</v>
+        <v>0.9983231127426614</v>
       </c>
       <c r="L33">
-        <v>-0.3804318697659779</v>
+        <v>-0.2140390426532215</v>
       </c>
       <c r="M33">
-        <v>1.000025912917362</v>
+        <v>0.9982015851611882</v>
       </c>
       <c r="N33">
-        <v>-0.4398592895593121</v>
+        <v>-0.2180782269343072</v>
       </c>
       <c r="O33">
-        <v>16.16154230915448</v>
+        <v>10.46475120273203</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1972,46 +1972,46 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.4035550122143363</v>
+        <v>1.199659865483842</v>
       </c>
       <c r="C34">
-        <v>-2.635795729225736</v>
+        <v>0.0004640321556181478</v>
       </c>
       <c r="D34">
-        <v>-0.3999999998085551</v>
+        <v>-1.199188460166408</v>
       </c>
       <c r="E34">
-        <v>2.636385028897107</v>
+        <v>-0.0003494557136583492</v>
       </c>
       <c r="F34">
-        <v>0.003555012405781155</v>
+        <v>0.0004714053174339483</v>
       </c>
       <c r="G34">
-        <v>0.0005892996713710019</v>
+        <v>0.0001145764419597985</v>
       </c>
       <c r="H34">
-        <v>0.139951854102613</v>
+        <v>0.06297582924872869</v>
       </c>
       <c r="I34">
-        <v>0.139951854102613</v>
+        <v>0.06297582924872867</v>
       </c>
       <c r="J34">
-        <v>0.139951854102613</v>
+        <v>0.06297582924872869</v>
       </c>
       <c r="K34">
-        <v>1.000025912917362</v>
+        <v>0.999841030425033</v>
       </c>
       <c r="L34">
-        <v>-0.4398592895593121</v>
+        <v>-0.1638217316234057</v>
       </c>
       <c r="M34">
-        <v>1.000043510732299</v>
+        <v>0.9994481114173045</v>
       </c>
       <c r="N34">
-        <v>-0.5172816223092547</v>
+        <v>-0.1692873432791488</v>
       </c>
       <c r="O34">
-        <v>13.9951854102613</v>
+        <v>12.59516584974574</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2019,46 +2019,46 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.40257005943847</v>
+        <v>0.7996157237997502</v>
       </c>
       <c r="C35">
-        <v>-2.231196548044784</v>
+        <v>0.0001626769587512373</v>
       </c>
       <c r="D35">
-        <v>-0.3999999998094758</v>
+        <v>-0.799406128167563</v>
       </c>
       <c r="E35">
-        <v>2.231622576176867</v>
+        <v>-0.0001117341269710418</v>
       </c>
       <c r="F35">
-        <v>0.002570059628994203</v>
+        <v>0.0002095956321872539</v>
       </c>
       <c r="G35">
-        <v>0.000426028132083367</v>
+        <v>5.09428317801955e-05</v>
       </c>
       <c r="H35">
-        <v>0.1189952692388338</v>
+        <v>0.04199211705523245</v>
       </c>
       <c r="I35">
-        <v>0.1189952692388337</v>
+        <v>0.04199211705523245</v>
       </c>
       <c r="J35">
-        <v>0.1189952692388338</v>
+        <v>0.04199211705523245</v>
       </c>
       <c r="K35">
-        <v>1.000025912917362</v>
+        <v>0.9994481114173045</v>
       </c>
       <c r="L35">
-        <v>-0.4398592895593121</v>
+        <v>-0.1692873432791488</v>
       </c>
       <c r="M35">
-        <v>1.000010216183736</v>
+        <v>0.9991861247122439</v>
       </c>
       <c r="N35">
-        <v>-0.505688828092886</v>
+        <v>-0.1729355089873252</v>
       </c>
       <c r="O35">
-        <v>11.89952692388338</v>
+        <v>8.39842341104649</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2066,46 +2066,46 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.4019319542283361</v>
+        <v>0.3998241889858763</v>
       </c>
       <c r="C36">
-        <v>-1.924243262990907</v>
+        <v>-2.029392096731782e-05</v>
       </c>
       <c r="D36">
-        <v>-0.3999999998112885</v>
+        <v>-0.3997441277067082</v>
       </c>
       <c r="E36">
-        <v>1.924563515066883</v>
+        <v>3.356534736981211e-05</v>
       </c>
       <c r="F36">
-        <v>0.001931954417047521</v>
+        <v>8.00612791681532e-05</v>
       </c>
       <c r="G36">
-        <v>0.0003202520759750804</v>
+        <v>1.327142640249429e-05</v>
       </c>
       <c r="H36">
-        <v>0.1031707372088778</v>
+        <v>0.02100242093655354</v>
       </c>
       <c r="I36">
-        <v>0.1031707372088778</v>
+        <v>0.02100242093655354</v>
       </c>
       <c r="J36">
-        <v>0.1031707372088778</v>
+        <v>0.02100242093655354</v>
       </c>
       <c r="K36">
-        <v>1.000053890734304</v>
+        <v>0.9991861247122439</v>
       </c>
       <c r="L36">
-        <v>-0.3804318697659779</v>
+        <v>-0.1729355089873252</v>
       </c>
       <c r="M36">
-        <v>1.00001290862386</v>
+        <v>0.9989860487089948</v>
       </c>
       <c r="N36">
-        <v>-0.4374632323858297</v>
+        <v>-0.1748383000389303</v>
       </c>
       <c r="O36">
-        <v>10.31707372088778</v>
+        <v>4.200484187310709</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2113,46 +2113,46 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.215482587171443</v>
+        <v>0.3998345979240314</v>
       </c>
       <c r="C37">
-        <v>-4.917545913551135</v>
+        <v>-2.029322981160595e-05</v>
       </c>
       <c r="D37">
-        <v>-1.207081148467726</v>
+        <v>-0.3997545324762123</v>
       </c>
       <c r="E37">
-        <v>4.919587907814702</v>
+        <v>3.356534723408518e-05</v>
       </c>
       <c r="F37">
-        <v>0.008401438703716346</v>
+        <v>8.006544781913316e-05</v>
       </c>
       <c r="G37">
-        <v>0.002041994263566771</v>
+        <v>1.327211742247923e-05</v>
       </c>
       <c r="H37">
-        <v>0.2658602984443563</v>
+        <v>0.02100296770912348</v>
       </c>
       <c r="I37">
-        <v>0.2658602984443563</v>
+        <v>0.02100296770912348</v>
       </c>
       <c r="J37">
-        <v>0.2658602984443563</v>
+        <v>0.02100296770912348</v>
       </c>
       <c r="K37">
-        <v>1.000042857046211</v>
+        <v>0.9991861247122439</v>
       </c>
       <c r="L37">
-        <v>-0.3662523994193972</v>
+        <v>-0.1729355089873252</v>
       </c>
       <c r="M37">
-        <v>1.000037680399007</v>
+        <v>0.9989860435001718</v>
       </c>
       <c r="N37">
-        <v>-0.4640466593087983</v>
+        <v>-0.1748383495507095</v>
       </c>
       <c r="O37">
-        <v>26.58602984443563</v>
+        <v>4.200593541824695</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2160,46 +2160,46 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.804702513588651</v>
+        <v>0.3998704491729303</v>
       </c>
       <c r="C38">
-        <v>-2.423347972162436</v>
+        <v>-1.871709847289923e-05</v>
       </c>
       <c r="D38">
-        <v>-0.8025676718307411</v>
+        <v>-0.3997904113436864</v>
       </c>
       <c r="E38">
-        <v>2.423866851699265</v>
+        <v>3.198463767865411e-05</v>
       </c>
       <c r="F38">
-        <v>0.0021348417579099</v>
+        <v>8.003782924392855e-05</v>
       </c>
       <c r="G38">
-        <v>0.0005188795368287202</v>
+        <v>1.326753920575488e-05</v>
       </c>
       <c r="H38">
-        <v>0.1340168793360821</v>
+        <v>0.02099934490996157</v>
       </c>
       <c r="I38">
-        <v>0.1340168793360821</v>
+        <v>0.02099934490996158</v>
       </c>
       <c r="J38">
-        <v>0.1340168793360821</v>
+        <v>0.02099934490996158</v>
       </c>
       <c r="K38">
-        <v>1.000037680399007</v>
+        <v>0.9994481114173045</v>
       </c>
       <c r="L38">
-        <v>-0.4640466593087983</v>
+        <v>-0.1692873432791488</v>
       </c>
       <c r="M38">
-        <v>0.9999674203581029</v>
+        <v>0.9992480645860511</v>
       </c>
       <c r="N38">
-        <v>-0.5131809811806596</v>
+        <v>-0.1711893114839978</v>
       </c>
       <c r="O38">
-        <v>13.40168793360821</v>
+        <v>4.199868981992316</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2207,46 +2207,46 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4023786350681398</v>
+        <v>1.192346256525786</v>
       </c>
       <c r="C39">
-        <v>-2.143744814766761</v>
+        <v>0.001818517289891841</v>
       </c>
       <c r="D39">
-        <v>-0.3999999998103706</v>
+        <v>-1.191879776284905</v>
       </c>
       <c r="E39">
-        <v>2.144139111274259</v>
+        <v>-0.001705137902201419</v>
       </c>
       <c r="F39">
-        <v>0.002378635257769157</v>
+        <v>0.0004664802408809177</v>
       </c>
       <c r="G39">
-        <v>0.0003942965074985594</v>
+        <v>0.0001133793876904217</v>
       </c>
       <c r="H39">
-        <v>0.114477997022966</v>
+        <v>0.06264599084758424</v>
       </c>
       <c r="I39">
-        <v>0.114477997022966</v>
+        <v>0.06264599084758422</v>
       </c>
       <c r="J39">
-        <v>0.114477997022966</v>
+        <v>0.06264599084758424</v>
       </c>
       <c r="K39">
-        <v>1.000037680399007</v>
+        <v>0.9989788702959105</v>
       </c>
       <c r="L39">
-        <v>-0.4640466593087983</v>
+        <v>-0.1923181673022126</v>
       </c>
       <c r="M39">
-        <v>1.000014782148853</v>
+        <v>0.9985879014457598</v>
       </c>
       <c r="N39">
-        <v>-0.5273689944599679</v>
+        <v>-0.1977343032019882</v>
       </c>
       <c r="O39">
-        <v>11.4477997022966</v>
+        <v>12.52919816951685</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2254,46 +2254,46 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.4025676720173849</v>
+        <v>0.7957326665915953</v>
       </c>
       <c r="C40">
-        <v>-2.229991973463442</v>
+        <v>-2.239531963357322e-05</v>
       </c>
       <c r="D40">
-        <v>-0.3999999998088996</v>
+        <v>-0.7955247439246903</v>
       </c>
       <c r="E40">
-        <v>2.230417605842723</v>
+        <v>7.29315323060053e-05</v>
       </c>
       <c r="F40">
-        <v>0.002567672208485305</v>
+        <v>0.0002079226669049472</v>
       </c>
       <c r="G40">
-        <v>0.0004256323792812822</v>
+        <v>5.053621267243208e-05</v>
       </c>
       <c r="H40">
-        <v>0.1189399869120248</v>
+        <v>0.04182419346872838</v>
       </c>
       <c r="I40">
-        <v>0.1189399869120248</v>
+        <v>0.04182419346872839</v>
       </c>
       <c r="J40">
-        <v>0.1189399869120248</v>
+        <v>0.04182419346872839</v>
       </c>
       <c r="K40">
-        <v>0.9999674203581029</v>
+        <v>0.9985879014457598</v>
       </c>
       <c r="L40">
-        <v>-0.5131809811806596</v>
+        <v>-0.1977343032019882</v>
       </c>
       <c r="M40">
-        <v>0.9999516234416395</v>
+        <v>0.9983269770868808</v>
       </c>
       <c r="N40">
-        <v>-0.578983704681207</v>
+        <v>-0.2013744752956655</v>
       </c>
       <c r="O40">
-        <v>11.89399869120248</v>
+        <v>8.364838693745678</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2301,46 +2301,46 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4019405749034369</v>
+        <v>0.3980228783941152</v>
       </c>
       <c r="C41">
-        <v>-1.928598457034392</v>
+        <v>-2.909116833378612e-05</v>
       </c>
       <c r="D41">
-        <v>-0.3999999998126627</v>
+        <v>-0.3979434417923322</v>
       </c>
       <c r="E41">
-        <v>1.928920138123719</v>
+        <v>4.225904455535247e-05</v>
       </c>
       <c r="F41">
-        <v>0.001940575090774166</v>
+        <v>7.943660178294509e-05</v>
       </c>
       <c r="G41">
-        <v>0.0003216810893269528</v>
+        <v>1.316787622156635e-05</v>
       </c>
       <c r="H41">
-        <v>0.1034006627449977</v>
+        <v>0.02092032488764331</v>
       </c>
       <c r="I41">
-        <v>0.1034006627449976</v>
+        <v>0.02092032488764331</v>
       </c>
       <c r="J41">
-        <v>0.1034006627449977</v>
+        <v>0.02092032488764331</v>
       </c>
       <c r="K41">
-        <v>0.9999951305860527</v>
+        <v>0.9985879014457598</v>
       </c>
       <c r="L41">
-        <v>-0.4343883287780556</v>
+        <v>-0.1977343032019882</v>
       </c>
       <c r="M41">
-        <v>0.9999545049649925</v>
+        <v>0.9983886082529845</v>
       </c>
       <c r="N41">
-        <v>-0.4915511902435353</v>
+        <v>-0.1996310460655505</v>
       </c>
       <c r="O41">
-        <v>10.34006627449977</v>
+        <v>4.184064977528661</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2348,46 +2348,46 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.3043715451038535</v>
+        <v>0.3976807103539567</v>
       </c>
       <c r="C42">
-        <v>-2.941014320414022</v>
+        <v>-3.016521040497379e-05</v>
       </c>
       <c r="D42">
-        <v>-0.2999999998104904</v>
+        <v>-0.3976013688144338</v>
       </c>
       <c r="E42">
-        <v>2.941738973357728</v>
+        <v>4.331732854972233e-05</v>
       </c>
       <c r="F42">
-        <v>0.004371545293363088</v>
+        <v>7.934153952293688e-05</v>
       </c>
       <c r="G42">
-        <v>0.000724652943705717</v>
+        <v>1.315211814474854e-05</v>
       </c>
       <c r="H42">
-        <v>0.1551942360267466</v>
+        <v>0.02090780340096198</v>
       </c>
       <c r="I42">
-        <v>0.1551942360267466</v>
+        <v>0.02090780340096197</v>
       </c>
       <c r="J42">
-        <v>0.1551942360267466</v>
+        <v>0.02090780340096198</v>
       </c>
       <c r="K42">
-        <v>0.999957747624553</v>
+        <v>0.9983269770868808</v>
       </c>
       <c r="L42">
-        <v>-0.4420363729778551</v>
+        <v>-0.2013744752956655</v>
       </c>
       <c r="M42">
-        <v>1.000050445798284</v>
+        <v>0.9981278032686068</v>
       </c>
       <c r="N42">
-        <v>-0.5277363858398231</v>
+        <v>-0.2032706098064471</v>
       </c>
       <c r="O42">
-        <v>15.51942360267466</v>
+        <v>4.181560680192396</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2395,46 +2395,46 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4956010314776819</v>
+        <v>0.3976417440435951</v>
       </c>
       <c r="C43">
-        <v>2.99444620874059</v>
+        <v>-3.403932314812244e-05</v>
       </c>
       <c r="D43">
-        <v>-0.4951694776620731</v>
+        <v>-0.3975624174374571</v>
       </c>
       <c r="E43">
-        <v>-2.994224571225412</v>
+        <v>4.71889658475444e-05</v>
       </c>
       <c r="F43">
-        <v>0.0004315538156087206</v>
+        <v>7.932660613801934e-05</v>
       </c>
       <c r="G43">
-        <v>0.0002216375151777861</v>
+        <v>1.314964269942195e-05</v>
       </c>
       <c r="H43">
-        <v>0.1592814951147647</v>
+        <v>0.02090583571185132</v>
       </c>
       <c r="I43">
-        <v>0.1592814951147647</v>
+        <v>0.02090583571185132</v>
       </c>
       <c r="J43">
-        <v>0.1592814951147647</v>
+        <v>0.02090583571185132</v>
       </c>
       <c r="K43">
-        <v>1.000152146553382</v>
+        <v>0.9983231127426614</v>
       </c>
       <c r="L43">
-        <v>-0.1280921580273475</v>
+        <v>-0.2140390426532215</v>
       </c>
       <c r="M43">
-        <v>1.000056880980615</v>
+        <v>0.998123957991226</v>
       </c>
       <c r="N43">
-        <v>-0.1207374288173283</v>
+        <v>-0.2159351174837645</v>
       </c>
       <c r="O43">
-        <v>7.964074755738237</v>
+        <v>4.181167142370264</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2442,46 +2442,46 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1052828100982548</v>
+        <v>0.2974282405402364</v>
       </c>
       <c r="C44">
-        <v>0.8441348440050599</v>
+        <v>-4.077010232877336e-05</v>
       </c>
       <c r="D44">
-        <v>-0.1052489041642051</v>
+        <v>-0.2973838485021429</v>
       </c>
       <c r="E44">
-        <v>-0.844117430587079</v>
+        <v>4.812878648339527e-05</v>
       </c>
       <c r="F44">
-        <v>3.390593404971332e-05</v>
+        <v>4.439203809342152e-05</v>
       </c>
       <c r="G44">
-        <v>1.74134179808938e-05</v>
+        <v>7.358684154621905e-06</v>
       </c>
       <c r="H44">
-        <v>0.04464632328438484</v>
+        <v>0.01563905973106596</v>
       </c>
       <c r="I44">
-        <v>0.04464632328438485</v>
+        <v>0.01563905973106597</v>
       </c>
       <c r="J44">
-        <v>0.04464632328438485</v>
+        <v>0.01563905973106597</v>
       </c>
       <c r="K44">
-        <v>1.000056880980615</v>
+        <v>0.9982015851611882</v>
       </c>
       <c r="L44">
-        <v>-0.1207374288173283</v>
+        <v>-0.2180782269343072</v>
       </c>
       <c r="M44">
-        <v>1.000031634554811</v>
+        <v>0.9980526043382217</v>
       </c>
       <c r="N44">
-        <v>-0.1186164126772664</v>
+        <v>-0.2194971680961036</v>
       </c>
       <c r="O44">
-        <v>4.464632328438485</v>
+        <v>3.127811946213193</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2489,46 +2489,46 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.07024889959856374</v>
+        <v>11.91361822556405</v>
       </c>
       <c r="C45">
-        <v>-0.05706296119787617</v>
+        <v>0.01430448101327533</v>
       </c>
       <c r="D45">
-        <v>-0.07024851579245794</v>
+        <v>-11.90699079034132</v>
       </c>
       <c r="E45">
-        <v>0.05706315831311076</v>
+        <v>-0.01090076119518398</v>
       </c>
       <c r="F45">
-        <v>3.838061057997999e-07</v>
+        <v>0.006627435222725353</v>
       </c>
       <c r="G45">
-        <v>1.971152345861538e-07</v>
+        <v>0.003403719818091355</v>
       </c>
       <c r="H45">
-        <v>0.004750111269433166</v>
+        <v>0.6241954361792329</v>
       </c>
       <c r="I45">
-        <v>0.004750111269433166</v>
+        <v>0.624195436179233</v>
       </c>
       <c r="J45">
-        <v>0.004750111269433166</v>
+        <v>0.624195436179233</v>
       </c>
       <c r="K45">
-        <v>1.000031634554811</v>
+        <v>1.001774771884638</v>
       </c>
       <c r="L45">
-        <v>-0.1186164126772664</v>
+        <v>-0.1000328811148825</v>
       </c>
       <c r="M45">
-        <v>1.00002971608025</v>
+        <v>1.001217191754931</v>
       </c>
       <c r="N45">
-        <v>-0.1188664682155335</v>
+        <v>-0.1163730829514132</v>
       </c>
       <c r="O45">
-        <v>0.4750111269433167</v>
+        <v>83.22605815723107</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2536,46 +2536,46 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.04024851123425682</v>
+        <v>11.9069956736709</v>
       </c>
       <c r="C46">
-        <v>1.456737118480627</v>
+        <v>0.01090349740401001</v>
       </c>
       <c r="D46">
-        <v>-0.04014900148009087</v>
+        <v>-11.90036823300927</v>
       </c>
       <c r="E46">
-        <v>-1.456686012236512</v>
+        <v>-0.007499774792602575</v>
       </c>
       <c r="F46">
-        <v>9.950975416595648e-05</v>
+        <v>0.006627440661633344</v>
       </c>
       <c r="G46">
-        <v>5.110624411508446e-05</v>
+        <v>0.00340372261140744</v>
       </c>
       <c r="H46">
-        <v>0.07648577469758373</v>
+        <v>0.624195692307194</v>
       </c>
       <c r="I46">
-        <v>0.07648577469758372</v>
+        <v>0.624195692307194</v>
       </c>
       <c r="J46">
-        <v>0.07648577469758373</v>
+        <v>0.624195692307194</v>
       </c>
       <c r="K46">
-        <v>1.00002971608025</v>
+        <v>1.001217191754931</v>
       </c>
       <c r="L46">
-        <v>-0.1188664682155335</v>
+        <v>-0.1163730829514132</v>
       </c>
       <c r="M46">
-        <v>0.9999927754128093</v>
+        <v>1.000659692854164</v>
       </c>
       <c r="N46">
-        <v>-0.1150109297726141</v>
+        <v>-0.1327314927811596</v>
       </c>
       <c r="O46">
-        <v>7.648577469758373</v>
+        <v>83.22609230762586</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2583,46 +2583,46 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0001489968546448945</v>
+        <v>3.271098194381952</v>
       </c>
       <c r="C47">
-        <v>-1.783117014764467</v>
+        <v>0.0002415669427353277</v>
       </c>
       <c r="D47">
-        <v>-4.61274021973726e-09</v>
+        <v>-3.270597454663795</v>
       </c>
       <c r="E47">
-        <v>1.783193534236852</v>
+        <v>1.560308535511999e-05</v>
       </c>
       <c r="F47">
-        <v>0.0001489922419046748</v>
+        <v>0.0005007397181575612</v>
       </c>
       <c r="G47">
-        <v>7.651947238529466e-05</v>
+        <v>0.0002571700280904476</v>
       </c>
       <c r="H47">
-        <v>0.09359004815536434</v>
+        <v>0.1715749430744569</v>
       </c>
       <c r="I47">
-        <v>0.09359004815536434</v>
+        <v>0.171574943074457</v>
       </c>
       <c r="J47">
-        <v>0.09359004815536434</v>
+        <v>0.171574943074457</v>
       </c>
       <c r="K47">
-        <v>0.9999927754128093</v>
+        <v>1.000659692854164</v>
       </c>
       <c r="L47">
-        <v>-0.1150109297726141</v>
+        <v>-0.1327314927811596</v>
       </c>
       <c r="M47">
-        <v>1.000035684932283</v>
+        <v>1.00050650914955</v>
       </c>
       <c r="N47">
-        <v>-0.1197984039328167</v>
+        <v>-0.1372360637842771</v>
       </c>
       <c r="O47">
-        <v>9.359004815536434</v>
+        <v>22.87665907659427</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2630,46 +2630,46 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.3898866572433786</v>
+        <v>2.150573436001654</v>
       </c>
       <c r="C48">
-        <v>2.150089724296983</v>
+        <v>-1.21356823242786e-05</v>
       </c>
       <c r="D48">
-        <v>-0.3896629333696096</v>
+        <v>-2.150356931761703</v>
       </c>
       <c r="E48">
-        <v>-2.149974824134651</v>
+        <v>0.0001233279833361021</v>
       </c>
       <c r="F48">
-        <v>0.0002237238737689551</v>
+        <v>0.0002165042399506767</v>
       </c>
       <c r="G48">
-        <v>0.0001149001623312884</v>
+        <v>0.0001111923010118235</v>
       </c>
       <c r="H48">
-        <v>0.1146843106500914</v>
+        <v>0.1128186883209781</v>
       </c>
       <c r="I48">
-        <v>0.1146843106500914</v>
+        <v>0.1128186883209781</v>
       </c>
       <c r="J48">
-        <v>0.1146843106500914</v>
+        <v>0.1128186883209781</v>
       </c>
       <c r="K48">
-        <v>1.000056880980615</v>
+        <v>1.00050650914955</v>
       </c>
       <c r="L48">
-        <v>-0.1207374288173283</v>
+        <v>-0.1372360637842771</v>
       </c>
       <c r="M48">
-        <v>0.9999868749330977</v>
+        <v>1.00040578699164</v>
       </c>
       <c r="N48">
-        <v>-0.1155025951465747</v>
+        <v>-0.1401987903254539</v>
       </c>
       <c r="O48">
-        <v>5.734215532504569</v>
+        <v>15.04249177613042</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2677,46 +2677,46 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.3446629287927148</v>
+        <v>0.9502804908277603</v>
       </c>
       <c r="C49">
-        <v>-2.026339342921478</v>
+        <v>-0.000119751167480287</v>
       </c>
       <c r="D49">
-        <v>-0.3444649495164875</v>
+        <v>-0.9502382094693789</v>
       </c>
       <c r="E49">
-        <v>2.026441021167047</v>
+        <v>0.0001414660379576672</v>
       </c>
       <c r="F49">
-        <v>0.0001979792762272226</v>
+        <v>4.228135838146851e-05</v>
       </c>
       <c r="G49">
-        <v>0.000101678245568948</v>
+        <v>2.171487047738022e-05</v>
       </c>
       <c r="H49">
-        <v>0.1078841661757354</v>
+        <v>0.04985655990575598</v>
       </c>
       <c r="I49">
-        <v>0.1078841661757354</v>
+        <v>0.04985655990575598</v>
       </c>
       <c r="J49">
-        <v>0.1078841661757354</v>
+        <v>0.04985655990575598</v>
       </c>
       <c r="K49">
-        <v>0.9999868749330977</v>
+        <v>1.00040578699164</v>
       </c>
       <c r="L49">
-        <v>-0.1155025951465747</v>
+        <v>-0.1401987903254539</v>
       </c>
       <c r="M49">
-        <v>1.000019496074432</v>
+        <v>1.000361278523392</v>
       </c>
       <c r="N49">
-        <v>-0.1214182295197501</v>
+        <v>-0.1415084363446022</v>
       </c>
       <c r="O49">
-        <v>10.78841661757354</v>
+        <v>6.647541320767464</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2724,46 +2724,46 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.2794649449450324</v>
+        <v>0.0001273842469204141</v>
       </c>
       <c r="C50">
-        <v>-2.596804487148753</v>
+        <v>-0.0001378162627120161</v>
       </c>
       <c r="D50">
-        <v>-0.27914530557293</v>
+        <v>-0.0001273842452712111</v>
       </c>
       <c r="E50">
-        <v>2.5969686476164</v>
+        <v>0.0001378162635590143</v>
       </c>
       <c r="F50">
-        <v>0.0003196393721023871</v>
+        <v>1.649203072284083e-12</v>
       </c>
       <c r="G50">
-        <v>0.000164160467647001</v>
+        <v>8.469981443645636e-13</v>
       </c>
       <c r="H50">
-        <v>0.1370812252727794</v>
+        <v>9.846568658383993e-06</v>
       </c>
       <c r="I50">
-        <v>0.1370812252727794</v>
+        <v>9.846568658383989e-06</v>
       </c>
       <c r="J50">
-        <v>0.1370812252727794</v>
+        <v>9.846568658383993e-06</v>
       </c>
       <c r="K50">
-        <v>1.000019496074432</v>
+        <v>1.000361278523392</v>
       </c>
       <c r="L50">
-        <v>-0.1214182295197501</v>
+        <v>-0.1415084363446022</v>
       </c>
       <c r="M50">
-        <v>1.00006890276361</v>
+        <v>1.00036127587189</v>
       </c>
       <c r="N50">
-        <v>-0.1287749649886974</v>
+        <v>-0.1415089816152552</v>
       </c>
       <c r="O50">
-        <v>13.70812252727794</v>
+        <v>0.001312875821117866</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2771,46 +2771,46 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.2641453009564495</v>
+        <v>8.629318780869321</v>
       </c>
       <c r="C51">
-        <v>3.449140457832414</v>
+        <v>0.007261529365033999</v>
       </c>
       <c r="D51">
-        <v>-0.2636647355699085</v>
+        <v>-8.625833978055628</v>
       </c>
       <c r="E51">
-        <v>-3.448893648942536</v>
+        <v>-0.005471803475533152</v>
       </c>
       <c r="F51">
-        <v>0.0004805653865410098</v>
+        <v>0.003484802813693122</v>
       </c>
       <c r="G51">
-        <v>0.0002468088898779364</v>
+        <v>0.001789725889500847</v>
       </c>
       <c r="H51">
-        <v>0.1815505134280655</v>
+        <v>0.4526233426169763</v>
       </c>
       <c r="I51">
-        <v>0.1815505134280655</v>
+        <v>0.4526233426169763</v>
       </c>
       <c r="J51">
-        <v>0.1815505134280655</v>
+        <v>0.4526233426169763</v>
       </c>
       <c r="K51">
-        <v>1.00006890276361</v>
+        <v>1.000659692854164</v>
       </c>
       <c r="L51">
-        <v>-0.1287749649886974</v>
+        <v>-0.1327314927811596</v>
       </c>
       <c r="M51">
-        <v>0.9999871585677315</v>
+        <v>1.000255440654595</v>
       </c>
       <c r="N51">
-        <v>-0.1211500742434596</v>
+        <v>-0.1445999877476539</v>
       </c>
       <c r="O51">
-        <v>18.15505134280655</v>
+        <v>60.34977901559684</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2818,46 +2818,46 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.2136647309433342</v>
+        <v>7.726025424989947</v>
       </c>
       <c r="C52">
-        <v>-1.362396845445339</v>
+        <v>0.005475527961401317</v>
       </c>
       <c r="D52">
-        <v>-0.2135756122907053</v>
+        <v>-7.723229739398906</v>
       </c>
       <c r="E52">
-        <v>1.362442615024961</v>
+        <v>-0.004039719065261689</v>
       </c>
       <c r="F52">
-        <v>8.911865262889451e-05</v>
+        <v>0.002795685591040709</v>
       </c>
       <c r="G52">
-        <v>4.576957962187933e-05</v>
+        <v>0.001435808896139628</v>
       </c>
       <c r="H52">
-        <v>0.07238226168427082</v>
+        <v>0.4054077132164181</v>
       </c>
       <c r="I52">
-        <v>0.07238226168427084</v>
+        <v>0.4054077132164181</v>
       </c>
       <c r="J52">
-        <v>0.07238226168427084</v>
+        <v>0.4054077132164181</v>
       </c>
       <c r="K52">
-        <v>0.9999871585677315</v>
+        <v>1.000255440654595</v>
       </c>
       <c r="L52">
-        <v>-0.1211500742434596</v>
+        <v>-0.1445999877476539</v>
       </c>
       <c r="M52">
-        <v>1.000009936616363</v>
+        <v>0.9998933808801153</v>
       </c>
       <c r="N52">
-        <v>-0.1251025388637787</v>
+        <v>-0.1552370190289671</v>
       </c>
       <c r="O52">
-        <v>7.238226168427084</v>
+        <v>54.05436176218908</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2865,46 +2865,46 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1365946228884583</v>
+        <v>6.423578342749029</v>
       </c>
       <c r="C53">
-        <v>-0.1417183227070032</v>
+        <v>0.004043810015333944</v>
       </c>
       <c r="D53">
-        <v>-0.1365928074854741</v>
+        <v>-6.421644395944137</v>
       </c>
       <c r="E53">
-        <v>0.141719255062116</v>
+        <v>-0.003050573137759291</v>
       </c>
       <c r="F53">
-        <v>1.815402984217673e-06</v>
+        <v>0.00193394680489245</v>
       </c>
       <c r="G53">
-        <v>9.323551128648244e-07</v>
+        <v>0.0009932368775746533</v>
       </c>
       <c r="H53">
-        <v>0.01033080979656425</v>
+        <v>0.3371864432693047</v>
       </c>
       <c r="I53">
-        <v>0.01033080979656425</v>
+        <v>0.3371864432693047</v>
       </c>
       <c r="J53">
-        <v>0.01033080979656425</v>
+        <v>0.3371864432693047</v>
       </c>
       <c r="K53">
-        <v>1.000009936616363</v>
+        <v>0.9998933808801153</v>
       </c>
       <c r="L53">
-        <v>-0.1251025388637787</v>
+        <v>-0.1552370190289671</v>
       </c>
       <c r="M53">
-        <v>1.000006946548613</v>
+        <v>0.9995922576859119</v>
       </c>
       <c r="N53">
-        <v>-0.1256713704867876</v>
+        <v>-0.1640881020692024</v>
       </c>
       <c r="O53">
-        <v>1.033080979656425</v>
+        <v>44.95819243590729</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2912,46 +2912,46 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.09599280287444754</v>
+        <v>5.452153585609209</v>
       </c>
       <c r="C54">
-        <v>0.5115798443504846</v>
+        <v>0.003054993998608091</v>
       </c>
       <c r="D54">
-        <v>-0.09598010747306771</v>
+        <v>-5.450958658454527</v>
       </c>
       <c r="E54">
-        <v>-0.5115733242431092</v>
+        <v>-0.00244130301546229</v>
       </c>
       <c r="F54">
-        <v>1.269540137983916e-05</v>
+        <v>0.001194927154681835</v>
       </c>
       <c r="G54">
-        <v>6.520107375451722e-06</v>
+        <v>0.000613690983145801</v>
       </c>
       <c r="H54">
-        <v>0.02731939398066094</v>
+        <v>0.2862806227661766</v>
       </c>
       <c r="I54">
-        <v>0.02731939398066094</v>
+        <v>0.2862806227661766</v>
       </c>
       <c r="J54">
-        <v>0.02731939398066094</v>
+        <v>0.2862806227661766</v>
       </c>
       <c r="K54">
-        <v>1.000006946548613</v>
+        <v>0.9995922576859119</v>
       </c>
       <c r="L54">
-        <v>-0.1256713704867876</v>
+        <v>-0.1640881020692024</v>
       </c>
       <c r="M54">
-        <v>0.9999901369851396</v>
+        <v>0.9993731243086253</v>
       </c>
       <c r="N54">
-        <v>-0.1244302140066954</v>
+        <v>-0.1705316533869004</v>
       </c>
       <c r="O54">
-        <v>2.731939398066094</v>
+        <v>38.17074970215688</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2959,46 +2959,46 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.04348010285601003</v>
+        <v>4.451599609530732</v>
       </c>
       <c r="C55">
-        <v>1.411483340944375</v>
+        <v>0.002445975284573661</v>
       </c>
       <c r="D55">
-        <v>-0.04340000463052857</v>
+        <v>-4.45066984135064</v>
       </c>
       <c r="E55">
-        <v>-1.411442204077955</v>
+        <v>-0.001968464713069704</v>
       </c>
       <c r="F55">
-        <v>8.009822548145362e-05</v>
+        <v>0.0009297681800921609</v>
       </c>
       <c r="G55">
-        <v>4.113686641993297e-05</v>
+        <v>0.0004775105715039574</v>
       </c>
       <c r="H55">
-        <v>0.07411953488389121</v>
+        <v>0.2337949804678676</v>
       </c>
       <c r="I55">
-        <v>0.07411953488389121</v>
+        <v>0.2337949804678677</v>
       </c>
       <c r="J55">
-        <v>0.07411953488389121</v>
+        <v>0.2337949804678677</v>
       </c>
       <c r="K55">
-        <v>0.9999901369851396</v>
+        <v>0.9993731243086253</v>
       </c>
       <c r="L55">
-        <v>-0.1244302140066954</v>
+        <v>-0.1705316533869004</v>
       </c>
       <c r="M55">
-        <v>0.9999592756281669</v>
+        <v>0.9991643405465587</v>
       </c>
       <c r="N55">
-        <v>-0.1212331927317117</v>
+        <v>-0.176672316239093</v>
       </c>
       <c r="O55">
-        <v>7.411953488389121</v>
+        <v>31.17266406238236</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3006,46 +3006,46 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.07698098478813899</v>
+        <v>2.727879265051148</v>
       </c>
       <c r="C56">
-        <v>-0.06257121059521782</v>
+        <v>0.0002681848411193403</v>
       </c>
       <c r="D56">
-        <v>-0.07698058952020838</v>
+        <v>-2.72752998471994</v>
       </c>
       <c r="E56">
-        <v>0.0625714135970192</v>
+        <v>-8.880136237573479e-05</v>
       </c>
       <c r="F56">
-        <v>3.952679306085116e-07</v>
+        <v>0.0003492803312079573</v>
       </c>
       <c r="G56">
-        <v>2.030018013826629e-07</v>
+        <v>0.0001793834787436055</v>
       </c>
       <c r="H56">
-        <v>0.005206753624507589</v>
+        <v>0.1432962773984211</v>
       </c>
       <c r="I56">
-        <v>0.005206753624507589</v>
+        <v>0.143296277398421</v>
       </c>
       <c r="J56">
-        <v>0.005206753624507589</v>
+        <v>0.1432962773984211</v>
       </c>
       <c r="K56">
-        <v>1.000009936616363</v>
+        <v>0.9991643405465587</v>
       </c>
       <c r="L56">
-        <v>-0.1251025388637787</v>
+        <v>-0.176672316239093</v>
       </c>
       <c r="M56">
-        <v>1.000008135404287</v>
+        <v>0.9990364022678481</v>
       </c>
       <c r="N56">
-        <v>-0.1253375139002345</v>
+        <v>-0.1804398087310382</v>
       </c>
       <c r="O56">
-        <v>0.520675362450759</v>
+        <v>19.10617031978948</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3053,46 +3053,46 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.04338058489905137</v>
+        <v>1.916382532102485</v>
       </c>
       <c r="C57">
-        <v>4.10931203876503</v>
+        <v>9.384035645595198e-05</v>
       </c>
       <c r="D57">
-        <v>-0.04270227138446346</v>
+        <v>-1.916210107405806</v>
       </c>
       <c r="E57">
-        <v>-4.108963670342723</v>
+        <v>-5.286438161616544e-06</v>
       </c>
       <c r="F57">
-        <v>0.0006783135145879138</v>
+        <v>0.0001724246966785525</v>
       </c>
       <c r="G57">
-        <v>0.0003483684223075656</v>
+        <v>8.855391829433543e-05</v>
       </c>
       <c r="H57">
-        <v>0.2156932096087959</v>
+        <v>0.100681013460438</v>
       </c>
       <c r="I57">
-        <v>0.215693209608796</v>
+        <v>0.100681013460438</v>
       </c>
       <c r="J57">
-        <v>0.215693209608796</v>
+        <v>0.100681013460438</v>
       </c>
       <c r="K57">
-        <v>1.000008135404287</v>
+        <v>0.9990364022678481</v>
       </c>
       <c r="L57">
-        <v>-0.1253375139002345</v>
+        <v>-0.1804398087310382</v>
       </c>
       <c r="M57">
-        <v>0.9999216398926332</v>
+        <v>0.9989465137233629</v>
       </c>
       <c r="N57">
-        <v>-0.1159313587576801</v>
+        <v>-0.1830873691390342</v>
       </c>
       <c r="O57">
-        <v>21.56932096087959</v>
+        <v>13.4241351280584</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3100,46 +3100,46 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.266769766347027e-06</v>
+        <v>0.8671100141679285</v>
       </c>
       <c r="C58">
-        <v>-0.2373014122664459</v>
+        <v>1.039878634660155e-05</v>
       </c>
       <c r="D58">
-        <v>-4.62908428825121e-09</v>
+        <v>-0.867079750969066</v>
       </c>
       <c r="E58">
-        <v>0.2373025740572159</v>
+        <v>5.143794797590577e-06</v>
       </c>
       <c r="F58">
-        <v>2.262140682058776e-06</v>
+        <v>3.02631988625679e-05</v>
       </c>
       <c r="G58">
-        <v>1.161790770032312e-06</v>
+        <v>1.554258114419213e-05</v>
       </c>
       <c r="H58">
-        <v>0.01245607008238553</v>
+        <v>0.04555946901473004</v>
       </c>
       <c r="I58">
-        <v>0.01245607008238552</v>
+        <v>0.04555946901473004</v>
       </c>
       <c r="J58">
-        <v>0.01245607008238553</v>
+        <v>0.04555946901473004</v>
       </c>
       <c r="K58">
-        <v>0.9999216398926332</v>
+        <v>0.9989465137233629</v>
       </c>
       <c r="L58">
-        <v>-0.1159313587576801</v>
+        <v>-0.1830873691390342</v>
       </c>
       <c r="M58">
-        <v>0.9999265353076894</v>
+        <v>0.9989116492153438</v>
       </c>
       <c r="N58">
-        <v>-0.1164775464680837</v>
+        <v>-0.184114383674776</v>
       </c>
       <c r="O58">
-        <v>1.245607008238553</v>
+        <v>6.074595868630672</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3147,46 +3147,46 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.002818813288273566</v>
+        <v>1.723574320225229</v>
       </c>
       <c r="C59">
-        <v>0.860900171463945</v>
+        <v>0.0009306544093715102</v>
       </c>
       <c r="D59">
-        <v>-0.002784098606508083</v>
+        <v>-1.723454801155743</v>
       </c>
       <c r="E59">
-        <v>-0.8608823426891125</v>
+        <v>-0.0008692717761536895</v>
       </c>
       <c r="F59">
-        <v>3.471468176548297e-05</v>
+        <v>0.0001195190694864845</v>
       </c>
       <c r="G59">
-        <v>1.782877483258449e-05</v>
+        <v>6.138263321782064e-05</v>
       </c>
       <c r="H59">
-        <v>0.04517565284490091</v>
+        <v>0.09053986438569753</v>
       </c>
       <c r="I59">
-        <v>0.04517565284490092</v>
+        <v>0.09053986438569753</v>
       </c>
       <c r="J59">
-        <v>0.04517565284490092</v>
+        <v>0.09053986438569753</v>
       </c>
       <c r="K59">
-        <v>1.00022423336732</v>
+        <v>0.9991643405465587</v>
       </c>
       <c r="L59">
-        <v>-0.1361280933070403</v>
+        <v>-0.176672316239093</v>
       </c>
       <c r="M59">
-        <v>1.000203388240797</v>
+        <v>0.9990950362047891</v>
       </c>
       <c r="N59">
-        <v>-0.1338215771628684</v>
+        <v>-0.1787108189444347</v>
       </c>
       <c r="O59">
-        <v>2.258782642245046</v>
+        <v>12.071981918093</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3194,46 +3194,46 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.000916286370572738</v>
+        <v>0.8522868255295376</v>
       </c>
       <c r="C60">
-        <v>2.994661938860684</v>
+        <v>0.0008742950416315209</v>
       </c>
       <c r="D60">
-        <v>-0.0004962386907031721</v>
+        <v>-0.8522575968427161</v>
       </c>
       <c r="E60">
-        <v>-2.994446210669542</v>
+        <v>-0.0008592837654367901</v>
       </c>
       <c r="F60">
-        <v>0.0004200476798695658</v>
+        <v>2.922868682153634e-05</v>
       </c>
       <c r="G60">
-        <v>0.0002157281911419062</v>
+        <v>1.501127619473082e-05</v>
       </c>
       <c r="H60">
-        <v>0.1571437592589662</v>
+        <v>0.04477399948947768</v>
       </c>
       <c r="I60">
-        <v>0.1571437592589662</v>
+        <v>0.04477399948947768</v>
       </c>
       <c r="J60">
-        <v>0.1571437592589662</v>
+        <v>0.04477399948947768</v>
       </c>
       <c r="K60">
-        <v>1.00022423336732</v>
+        <v>0.9990950362047891</v>
       </c>
       <c r="L60">
-        <v>-0.1361280933070403</v>
+        <v>-0.1787108189444347</v>
       </c>
       <c r="M60">
-        <v>1.000152146553382</v>
+        <v>0.9990607549537909</v>
       </c>
       <c r="N60">
-        <v>-0.1280921580273475</v>
+        <v>-0.1797179838690521</v>
       </c>
       <c r="O60">
-        <v>7.85718796294831</v>
+        <v>5.969866598597024</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3241,46 +3241,46 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.400070402869074</v>
+        <v>-0.0008790465828326309</v>
       </c>
       <c r="C61">
-        <v>-15.20957577792338</v>
+        <v>0.0008643699041928414</v>
       </c>
       <c r="D61">
-        <v>-7.365196642962425</v>
+        <v>0.0008790466439930115</v>
       </c>
       <c r="E61">
-        <v>15.2297680891811</v>
+        <v>-0.0008643698727820781</v>
       </c>
       <c r="F61">
-        <v>0.03487375990664887</v>
+        <v>6.116038057946138e-11</v>
       </c>
       <c r="G61">
-        <v>0.02019231125772336</v>
+        <v>3.141076331328319e-11</v>
       </c>
       <c r="H61">
-        <v>0.8877241357046007</v>
+        <v>6.476737972818162e-05</v>
       </c>
       <c r="I61">
-        <v>0.8877241357046006</v>
+        <v>6.476737972818162e-05</v>
       </c>
       <c r="J61">
-        <v>0.8877241357046007</v>
+        <v>6.476737972818162e-05</v>
       </c>
       <c r="K61">
-        <v>1.000049959814275</v>
+        <v>0.9990607549537909</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>-0.1797179838690521</v>
       </c>
       <c r="M61">
-        <v>1.00022423336732</v>
+        <v>0.9990607724470749</v>
       </c>
       <c r="N61">
-        <v>-0.1361280933070403</v>
+        <v>-0.1797149500491613</v>
       </c>
       <c r="O61">
-        <v>44.38620678523004</v>
+        <v>0.008635650630424216</v>
       </c>
     </row>
   </sheetData>

--- a/result/line_ev.xlsx
+++ b/result/line_ev.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC76666-354A-4D4D-A959-B4C2CE790C43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>p_from_mw</t>
   </si>
@@ -56,13 +62,196 @@
   </si>
   <si>
     <t>loading_percent</t>
+  </si>
+  <si>
+    <t>Line RC17-RC18</t>
+  </si>
+  <si>
+    <t>Line RC16-RC17</t>
+  </si>
+  <si>
+    <t>Line RC12-RC16</t>
+  </si>
+  <si>
+    <t>Line RC14-RC15</t>
+  </si>
+  <si>
+    <t>Line RC13-RC14</t>
+  </si>
+  <si>
+    <t>Line RC12-RC13</t>
+  </si>
+  <si>
+    <t>Line RC11-RC12</t>
+  </si>
+  <si>
+    <t>Line RC10-RC11</t>
+  </si>
+  <si>
+    <t>Line RC9-RC10</t>
+  </si>
+  <si>
+    <t>Line RC8-RC9</t>
+  </si>
+  <si>
+    <t>Line RC2-RC8</t>
+  </si>
+  <si>
+    <t>Line RC5-RC6</t>
+  </si>
+  <si>
+    <t>Line RC4-RC5</t>
+  </si>
+  <si>
+    <t>Line RC3-RC4</t>
+  </si>
+  <si>
+    <t>Line RC2-RC3</t>
+  </si>
+  <si>
+    <t>Line RC1-RC2</t>
+  </si>
+  <si>
+    <t>Line RC0-RC1</t>
+  </si>
+  <si>
+    <t>Line C9-C20</t>
+  </si>
+  <si>
+    <t>Line C8-C19</t>
+  </si>
+  <si>
+    <t>Line C16-C18</t>
+  </si>
+  <si>
+    <t>Line C15-C17</t>
+  </si>
+  <si>
+    <t>Line C15-C16</t>
+  </si>
+  <si>
+    <t>Line C5-C15</t>
+  </si>
+  <si>
+    <t>Line C10-C14</t>
+  </si>
+  <si>
+    <t>Line C11-C13</t>
+  </si>
+  <si>
+    <t>Line C11-C12</t>
+  </si>
+  <si>
+    <t>Line C10-C11</t>
+  </si>
+  <si>
+    <t>Line C3-C10</t>
+  </si>
+  <si>
+    <t>Line C8-C9</t>
+  </si>
+  <si>
+    <t>Line C7-C8</t>
+  </si>
+  <si>
+    <t>Line C6-C7</t>
+  </si>
+  <si>
+    <t>Line C5-C6</t>
+  </si>
+  <si>
+    <t>Line C4-C5</t>
+  </si>
+  <si>
+    <t>Line C3-C4</t>
+  </si>
+  <si>
+    <t>Line C2-C3</t>
+  </si>
+  <si>
+    <t>Line C1-C2</t>
+  </si>
+  <si>
+    <t>Line C0-C1</t>
+  </si>
+  <si>
+    <t>Line I2-I3</t>
+  </si>
+  <si>
+    <t>Line I1-I3</t>
+  </si>
+  <si>
+    <t>Line I1-I2</t>
+  </si>
+  <si>
+    <t>Line I0-I1</t>
+  </si>
+  <si>
+    <t>Line R10-R18</t>
+  </si>
+  <si>
+    <t>Line R9-R17</t>
+  </si>
+  <si>
+    <t>Line R6-R16</t>
+  </si>
+  <si>
+    <t>Line R14-R15</t>
+  </si>
+  <si>
+    <t>Line R13-R14</t>
+  </si>
+  <si>
+    <t>Line R12-R13</t>
+  </si>
+  <si>
+    <t>Line R4-R12</t>
+  </si>
+  <si>
+    <t>Line R3-R11</t>
+  </si>
+  <si>
+    <t>Line R9-R10</t>
+  </si>
+  <si>
+    <t>Line R8-R9</t>
+  </si>
+  <si>
+    <t>Line R7-R8</t>
+  </si>
+  <si>
+    <t>Line R6-R7</t>
+  </si>
+  <si>
+    <t>Line R5-R6</t>
+  </si>
+  <si>
+    <t>Line R4-R5</t>
+  </si>
+  <si>
+    <t>Line R3-R4</t>
+  </si>
+  <si>
+    <t>Line R2-R3</t>
+  </si>
+  <si>
+    <t>Line R1-R2</t>
+  </si>
+  <si>
+    <t>Line R0-R1</t>
+  </si>
+  <si>
+    <t>Line main</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,12 +268,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,17 +315,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -171,7 +382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +414,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +466,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,14 +659,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,2825 +715,3008 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.0336553988071</v>
+        <v>12.2543097548127</v>
       </c>
       <c r="C2">
-        <v>0.07891984416701742</v>
+        <v>2.1348942783067641E-2</v>
       </c>
       <c r="D2">
-        <v>-24.95798676875201</v>
+        <v>-12.236085721196909</v>
       </c>
       <c r="E2">
-        <v>-0.03510683018149372</v>
+        <v>-1.0797016058609849E-2</v>
       </c>
       <c r="F2">
-        <v>0.07566863005508395</v>
+        <v>1.8224033615789281E-2</v>
       </c>
       <c r="G2">
-        <v>0.0438130139855237</v>
+        <v>1.055192672445779E-2</v>
       </c>
       <c r="H2">
-        <v>1.307635121848836</v>
+        <v>0.64172786128649906</v>
       </c>
       <c r="I2">
-        <v>1.307635121848836</v>
+        <v>0.64172786128649928</v>
       </c>
       <c r="J2">
-        <v>1.307635121848836</v>
+        <v>0.64172786128649928</v>
       </c>
       <c r="K2">
-        <v>1.004815992114793</v>
+        <v>1.0022713250559889</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.001774771884638</v>
+        <v>1.000779665111847</v>
       </c>
       <c r="N2">
-        <v>-0.1000328811148825</v>
+        <v>-4.9260908567671777E-2</v>
       </c>
       <c r="O2">
-        <v>74.72200696279063</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>85.5637148381999</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.535625404827052</v>
+        <v>2.5352373533791561</v>
       </c>
       <c r="C3">
-        <v>0.0009003695847399473</v>
+        <v>7.2347240773735838E-4</v>
       </c>
       <c r="D3">
-        <v>-2.535325193032081</v>
+        <v>-2.5349366363451389</v>
       </c>
       <c r="E3">
-        <v>-0.0007461867369522503</v>
+        <v>-5.6903007915587835E-4</v>
       </c>
       <c r="F3">
-        <v>0.0003002117949710836</v>
+        <v>3.0071703401635119E-4</v>
       </c>
       <c r="G3">
-        <v>0.0001541828477876969</v>
+        <v>1.5444232858148E-4</v>
       </c>
       <c r="H3">
-        <v>0.1328500489530947</v>
+        <v>0.13296179142378739</v>
       </c>
       <c r="I3">
-        <v>0.1328500489530948</v>
+        <v>0.1329617914237875</v>
       </c>
       <c r="J3">
-        <v>0.1328500489530948</v>
+        <v>0.1329617914237875</v>
       </c>
       <c r="K3">
-        <v>1.001774771884638</v>
+        <v>1.000779665111847</v>
       </c>
       <c r="L3">
-        <v>-0.1000328811148825</v>
+        <v>-4.9260908567671777E-2</v>
       </c>
       <c r="M3">
-        <v>1.001656144456674</v>
+        <v>1.000660942156155</v>
       </c>
       <c r="N3">
-        <v>-0.1035148477375881</v>
+        <v>-5.2749743785497377E-2</v>
       </c>
       <c r="O3">
-        <v>53.14001958123791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>88.641194282524978</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.53532244980391</v>
+        <v>2.5349371974666419</v>
       </c>
       <c r="C4">
-        <v>0.0007450091627138047</v>
+        <v>5.694292968333849E-4</v>
       </c>
       <c r="D4">
-        <v>-2.53502223865868</v>
+        <v>-2.5346364802994739</v>
       </c>
       <c r="E4">
-        <v>-0.0005908266486203137</v>
+        <v>-4.1498689986807291E-4</v>
       </c>
       <c r="F4">
-        <v>0.0003002111452299339</v>
+        <v>3.0071716716806313E-4</v>
       </c>
       <c r="G4">
-        <v>0.000154182514093491</v>
+        <v>1.5444239696531199E-4</v>
       </c>
       <c r="H4">
-        <v>0.1328499051908772</v>
+        <v>0.13296182086027711</v>
       </c>
       <c r="I4">
-        <v>0.1328499051908772</v>
+        <v>0.13296182086027711</v>
       </c>
       <c r="J4">
-        <v>0.1328499051908772</v>
+        <v>0.13296182086027711</v>
       </c>
       <c r="K4">
-        <v>1.001656144456674</v>
+        <v>1.000660942156155</v>
       </c>
       <c r="L4">
-        <v>-0.1035148477375881</v>
+        <v>-5.2749743785497377E-2</v>
       </c>
       <c r="M4">
-        <v>1.001537520885538</v>
+        <v>1.0005422228757099</v>
       </c>
       <c r="N4">
-        <v>-0.1069976385731517</v>
+        <v>-5.6239406653460958E-2</v>
       </c>
       <c r="O4">
-        <v>66.4249525954386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>88.641213906851391</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.408314104242633</v>
+        <v>2.4079366017110839</v>
       </c>
       <c r="C5">
-        <v>0.000586539751409881</v>
+        <v>4.1481889378926521E-4</v>
       </c>
       <c r="D5">
-        <v>-2.408043154012323</v>
+        <v>-2.4076651972656888</v>
       </c>
       <c r="E5">
-        <v>-0.0004473850652257378</v>
+        <v>-2.7543093170955381E-4</v>
       </c>
       <c r="F5">
-        <v>0.0002709502303104294</v>
+        <v>2.7140444539552888E-4</v>
       </c>
       <c r="G5">
-        <v>0.0001391546861841432</v>
+        <v>1.393879620797114E-4</v>
       </c>
       <c r="H5">
-        <v>0.1262096625183799</v>
+        <v>0.12631540579002601</v>
       </c>
       <c r="I5">
-        <v>0.12620966251838</v>
+        <v>0.12631540579002601</v>
       </c>
       <c r="J5">
-        <v>0.12620966251838</v>
+        <v>0.12631540579002601</v>
       </c>
       <c r="K5">
-        <v>1.001537520885538</v>
+        <v>1.0005422228757099</v>
       </c>
       <c r="L5">
-        <v>-0.1069976385731517</v>
+        <v>-5.6239406653460958E-2</v>
       </c>
       <c r="M5">
-        <v>1.001424829303802</v>
+        <v>1.0004294410067289</v>
       </c>
       <c r="N5">
-        <v>-0.1103070456009604</v>
+        <v>-5.9555342318471337E-2</v>
       </c>
       <c r="O5">
-        <v>63.10483125918998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>84.210270526684027</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.109108343163671</v>
+        <v>2.1087574822703989</v>
       </c>
       <c r="C6">
-        <v>0.0004324511191315054</v>
+        <v>2.7364991914904019E-4</v>
       </c>
       <c r="D6">
-        <v>-2.108900488977309</v>
+        <v>-2.1085492835570112</v>
       </c>
       <c r="E6">
-        <v>-0.0003257013147779028</v>
+        <v>-1.6672317252070711E-4</v>
       </c>
       <c r="F6">
-        <v>0.0002078541863617112</v>
+        <v>2.081987133877305E-4</v>
       </c>
       <c r="G6">
-        <v>0.0001067498043536026</v>
+        <v>1.069267466283332E-4</v>
       </c>
       <c r="H6">
-        <v>0.1105419779389291</v>
+        <v>0.11063355398752669</v>
       </c>
       <c r="I6">
-        <v>0.1105419779389291</v>
+        <v>0.11063355398752681</v>
       </c>
       <c r="J6">
-        <v>0.1105419779389291</v>
+        <v>0.11063355398752681</v>
       </c>
       <c r="K6">
-        <v>1.001424829303802</v>
+        <v>1.0004294410067289</v>
       </c>
       <c r="L6">
-        <v>-0.1103070456009604</v>
+        <v>-5.9555342318471337E-2</v>
       </c>
       <c r="M6">
-        <v>1.001326129039917</v>
+        <v>1.0003306627966311</v>
       </c>
       <c r="N6">
-        <v>-0.113206125587561</v>
+        <v>-6.2460137233260771E-2</v>
       </c>
       <c r="O6">
-        <v>55.27098896946455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>73.755702658351169</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.408042752074948</v>
+        <v>1.4078205025655239</v>
       </c>
       <c r="C7">
-        <v>0.0002580707841264109</v>
+        <v>1.4664460131877171E-4</v>
       </c>
       <c r="D7">
-        <v>-1.407950095063588</v>
+        <v>-1.4077276903580711</v>
       </c>
       <c r="E7">
-        <v>-0.0002104839733540393</v>
+        <v>-9.8978084898411435E-5</v>
       </c>
       <c r="F7">
-        <v>9.265701135974247e-05</v>
+        <v>9.2812207452830364E-5</v>
       </c>
       <c r="G7">
-        <v>4.758681077237162e-05</v>
+        <v>4.7666516420360279E-5</v>
       </c>
       <c r="H7">
-        <v>0.07380520437475692</v>
+        <v>7.3866988620094123E-2</v>
       </c>
       <c r="I7">
-        <v>0.07380520437475692</v>
+        <v>7.3866988620094096E-2</v>
       </c>
       <c r="J7">
-        <v>0.07380520437475692</v>
+        <v>7.3866988620094123E-2</v>
       </c>
       <c r="K7">
-        <v>1.001326129039917</v>
+        <v>1.0003306627966311</v>
       </c>
       <c r="L7">
-        <v>-0.113206125587561</v>
+        <v>-6.2460137233260771E-2</v>
       </c>
       <c r="M7">
-        <v>1.001260230606067</v>
+        <v>1.0002647118777019</v>
       </c>
       <c r="N7">
-        <v>-0.1151419543692475</v>
+        <v>-6.4399813701444E-2</v>
       </c>
       <c r="O7">
-        <v>36.90260218737846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>73.866988620094119</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.229477261682764</v>
+        <v>1.229274478759854</v>
       </c>
       <c r="C8">
-        <v>0.0001990634405389445</v>
+        <v>9.7508777417575684E-5</v>
       </c>
       <c r="D8">
-        <v>-1.229406606378803</v>
+        <v>-1.22920370609864</v>
       </c>
       <c r="E8">
-        <v>-0.0001627762720849322</v>
+        <v>-6.1161336596380657E-5</v>
       </c>
       <c r="F8">
-        <v>7.065530396133113e-05</v>
+        <v>7.0772661214135724E-5</v>
       </c>
       <c r="G8">
-        <v>3.628716845401232e-05</v>
+        <v>3.6347440821195027E-5</v>
       </c>
       <c r="H8">
-        <v>0.06444960021390843</v>
+        <v>6.4503102849138919E-2</v>
       </c>
       <c r="I8">
-        <v>0.06444960021390841</v>
+        <v>6.4503102849138932E-2</v>
       </c>
       <c r="J8">
-        <v>0.06444960021390843</v>
+        <v>6.4503102849138932E-2</v>
       </c>
       <c r="K8">
-        <v>1.001260230606067</v>
+        <v>1.0002647118777019</v>
       </c>
       <c r="L8">
-        <v>-0.1151419543692475</v>
+        <v>-6.4399813701444E-2</v>
       </c>
       <c r="M8">
-        <v>1.001202686076332</v>
+        <v>1.000207122020508</v>
       </c>
       <c r="N8">
-        <v>-0.1168325635612796</v>
+        <v>-6.6093782964966569E-2</v>
       </c>
       <c r="O8">
-        <v>32.22480010695421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>64.503102849138926</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8794868769160435</v>
+        <v>0.87932914207817059</v>
       </c>
       <c r="C9">
-        <v>0.000136165858117887</v>
+        <v>5.6975557561203928E-5</v>
       </c>
       <c r="D9">
-        <v>-0.8794507182488501</v>
+        <v>-0.87929292438892737</v>
       </c>
       <c r="E9">
-        <v>-0.0001175954808925175</v>
+        <v>-3.8374867777081193E-5</v>
       </c>
       <c r="F9">
-        <v>3.615866719341998e-05</v>
+        <v>3.6217689243223112E-5</v>
       </c>
       <c r="G9">
-        <v>1.857037722536952e-05</v>
+        <v>1.8600689784122739E-5</v>
       </c>
       <c r="H9">
-        <v>0.04610563950042373</v>
+        <v>4.6143253438916267E-2</v>
       </c>
       <c r="I9">
-        <v>0.04610563950042373</v>
+        <v>4.6143253438916267E-2</v>
       </c>
       <c r="J9">
-        <v>0.04610563950042373</v>
+        <v>4.6143253438916267E-2</v>
       </c>
       <c r="K9">
-        <v>1.001202686076332</v>
+        <v>1.000207122020508</v>
       </c>
       <c r="L9">
-        <v>-0.1168325635612796</v>
+        <v>-6.6093782964966569E-2</v>
       </c>
       <c r="M9">
-        <v>1.001161520213349</v>
+        <v>1.0001659244784551</v>
       </c>
       <c r="N9">
-        <v>-0.1180420497091423</v>
+        <v>-6.730567325981629E-2</v>
       </c>
       <c r="O9">
-        <v>46.10563950042372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>46.143253438916268</v>
+      </c>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7528070893973474</v>
+        <v>0.75267299958245859</v>
       </c>
       <c r="C10">
-        <v>0.0001036140123081928</v>
+        <v>3.643843002325666E-5</v>
       </c>
       <c r="D10">
-        <v>-0.7527805948319938</v>
+        <v>-0.75264646170066074</v>
       </c>
       <c r="E10">
-        <v>-9.000692689205129e-05</v>
+        <v>-2.280909813698274E-5</v>
       </c>
       <c r="F10">
-        <v>2.649456535364081e-05</v>
+        <v>2.6537881797850101E-5</v>
       </c>
       <c r="G10">
-        <v>1.360708541614151e-05</v>
+        <v>1.362933188627392E-5</v>
       </c>
       <c r="H10">
-        <v>0.03946628455167878</v>
+        <v>3.949853344734125E-2</v>
       </c>
       <c r="I10">
-        <v>0.03946628455167878</v>
+        <v>3.9498533447341257E-2</v>
       </c>
       <c r="J10">
-        <v>0.03946628455167878</v>
+        <v>3.9498533447341257E-2</v>
       </c>
       <c r="K10">
-        <v>1.001161520213349</v>
+        <v>1.0001659244784551</v>
       </c>
       <c r="L10">
-        <v>-0.1180420497091423</v>
+        <v>-6.730567325981629E-2</v>
       </c>
       <c r="M10">
-        <v>1.001126282645646</v>
+        <v>1.0001306597332511</v>
       </c>
       <c r="N10">
-        <v>-0.119077437206911</v>
+        <v>-6.8343118623948831E-2</v>
       </c>
       <c r="O10">
-        <v>39.46628455167878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>39.498533447341252</v>
+      </c>
+      <c r="P10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6044510724214334</v>
+        <v>0.60434210158980617</v>
       </c>
       <c r="C11">
-        <v>7.511080389662546e-05</v>
+        <v>2.0705818367889821E-5</v>
       </c>
       <c r="D11">
-        <v>-0.6044339902815473</v>
+        <v>-0.60432499159381103</v>
       </c>
       <c r="E11">
-        <v>-6.633775427605467e-05</v>
+        <v>-1.191846239993928E-5</v>
       </c>
       <c r="F11">
-        <v>1.708213988604879e-05</v>
+        <v>1.7109995995134849E-5</v>
       </c>
       <c r="G11">
-        <v>8.773049620570787e-06</v>
+        <v>8.7873559679505463E-6</v>
       </c>
       <c r="H11">
-        <v>0.03168976219523274</v>
+        <v>3.1715590162203162E-2</v>
       </c>
       <c r="I11">
-        <v>0.03168976219523274</v>
+        <v>3.1715590162203162E-2</v>
       </c>
       <c r="J11">
-        <v>0.03168976219523274</v>
+        <v>3.1715590162203162E-2</v>
       </c>
       <c r="K11">
-        <v>1.001126282645646</v>
+        <v>1.0001306597332511</v>
       </c>
       <c r="L11">
-        <v>-0.119077437206911</v>
+        <v>-6.8343118623948831E-2</v>
       </c>
       <c r="M11">
-        <v>1.001097988533181</v>
+        <v>1.000102343869206</v>
       </c>
       <c r="N11">
-        <v>-0.1199088548597606</v>
+        <v>-6.9176188294786306E-2</v>
       </c>
       <c r="O11">
-        <v>31.68976219523274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>31.71559016220316</v>
+      </c>
+      <c r="P11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2756113380897451</v>
+        <v>0.27555625515815019</v>
       </c>
       <c r="C12">
-        <v>3.425021728030561e-05</v>
+        <v>6.7425405191070772E-6</v>
       </c>
       <c r="D12">
-        <v>-0.2756077863701041</v>
+        <v>-0.27555269778562408</v>
       </c>
       <c r="E12">
-        <v>-3.242612423010342e-05</v>
+        <v>-4.9155442587582089E-6</v>
       </c>
       <c r="F12">
-        <v>3.551719641003981e-06</v>
+        <v>3.5573725261084381E-6</v>
       </c>
       <c r="G12">
-        <v>1.824093050202188e-06</v>
+        <v>1.8269962603488679E-6</v>
       </c>
       <c r="H12">
-        <v>0.01444997785968787</v>
+        <v>1.446147251513652E-2</v>
       </c>
       <c r="I12">
-        <v>0.01444997785968788</v>
+        <v>1.4461472515136509E-2</v>
       </c>
       <c r="J12">
-        <v>0.01444997785968788</v>
+        <v>1.446147251513652E-2</v>
       </c>
       <c r="K12">
-        <v>1.001097988533181</v>
+        <v>1.000102343869206</v>
       </c>
       <c r="L12">
-        <v>-0.1199088548597606</v>
+        <v>-6.9176188294786306E-2</v>
       </c>
       <c r="M12">
-        <v>1.001085086886075</v>
+        <v>1.0000894326208321</v>
       </c>
       <c r="N12">
-        <v>-0.1202879716630308</v>
+        <v>-6.9556058237634555E-2</v>
       </c>
       <c r="O12">
-        <v>14.44997785968787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.46147251513651</v>
+      </c>
+      <c r="P12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1288315877959569</v>
+        <v>0.12881740954248699</v>
       </c>
       <c r="C13">
-        <v>7.72052266750521e-06</v>
+        <v>1.079143370629409E-6</v>
       </c>
       <c r="D13">
-        <v>-0.1288282148008437</v>
+        <v>-0.1288140305759003</v>
       </c>
       <c r="E13">
-        <v>-7.372964655234337e-06</v>
+        <v>-7.3097004959281841E-7</v>
       </c>
       <c r="F13">
-        <v>3.372995113187782e-06</v>
+        <v>3.3789665866978962E-6</v>
       </c>
       <c r="G13">
-        <v>3.475580122708731e-07</v>
+        <v>3.4817332103659061E-7</v>
       </c>
       <c r="H13">
-        <v>0.006752283877852689</v>
+        <v>6.758258279331227E-3</v>
       </c>
       <c r="I13">
-        <v>0.006752283877852691</v>
+        <v>6.7582582793312262E-3</v>
       </c>
       <c r="J13">
-        <v>0.006752283877852691</v>
+        <v>6.758258279331227E-3</v>
       </c>
       <c r="K13">
-        <v>1.001424829303802</v>
+        <v>1.0004294410067289</v>
       </c>
       <c r="L13">
-        <v>-0.1103070456009604</v>
+        <v>-5.9555342318471337E-2</v>
       </c>
       <c r="M13">
-        <v>1.001398610412223</v>
+        <v>1.000403199056106</v>
       </c>
       <c r="N13">
-        <v>-0.1104615305929179</v>
+        <v>-5.9710195325497567E-2</v>
       </c>
       <c r="O13">
-        <v>13.50456775570538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.516516558662451</v>
+      </c>
+      <c r="P13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.542673012622596</v>
+        <v>0.54256105474727401</v>
       </c>
       <c r="C14">
-        <v>5.785625466690042e-05</v>
+        <v>1.8909567542692531E-5</v>
       </c>
       <c r="D14">
-        <v>-0.5426031765436177</v>
+        <v>-0.54249110847679671</v>
       </c>
       <c r="E14">
-        <v>-5.066024993520004e-05</v>
+        <v>-1.1702208528798981E-5</v>
       </c>
       <c r="F14">
-        <v>6.983607897836919e-05</v>
+        <v>6.9946270477294625E-5</v>
       </c>
       <c r="G14">
-        <v>7.196004731700387e-06</v>
+        <v>7.2073590138935521E-6</v>
       </c>
       <c r="H14">
-        <v>0.02844522447997225</v>
+        <v>2.846765691407814E-2</v>
       </c>
       <c r="I14">
-        <v>0.02844522447997224</v>
+        <v>2.846765691407813E-2</v>
       </c>
       <c r="J14">
-        <v>0.02844522447997225</v>
+        <v>2.846765691407814E-2</v>
       </c>
       <c r="K14">
-        <v>1.001326129039917</v>
+        <v>1.0003306627966311</v>
       </c>
       <c r="L14">
-        <v>-0.113206125587561</v>
+        <v>-6.2460137233260771E-2</v>
       </c>
       <c r="M14">
-        <v>1.001197267997012</v>
+        <v>1.0002017010847171</v>
       </c>
       <c r="N14">
-        <v>-0.1139651961576056</v>
+        <v>-6.3221092704540668E-2</v>
       </c>
       <c r="O14">
-        <v>28.44522447997225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>28.467656914078141</v>
+      </c>
+      <c r="P14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4145855102789968</v>
+        <v>0.41449635621707581</v>
       </c>
       <c r="C15">
-        <v>4.014103383522438e-05</v>
+        <v>1.039729861780848E-5</v>
       </c>
       <c r="D15">
-        <v>-0.4145447400244578</v>
+        <v>-0.41445552232765809</v>
       </c>
       <c r="E15">
-        <v>-3.594001125681691e-05</v>
+        <v>-6.1897190148032396E-6</v>
       </c>
       <c r="F15">
-        <v>4.077025453896876e-05</v>
+        <v>4.0833889417668523E-5</v>
       </c>
       <c r="G15">
-        <v>4.201022578407469e-06</v>
+        <v>4.2075796030052346E-6</v>
       </c>
       <c r="H15">
-        <v>0.02173407458656593</v>
+        <v>2.1751029422438721E-2</v>
       </c>
       <c r="I15">
-        <v>0.02173407458656594</v>
+        <v>2.1751029422438721E-2</v>
       </c>
       <c r="J15">
-        <v>0.02173407458656594</v>
+        <v>2.1751029422438721E-2</v>
       </c>
       <c r="K15">
-        <v>1.001197267997012</v>
+        <v>1.0002017010847171</v>
       </c>
       <c r="L15">
-        <v>-0.1139651961576056</v>
+        <v>-6.3221092704540668E-2</v>
       </c>
       <c r="M15">
-        <v>1.001098809531794</v>
+        <v>1.0001031665397631</v>
       </c>
       <c r="N15">
-        <v>-0.114545289607787</v>
+        <v>-6.3802621609243257E-2</v>
       </c>
       <c r="O15">
-        <v>21.73407458656594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>21.75102942243872</v>
+      </c>
+      <c r="P15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.244593297294049</v>
+        <v>0.24453143198084751</v>
       </c>
       <c r="C16">
-        <v>2.486205576154182e-05</v>
+        <v>4.7828778980713461E-6</v>
       </c>
       <c r="D16">
-        <v>-0.2445791037872683</v>
+        <v>-0.24451721739308441</v>
       </c>
       <c r="E16">
-        <v>-2.339953748377646e-05</v>
+        <v>-3.3181874071484862E-6</v>
       </c>
       <c r="F16">
-        <v>1.419350678066866e-05</v>
+        <v>1.421458776310058E-5</v>
       </c>
       <c r="G16">
-        <v>1.462518277765357e-06</v>
+        <v>1.4646904909228599E-6</v>
       </c>
       <c r="H16">
-        <v>0.01282372796222926</v>
+        <v>1.283324768428545E-2</v>
       </c>
       <c r="I16">
-        <v>0.01282372796222926</v>
+        <v>1.283324768428545E-2</v>
       </c>
       <c r="J16">
-        <v>0.01282372796222926</v>
+        <v>1.283324768428545E-2</v>
       </c>
       <c r="K16">
-        <v>1.001098809531794</v>
+        <v>1.0001031665397631</v>
       </c>
       <c r="L16">
-        <v>-0.114545289607787</v>
+        <v>-6.3802621609243257E-2</v>
       </c>
       <c r="M16">
-        <v>1.001040716169441</v>
+        <v>1.0000450305431841</v>
       </c>
       <c r="N16">
-        <v>-0.1148875652187092</v>
+        <v>-6.4145765762652046E-2</v>
       </c>
       <c r="O16">
-        <v>25.64745592445852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>25.666495368570899</v>
+      </c>
+      <c r="P16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.127179210883958</v>
+        <v>0.12714763595733031</v>
       </c>
       <c r="C17">
-        <v>1.194907350696406e-05</v>
+        <v>1.843389501769206E-6</v>
       </c>
       <c r="D17">
-        <v>-0.1271759213340999</v>
+        <v>-0.1271443414902711</v>
       </c>
       <c r="E17">
-        <v>-1.161011380746839e-05</v>
+        <v>-1.503923127175018E-6</v>
       </c>
       <c r="F17">
-        <v>3.289549858148666e-06</v>
+        <v>3.2944670592394139E-6</v>
       </c>
       <c r="G17">
-        <v>3.389596994956634e-07</v>
+        <v>3.3946637459418783E-7</v>
       </c>
       <c r="H17">
-        <v>0.006668237708401048</v>
+        <v>6.6732196698847729E-3</v>
       </c>
       <c r="I17">
-        <v>0.006668237708401049</v>
+        <v>6.6732196698847711E-3</v>
       </c>
       <c r="J17">
-        <v>0.006668237708401049</v>
+        <v>6.6732196698847729E-3</v>
       </c>
       <c r="K17">
-        <v>1.001040716169441</v>
+        <v>1.0000450305431841</v>
       </c>
       <c r="L17">
-        <v>-0.1148875652187092</v>
+        <v>-6.4145765762652046E-2</v>
       </c>
       <c r="M17">
-        <v>1.001014823535554</v>
+        <v>1.0000191187764871</v>
       </c>
       <c r="N17">
-        <v>-0.1150401353870413</v>
+        <v>-6.4298719906628388E-2</v>
       </c>
       <c r="O17">
-        <v>13.3364754168021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.346439339769541</v>
+      </c>
+      <c r="P17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1805612079869761</v>
+        <v>0.1805379969421671</v>
       </c>
       <c r="C18">
-        <v>1.372651315805499e-05</v>
+        <v>2.449542179241217E-6</v>
       </c>
       <c r="D18">
-        <v>-0.1805545795276535</v>
+        <v>-0.18053135698839001</v>
       </c>
       <c r="E18">
-        <v>-1.304350767797129e-05</v>
+        <v>-1.7653522949132199E-6</v>
       </c>
       <c r="F18">
-        <v>6.628459322671754e-06</v>
+        <v>6.6399537770878148E-6</v>
       </c>
       <c r="G18">
-        <v>6.830054800836924e-07</v>
+        <v>6.8418988432799688E-7</v>
       </c>
       <c r="H18">
-        <v>0.009465621495888487</v>
+        <v>9.4738251388416916E-3</v>
       </c>
       <c r="I18">
-        <v>0.009465621495888485</v>
+        <v>9.4738251388416916E-3</v>
       </c>
       <c r="J18">
-        <v>0.009465621495888487</v>
+        <v>9.4738251388416916E-3</v>
       </c>
       <c r="K18">
-        <v>1.001202686076332</v>
+        <v>1.000207122020508</v>
       </c>
       <c r="L18">
-        <v>-0.1168325635612796</v>
+        <v>-6.6093782964966569E-2</v>
       </c>
       <c r="M18">
-        <v>1.001165931327026</v>
+        <v>1.00017033565333</v>
       </c>
       <c r="N18">
-        <v>-0.117049143277342</v>
+        <v>-6.6310897773011732E-2</v>
       </c>
       <c r="O18">
-        <v>18.93124299177697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>18.94765027768338</v>
+      </c>
+      <c r="P18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.179105456544076</v>
+        <v>0.17907786981534829</v>
       </c>
       <c r="C19">
-        <v>1.645966995383137e-05</v>
+        <v>2.9391743282136012E-6</v>
       </c>
       <c r="D19">
-        <v>-0.1790989331718203</v>
+        <v>-0.17907133546146209</v>
       </c>
       <c r="E19">
-        <v>-1.578749278830259e-05</v>
+        <v>-2.2658656005141921E-6</v>
       </c>
       <c r="F19">
-        <v>6.523372255762272e-06</v>
+        <v>6.5343538862838724E-6</v>
       </c>
       <c r="G19">
-        <v>6.721771655287851e-07</v>
+        <v>6.7330872769940948E-7</v>
       </c>
       <c r="H19">
-        <v>0.009390288115481617</v>
+        <v>9.3981887309764547E-3</v>
       </c>
       <c r="I19">
-        <v>0.009390288115481621</v>
+        <v>9.3981887309764565E-3</v>
       </c>
       <c r="J19">
-        <v>0.009390288115481621</v>
+        <v>9.3981887309764565E-3</v>
       </c>
       <c r="K19">
-        <v>1.001097988533181</v>
+        <v>1.000102343869206</v>
       </c>
       <c r="L19">
-        <v>-0.1199088548597606</v>
+        <v>-6.9176188294786306E-2</v>
       </c>
       <c r="M19">
-        <v>1.001061526241666</v>
+        <v>1.000065851183489</v>
       </c>
       <c r="N19">
-        <v>-0.1201237001702825</v>
+        <v>-6.9391586272834316E-2</v>
       </c>
       <c r="O19">
-        <v>18.78057623096324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.796377461952911</v>
+      </c>
+      <c r="P19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1153968375192934</v>
+        <v>0.1153686612675168</v>
       </c>
       <c r="C20">
-        <v>1.643240103032874e-05</v>
+        <v>2.612058734213681E-6</v>
       </c>
       <c r="D20">
-        <v>-0.1153941294888565</v>
+        <v>-0.1153659491673107</v>
       </c>
       <c r="E20">
-        <v>-1.615336188434097e-05</v>
+        <v>-2.332600233661945E-6</v>
       </c>
       <c r="F20">
-        <v>2.708030436851527e-06</v>
+        <v>2.7121002060814799E-6</v>
       </c>
       <c r="G20">
-        <v>2.79039145987777e-07</v>
+        <v>2.794585005517364E-7</v>
       </c>
       <c r="H20">
-        <v>0.006050198271096367</v>
+        <v>6.0547428408356191E-3</v>
       </c>
       <c r="I20">
-        <v>0.006050198271096367</v>
+        <v>6.0547428408356174E-3</v>
       </c>
       <c r="J20">
-        <v>0.006050198271096367</v>
+        <v>6.0547428408356191E-3</v>
       </c>
       <c r="K20">
-        <v>1.001085086886075</v>
+        <v>1.0000894326208321</v>
       </c>
       <c r="L20">
-        <v>-0.1202879716630308</v>
+        <v>-6.9556058237634555E-2</v>
       </c>
       <c r="M20">
-        <v>1.001061593969547</v>
+        <v>1.0000659223476389</v>
       </c>
       <c r="N20">
-        <v>-0.1204263293999585</v>
+        <v>-6.9694819063642235E-2</v>
       </c>
       <c r="O20">
-        <v>12.10039654219274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.10948568167124</v>
+      </c>
+      <c r="P20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.018250647547754</v>
+        <v>5.0182627957682806</v>
       </c>
       <c r="C21">
-        <v>0.005672879364669389</v>
+        <v>5.6782148094561193E-3</v>
       </c>
       <c r="D21">
-        <v>-5.007271625952436</v>
+        <v>-5.0072618764550176</v>
       </c>
       <c r="E21">
-        <v>-0.002259303704318925</v>
+        <v>-2.2578307539909801E-3</v>
       </c>
       <c r="F21">
-        <v>0.01097902159531827</v>
+        <v>1.1000919313263861E-2</v>
       </c>
       <c r="G21">
-        <v>0.003413575660350464</v>
+        <v>3.4203840554651388E-3</v>
       </c>
       <c r="H21">
-        <v>0.2629233903651554</v>
+        <v>0.26318546081697169</v>
       </c>
       <c r="I21">
-        <v>0.2629233903651555</v>
+        <v>0.26318546081697181</v>
       </c>
       <c r="J21">
-        <v>0.2629233903651555</v>
+        <v>0.26318546081697181</v>
       </c>
       <c r="K21">
-        <v>1.001774771884638</v>
+        <v>1.000779665111847</v>
       </c>
       <c r="L21">
-        <v>-0.1000328811148825</v>
+        <v>-4.9260908567671777E-2</v>
       </c>
       <c r="M21">
-        <v>0.9995825335668155</v>
+        <v>0.99858524140595939</v>
       </c>
       <c r="N21">
-        <v>-0.1389507294873439</v>
+        <v>-8.8256321206426541E-2</v>
       </c>
       <c r="O21">
-        <v>87.6411301217185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>87.728486938990585</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.338195506386658</v>
+        <v>3.3381962134138998</v>
       </c>
       <c r="C22">
-        <v>0.001511356560965715</v>
+        <v>1.512099043211259E-3</v>
       </c>
       <c r="D22">
-        <v>-3.333315899062531</v>
+        <v>-3.3333068525733669</v>
       </c>
       <c r="E22">
-        <v>5.801288583380873e-06</v>
+        <v>8.0913503507336684E-6</v>
       </c>
       <c r="F22">
-        <v>0.0048796073241264</v>
+        <v>4.8893608405329303E-3</v>
       </c>
       <c r="G22">
-        <v>0.001517157849549096</v>
+        <v>1.5201903935619921E-3</v>
       </c>
       <c r="H22">
-        <v>0.1752830176624728</v>
+        <v>0.17545811088350841</v>
       </c>
       <c r="I22">
-        <v>0.1752830176624728</v>
+        <v>0.17545811088350841</v>
       </c>
       <c r="J22">
-        <v>0.1752830176624728</v>
+        <v>0.17545811088350841</v>
       </c>
       <c r="K22">
-        <v>0.9995825335668155</v>
+        <v>0.99858524140595939</v>
       </c>
       <c r="L22">
-        <v>-0.1389507294873439</v>
+        <v>-8.8256321206426541E-2</v>
       </c>
       <c r="M22">
-        <v>0.9981212914899361</v>
+        <v>0.99712253977467113</v>
       </c>
       <c r="N22">
-        <v>-0.1649909126140389</v>
+        <v>-0.1143486064202386</v>
       </c>
       <c r="O22">
-        <v>58.4276725541576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>58.486036961169482</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.66908926022142</v>
+        <v>1.669085091397535</v>
       </c>
       <c r="C23">
-        <v>0.0007529943489798735</v>
+        <v>7.5221819745585963E-4</v>
       </c>
       <c r="D23">
-        <v>-1.667869370806729</v>
+        <v>-1.667862770253012</v>
       </c>
       <c r="E23">
-        <v>-0.0003737087470566574</v>
+        <v>-3.7217652690701942E-4</v>
       </c>
       <c r="F23">
-        <v>0.001219889414690867</v>
+        <v>1.222321144523475E-3</v>
       </c>
       <c r="G23">
-        <v>0.0003792856019232162</v>
+        <v>3.8004167054884021E-4</v>
       </c>
       <c r="H23">
-        <v>0.0876410628160005</v>
+        <v>8.7728371256427434E-2</v>
       </c>
       <c r="I23">
-        <v>0.08764106281600047</v>
+        <v>8.7728371256427434E-2</v>
       </c>
       <c r="J23">
-        <v>0.0876410628160005</v>
+        <v>8.7728371256427434E-2</v>
       </c>
       <c r="K23">
-        <v>0.9995825335668155</v>
+        <v>0.99858524140595939</v>
       </c>
       <c r="L23">
-        <v>-0.1389507294873439</v>
+        <v>-8.8256321206426541E-2</v>
       </c>
       <c r="M23">
-        <v>0.9988518908208992</v>
+        <v>0.99785387094717914</v>
       </c>
       <c r="N23">
-        <v>-0.1519612983979938</v>
+        <v>-0.1012928964858902</v>
       </c>
       <c r="O23">
-        <v>29.2136876053335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>29.24279041880914</v>
+      </c>
+      <c r="P23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.666666431304856</v>
+        <v>-1.66666642427248</v>
       </c>
       <c r="C24">
-        <v>2.244908790293224e-07</v>
+        <v>2.2588188751176619E-7</v>
       </c>
       <c r="D24">
-        <v>1.667886345552298</v>
+        <v>1.667888783548384</v>
       </c>
       <c r="E24">
-        <v>0.0003790688319939058</v>
+        <v>3.7982764439486739E-4</v>
       </c>
       <c r="F24">
-        <v>0.001219914247441833</v>
+        <v>1.2223592759048609E-3</v>
       </c>
       <c r="G24">
-        <v>0.0003792933228729351</v>
+        <v>3.8005352628237921E-4</v>
       </c>
       <c r="H24">
-        <v>0.08764195484669826</v>
+        <v>8.7729739627541797E-2</v>
       </c>
       <c r="I24">
-        <v>0.08764195484669825</v>
+        <v>8.7729739627541811E-2</v>
       </c>
       <c r="J24">
-        <v>0.08764195484669826</v>
+        <v>8.7729739627541811E-2</v>
       </c>
       <c r="K24">
-        <v>0.9981212914899361</v>
+        <v>0.99712253977467113</v>
       </c>
       <c r="L24">
-        <v>-0.1649909126140389</v>
+        <v>-0.1143486064202386</v>
       </c>
       <c r="M24">
-        <v>0.9988518908208992</v>
+        <v>0.99785387094717914</v>
       </c>
       <c r="N24">
-        <v>-0.1519612983979938</v>
+        <v>-0.1012928964858902</v>
       </c>
       <c r="O24">
-        <v>29.21398494889942</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>29.243246542513941</v>
+      </c>
+      <c r="P24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.490496157461833</v>
+        <v>2.1121261697822349</v>
       </c>
       <c r="C25">
-        <v>0.01423121470825206</v>
+        <v>3.569804057107892E-3</v>
       </c>
       <c r="D25">
-        <v>-5.486834126487488</v>
+        <v>-2.1115831694392968</v>
       </c>
       <c r="E25">
-        <v>-0.01211085632225254</v>
+        <v>-3.255400563851154E-3</v>
       </c>
       <c r="F25">
-        <v>0.003662030974345143</v>
+        <v>5.4300034293763844E-4</v>
       </c>
       <c r="G25">
-        <v>0.002120358385999523</v>
+        <v>3.1440349325673748E-4</v>
       </c>
       <c r="H25">
-        <v>0.287666737417997</v>
+        <v>0.1107716674141483</v>
       </c>
       <c r="I25">
-        <v>0.287666737417997</v>
+        <v>0.1107716674141483</v>
       </c>
       <c r="J25">
-        <v>0.287666737417997</v>
+        <v>0.1107716674141483</v>
       </c>
       <c r="K25">
-        <v>1.001774771884638</v>
+        <v>1.000779665111847</v>
       </c>
       <c r="L25">
-        <v>-0.1000328811148825</v>
+        <v>-4.9260908567671777E-2</v>
       </c>
       <c r="M25">
-        <v>1.001105687640972</v>
+        <v>1.0005221375693669</v>
       </c>
       <c r="N25">
-        <v>-0.1220752904586166</v>
+        <v>-5.77670206282919E-2</v>
       </c>
       <c r="O25">
-        <v>57.53334748359941</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>88.61733393131864</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.486853980777427</v>
+        <v>2.1115900451856242</v>
       </c>
       <c r="C26">
-        <v>0.0121223315704832</v>
+        <v>3.2593780100137809E-3</v>
       </c>
       <c r="D26">
-        <v>-5.483191923266979</v>
+        <v>-2.1110470413032938</v>
       </c>
       <c r="E26">
-        <v>-0.0100019578197715</v>
+        <v>-2.944972467407474E-3</v>
       </c>
       <c r="F26">
-        <v>0.003662057510448236</v>
+        <v>5.430038823304173E-4</v>
       </c>
       <c r="G26">
-        <v>0.002120373750711699</v>
+        <v>3.1440554260630691E-4</v>
       </c>
       <c r="H26">
-        <v>0.2876677796730578</v>
+        <v>0.1107720284303501</v>
       </c>
       <c r="I26">
-        <v>0.2876677796730578</v>
+        <v>0.1107720284303501</v>
       </c>
       <c r="J26">
-        <v>0.2876677796730578</v>
+        <v>0.1107720284303501</v>
       </c>
       <c r="K26">
-        <v>1.001105687640972</v>
+        <v>1.0005221375693669</v>
       </c>
       <c r="L26">
-        <v>-0.1220752904586166</v>
+        <v>-5.77670206282919E-2</v>
       </c>
       <c r="M26">
-        <v>1.000436748536074</v>
+        <v>1.000264630971635</v>
       </c>
       <c r="N26">
-        <v>-0.1441471803304351</v>
+        <v>-6.6277512493786619E-2</v>
       </c>
       <c r="O26">
-        <v>57.53355593461157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>88.617622744280084</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.883391508516904</v>
+        <v>1.9111241202717899</v>
       </c>
       <c r="C27">
-        <v>0.01002232954071259</v>
+        <v>2.9517796807046132E-3</v>
       </c>
       <c r="D27">
-        <v>-4.880486805490537</v>
+        <v>-1.910679094572697</v>
       </c>
       <c r="E27">
-        <v>-0.008340472815866981</v>
+        <v>-2.6941046419981509E-3</v>
       </c>
       <c r="F27">
-        <v>0.002904703026366917</v>
+        <v>4.4502569909354861E-4</v>
       </c>
       <c r="G27">
-        <v>0.001681856724845604</v>
+        <v>2.5767503870646139E-4</v>
       </c>
       <c r="H27">
-        <v>0.256200226725053</v>
+        <v>0.1002815843315667</v>
       </c>
       <c r="I27">
-        <v>0.256200226725053</v>
+        <v>0.1002815843315667</v>
       </c>
       <c r="J27">
-        <v>0.256200226725053</v>
+        <v>0.1002815843315667</v>
       </c>
       <c r="K27">
-        <v>1.000436748536074</v>
+        <v>1.000264630971635</v>
       </c>
       <c r="L27">
-        <v>-0.1441471803304351</v>
+        <v>-6.6277512493786619E-2</v>
       </c>
       <c r="M27">
-        <v>0.999841030425033</v>
+        <v>1.0000315099498061</v>
       </c>
       <c r="N27">
-        <v>-0.1638217316234057</v>
+        <v>-7.3983818401724064E-2</v>
       </c>
       <c r="O27">
-        <v>51.2400453450106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>80.225267465253324</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.681317582137854</v>
+        <v>1.4710277108917871</v>
       </c>
       <c r="C28">
-        <v>0.007464497913106672</v>
+        <v>2.453429987780312E-3</v>
       </c>
       <c r="D28">
-        <v>-3.679664925856731</v>
+        <v>-1.4707639249540341</v>
       </c>
       <c r="E28">
-        <v>-0.006507590768026844</v>
+        <v>-2.3006948719002849E-3</v>
       </c>
       <c r="F28">
-        <v>0.001652656281123654</v>
+        <v>2.637859377527807E-4</v>
       </c>
       <c r="G28">
-        <v>0.0009569071450798283</v>
+        <v>1.5273511588002631E-4</v>
       </c>
       <c r="H28">
-        <v>0.1932501814691482</v>
+        <v>7.7206605960243341E-2</v>
       </c>
       <c r="I28">
-        <v>0.1932501814691482</v>
+        <v>7.7206605960243369E-2</v>
       </c>
       <c r="J28">
-        <v>0.1932501814691482</v>
+        <v>7.7206605960243369E-2</v>
       </c>
       <c r="K28">
-        <v>0.999841030425033</v>
+        <v>1.0000315099498061</v>
       </c>
       <c r="L28">
-        <v>-0.1638217316234057</v>
+        <v>-7.3983818401724064E-2</v>
       </c>
       <c r="M28">
-        <v>0.9993916795685955</v>
+        <v>0.99985201613547181</v>
       </c>
       <c r="N28">
-        <v>-0.1786694267808757</v>
+        <v>-7.9916685828440442E-2</v>
       </c>
       <c r="O28">
-        <v>38.65003629382964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>61.765284768194697</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.380590373624975</v>
+        <v>1.371137447477996</v>
       </c>
       <c r="C29">
-        <v>0.006542022369057501</v>
+        <v>2.3119739512169881E-3</v>
       </c>
       <c r="D29">
-        <v>-3.379195447008181</v>
+        <v>-1.370908187704825</v>
       </c>
       <c r="E29">
-        <v>-0.005734343687338805</v>
+        <v>-2.1792298848716191E-3</v>
       </c>
       <c r="F29">
-        <v>0.001394926616793413</v>
+        <v>2.2925977317189711E-4</v>
       </c>
       <c r="G29">
-        <v>0.0008076786817186963</v>
+        <v>1.3274406634536951E-4</v>
       </c>
       <c r="H29">
-        <v>0.1775433138468587</v>
+        <v>7.1976805929880705E-2</v>
       </c>
       <c r="I29">
-        <v>0.1775433138468587</v>
+        <v>7.1976805929880705E-2</v>
       </c>
       <c r="J29">
-        <v>0.1775433138468587</v>
+        <v>7.1976805929880705E-2</v>
       </c>
       <c r="K29">
-        <v>0.9993916795685955</v>
+        <v>0.99985201613547181</v>
       </c>
       <c r="L29">
-        <v>-0.1786694267808757</v>
+        <v>-7.9916685828440442E-2</v>
       </c>
       <c r="M29">
-        <v>0.9989788702959105</v>
+        <v>0.99968467871621836</v>
       </c>
       <c r="N29">
-        <v>-0.1923181673022126</v>
+        <v>-8.5448424248881105E-2</v>
       </c>
       <c r="O29">
-        <v>35.50866276937174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>57.581444743904562</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.18824489467635</v>
+        <v>0.79498129552913854</v>
       </c>
       <c r="C30">
-        <v>0.002628383404128558</v>
+        <v>8.6452219783269787E-4</v>
       </c>
       <c r="D30">
-        <v>-2.187659948424888</v>
+        <v>-0.79490420085887359</v>
       </c>
       <c r="E30">
-        <v>-0.002289692743580545</v>
+        <v>-8.1988349003432972E-4</v>
       </c>
       <c r="F30">
-        <v>0.0005849462514628812</v>
+        <v>7.7094670264954424E-5</v>
       </c>
       <c r="G30">
-        <v>0.000338690660548013</v>
+        <v>4.4638707798368149E-5</v>
       </c>
       <c r="H30">
-        <v>0.1149705535160019</v>
+        <v>4.1738882646351588E-2</v>
       </c>
       <c r="I30">
-        <v>0.1149705535160019</v>
+        <v>4.1738882646351602E-2</v>
       </c>
       <c r="J30">
-        <v>0.1149705535160019</v>
+        <v>4.1738882646351602E-2</v>
       </c>
       <c r="K30">
-        <v>0.9989788702959105</v>
+        <v>0.99968467871621836</v>
       </c>
       <c r="L30">
-        <v>-0.1923181673022126</v>
+        <v>-8.5448424248881105E-2</v>
       </c>
       <c r="M30">
-        <v>0.9987116568685992</v>
+        <v>0.99958767322714914</v>
       </c>
       <c r="N30">
-        <v>-0.2011702125450725</v>
+        <v>-8.8659884318830651E-2</v>
       </c>
       <c r="O30">
-        <v>22.99411070320038</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>41.738882646351591</v>
+      </c>
+      <c r="P30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.789346450030751</v>
+        <v>0.69558422719068058</v>
       </c>
       <c r="C31">
-        <v>0.002332102794795605</v>
+        <v>8.3370002890093388E-4</v>
       </c>
       <c r="D31">
-        <v>-1.788955117938773</v>
+        <v>-0.6955251942545948</v>
       </c>
       <c r="E31">
-        <v>-0.002105516977048817</v>
+        <v>-7.9951927457181131E-4</v>
       </c>
       <c r="F31">
-        <v>0.0003913320919777252</v>
+        <v>5.9032936085778858E-5</v>
       </c>
       <c r="G31">
-        <v>0.0002265858177467883</v>
+        <v>3.4180754329122577E-5</v>
       </c>
       <c r="H31">
-        <v>0.09403756465269761</v>
+        <v>3.6523789669808612E-2</v>
       </c>
       <c r="I31">
-        <v>0.09403756465269761</v>
+        <v>3.6523789669808598E-2</v>
       </c>
       <c r="J31">
-        <v>0.09403756465269761</v>
+        <v>3.6523789669808612E-2</v>
       </c>
       <c r="K31">
-        <v>0.9987116568685992</v>
+        <v>0.99958767322714914</v>
       </c>
       <c r="L31">
-        <v>-0.2011702125450725</v>
+        <v>-8.8659884318830651E-2</v>
       </c>
       <c r="M31">
-        <v>0.9984930810159861</v>
+        <v>0.99950278253692526</v>
       </c>
       <c r="N31">
-        <v>-0.2084108460400018</v>
+        <v>-9.1469784445400604E-2</v>
       </c>
       <c r="O31">
-        <v>18.80751293053952</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>36.523789669808608</v>
+      </c>
+      <c r="P31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.390914917945511</v>
+        <v>0.54630825352344081</v>
       </c>
       <c r="C32">
-        <v>0.002150275280301365</v>
+        <v>8.1408258829826833E-4</v>
       </c>
       <c r="D32">
-        <v>-1.390678354225372</v>
+        <v>-0.54627183313565075</v>
       </c>
       <c r="E32">
-        <v>-0.002013302143991546</v>
+        <v>-7.9299476156695489E-4</v>
       </c>
       <c r="F32">
-        <v>0.0002365637201389159</v>
+        <v>3.6420387790059287E-5</v>
       </c>
       <c r="G32">
-        <v>0.0001369731363098188</v>
+        <v>2.108782673131344E-5</v>
       </c>
       <c r="H32">
-        <v>0.07311436487078532</v>
+        <v>2.8688043052892308E-2</v>
       </c>
       <c r="I32">
-        <v>0.07311436487078532</v>
+        <v>2.8688043052892302E-2</v>
       </c>
       <c r="J32">
-        <v>0.07311436487078532</v>
+        <v>2.8688043052892308E-2</v>
       </c>
       <c r="K32">
-        <v>0.9984930810159861</v>
+        <v>0.99950278253692526</v>
       </c>
       <c r="L32">
-        <v>-0.2084108460400018</v>
+        <v>-9.1469784445400604E-2</v>
       </c>
       <c r="M32">
-        <v>0.9983231127426614</v>
+        <v>0.99943609271205325</v>
       </c>
       <c r="N32">
-        <v>-0.2140390426532215</v>
+        <v>-9.3675886311971615E-2</v>
       </c>
       <c r="O32">
-        <v>14.62287297415706</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>28.688043052892311</v>
+      </c>
+      <c r="P32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9952297509514497</v>
+        <v>0.29807449157322657</v>
       </c>
       <c r="C33">
-        <v>-1.819709136836531e-05</v>
+        <v>-2.4003173390001389E-5</v>
       </c>
       <c r="D33">
-        <v>-0.995108596174754</v>
+        <v>-0.29806364791899248</v>
       </c>
       <c r="E33">
-        <v>8.83471115540259e-05</v>
+        <v>3.028177489589832E-5</v>
       </c>
       <c r="F33">
-        <v>0.0001211547766957199</v>
+        <v>1.084365423409395E-5</v>
       </c>
       <c r="G33">
-        <v>7.015002018566059e-05</v>
+        <v>6.2786015058969268E-6</v>
       </c>
       <c r="H33">
-        <v>0.05232375601366013</v>
+        <v>1.5653680725221181E-2</v>
       </c>
       <c r="I33">
-        <v>0.05232375601366013</v>
+        <v>1.5653680725221181E-2</v>
       </c>
       <c r="J33">
-        <v>0.05232375601366013</v>
+        <v>1.5653680725221181E-2</v>
       </c>
       <c r="K33">
-        <v>0.9983231127426614</v>
+        <v>0.99943609271205325</v>
       </c>
       <c r="L33">
-        <v>-0.2140390426532215</v>
+        <v>-9.3675886311971615E-2</v>
       </c>
       <c r="M33">
-        <v>0.9982015851611882</v>
+        <v>0.99939973613599364</v>
       </c>
       <c r="N33">
-        <v>-0.2180782269343072</v>
+        <v>-9.4882968753552968E-2</v>
       </c>
       <c r="O33">
-        <v>10.46475120273203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>31.307361450442361</v>
+      </c>
+      <c r="P33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.199659865483842</v>
+        <v>0.43984244914329018</v>
       </c>
       <c r="C34">
-        <v>0.0004640321556181478</v>
+        <v>7.5507348986527225E-5</v>
       </c>
       <c r="D34">
-        <v>-1.199188460166408</v>
+        <v>-0.43977910492401368</v>
       </c>
       <c r="E34">
-        <v>-0.0003494557136583492</v>
+        <v>-6.011135111586637E-5</v>
       </c>
       <c r="F34">
-        <v>0.0004714053174339483</v>
+        <v>6.3344219276562086E-5</v>
       </c>
       <c r="G34">
-        <v>0.0001145764419597985</v>
+        <v>1.5395997870660851E-5</v>
       </c>
       <c r="H34">
-        <v>0.06297582924872869</v>
+        <v>2.3085014424698749E-2</v>
       </c>
       <c r="I34">
-        <v>0.06297582924872867</v>
+        <v>2.3085014424698749E-2</v>
       </c>
       <c r="J34">
-        <v>0.06297582924872869</v>
+        <v>2.3085014424698749E-2</v>
       </c>
       <c r="K34">
-        <v>0.999841030425033</v>
+        <v>1.0000315099498061</v>
       </c>
       <c r="L34">
-        <v>-0.1638217316234057</v>
+        <v>-7.3983818401724064E-2</v>
       </c>
       <c r="M34">
-        <v>0.9994481114173045</v>
+        <v>0.99988748431634755</v>
       </c>
       <c r="N34">
-        <v>-0.1692873432791488</v>
+        <v>-7.5988239758233822E-2</v>
       </c>
       <c r="O34">
-        <v>12.59516584974574</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>46.170028849397497</v>
+      </c>
+      <c r="P34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7996157237997502</v>
+        <v>0.25991101720893067</v>
       </c>
       <c r="C35">
-        <v>0.0001626769587512373</v>
+        <v>5.6514795681093634E-6</v>
       </c>
       <c r="D35">
-        <v>-0.799406128167563</v>
+        <v>-0.25988889201043269</v>
       </c>
       <c r="E35">
-        <v>-0.0001117341269710418</v>
+        <v>-2.7388532423960763E-7</v>
       </c>
       <c r="F35">
-        <v>0.0002095956321872539</v>
+        <v>2.2125198498035289E-5</v>
       </c>
       <c r="G35">
-        <v>5.09428317801955e-05</v>
+        <v>5.377594243869755E-6</v>
       </c>
       <c r="H35">
-        <v>0.04199211705523245</v>
+        <v>1.364332561414509E-2</v>
       </c>
       <c r="I35">
-        <v>0.04199211705523245</v>
+        <v>1.364332561414509E-2</v>
       </c>
       <c r="J35">
-        <v>0.04199211705523245</v>
+        <v>1.364332561414509E-2</v>
       </c>
       <c r="K35">
-        <v>0.9994481114173045</v>
+        <v>0.99988748431634755</v>
       </c>
       <c r="L35">
-        <v>-0.1692873432791488</v>
+        <v>-7.5988239758233822E-2</v>
       </c>
       <c r="M35">
-        <v>0.9991861247122439</v>
+        <v>0.99980236760759855</v>
       </c>
       <c r="N35">
-        <v>-0.1729355089873252</v>
+        <v>-7.7173692077313019E-2</v>
       </c>
       <c r="O35">
-        <v>8.39842341104649</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>27.286651228290179</v>
+      </c>
+      <c r="P35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.3998241889858763</v>
+        <v>9.9966077061301686E-2</v>
       </c>
       <c r="C36">
-        <v>-2.029392096731782e-05</v>
+        <v>-1.0174610565991079E-5</v>
       </c>
       <c r="D36">
-        <v>-0.3997441277067082</v>
+        <v>-9.9961078394778233E-2</v>
       </c>
       <c r="E36">
-        <v>3.356534736981211e-05</v>
+        <v>1.100321879665884E-5</v>
       </c>
       <c r="F36">
-        <v>8.00612791681532e-05</v>
+        <v>4.9986665234535987E-6</v>
       </c>
       <c r="G36">
-        <v>1.327142640249429e-05</v>
+        <v>8.2860823066776223E-7</v>
       </c>
       <c r="H36">
-        <v>0.02100242093655354</v>
+        <v>5.2478954996080336E-3</v>
       </c>
       <c r="I36">
-        <v>0.02100242093655354</v>
+        <v>5.2478954996080336E-3</v>
       </c>
       <c r="J36">
-        <v>0.02100242093655354</v>
+        <v>5.2478954996080336E-3</v>
       </c>
       <c r="K36">
-        <v>0.9991861247122439</v>
+        <v>0.99980236760759855</v>
       </c>
       <c r="L36">
-        <v>-0.1729355089873252</v>
+        <v>-7.7173692077313019E-2</v>
       </c>
       <c r="M36">
-        <v>0.9989860487089948</v>
+        <v>0.99975237474039069</v>
       </c>
       <c r="N36">
-        <v>-0.1748383000389303</v>
+        <v>-7.7648926087827308E-2</v>
       </c>
       <c r="O36">
-        <v>4.200484187310709</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>10.495790999216069</v>
+      </c>
+      <c r="P36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.3998345979240314</v>
+        <v>0.15997490591303709</v>
       </c>
       <c r="C37">
-        <v>-2.029322981160595e-05</v>
+        <v>-8.8812180977278102E-6</v>
       </c>
       <c r="D37">
-        <v>-0.3997545324762123</v>
+        <v>-0.15996210465684699</v>
       </c>
       <c r="E37">
-        <v>3.356534723408518e-05</v>
+        <v>1.10032292765533E-5</v>
       </c>
       <c r="F37">
-        <v>8.006544781913316e-05</v>
+        <v>1.280125619004813E-5</v>
       </c>
       <c r="G37">
-        <v>1.327211742247923e-05</v>
+        <v>2.1220111788254889E-6</v>
       </c>
       <c r="H37">
-        <v>0.02100296770912348</v>
+        <v>8.3981647616489918E-3</v>
       </c>
       <c r="I37">
-        <v>0.02100296770912348</v>
+        <v>8.3981647616489918E-3</v>
       </c>
       <c r="J37">
-        <v>0.02100296770912348</v>
+        <v>8.3981647616489918E-3</v>
       </c>
       <c r="K37">
-        <v>0.9991861247122439</v>
+        <v>0.99980236760759855</v>
       </c>
       <c r="L37">
-        <v>-0.1729355089873252</v>
+        <v>-7.7173692077313019E-2</v>
       </c>
       <c r="M37">
-        <v>0.9989860435001718</v>
+        <v>0.99972236384532065</v>
       </c>
       <c r="N37">
-        <v>-0.1748383495507095</v>
+        <v>-7.7934015925902725E-2</v>
       </c>
       <c r="O37">
-        <v>4.200593541824695</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>16.796329523297981</v>
+      </c>
+      <c r="P37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.3998704491729303</v>
+        <v>0.17996055062435351</v>
       </c>
       <c r="C38">
-        <v>-1.871709847289923e-05</v>
+        <v>-7.8158135576104589E-6</v>
       </c>
       <c r="D38">
-        <v>-0.3997904113436864</v>
+        <v>-0.17994435381219551</v>
       </c>
       <c r="E38">
-        <v>3.198463767865411e-05</v>
+        <v>1.0500691975041319E-5</v>
       </c>
       <c r="F38">
-        <v>8.003782924392855e-05</v>
+        <v>1.6196812158031371E-5</v>
       </c>
       <c r="G38">
-        <v>1.326753920575488e-05</v>
+        <v>2.684878417430866E-6</v>
       </c>
       <c r="H38">
-        <v>0.02099934490996157</v>
+        <v>9.4465421972874334E-3</v>
       </c>
       <c r="I38">
-        <v>0.02099934490996158</v>
+        <v>9.4465421972874334E-3</v>
       </c>
       <c r="J38">
-        <v>0.02099934490996158</v>
+        <v>9.4465421972874334E-3</v>
       </c>
       <c r="K38">
-        <v>0.9994481114173045</v>
+        <v>0.99988748431634755</v>
       </c>
       <c r="L38">
-        <v>-0.1692873432791488</v>
+        <v>-7.5988239758233822E-2</v>
       </c>
       <c r="M38">
-        <v>0.9992480645860511</v>
+        <v>0.99979749318748845</v>
       </c>
       <c r="N38">
-        <v>-0.1711893114839978</v>
+        <v>-7.6843351364946244E-2</v>
       </c>
       <c r="O38">
-        <v>4.199868981992316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>18.893084394574871</v>
+      </c>
+      <c r="P38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.192346256525786</v>
+        <v>0.57649861683372405</v>
       </c>
       <c r="C39">
-        <v>0.001818517289891841</v>
+        <v>7.7825803911159383E-4</v>
       </c>
       <c r="D39">
-        <v>-1.191879776284905</v>
+        <v>-0.57638972098583052</v>
       </c>
       <c r="E39">
-        <v>-0.001705137902201419</v>
+        <v>-7.5179058459976444E-4</v>
       </c>
       <c r="F39">
-        <v>0.0004664802408809177</v>
+        <v>1.0889584789353091E-4</v>
       </c>
       <c r="G39">
-        <v>0.0001133793876904217</v>
+        <v>2.646745451182939E-5</v>
       </c>
       <c r="H39">
-        <v>0.06264599084758424</v>
+        <v>3.0267901832429719E-2</v>
       </c>
       <c r="I39">
-        <v>0.06264599084758422</v>
+        <v>3.0267901832429719E-2</v>
       </c>
       <c r="J39">
-        <v>0.06264599084758424</v>
+        <v>3.0267901832429719E-2</v>
       </c>
       <c r="K39">
-        <v>0.9989788702959105</v>
+        <v>0.99968467871621836</v>
       </c>
       <c r="L39">
-        <v>-0.1923181673022126</v>
+        <v>-8.5448424248881105E-2</v>
       </c>
       <c r="M39">
-        <v>0.9985879014457598</v>
+        <v>0.99949578592893151</v>
       </c>
       <c r="N39">
-        <v>-0.1977343032019882</v>
+        <v>-8.8064792779013412E-2</v>
       </c>
       <c r="O39">
-        <v>12.52919816951685</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>60.535803664859444</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7957326665915953</v>
+        <v>0.42807663539041507</v>
       </c>
       <c r="C40">
-        <v>-2.239531963357322e-05</v>
+        <v>-6.0181136287338049E-6</v>
       </c>
       <c r="D40">
-        <v>-0.7955247439246903</v>
+        <v>-0.42801657043257818</v>
       </c>
       <c r="E40">
-        <v>7.29315323060053e-05</v>
+        <v>2.0617077409787899E-5</v>
       </c>
       <c r="F40">
-        <v>0.0002079226669049472</v>
+        <v>6.0064957836891697E-5</v>
       </c>
       <c r="G40">
-        <v>5.053621267243208e-05</v>
+        <v>1.4598963781054091E-5</v>
       </c>
       <c r="H40">
-        <v>0.04182419346872838</v>
+        <v>2.24795309231542E-2</v>
       </c>
       <c r="I40">
-        <v>0.04182419346872839</v>
+        <v>2.247953092315421E-2</v>
       </c>
       <c r="J40">
-        <v>0.04182419346872839</v>
+        <v>2.247953092315421E-2</v>
       </c>
       <c r="K40">
-        <v>0.9985879014457598</v>
+        <v>0.99949578592893151</v>
       </c>
       <c r="L40">
-        <v>-0.1977343032019882</v>
+        <v>-8.8064792779013412E-2</v>
       </c>
       <c r="M40">
-        <v>0.9983269770868808</v>
+        <v>0.99935554417488093</v>
       </c>
       <c r="N40">
-        <v>-0.2013744752956655</v>
+        <v>-9.0019173634068611E-2</v>
       </c>
       <c r="O40">
-        <v>8.364838693745678</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>44.959061846308423</v>
+      </c>
+      <c r="P40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.3980228783941152</v>
+        <v>0.14912154363364019</v>
       </c>
       <c r="C41">
-        <v>-2.909116833378612e-05</v>
+        <v>-1.1923533969323209E-5</v>
       </c>
       <c r="D41">
-        <v>-0.3979434417923322</v>
+        <v>-0.1491104136114044</v>
       </c>
       <c r="E41">
-        <v>4.225904455535247e-05</v>
+        <v>1.376851162262146E-5</v>
       </c>
       <c r="F41">
-        <v>7.943660178294509e-05</v>
+        <v>1.113002223573911E-5</v>
       </c>
       <c r="G41">
-        <v>1.316787622156635e-05</v>
+        <v>1.8449776532982469E-6</v>
       </c>
       <c r="H41">
-        <v>0.02092032488764331</v>
+        <v>7.8307996388268901E-3</v>
       </c>
       <c r="I41">
-        <v>0.02092032488764331</v>
+        <v>7.8307996388268901E-3</v>
       </c>
       <c r="J41">
-        <v>0.02092032488764331</v>
+        <v>7.8307996388268901E-3</v>
       </c>
       <c r="K41">
-        <v>0.9985879014457598</v>
+        <v>0.99949578592893151</v>
       </c>
       <c r="L41">
-        <v>-0.1977343032019882</v>
+        <v>-8.8064792779013412E-2</v>
       </c>
       <c r="M41">
-        <v>0.9983886082529845</v>
+        <v>0.99942118737587826</v>
       </c>
       <c r="N41">
-        <v>-0.1996310460655505</v>
+        <v>-8.8774068672476114E-2</v>
       </c>
       <c r="O41">
-        <v>4.184064977528661</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>15.66159927765378</v>
+      </c>
+      <c r="P41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.3976807103539567</v>
+        <v>0.29896623997778848</v>
       </c>
       <c r="C42">
-        <v>-3.016521040497379e-05</v>
+        <v>-6.6872402493167097E-6</v>
       </c>
       <c r="D42">
-        <v>-0.3976013688144338</v>
+        <v>-0.29892149117408923</v>
       </c>
       <c r="E42">
-        <v>4.331732854972233e-05</v>
+        <v>1.410506395965917E-5</v>
       </c>
       <c r="F42">
-        <v>7.934153952293688e-05</v>
+        <v>4.4748803699257163E-5</v>
       </c>
       <c r="G42">
-        <v>1.315211814474854e-05</v>
+        <v>7.4178237103424624E-6</v>
       </c>
       <c r="H42">
-        <v>0.02090780340096198</v>
+        <v>1.570177720841999E-2</v>
       </c>
       <c r="I42">
-        <v>0.02090780340096197</v>
+        <v>1.570177720841999E-2</v>
       </c>
       <c r="J42">
-        <v>0.02090780340096198</v>
+        <v>1.570177720841999E-2</v>
       </c>
       <c r="K42">
-        <v>0.9983269770868808</v>
+        <v>0.99935554417488093</v>
       </c>
       <c r="L42">
-        <v>-0.2013744752956655</v>
+        <v>-9.0019173634068611E-2</v>
       </c>
       <c r="M42">
-        <v>0.9981278032686068</v>
+        <v>0.99920596304747444</v>
       </c>
       <c r="N42">
-        <v>-0.2032706098064471</v>
+        <v>-9.1441176913136787E-2</v>
       </c>
       <c r="O42">
-        <v>4.181560680192396</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>31.403554416839981</v>
+      </c>
+      <c r="P42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.3976417440435951</v>
+        <v>0.24906592868221419</v>
       </c>
       <c r="C43">
-        <v>-3.403932314812244e-05</v>
+        <v>-1.0188834244438129E-5</v>
       </c>
       <c r="D43">
-        <v>-0.3975624174374571</v>
+        <v>-0.2490348762395477</v>
       </c>
       <c r="E43">
-        <v>4.71889658475444e-05</v>
+        <v>1.5336268956291609E-5</v>
       </c>
       <c r="F43">
-        <v>7.932660613801934e-05</v>
+        <v>3.1052442666490432E-5</v>
       </c>
       <c r="G43">
-        <v>1.314964269942195e-05</v>
+        <v>5.1474347118534792E-6</v>
       </c>
       <c r="H43">
-        <v>0.02090583571185132</v>
+        <v>1.307994688564406E-2</v>
       </c>
       <c r="I43">
-        <v>0.02090583571185132</v>
+        <v>1.307994688564406E-2</v>
       </c>
       <c r="J43">
-        <v>0.02090583571185132</v>
+        <v>1.307994688564406E-2</v>
       </c>
       <c r="K43">
-        <v>0.9983231127426614</v>
+        <v>0.99943609271205325</v>
       </c>
       <c r="L43">
-        <v>-0.2140390426532215</v>
+        <v>-9.3675886311971615E-2</v>
       </c>
       <c r="M43">
-        <v>0.998123957991226</v>
+        <v>0.99931148848202955</v>
       </c>
       <c r="N43">
-        <v>-0.2159351174837645</v>
+        <v>-9.4860455601008642E-2</v>
       </c>
       <c r="O43">
-        <v>4.181167142370264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>26.159893771288122</v>
+      </c>
+      <c r="P43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.2974282405402364</v>
+        <v>9.8977148016820005E-2</v>
       </c>
       <c r="C44">
-        <v>-4.077010232877336e-05</v>
+        <v>-1.482213298171941E-5</v>
       </c>
       <c r="D44">
-        <v>-0.2973838485021429</v>
+        <v>-9.8972243811965926E-2</v>
       </c>
       <c r="E44">
-        <v>4.812878648339527e-05</v>
+        <v>1.5635082692989099E-5</v>
       </c>
       <c r="F44">
-        <v>4.439203809342152e-05</v>
+        <v>4.9042048540781646E-6</v>
       </c>
       <c r="G44">
-        <v>7.358684154621905e-06</v>
+        <v>8.1294971126968756E-7</v>
       </c>
       <c r="H44">
-        <v>0.01563905973106596</v>
+        <v>5.1980732784508866E-3</v>
       </c>
       <c r="I44">
-        <v>0.01563905973106597</v>
+        <v>5.1980732784508866E-3</v>
       </c>
       <c r="J44">
-        <v>0.01563905973106597</v>
+        <v>5.1980732784508866E-3</v>
       </c>
       <c r="K44">
-        <v>0.9982015851611882</v>
+        <v>0.99939973613599364</v>
       </c>
       <c r="L44">
-        <v>-0.2180782269343072</v>
+        <v>-9.4882968753552968E-2</v>
       </c>
       <c r="M44">
-        <v>0.9980526043382217</v>
+        <v>0.99935021828248938</v>
       </c>
       <c r="N44">
-        <v>-0.2194971680961036</v>
+        <v>-9.5354016631898006E-2</v>
       </c>
       <c r="O44">
-        <v>3.127811946213193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>10.396146556901771</v>
+      </c>
+      <c r="P44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>11.91361822556405</v>
+        <v>2.5704611323667539</v>
       </c>
       <c r="C45">
-        <v>0.01430448101327533</v>
+        <v>8.2652454766458027E-4</v>
       </c>
       <c r="D45">
-        <v>-11.90699079034132</v>
+        <v>-2.570152001144157</v>
       </c>
       <c r="E45">
-        <v>-0.01090076119518398</v>
+        <v>-6.6776085803415663E-4</v>
       </c>
       <c r="F45">
-        <v>0.006627435222725353</v>
+        <v>3.0913122259734749E-4</v>
       </c>
       <c r="G45">
-        <v>0.003403719818091355</v>
+        <v>1.5876368963042359E-4</v>
       </c>
       <c r="H45">
-        <v>0.6241954361792329</v>
+        <v>0.1348091216159932</v>
       </c>
       <c r="I45">
-        <v>0.624195436179233</v>
+        <v>0.1348091216159932</v>
       </c>
       <c r="J45">
-        <v>0.624195436179233</v>
+        <v>0.1348091216159932</v>
       </c>
       <c r="K45">
-        <v>1.001774771884638</v>
+        <v>1.000779665111847</v>
       </c>
       <c r="L45">
-        <v>-0.1000328811148825</v>
+        <v>-4.9260908567671777E-2</v>
       </c>
       <c r="M45">
-        <v>1.001217191754931</v>
+        <v>1.0006592904467351</v>
       </c>
       <c r="N45">
-        <v>-0.1163730829514132</v>
+        <v>-5.2797973054299563E-2</v>
       </c>
       <c r="O45">
-        <v>83.22605815723107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>89.872747743995475</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>11.9069956736709</v>
+        <v>2.5701519073568071</v>
       </c>
       <c r="C46">
-        <v>0.01090349740401001</v>
+        <v>6.6782377375743411E-4</v>
       </c>
       <c r="D46">
-        <v>-11.90036823300927</v>
+        <v>-2.5698427761567659</v>
       </c>
       <c r="E46">
-        <v>-0.007499774792602575</v>
+        <v>-5.0906009571173756E-4</v>
       </c>
       <c r="F46">
-        <v>0.006627440661633344</v>
+        <v>3.0913120004072431E-4</v>
       </c>
       <c r="G46">
-        <v>0.00340372261140744</v>
+        <v>1.5876367804569649E-4</v>
       </c>
       <c r="H46">
-        <v>0.624195692307194</v>
+        <v>0.13480911669753479</v>
       </c>
       <c r="I46">
-        <v>0.624195692307194</v>
+        <v>0.1348091166975349</v>
       </c>
       <c r="J46">
-        <v>0.624195692307194</v>
+        <v>0.1348091166975349</v>
       </c>
       <c r="K46">
-        <v>1.001217191754931</v>
+        <v>1.0006592904467351</v>
       </c>
       <c r="L46">
-        <v>-0.1163730829514132</v>
+        <v>-5.2797973054299563E-2</v>
       </c>
       <c r="M46">
-        <v>1.000659692854164</v>
+        <v>1.0005389195989469</v>
       </c>
       <c r="N46">
-        <v>-0.1327314927811596</v>
+        <v>-5.6335888316790629E-2</v>
       </c>
       <c r="O46">
-        <v>83.22609230762586</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>89.872744465023246</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.271098194381952</v>
+        <v>0.81759544529586481</v>
       </c>
       <c r="C47">
-        <v>0.0002415669427353277</v>
+        <v>1.4308320657737649E-5</v>
       </c>
       <c r="D47">
-        <v>-3.270597454663795</v>
+        <v>-0.81756415521813586</v>
       </c>
       <c r="E47">
-        <v>1.560308535511999e-05</v>
+        <v>1.7616451881860521E-6</v>
       </c>
       <c r="F47">
-        <v>0.0005007397181575612</v>
+        <v>3.1290077728951537E-5</v>
       </c>
       <c r="G47">
-        <v>0.0002571700280904476</v>
+        <v>1.6069965845923701E-5</v>
       </c>
       <c r="H47">
-        <v>0.1715749430744569</v>
+        <v>4.2889517862058808E-2</v>
       </c>
       <c r="I47">
-        <v>0.171574943074457</v>
+        <v>4.2889517862058808E-2</v>
       </c>
       <c r="J47">
-        <v>0.171574943074457</v>
+        <v>4.2889517862058808E-2</v>
       </c>
       <c r="K47">
-        <v>1.000659692854164</v>
+        <v>1.0005389195989469</v>
       </c>
       <c r="L47">
-        <v>-0.1327314927811596</v>
+        <v>-5.6335888316790629E-2</v>
       </c>
       <c r="M47">
-        <v>1.00050650914955</v>
+        <v>1.00050062796693</v>
       </c>
       <c r="N47">
-        <v>-0.1372360637842771</v>
+        <v>-5.7462050513650893E-2</v>
       </c>
       <c r="O47">
-        <v>22.87665907659427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>42.88951786205881</v>
+      </c>
+      <c r="P47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.150573436001654</v>
+        <v>0.53756084528402381</v>
       </c>
       <c r="C48">
-        <v>-1.21356823242786e-05</v>
+        <v>-2.800918630996318E-6</v>
       </c>
       <c r="D48">
-        <v>-2.150356931761703</v>
+        <v>-0.53754731776311693</v>
       </c>
       <c r="E48">
-        <v>0.0001233279833361021</v>
+        <v>9.7483861585396766E-6</v>
       </c>
       <c r="F48">
-        <v>0.0002165042399506767</v>
+        <v>1.3527520906886361E-5</v>
       </c>
       <c r="G48">
-        <v>0.0001111923010118235</v>
+        <v>6.9474675275433594E-6</v>
       </c>
       <c r="H48">
-        <v>0.1128186883209781</v>
+        <v>2.8200509194120021E-2</v>
       </c>
       <c r="I48">
-        <v>0.1128186883209781</v>
+        <v>2.8200509194120021E-2</v>
       </c>
       <c r="J48">
-        <v>0.1128186883209781</v>
+        <v>2.8200509194120021E-2</v>
       </c>
       <c r="K48">
-        <v>1.00050650914955</v>
+        <v>1.00050062796693</v>
       </c>
       <c r="L48">
-        <v>-0.1372360637842771</v>
+        <v>-5.7462050513650893E-2</v>
       </c>
       <c r="M48">
-        <v>1.00040578699164</v>
+        <v>1.000475450887639</v>
       </c>
       <c r="N48">
-        <v>-0.1401987903254539</v>
+        <v>-5.8202570636920789E-2</v>
       </c>
       <c r="O48">
-        <v>15.04249177613042</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>28.20050919412002</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9502804908277603</v>
+        <v>0.23753647306747649</v>
       </c>
       <c r="C49">
-        <v>-0.000119751167480287</v>
+        <v>-1.0952990838657431E-5</v>
       </c>
       <c r="D49">
-        <v>-0.9502382094693789</v>
+        <v>-0.23753383159905059</v>
       </c>
       <c r="E49">
-        <v>0.0001414660379576672</v>
+        <v>1.230959684504711E-5</v>
       </c>
       <c r="F49">
-        <v>4.228135838146851e-05</v>
+        <v>2.6414684259068451E-6</v>
       </c>
       <c r="G49">
-        <v>2.171487047738022e-05</v>
+        <v>1.3566060063896739E-6</v>
       </c>
       <c r="H49">
-        <v>0.04985655990575598</v>
+        <v>1.2461506694095291E-2</v>
       </c>
       <c r="I49">
-        <v>0.04985655990575598</v>
+        <v>1.2461506694095291E-2</v>
       </c>
       <c r="J49">
-        <v>0.04985655990575598</v>
+        <v>1.2461506694095291E-2</v>
       </c>
       <c r="K49">
-        <v>1.00040578699164</v>
+        <v>1.000475450887639</v>
       </c>
       <c r="L49">
-        <v>-0.1401987903254539</v>
+        <v>-5.8202570636920789E-2</v>
       </c>
       <c r="M49">
-        <v>1.000361278523392</v>
+        <v>1.0004643256157419</v>
       </c>
       <c r="N49">
-        <v>-0.1415084363446022</v>
+        <v>-5.8529828343973328E-2</v>
       </c>
       <c r="O49">
-        <v>6.647541320767464</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>24.923013388190569</v>
+      </c>
+      <c r="P49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0001273842469204141</v>
+        <v>1.7878710347802031E-5</v>
       </c>
       <c r="C50">
-        <v>-0.0001378162627120161</v>
+        <v>-1.3624412710293301E-5</v>
       </c>
       <c r="D50">
-        <v>-0.0001273842452712111</v>
+        <v>-1.7878710324147169E-5</v>
       </c>
       <c r="E50">
-        <v>0.0001378162635590143</v>
+        <v>1.3624412722441971E-5</v>
       </c>
       <c r="F50">
-        <v>1.649203072284083e-12</v>
+        <v>2.365486550127277E-14</v>
       </c>
       <c r="G50">
-        <v>8.469981443645636e-13</v>
+        <v>1.214866999588258E-14</v>
       </c>
       <c r="H50">
-        <v>9.846568658383993e-06</v>
+        <v>1.179255975106048E-6</v>
       </c>
       <c r="I50">
-        <v>9.846568658383989e-06</v>
+        <v>1.179255975106048E-6</v>
       </c>
       <c r="J50">
-        <v>9.846568658383993e-06</v>
+        <v>1.179255975106048E-6</v>
       </c>
       <c r="K50">
-        <v>1.000361278523392</v>
+        <v>1.0004643256157419</v>
       </c>
       <c r="L50">
-        <v>-0.1415084363446022</v>
+        <v>-5.8529828343973328E-2</v>
       </c>
       <c r="M50">
-        <v>1.00036127587189</v>
+        <v>1.000464325106077</v>
       </c>
       <c r="N50">
-        <v>-0.1415089816152552</v>
+        <v>-5.8529889519400927E-2</v>
       </c>
       <c r="O50">
-        <v>0.001312875821117866</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>2.3585119502120971E-3</v>
+      </c>
+      <c r="P50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>8.629318780869321</v>
+        <v>1.752254093776207</v>
       </c>
       <c r="C51">
-        <v>0.007261529365033999</v>
+        <v>4.9393292717012593E-4</v>
       </c>
       <c r="D51">
-        <v>-8.625833978055628</v>
+        <v>-1.7521103715564561</v>
       </c>
       <c r="E51">
-        <v>-0.005471803475533152</v>
+        <v>-4.2012003406319103E-4</v>
       </c>
       <c r="F51">
-        <v>0.003484802813693122</v>
+        <v>1.437222197515631E-4</v>
       </c>
       <c r="G51">
-        <v>0.001789725889500847</v>
+        <v>7.3812893106934901E-5</v>
       </c>
       <c r="H51">
-        <v>0.4526233426169763</v>
+        <v>9.1919954618841171E-2</v>
       </c>
       <c r="I51">
-        <v>0.4526233426169763</v>
+        <v>9.1919954618841171E-2</v>
       </c>
       <c r="J51">
-        <v>0.4526233426169763</v>
+        <v>9.1919954618841171E-2</v>
       </c>
       <c r="K51">
-        <v>1.000659692854164</v>
+        <v>1.0005389195989469</v>
       </c>
       <c r="L51">
-        <v>-0.1327314927811596</v>
+        <v>-5.6335888316790629E-2</v>
       </c>
       <c r="M51">
-        <v>1.000255440654595</v>
+        <v>1.0004568430738929</v>
       </c>
       <c r="N51">
-        <v>-0.1445999877476539</v>
+        <v>-5.8748319521475023E-2</v>
       </c>
       <c r="O51">
-        <v>60.34977901559684</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>61.279969745894107</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7.726025424989947</v>
+        <v>1.527138888513542</v>
       </c>
       <c r="C52">
-        <v>0.005475527961401317</v>
+        <v>4.1869495090418639E-4</v>
       </c>
       <c r="D52">
-        <v>-7.723229739398906</v>
+        <v>-1.52702970474601</v>
       </c>
       <c r="E52">
-        <v>-0.004039719065261689</v>
+        <v>-3.6262032461605178E-4</v>
       </c>
       <c r="F52">
-        <v>0.002795685591040709</v>
+        <v>1.0918376753221711E-4</v>
       </c>
       <c r="G52">
-        <v>0.001435808896139628</v>
+        <v>5.6074626288134559E-5</v>
       </c>
       <c r="H52">
-        <v>0.4054077132164181</v>
+        <v>8.0117406327933419E-2</v>
       </c>
       <c r="I52">
-        <v>0.4054077132164181</v>
+        <v>8.0117406327933405E-2</v>
       </c>
       <c r="J52">
-        <v>0.4054077132164181</v>
+        <v>8.0117406327933419E-2</v>
       </c>
       <c r="K52">
-        <v>1.000255440654595</v>
+        <v>1.0004568430738929</v>
       </c>
       <c r="L52">
-        <v>-0.1445999877476539</v>
+        <v>-5.8748319521475023E-2</v>
       </c>
       <c r="M52">
-        <v>0.9998933808801153</v>
+        <v>1.0003853053820511</v>
       </c>
       <c r="N52">
-        <v>-0.1552370190289671</v>
+        <v>-6.0851175845967158E-2</v>
       </c>
       <c r="O52">
-        <v>54.05436176218908</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>53.41160421862228</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6.423578342749029</v>
+        <v>1.202082546693914</v>
       </c>
       <c r="C53">
-        <v>0.004043810015333944</v>
+        <v>3.6064409999785681E-4</v>
       </c>
       <c r="D53">
-        <v>-6.421644395944137</v>
+        <v>-1.20201488673912</v>
       </c>
       <c r="E53">
-        <v>-0.003050573137759291</v>
+        <v>-3.2589528370877699E-4</v>
       </c>
       <c r="F53">
-        <v>0.00193394680489245</v>
+        <v>6.7659954793741761E-5</v>
       </c>
       <c r="G53">
-        <v>0.0009932368775746533</v>
+        <v>3.474881628907976E-5</v>
       </c>
       <c r="H53">
-        <v>0.3371864432693047</v>
+        <v>6.306867322406351E-2</v>
       </c>
       <c r="I53">
-        <v>0.3371864432693047</v>
+        <v>6.306867322406351E-2</v>
       </c>
       <c r="J53">
-        <v>0.3371864432693047</v>
+        <v>6.306867322406351E-2</v>
       </c>
       <c r="K53">
-        <v>0.9998933808801153</v>
+        <v>1.0003853053820511</v>
       </c>
       <c r="L53">
-        <v>-0.1552370190289671</v>
+        <v>-6.0851175845967158E-2</v>
       </c>
       <c r="M53">
-        <v>0.9995922576859119</v>
+        <v>1.00032898982704</v>
       </c>
       <c r="N53">
-        <v>-0.1640881020692024</v>
+        <v>-6.2506560753984461E-2</v>
       </c>
       <c r="O53">
-        <v>44.95819243590729</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>63.06867322406351</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.452153585609209</v>
+        <v>0.95959214192023867</v>
       </c>
       <c r="C54">
-        <v>0.003054993998608091</v>
+        <v>3.2342304137897011E-4</v>
       </c>
       <c r="D54">
-        <v>-5.450958658454527</v>
+        <v>-0.95955518135501405</v>
       </c>
       <c r="E54">
-        <v>-0.00244130301546229</v>
+        <v>-3.0444082516484472E-4</v>
       </c>
       <c r="F54">
-        <v>0.001194927154681835</v>
+        <v>3.6960565224619657E-5</v>
       </c>
       <c r="G54">
-        <v>0.000613690983145801</v>
+        <v>1.898221621412545E-5</v>
       </c>
       <c r="H54">
-        <v>0.2862806227661766</v>
+        <v>5.0348964150044452E-2</v>
       </c>
       <c r="I54">
-        <v>0.2862806227661766</v>
+        <v>5.0348964150044438E-2</v>
       </c>
       <c r="J54">
-        <v>0.2862806227661766</v>
+        <v>5.0348964150044452E-2</v>
       </c>
       <c r="K54">
-        <v>0.9995922576859119</v>
+        <v>1.00032898982704</v>
       </c>
       <c r="L54">
-        <v>-0.1640881020692024</v>
+        <v>-6.2506560753984461E-2</v>
       </c>
       <c r="M54">
-        <v>0.9993731243086253</v>
+        <v>1.0002904537330071</v>
       </c>
       <c r="N54">
-        <v>-0.1705316533869004</v>
+        <v>-6.3639259561338216E-2</v>
       </c>
       <c r="O54">
-        <v>38.17074970215688</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>50.348964150044438</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.451599609530732</v>
+        <v>0.70965153621921673</v>
       </c>
       <c r="C55">
-        <v>0.002445975284573661</v>
+        <v>3.015906505178449E-4</v>
       </c>
       <c r="D55">
-        <v>-4.45066984135064</v>
+        <v>-0.70962795122287425</v>
       </c>
       <c r="E55">
-        <v>-0.001968464713069704</v>
+        <v>-2.8947786227290879E-4</v>
       </c>
       <c r="F55">
-        <v>0.0009297681800921609</v>
+        <v>2.3584996342473911E-5</v>
       </c>
       <c r="G55">
-        <v>0.0004775105715039574</v>
+        <v>1.211278824493611E-5</v>
       </c>
       <c r="H55">
-        <v>0.2337949804678676</v>
+        <v>3.7236233912024942E-2</v>
       </c>
       <c r="I55">
-        <v>0.2337949804678677</v>
+        <v>3.7236233912024963E-2</v>
       </c>
       <c r="J55">
-        <v>0.2337949804678677</v>
+        <v>3.7236233912024963E-2</v>
       </c>
       <c r="K55">
-        <v>0.9993731243086253</v>
+        <v>1.0002904537330071</v>
       </c>
       <c r="L55">
-        <v>-0.1705316533869004</v>
+        <v>-6.3639259561338216E-2</v>
       </c>
       <c r="M55">
-        <v>0.9991643405465587</v>
+        <v>1.0002572023592999</v>
       </c>
       <c r="N55">
-        <v>-0.176672316239093</v>
+        <v>-6.4616443779067584E-2</v>
       </c>
       <c r="O55">
-        <v>31.17266406238236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>37.23623391202495</v>
+      </c>
+      <c r="P55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.727879265051148</v>
+        <v>0.42521386987739529</v>
       </c>
       <c r="C56">
-        <v>0.0002681848411193403</v>
+        <v>1.7016202745597239E-5</v>
       </c>
       <c r="D56">
-        <v>-2.72752998471994</v>
+        <v>-0.42520540171536619</v>
       </c>
       <c r="E56">
-        <v>-8.880136237573479e-05</v>
+        <v>-1.266712199978794E-5</v>
       </c>
       <c r="F56">
-        <v>0.0003492803312079573</v>
+        <v>8.4681620290960602E-6</v>
       </c>
       <c r="G56">
-        <v>0.0001793834787436055</v>
+        <v>4.3490807458092988E-6</v>
       </c>
       <c r="H56">
-        <v>0.1432962773984211</v>
+        <v>2.2312201470363491E-2</v>
       </c>
       <c r="I56">
-        <v>0.143296277398421</v>
+        <v>2.2312201470363481E-2</v>
       </c>
       <c r="J56">
-        <v>0.1432962773984211</v>
+        <v>2.2312201470363491E-2</v>
       </c>
       <c r="K56">
-        <v>0.9991643405465587</v>
+        <v>1.0002572023592999</v>
       </c>
       <c r="L56">
-        <v>-0.176672316239093</v>
+        <v>-6.4616443779067584E-2</v>
       </c>
       <c r="M56">
-        <v>0.9990364022678481</v>
+        <v>1.0002372818146299</v>
       </c>
       <c r="N56">
-        <v>-0.1804398087310382</v>
+        <v>-6.5202430113815671E-2</v>
       </c>
       <c r="O56">
-        <v>19.10617031978948</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>44.624402940726966</v>
+      </c>
+      <c r="P56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.916382532102485</v>
+        <v>0.27763296879735028</v>
       </c>
       <c r="C57">
-        <v>9.384035645595198e-05</v>
+        <v>9.2658099754490712E-6</v>
       </c>
       <c r="D57">
-        <v>-1.916210107405806</v>
+        <v>-0.27762935857718718</v>
       </c>
       <c r="E57">
-        <v>-5.286438161616544e-06</v>
+        <v>-7.4116722127154236E-6</v>
       </c>
       <c r="F57">
-        <v>0.0001724246966785525</v>
+        <v>3.610220163041689E-6</v>
       </c>
       <c r="G57">
-        <v>8.855391829433543e-05</v>
+        <v>1.854137762733648E-6</v>
       </c>
       <c r="H57">
-        <v>0.100681013460438</v>
+        <v>1.4568494921119149E-2</v>
       </c>
       <c r="I57">
-        <v>0.100681013460438</v>
+        <v>1.4568494921119141E-2</v>
       </c>
       <c r="J57">
-        <v>0.100681013460438</v>
+        <v>1.4568494921119149E-2</v>
       </c>
       <c r="K57">
-        <v>0.9990364022678481</v>
+        <v>1.0002372818146299</v>
       </c>
       <c r="L57">
-        <v>-0.1804398087310382</v>
+        <v>-6.5202430113815671E-2</v>
       </c>
       <c r="M57">
-        <v>0.9989465137233629</v>
+        <v>1.000224274956989</v>
       </c>
       <c r="N57">
-        <v>-0.1830873691390342</v>
+        <v>-6.5585053066226334E-2</v>
       </c>
       <c r="O57">
-        <v>13.4241351280584</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>29.1369898422383</v>
+      </c>
+      <c r="P57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.8671100141679285</v>
+        <v>0.12866371746326499</v>
       </c>
       <c r="C58">
-        <v>1.039878634660155e-05</v>
+        <v>3.9001211561618039E-6</v>
       </c>
       <c r="D58">
-        <v>-0.867079750969066</v>
+        <v>-0.12866305285106541</v>
       </c>
       <c r="E58">
-        <v>5.143794797590577e-06</v>
+        <v>-3.5587894585595819E-6</v>
       </c>
       <c r="F58">
-        <v>3.02631988625679e-05</v>
+        <v>6.6461219966340579E-7</v>
       </c>
       <c r="G58">
-        <v>1.554258114419213e-05</v>
+        <v>3.4133169760222149E-7</v>
       </c>
       <c r="H58">
-        <v>0.04555946901473004</v>
+        <v>6.751579603091448E-3</v>
       </c>
       <c r="I58">
-        <v>0.04555946901473004</v>
+        <v>6.7515796030914463E-3</v>
       </c>
       <c r="J58">
-        <v>0.04555946901473004</v>
+        <v>6.751579603091448E-3</v>
       </c>
       <c r="K58">
-        <v>0.9989465137233629</v>
+        <v>1.000224274956989</v>
       </c>
       <c r="L58">
-        <v>-0.1830873691390342</v>
+        <v>-6.5585053066226334E-2</v>
       </c>
       <c r="M58">
-        <v>0.9989116492153438</v>
+        <v>1.0002191082233971</v>
       </c>
       <c r="N58">
-        <v>-0.184114383674776</v>
+        <v>-6.5737044729350658E-2</v>
       </c>
       <c r="O58">
-        <v>6.074595868630672</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>13.5031592061829</v>
+      </c>
+      <c r="P58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.723574320225229</v>
+        <v>0.28453097347449341</v>
       </c>
       <c r="C59">
-        <v>0.0009306544093715102</v>
+        <v>1.4581340041987169E-4</v>
       </c>
       <c r="D59">
-        <v>-1.723454801155743</v>
+        <v>-0.28452772344922123</v>
       </c>
       <c r="E59">
-        <v>-0.0008692717761536895</v>
+        <v>-1.4414425163808959E-4</v>
       </c>
       <c r="F59">
-        <v>0.0001195190694864845</v>
+        <v>3.2500252722389429E-6</v>
       </c>
       <c r="G59">
-        <v>6.138263321782064e-05</v>
+        <v>1.6691487817821829E-6</v>
       </c>
       <c r="H59">
-        <v>0.09053986438569753</v>
+        <v>1.493016498993107E-2</v>
       </c>
       <c r="I59">
-        <v>0.09053986438569753</v>
+        <v>1.493016498993107E-2</v>
       </c>
       <c r="J59">
-        <v>0.09053986438569753</v>
+        <v>1.493016498993107E-2</v>
       </c>
       <c r="K59">
-        <v>0.9991643405465587</v>
+        <v>1.0002572023592999</v>
       </c>
       <c r="L59">
-        <v>-0.176672316239093</v>
+        <v>-6.4616443779067584E-2</v>
       </c>
       <c r="M59">
-        <v>0.9990950362047891</v>
+        <v>1.000245774039167</v>
       </c>
       <c r="N59">
-        <v>-0.1787108189444347</v>
+        <v>-6.4952227323448949E-2</v>
       </c>
       <c r="O59">
-        <v>12.071981918093</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>29.86032997986214</v>
+      </c>
+      <c r="P59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.8522868255295376</v>
+        <v>0.16845016833479501</v>
       </c>
       <c r="C60">
-        <v>0.0008742950416315209</v>
+        <v>1.407665594094953E-4</v>
       </c>
       <c r="D60">
-        <v>-0.8522575968427161</v>
+        <v>-0.1684490291854876</v>
       </c>
       <c r="E60">
-        <v>-0.0008592837654367901</v>
+        <v>-1.4018151482689649E-4</v>
       </c>
       <c r="F60">
-        <v>2.922868682153634e-05</v>
+        <v>1.1391493074663921E-6</v>
       </c>
       <c r="G60">
-        <v>1.501127619473082e-05</v>
+        <v>5.8504458259878416E-7</v>
       </c>
       <c r="H60">
-        <v>0.04477399948947768</v>
+        <v>8.8391715602591393E-3</v>
       </c>
       <c r="I60">
-        <v>0.04477399948947768</v>
+        <v>8.8391715602591375E-3</v>
       </c>
       <c r="J60">
-        <v>0.04477399948947768</v>
+        <v>8.8391715602591393E-3</v>
       </c>
       <c r="K60">
-        <v>0.9990950362047891</v>
+        <v>1.000245774039167</v>
       </c>
       <c r="L60">
-        <v>-0.1787108189444347</v>
+        <v>-6.4952227323448949E-2</v>
       </c>
       <c r="M60">
-        <v>0.9990607549537909</v>
+        <v>1.000239006954873</v>
       </c>
       <c r="N60">
-        <v>-0.1797179838690521</v>
+        <v>-6.5150898816330419E-2</v>
       </c>
       <c r="O60">
-        <v>5.969866598597024</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>17.678343120518281</v>
+      </c>
+      <c r="P60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.0008790465828326309</v>
+        <v>-1.2611757482780699E-4</v>
       </c>
       <c r="C61">
-        <v>0.0008643699041928414</v>
+        <v>1.367093442246822E-4</v>
       </c>
       <c r="D61">
-        <v>0.0008790466439930115</v>
+        <v>1.2611757621666469E-4</v>
       </c>
       <c r="E61">
-        <v>-0.0008643698727820781</v>
+        <v>-1.3670934351139231E-4</v>
       </c>
       <c r="F61">
-        <v>6.116038057946138e-11</v>
+        <v>1.3888576974683399E-12</v>
       </c>
       <c r="G61">
-        <v>3.141076331328319e-11</v>
+        <v>7.1328991432979827E-13</v>
       </c>
       <c r="H61">
-        <v>6.476737972818162e-05</v>
+        <v>9.7600067279338056E-6</v>
       </c>
       <c r="I61">
-        <v>6.476737972818162e-05</v>
+        <v>9.7600067279338056E-6</v>
       </c>
       <c r="J61">
-        <v>6.476737972818162e-05</v>
+        <v>9.7600067279338056E-6</v>
       </c>
       <c r="K61">
-        <v>0.9990607549537909</v>
+        <v>1.000239006954873</v>
       </c>
       <c r="L61">
-        <v>-0.1797179838690521</v>
+        <v>-6.5150898816330419E-2</v>
       </c>
       <c r="M61">
-        <v>0.9990607724470749</v>
+        <v>1.000239009199831</v>
       </c>
       <c r="N61">
-        <v>-0.1797149500491613</v>
+        <v>-6.5150435369725243E-2</v>
       </c>
       <c r="O61">
-        <v>0.008635650630424216</v>
+        <v>1.952001345586761E-2</v>
+      </c>
+      <c r="P61" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
